--- a/fuentes/contenidos/grado08/guion01/Escaleta_LE_08_01_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion01/Escaleta_LE_08_01_CO.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\psf\Home\Documents\Aula Planeta Colombia\Repositorios\Lenguaje\fuentes\contenidos\grado08\guion01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis\Documents\GitHub\Lenguaje\fuentes\contenidos\grado08\guion01\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15267" windowHeight="4637"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15270" windowHeight="4635"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$U$2</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="295">
   <si>
     <t>Asignatura</t>
   </si>
@@ -307,9 +307,6 @@
   </si>
   <si>
     <t>Las culturas doradas de Colombia precolombina</t>
-  </si>
-  <si>
-    <t>Profundización sobre grupos indígenas de Colombia precolombina</t>
   </si>
   <si>
     <t xml:space="preserve">Conoce el mito de Chiminigagua </t>
@@ -665,31 +662,6 @@
     <t>El titulo del recurso y la descripción varia de acuerdo al texto. DBA: Determina el significado de palabras y oraciones que
 se usan en diversos textos, incluyendo regionalismos,
 expresiones idiomáticas, analogías y figuras retóricas.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Breve reseña de las culturas Precolombinas en Colombia con preguntas de reflexión. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Recurso elaborado por el autor.  Aprobado para digitalizar.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
   </si>
   <si>
     <r>
@@ -972,6 +944,36 @@
       </rPr>
       <t xml:space="preserve"> Recurso elaborado por el autor.  Aprobado para digitalizar.</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Breve reseña de las culturas Precolombinas en Colombia con preguntas de reflexión. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Recurso elaborado por el autor.  Aprobado para digitalizar. </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Banco de actividades </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actividades para repasar los contenidos del tema la literatura de la Conquista y la Colonia </t>
+  </si>
+  <si>
+    <t>Recurso M101AP-01</t>
+  </si>
+  <si>
+    <t>Debe incluirse 10 preguntas abiertas:3 sobre literatura Precolombina; 2 sobre oraciones reflexivas y reciprocas, 3 sobre palabras con hiato, diptongo y triptongo, 2 sobre el anuncio publicitario.Debe marcarse en el greco Gestor de actividades como actividad didáctica</t>
+  </si>
+  <si>
+    <t>Intercativo para identificar sobre grupos indígenas de Colombia precolombina</t>
   </si>
 </sst>
 </file>
@@ -1102,7 +1104,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1203,6 +1205,18 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1493,143 +1507,143 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U551"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O14" sqref="O14"/>
+      <selection pane="bottomLeft" activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.35" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.73046875" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.1328125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.86328125" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="50.59765625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="41.59765625" style="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.265625" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="63.3984375" style="9" customWidth="1"/>
-    <col min="8" max="9" width="11.3984375" style="7"/>
-    <col min="10" max="10" width="47.265625" style="31" customWidth="1"/>
-    <col min="11" max="11" width="17.73046875" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.73046875" style="8" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50.5703125" style="10" customWidth="1"/>
+    <col min="5" max="5" width="41.5703125" style="31" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="63.42578125" style="9" customWidth="1"/>
+    <col min="8" max="9" width="11.42578125" style="7"/>
+    <col min="10" max="10" width="47.28515625" style="31" customWidth="1"/>
+    <col min="11" max="11" width="17.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.7109375" style="8" customWidth="1"/>
     <col min="13" max="13" width="14" style="6" customWidth="1"/>
-    <col min="14" max="14" width="15.1328125" style="7" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" style="7" customWidth="1"/>
     <col min="15" max="15" width="60" style="31" customWidth="1"/>
-    <col min="16" max="16" width="21.1328125" style="7" customWidth="1"/>
-    <col min="17" max="17" width="12.73046875" style="31" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.265625" style="31" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.1328125" style="31" customWidth="1"/>
-    <col min="20" max="20" width="42.86328125" style="31" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.86328125" style="31" customWidth="1"/>
-    <col min="22" max="16384" width="11.3984375" style="31"/>
+    <col min="16" max="16" width="21.140625" style="7" customWidth="1"/>
+    <col min="17" max="17" width="12.7109375" style="31" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.140625" style="31" customWidth="1"/>
+    <col min="20" max="20" width="42.85546875" style="31" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.42578125" style="31" customWidth="1"/>
+    <col min="22" max="16384" width="11.42578125" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="H1" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="I1" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="41" t="s">
+      <c r="J1" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="41" t="s">
+      <c r="K1" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="41" t="s">
+      <c r="L1" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="41" t="s">
+      <c r="M1" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41" t="s">
+      <c r="N1" s="45"/>
+      <c r="O1" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="41" t="s">
+      <c r="P1" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="41" t="s">
+      <c r="Q1" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="41" t="s">
+      <c r="R1" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="41" t="s">
+      <c r="S1" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="41" t="s">
+      <c r="T1" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="41" t="s">
+      <c r="U1" s="45" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="32" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
+    <row r="2" spans="1:21" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="45"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
       <c r="M2" s="20" t="s">
         <v>86</v>
       </c>
       <c r="N2" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="41"/>
-      <c r="U2" s="41"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="45"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>68</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E3" s="14"/>
       <c r="F3" s="12"/>
       <c r="G3" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H3" s="6">
         <v>1</v>
@@ -1638,7 +1652,7 @@
         <v>20</v>
       </c>
       <c r="J3" s="33" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K3" s="6" t="s">
         <v>69</v>
@@ -1651,7 +1665,7 @@
       </c>
       <c r="N3" s="6"/>
       <c r="O3" s="33" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P3" s="6" t="s">
         <v>19</v>
@@ -1660,35 +1674,35 @@
         <v>6</v>
       </c>
       <c r="R3" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="T3" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="S3" s="6" t="s">
+      <c r="U3" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="T3" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="U3" s="6" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
+    </row>
+    <row r="4" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>68</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="12"/>
       <c r="G4" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H4" s="6">
         <v>2</v>
@@ -1697,7 +1711,7 @@
         <v>20</v>
       </c>
       <c r="J4" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K4" s="6" t="s">
         <v>69</v>
@@ -1710,7 +1724,7 @@
       </c>
       <c r="N4" s="6"/>
       <c r="O4" s="33" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P4" s="6" t="s">
         <v>19</v>
@@ -1719,35 +1733,35 @@
         <v>6</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="S4" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="U4" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="T4" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="U4" s="6" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>68</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="12"/>
       <c r="G5" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H5" s="6">
         <v>3</v>
@@ -1756,7 +1770,7 @@
         <v>20</v>
       </c>
       <c r="J5" s="33" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K5" s="6" t="s">
         <v>69</v>
@@ -1769,7 +1783,7 @@
       </c>
       <c r="N5" s="6"/>
       <c r="O5" s="33" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P5" s="6" t="s">
         <v>19</v>
@@ -1778,35 +1792,35 @@
         <v>6</v>
       </c>
       <c r="R5" s="6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="S5" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="T5" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="U5" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="T5" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="U5" s="6" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.45">
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>68</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="12"/>
       <c r="G6" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H6" s="6">
         <v>4</v>
@@ -1815,7 +1829,7 @@
         <v>20</v>
       </c>
       <c r="J6" s="33" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K6" s="6" t="s">
         <v>69</v>
@@ -1828,7 +1842,7 @@
       </c>
       <c r="N6" s="6"/>
       <c r="O6" s="33" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P6" s="6" t="s">
         <v>19</v>
@@ -1837,35 +1851,35 @@
         <v>6</v>
       </c>
       <c r="R6" s="6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="S6" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="T6" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="U6" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="T6" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="U6" s="6" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>68</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="12"/>
       <c r="G7" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H7" s="6">
         <v>5</v>
@@ -1874,7 +1888,7 @@
         <v>20</v>
       </c>
       <c r="J7" s="33" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K7" s="6" t="s">
         <v>69</v>
@@ -1887,7 +1901,7 @@
       </c>
       <c r="N7" s="6"/>
       <c r="O7" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P7" s="6" t="s">
         <v>19</v>
@@ -1896,35 +1910,35 @@
         <v>6</v>
       </c>
       <c r="R7" s="6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="S7" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="T7" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="U7" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="T7" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="U7" s="6" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>68</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="12"/>
       <c r="G8" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H8" s="6">
         <v>6</v>
@@ -1933,7 +1947,7 @@
         <v>20</v>
       </c>
       <c r="J8" s="33" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K8" s="6" t="s">
         <v>69</v>
@@ -1946,7 +1960,7 @@
       </c>
       <c r="N8" s="6"/>
       <c r="O8" s="33" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P8" s="6" t="s">
         <v>19</v>
@@ -1955,33 +1969,33 @@
         <v>6</v>
       </c>
       <c r="R8" s="6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="S8" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="T8" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="U8" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="T8" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="U8" s="6" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.45">
+    </row>
+    <row r="9" spans="1:21" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>68</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="11" t="s">
@@ -1993,8 +2007,8 @@
       <c r="I9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="36" t="s">
-        <v>93</v>
+      <c r="J9" s="41" t="s">
+        <v>294</v>
       </c>
       <c r="K9" s="6" t="s">
         <v>69</v>
@@ -2005,8 +2019,8 @@
       <c r="N9" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="O9" s="33" t="s">
-        <v>206</v>
+      <c r="O9" s="41" t="s">
+        <v>289</v>
       </c>
       <c r="P9" s="6" t="s">
         <v>19</v>
@@ -2015,39 +2029,39 @@
         <v>6</v>
       </c>
       <c r="R9" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="S9" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="T9" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="S9" s="6" t="s">
+      <c r="U9" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="T9" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="U9" s="6" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
+    </row>
+    <row r="10" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>68</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E10" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="F10" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="F10" s="11" t="s">
-        <v>188</v>
-      </c>
       <c r="G10" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H10" s="6">
         <v>8</v>
@@ -2056,7 +2070,7 @@
         <v>20</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K10" s="6" t="s">
         <v>69</v>
@@ -2068,8 +2082,8 @@
         <v>77</v>
       </c>
       <c r="N10" s="6"/>
-      <c r="O10" s="33" t="s">
-        <v>207</v>
+      <c r="O10" s="42" t="s">
+        <v>205</v>
       </c>
       <c r="P10" s="6" t="s">
         <v>20</v>
@@ -2078,39 +2092,39 @@
         <v>6</v>
       </c>
       <c r="R10" s="6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="S10" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="T10" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="U10" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="T10" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="U10" s="6" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
+    </row>
+    <row r="11" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>68</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E11" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="F11" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="F11" s="11" t="s">
-        <v>188</v>
-      </c>
       <c r="G11" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H11" s="6">
         <v>9</v>
@@ -2119,7 +2133,7 @@
         <v>19</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K11" s="6" t="s">
         <v>69</v>
@@ -2130,8 +2144,8 @@
       <c r="N11" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="O11" s="33" t="s">
-        <v>162</v>
+      <c r="O11" s="42" t="s">
+        <v>161</v>
       </c>
       <c r="P11" s="6" t="s">
         <v>19</v>
@@ -2140,39 +2154,39 @@
         <v>6</v>
       </c>
       <c r="R11" s="6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="S11" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="T11" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="U11" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="T11" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="U11" s="6" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.45">
+    </row>
+    <row r="12" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>68</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E12" s="35" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H12" s="6">
         <v>10</v>
@@ -2181,7 +2195,7 @@
         <v>20</v>
       </c>
       <c r="J12" s="36" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K12" s="6" t="s">
         <v>69</v>
@@ -2193,8 +2207,8 @@
         <v>24</v>
       </c>
       <c r="N12" s="6"/>
-      <c r="O12" s="33" t="s">
-        <v>164</v>
+      <c r="O12" s="42" t="s">
+        <v>163</v>
       </c>
       <c r="P12" s="6" t="s">
         <v>19</v>
@@ -2203,39 +2217,39 @@
         <v>6</v>
       </c>
       <c r="R12" s="6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="S12" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="T12" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="U12" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="T12" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="U12" s="6" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.45">
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>68</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E13" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="F13" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="F13" s="11" t="s">
-        <v>191</v>
-      </c>
       <c r="G13" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H13" s="6">
         <v>11</v>
@@ -2244,7 +2258,7 @@
         <v>20</v>
       </c>
       <c r="J13" s="36" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K13" s="6" t="s">
         <v>69</v>
@@ -2257,7 +2271,7 @@
       </c>
       <c r="N13" s="6"/>
       <c r="O13" s="37" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="P13" s="6" t="s">
         <v>19</v>
@@ -2266,39 +2280,39 @@
         <v>6</v>
       </c>
       <c r="R13" s="6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="S13" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="T13" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="U13" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="T13" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="U13" s="6" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.45">
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>68</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E14" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="F14" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="F14" s="11" t="s">
-        <v>191</v>
-      </c>
       <c r="G14" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H14" s="6">
         <v>12</v>
@@ -2307,7 +2321,7 @@
         <v>19</v>
       </c>
       <c r="J14" s="36" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K14" s="6" t="s">
         <v>69</v>
@@ -2319,7 +2333,7 @@
         <v>41</v>
       </c>
       <c r="O14" s="37" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P14" s="6" t="s">
         <v>20</v>
@@ -2328,37 +2342,37 @@
         <v>6</v>
       </c>
       <c r="R14" s="6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="S14" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="T14" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="U14" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="T14" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="U14" s="6" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.45">
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>68</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F15" s="11"/>
       <c r="G15" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H15" s="6">
         <v>13</v>
@@ -2367,7 +2381,7 @@
         <v>20</v>
       </c>
       <c r="J15" s="33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K15" s="6" t="s">
         <v>69</v>
@@ -2380,7 +2394,7 @@
       </c>
       <c r="N15" s="6"/>
       <c r="O15" s="37" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P15" s="6" t="s">
         <v>19</v>
@@ -2389,37 +2403,37 @@
         <v>6</v>
       </c>
       <c r="R15" s="6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="S15" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="T15" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="U15" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="T15" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="U15" s="6" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.45">
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>68</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F16" s="11"/>
       <c r="G16" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H16" s="6">
         <v>14</v>
@@ -2428,7 +2442,7 @@
         <v>20</v>
       </c>
       <c r="J16" s="33" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K16" s="6" t="s">
         <v>69</v>
@@ -2441,7 +2455,7 @@
       </c>
       <c r="N16" s="6"/>
       <c r="O16" s="38" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P16" s="6" t="s">
         <v>19</v>
@@ -2450,37 +2464,37 @@
         <v>6</v>
       </c>
       <c r="R16" s="6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="S16" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="T16" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="U16" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="T16" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="U16" s="6" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.45">
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>68</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H17" s="6">
         <v>15</v>
@@ -2489,7 +2503,7 @@
         <v>19</v>
       </c>
       <c r="J17" s="33" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K17" s="6" t="s">
         <v>69</v>
@@ -2501,7 +2515,7 @@
         <v>37</v>
       </c>
       <c r="O17" s="38" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="P17" s="6" t="s">
         <v>19</v>
@@ -2510,35 +2524,35 @@
         <v>6</v>
       </c>
       <c r="R17" s="25" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="S17" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="T17" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="U17" s="25" t="s">
         <v>220</v>
       </c>
-      <c r="T17" s="26" t="s">
-        <v>237</v>
-      </c>
-      <c r="U17" s="25" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.45">
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>68</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E18" s="33"/>
       <c r="F18" s="12"/>
       <c r="G18" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H18" s="6">
         <v>16</v>
@@ -2547,7 +2561,7 @@
         <v>19</v>
       </c>
       <c r="J18" s="39" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K18" s="6" t="s">
         <v>69</v>
@@ -2559,7 +2573,7 @@
         <v>45</v>
       </c>
       <c r="O18" s="33" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P18" s="6" t="s">
         <v>19</v>
@@ -2568,37 +2582,37 @@
         <v>6</v>
       </c>
       <c r="R18" s="25" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="S18" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="T18" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="U18" s="25" t="s">
         <v>229</v>
       </c>
-      <c r="T18" s="26" t="s">
-        <v>238</v>
-      </c>
-      <c r="U18" s="25" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.45">
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>68</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E19" s="33" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F19" s="12"/>
       <c r="G19" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H19" s="6">
         <v>17</v>
@@ -2607,7 +2621,7 @@
         <v>20</v>
       </c>
       <c r="J19" s="35" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K19" s="6" t="s">
         <v>69</v>
@@ -2620,7 +2634,7 @@
       </c>
       <c r="N19" s="6"/>
       <c r="O19" s="33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P19" s="6" t="s">
         <v>19</v>
@@ -2629,37 +2643,37 @@
         <v>6</v>
       </c>
       <c r="R19" s="25" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="S19" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="T19" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="U19" s="25" t="s">
         <v>220</v>
       </c>
-      <c r="T19" s="26" t="s">
-        <v>239</v>
-      </c>
-      <c r="U19" s="25" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.45">
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>68</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F20" s="12"/>
       <c r="G20" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H20" s="6">
         <v>18</v>
@@ -2668,7 +2682,7 @@
         <v>20</v>
       </c>
       <c r="J20" s="35" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K20" s="6" t="s">
         <v>69</v>
@@ -2681,7 +2695,7 @@
       </c>
       <c r="N20" s="6"/>
       <c r="O20" s="33" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="P20" s="6" t="s">
         <v>19</v>
@@ -2690,37 +2704,37 @@
         <v>6</v>
       </c>
       <c r="R20" s="25" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="S20" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="T20" s="26" t="s">
+        <v>238</v>
+      </c>
+      <c r="U20" s="25" t="s">
         <v>220</v>
       </c>
-      <c r="T20" s="26" t="s">
-        <v>240</v>
-      </c>
-      <c r="U20" s="25" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.45">
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>68</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E21" s="33" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F21" s="12"/>
       <c r="G21" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H21" s="6">
         <v>19</v>
@@ -2729,7 +2743,7 @@
         <v>20</v>
       </c>
       <c r="J21" s="35" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K21" s="6" t="s">
         <v>69</v>
@@ -2742,7 +2756,7 @@
       </c>
       <c r="N21" s="6"/>
       <c r="O21" s="33" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="P21" s="6" t="s">
         <v>19</v>
@@ -2751,37 +2765,37 @@
         <v>6</v>
       </c>
       <c r="R21" s="25" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="S21" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="T21" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="U21" s="25" t="s">
         <v>220</v>
       </c>
-      <c r="T21" s="26" t="s">
-        <v>241</v>
-      </c>
-      <c r="U21" s="25" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.45">
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>68</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H22" s="6">
         <v>20</v>
@@ -2790,7 +2804,7 @@
         <v>20</v>
       </c>
       <c r="J22" s="35" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K22" s="6" t="s">
         <v>69</v>
@@ -2803,7 +2817,7 @@
       </c>
       <c r="N22" s="6"/>
       <c r="O22" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P22" s="6" t="s">
         <v>19</v>
@@ -2812,35 +2826,35 @@
         <v>6</v>
       </c>
       <c r="R22" s="25" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="S22" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="T22" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="U22" s="25" t="s">
         <v>220</v>
       </c>
-      <c r="T22" s="26" t="s">
-        <v>256</v>
-      </c>
-      <c r="U22" s="25" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.45">
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>68</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C23" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E23" s="15"/>
       <c r="F23" s="12"/>
       <c r="G23" s="15" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H23" s="6">
         <v>21</v>
@@ -2849,7 +2863,7 @@
         <v>19</v>
       </c>
       <c r="J23" s="15" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K23" s="6" t="s">
         <v>70</v>
@@ -2859,44 +2873,44 @@
       </c>
       <c r="N23" s="6"/>
       <c r="O23" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P23" s="6" t="s">
         <v>19</v>
       </c>
       <c r="Q23" s="6" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="R23" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="S23" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="T23" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="U23" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="S23" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="T23" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="U23" s="6" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.45">
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>68</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C24" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E24" s="15"/>
       <c r="F24" s="12"/>
       <c r="G24" s="15" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H24" s="6">
         <v>22</v>
@@ -2905,7 +2919,7 @@
         <v>19</v>
       </c>
       <c r="J24" s="15" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K24" s="6" t="s">
         <v>70</v>
@@ -2915,46 +2929,46 @@
       </c>
       <c r="N24" s="6"/>
       <c r="O24" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P24" s="6" t="s">
         <v>20</v>
       </c>
       <c r="Q24" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="R24" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="S24" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="T24" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="R24" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="S24" s="6" t="s">
+      <c r="U24" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="T24" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="U24" s="6" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.45">
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>68</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C25" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F25" s="12"/>
       <c r="G25" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H25" s="6">
         <v>23</v>
@@ -2963,7 +2977,7 @@
         <v>20</v>
       </c>
       <c r="J25" s="15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K25" s="6" t="s">
         <v>69</v>
@@ -2976,7 +2990,7 @@
       </c>
       <c r="N25" s="6"/>
       <c r="O25" s="33" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P25" s="6" t="s">
         <v>19</v>
@@ -2985,37 +2999,37 @@
         <v>6</v>
       </c>
       <c r="R25" s="25" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="S25" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="T25" s="26" t="s">
+        <v>240</v>
+      </c>
+      <c r="U25" s="25" t="s">
         <v>220</v>
       </c>
-      <c r="T25" s="26" t="s">
-        <v>242</v>
-      </c>
-      <c r="U25" s="25" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.45">
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>68</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F26" s="12"/>
       <c r="G26" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H26" s="6">
         <v>24</v>
@@ -3024,7 +3038,7 @@
         <v>20</v>
       </c>
       <c r="J26" s="15" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K26" s="6" t="s">
         <v>70</v>
@@ -3034,46 +3048,46 @@
       </c>
       <c r="N26" s="6"/>
       <c r="O26" s="33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P26" s="6" t="s">
         <v>20</v>
       </c>
       <c r="Q26" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="R26" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="S26" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="T26" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="U26" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="S26" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="T26" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="U26" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.45">
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>68</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E27" s="33" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F27" s="12"/>
       <c r="G27" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H27" s="6">
         <v>25</v>
@@ -3082,7 +3096,7 @@
         <v>20</v>
       </c>
       <c r="J27" s="15" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K27" s="6" t="s">
         <v>70</v>
@@ -3092,46 +3106,46 @@
       </c>
       <c r="N27" s="6"/>
       <c r="O27" s="33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P27" s="6" t="s">
         <v>19</v>
       </c>
       <c r="Q27" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="R27" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="S27" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="T27" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="R27" s="6" t="s">
+      <c r="U27" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="S27" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="T27" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="U27" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.45">
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>68</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E28" s="33" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F28" s="12"/>
       <c r="G28" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H28" s="6">
         <v>26</v>
@@ -3140,7 +3154,7 @@
         <v>20</v>
       </c>
       <c r="J28" s="15" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K28" s="6" t="s">
         <v>70</v>
@@ -3150,46 +3164,46 @@
       </c>
       <c r="N28" s="6"/>
       <c r="O28" s="33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P28" s="6" t="s">
         <v>19</v>
       </c>
       <c r="Q28" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="R28" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="S28" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="T28" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="U28" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="S28" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="T28" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="U28" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.45">
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>68</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C29" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F29" s="11"/>
       <c r="G29" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H29" s="6">
         <v>27</v>
@@ -3198,7 +3212,7 @@
         <v>20</v>
       </c>
       <c r="J29" s="15" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K29" s="6" t="s">
         <v>70</v>
@@ -3208,46 +3222,46 @@
       </c>
       <c r="N29" s="6"/>
       <c r="O29" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P29" s="6" t="s">
         <v>19</v>
       </c>
       <c r="Q29" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="R29" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="S29" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="T29" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="U29" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="S29" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="T29" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="U29" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.45">
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>68</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C30" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F30" s="11"/>
       <c r="G30" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H30" s="6">
         <v>28</v>
@@ -3256,7 +3270,7 @@
         <v>20</v>
       </c>
       <c r="J30" s="15" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K30" s="6" t="s">
         <v>70</v>
@@ -3266,46 +3280,46 @@
       </c>
       <c r="N30" s="6"/>
       <c r="O30" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P30" s="6" t="s">
         <v>20</v>
       </c>
       <c r="Q30" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="R30" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="S30" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="T30" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="U30" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="S30" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="T30" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="U30" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.45">
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>68</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C31" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F31" s="11"/>
       <c r="G31" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H31" s="6">
         <v>29</v>
@@ -3314,7 +3328,7 @@
         <v>20</v>
       </c>
       <c r="J31" s="15" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K31" s="6" t="s">
         <v>70</v>
@@ -3324,39 +3338,39 @@
       </c>
       <c r="N31" s="6"/>
       <c r="O31" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P31" s="6" t="s">
         <v>20</v>
       </c>
       <c r="Q31" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="R31" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="S31" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="T31" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="U31" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="U31" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.45">
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>68</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C32" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E32" s="14"/>
       <c r="F32" s="12"/>
@@ -3370,7 +3384,7 @@
         <v>19</v>
       </c>
       <c r="J32" s="33" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K32" s="6" t="s">
         <v>69</v>
@@ -3382,7 +3396,7 @@
         <v>36</v>
       </c>
       <c r="O32" s="33" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="P32" s="6" t="s">
         <v>19</v>
@@ -3391,37 +3405,37 @@
         <v>6</v>
       </c>
       <c r="R32" s="25" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="S32" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="T32" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="U32" s="25" t="s">
         <v>229</v>
       </c>
-      <c r="T32" s="26" t="s">
-        <v>243</v>
-      </c>
-      <c r="U32" s="25" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.45">
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>68</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C33" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E33" s="33" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F33" s="12"/>
       <c r="G33" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H33" s="6">
         <v>31</v>
@@ -3430,7 +3444,7 @@
         <v>19</v>
       </c>
       <c r="J33" s="33" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K33" s="6" t="s">
         <v>69</v>
@@ -3442,7 +3456,7 @@
         <v>35</v>
       </c>
       <c r="O33" s="33" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P33" s="6" t="s">
         <v>19</v>
@@ -3451,37 +3465,37 @@
         <v>6</v>
       </c>
       <c r="R33" s="25" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="S33" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="T33" s="26" t="s">
+        <v>242</v>
+      </c>
+      <c r="U33" s="25" t="s">
         <v>229</v>
       </c>
-      <c r="T33" s="26" t="s">
-        <v>244</v>
-      </c>
-      <c r="U33" s="25" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.45">
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>68</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C34" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E34" s="33" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F34" s="12"/>
       <c r="G34" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H34" s="6">
         <v>32</v>
@@ -3490,7 +3504,7 @@
         <v>20</v>
       </c>
       <c r="J34" s="33" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K34" s="6" t="s">
         <v>69</v>
@@ -3503,7 +3517,7 @@
       </c>
       <c r="N34" s="6"/>
       <c r="O34" s="33" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="P34" s="6" t="s">
         <v>19</v>
@@ -3512,37 +3526,37 @@
         <v>6</v>
       </c>
       <c r="R34" s="25" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="S34" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="T34" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="U34" s="25" t="s">
         <v>220</v>
       </c>
-      <c r="T34" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="U34" s="25" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.45">
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>68</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C35" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F35" s="13"/>
       <c r="G35" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H35" s="6">
         <v>33</v>
@@ -3551,7 +3565,7 @@
         <v>20</v>
       </c>
       <c r="J35" s="36" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K35" s="6" t="s">
         <v>69</v>
@@ -3563,7 +3577,7 @@
         <v>45</v>
       </c>
       <c r="O35" s="33" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="P35" s="6" t="s">
         <v>19</v>
@@ -3572,37 +3586,37 @@
         <v>6</v>
       </c>
       <c r="R35" s="25" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="S35" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="T35" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="U35" s="25" t="s">
         <v>229</v>
       </c>
-      <c r="T35" s="26" t="s">
-        <v>246</v>
-      </c>
-      <c r="U35" s="25" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.45">
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>68</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C36" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F36" s="13"/>
       <c r="G36" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H36" s="6">
         <v>34</v>
@@ -3611,7 +3625,7 @@
         <v>20</v>
       </c>
       <c r="J36" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K36" s="6" t="s">
         <v>69</v>
@@ -3624,7 +3638,7 @@
       </c>
       <c r="N36" s="6"/>
       <c r="O36" s="33" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="P36" s="6" t="s">
         <v>19</v>
@@ -3633,37 +3647,37 @@
         <v>6</v>
       </c>
       <c r="R36" s="25" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="S36" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="T36" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="U36" s="25" t="s">
         <v>220</v>
       </c>
-      <c r="T36" s="26" t="s">
-        <v>247</v>
-      </c>
-      <c r="U36" s="25" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.45">
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>68</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C37" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E37" s="18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F37" s="12"/>
       <c r="G37" s="19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H37" s="6">
         <v>35</v>
@@ -3672,7 +3686,7 @@
         <v>19</v>
       </c>
       <c r="J37" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K37" s="6" t="s">
         <v>69</v>
@@ -3684,7 +3698,7 @@
         <v>40</v>
       </c>
       <c r="O37" s="33" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="P37" s="6" t="s">
         <v>19</v>
@@ -3693,37 +3707,37 @@
         <v>6</v>
       </c>
       <c r="R37" s="25" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="S37" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="T37" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="U37" s="25" t="s">
         <v>229</v>
       </c>
-      <c r="T37" s="26" t="s">
-        <v>248</v>
-      </c>
-      <c r="U37" s="25" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.45">
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
         <v>68</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C38" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F38" s="12"/>
       <c r="G38" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H38" s="6">
         <v>36</v>
@@ -3732,7 +3746,7 @@
         <v>19</v>
       </c>
       <c r="J38" s="33" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K38" s="6" t="s">
         <v>69</v>
@@ -3744,7 +3758,7 @@
         <v>46</v>
       </c>
       <c r="O38" s="36" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="P38" s="6" t="s">
         <v>19</v>
@@ -3753,37 +3767,37 @@
         <v>6</v>
       </c>
       <c r="R38" s="25" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="S38" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="T38" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="U38" s="25" t="s">
         <v>229</v>
       </c>
-      <c r="T38" s="26" t="s">
-        <v>249</v>
-      </c>
-      <c r="U38" s="25" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.45">
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>68</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C39" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F39" s="12"/>
       <c r="G39" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H39" s="6">
         <v>37</v>
@@ -3792,7 +3806,7 @@
         <v>20</v>
       </c>
       <c r="J39" s="33" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K39" s="6" t="s">
         <v>69</v>
@@ -3805,7 +3819,7 @@
       </c>
       <c r="N39" s="6"/>
       <c r="O39" s="33" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="P39" s="6" t="s">
         <v>19</v>
@@ -3814,35 +3828,35 @@
         <v>6</v>
       </c>
       <c r="R39" s="25" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="S39" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="T39" s="26" t="s">
+        <v>248</v>
+      </c>
+      <c r="U39" s="25" t="s">
         <v>220</v>
       </c>
-      <c r="T39" s="26" t="s">
-        <v>250</v>
-      </c>
-      <c r="U39" s="25" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.45">
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>68</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C40" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E40" s="23"/>
       <c r="F40" s="24"/>
       <c r="G40" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H40" s="6">
         <v>38</v>
@@ -3851,7 +3865,7 @@
         <v>19</v>
       </c>
       <c r="J40" s="33" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K40" s="16" t="s">
         <v>69</v>
@@ -3864,7 +3878,7 @@
         <v>45</v>
       </c>
       <c r="O40" s="33" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="P40" s="16" t="s">
         <v>19</v>
@@ -3873,35 +3887,35 @@
         <v>6</v>
       </c>
       <c r="R40" s="25" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="S40" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="T40" s="26" t="s">
+        <v>249</v>
+      </c>
+      <c r="U40" s="25" t="s">
         <v>229</v>
       </c>
-      <c r="T40" s="26" t="s">
-        <v>251</v>
-      </c>
-      <c r="U40" s="25" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.45">
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
         <v>68</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C41" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E41" s="23"/>
       <c r="F41" s="24"/>
       <c r="G41" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H41" s="6">
         <v>39</v>
@@ -3910,7 +3924,7 @@
         <v>20</v>
       </c>
       <c r="J41" s="33" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K41" s="16" t="s">
         <v>69</v>
@@ -3923,7 +3937,7 @@
       </c>
       <c r="N41" s="20"/>
       <c r="O41" s="33" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="P41" s="16" t="s">
         <v>19</v>
@@ -3932,35 +3946,35 @@
         <v>6</v>
       </c>
       <c r="R41" s="25" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="S41" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="T41" s="26" t="s">
+        <v>250</v>
+      </c>
+      <c r="U41" s="25" t="s">
         <v>220</v>
       </c>
-      <c r="T41" s="26" t="s">
-        <v>252</v>
-      </c>
-      <c r="U41" s="25" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.45">
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
         <v>68</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C42" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E42" s="23"/>
       <c r="F42" s="24"/>
       <c r="G42" s="39" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H42" s="6">
         <v>40</v>
@@ -3969,7 +3983,7 @@
         <v>20</v>
       </c>
       <c r="J42" s="39" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K42" s="22" t="s">
         <v>69</v>
@@ -3982,7 +3996,7 @@
       </c>
       <c r="N42" s="21"/>
       <c r="O42" s="35" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P42" s="22" t="s">
         <v>19</v>
@@ -3991,35 +4005,35 @@
         <v>6</v>
       </c>
       <c r="R42" s="25" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="S42" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="T42" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="U42" s="25" t="s">
         <v>220</v>
       </c>
-      <c r="T42" s="26" t="s">
-        <v>257</v>
-      </c>
-      <c r="U42" s="25" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.45">
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
         <v>68</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C43" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E43" s="23"/>
       <c r="F43" s="24"/>
       <c r="G43" s="39" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H43" s="6">
         <v>41</v>
@@ -4028,7 +4042,7 @@
         <v>20</v>
       </c>
       <c r="J43" s="35" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K43" s="21" t="s">
         <v>69</v>
@@ -4041,7 +4055,7 @@
       </c>
       <c r="N43" s="21"/>
       <c r="O43" s="35" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="P43" s="22" t="s">
         <v>19</v>
@@ -4050,35 +4064,35 @@
         <v>6</v>
       </c>
       <c r="R43" s="25" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="S43" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="T43" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="U43" s="25" t="s">
         <v>220</v>
       </c>
-      <c r="T43" s="26" t="s">
-        <v>254</v>
-      </c>
-      <c r="U43" s="25" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.45">
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
         <v>68</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C44" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E44" s="33"/>
       <c r="F44" s="12"/>
       <c r="G44" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H44" s="6">
         <v>42</v>
@@ -4087,7 +4101,7 @@
         <v>20</v>
       </c>
       <c r="J44" s="33" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K44" s="6" t="s">
         <v>69</v>
@@ -4102,18 +4116,18 @@
       <c r="T44" s="6"/>
       <c r="U44" s="6"/>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
         <v>68</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C45" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E45" s="33"/>
       <c r="F45" s="12"/>
@@ -4127,7 +4141,7 @@
         <v>20</v>
       </c>
       <c r="J45" s="33" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K45" s="6" t="s">
         <v>69</v>
@@ -4147,34 +4161,76 @@
         <v>6</v>
       </c>
       <c r="R45" s="25" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="S45" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="T45" s="26" t="s">
+        <v>253</v>
+      </c>
+      <c r="U45" s="43" t="s">
         <v>220</v>
       </c>
-      <c r="T45" s="26" t="s">
-        <v>255</v>
-      </c>
-      <c r="U45" s="25" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21" s="40" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="27"/>
-      <c r="B46" s="28"/>
-      <c r="C46" s="28"/>
-      <c r="D46" s="29"/>
-      <c r="F46" s="27"/>
-      <c r="G46" s="27"/>
-      <c r="H46" s="28"/>
-      <c r="I46" s="28"/>
-      <c r="K46" s="28"/>
-      <c r="L46" s="28"/>
-      <c r="M46" s="28"/>
-      <c r="N46" s="28"/>
-      <c r="P46" s="28"/>
-    </row>
-    <row r="47" spans="1:21" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="46" spans="1:21" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="12">
+        <v>44</v>
+      </c>
+      <c r="I46" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J46" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="K46" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="L46" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="M46" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="N46" s="13"/>
+      <c r="O46" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="P46" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q46" s="12">
+        <v>6</v>
+      </c>
+      <c r="R46" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="S46" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="T46" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="U46" s="44" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="27"/>
       <c r="B47" s="28"/>
       <c r="C47" s="28"/>
@@ -4189,7 +4245,7 @@
       <c r="N47" s="28"/>
       <c r="P47" s="28"/>
     </row>
-    <row r="48" spans="1:21" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:21" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="27"/>
       <c r="B48" s="28"/>
       <c r="C48" s="28"/>
@@ -4204,7 +4260,7 @@
       <c r="N48" s="28"/>
       <c r="P48" s="28"/>
     </row>
-    <row r="49" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="27"/>
       <c r="B49" s="28"/>
       <c r="C49" s="28"/>
@@ -4219,7 +4275,7 @@
       <c r="N49" s="28"/>
       <c r="P49" s="28"/>
     </row>
-    <row r="50" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="27"/>
       <c r="B50" s="28"/>
       <c r="C50" s="28"/>
@@ -4234,7 +4290,7 @@
       <c r="N50" s="28"/>
       <c r="P50" s="28"/>
     </row>
-    <row r="51" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="27"/>
       <c r="B51" s="28"/>
       <c r="C51" s="28"/>
@@ -4249,7 +4305,7 @@
       <c r="N51" s="28"/>
       <c r="P51" s="28"/>
     </row>
-    <row r="52" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="27"/>
       <c r="B52" s="28"/>
       <c r="C52" s="28"/>
@@ -4264,7 +4320,7 @@
       <c r="N52" s="28"/>
       <c r="P52" s="28"/>
     </row>
-    <row r="53" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="27"/>
       <c r="B53" s="28"/>
       <c r="C53" s="28"/>
@@ -4279,7 +4335,7 @@
       <c r="N53" s="28"/>
       <c r="P53" s="28"/>
     </row>
-    <row r="54" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="27"/>
       <c r="B54" s="28"/>
       <c r="C54" s="28"/>
@@ -4294,7 +4350,7 @@
       <c r="N54" s="28"/>
       <c r="P54" s="28"/>
     </row>
-    <row r="55" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="27"/>
       <c r="B55" s="28"/>
       <c r="C55" s="28"/>
@@ -4309,7 +4365,7 @@
       <c r="N55" s="28"/>
       <c r="P55" s="28"/>
     </row>
-    <row r="56" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="27"/>
       <c r="B56" s="28"/>
       <c r="C56" s="28"/>
@@ -4324,7 +4380,7 @@
       <c r="N56" s="28"/>
       <c r="P56" s="28"/>
     </row>
-    <row r="57" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="27"/>
       <c r="B57" s="28"/>
       <c r="C57" s="28"/>
@@ -4339,7 +4395,7 @@
       <c r="N57" s="28"/>
       <c r="P57" s="28"/>
     </row>
-    <row r="58" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="27"/>
       <c r="B58" s="28"/>
       <c r="C58" s="28"/>
@@ -4354,7 +4410,7 @@
       <c r="N58" s="28"/>
       <c r="P58" s="28"/>
     </row>
-    <row r="59" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="27"/>
       <c r="B59" s="28"/>
       <c r="C59" s="28"/>
@@ -4369,7 +4425,7 @@
       <c r="N59" s="28"/>
       <c r="P59" s="28"/>
     </row>
-    <row r="60" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="27"/>
       <c r="B60" s="28"/>
       <c r="C60" s="28"/>
@@ -4384,7 +4440,7 @@
       <c r="N60" s="28"/>
       <c r="P60" s="28"/>
     </row>
-    <row r="61" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="27"/>
       <c r="B61" s="28"/>
       <c r="C61" s="28"/>
@@ -4399,7 +4455,7 @@
       <c r="N61" s="28"/>
       <c r="P61" s="28"/>
     </row>
-    <row r="62" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="27"/>
       <c r="B62" s="28"/>
       <c r="C62" s="28"/>
@@ -4414,7 +4470,7 @@
       <c r="N62" s="28"/>
       <c r="P62" s="28"/>
     </row>
-    <row r="63" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="27"/>
       <c r="B63" s="28"/>
       <c r="C63" s="28"/>
@@ -4429,7 +4485,7 @@
       <c r="N63" s="28"/>
       <c r="P63" s="28"/>
     </row>
-    <row r="64" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="27"/>
       <c r="B64" s="28"/>
       <c r="C64" s="28"/>
@@ -4444,7 +4500,7 @@
       <c r="N64" s="28"/>
       <c r="P64" s="28"/>
     </row>
-    <row r="65" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="27"/>
       <c r="B65" s="28"/>
       <c r="C65" s="28"/>
@@ -4459,7 +4515,7 @@
       <c r="N65" s="28"/>
       <c r="P65" s="28"/>
     </row>
-    <row r="66" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="27"/>
       <c r="B66" s="28"/>
       <c r="C66" s="28"/>
@@ -4474,7 +4530,7 @@
       <c r="N66" s="28"/>
       <c r="P66" s="28"/>
     </row>
-    <row r="67" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="27"/>
       <c r="B67" s="28"/>
       <c r="C67" s="28"/>
@@ -4489,7 +4545,7 @@
       <c r="N67" s="28"/>
       <c r="P67" s="28"/>
     </row>
-    <row r="68" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="27"/>
       <c r="B68" s="28"/>
       <c r="C68" s="28"/>
@@ -4504,7 +4560,7 @@
       <c r="N68" s="28"/>
       <c r="P68" s="28"/>
     </row>
-    <row r="69" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="27"/>
       <c r="B69" s="28"/>
       <c r="C69" s="28"/>
@@ -4519,7 +4575,7 @@
       <c r="N69" s="28"/>
       <c r="P69" s="28"/>
     </row>
-    <row r="70" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="27"/>
       <c r="B70" s="28"/>
       <c r="C70" s="28"/>
@@ -4534,7 +4590,7 @@
       <c r="N70" s="28"/>
       <c r="P70" s="28"/>
     </row>
-    <row r="71" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="27"/>
       <c r="B71" s="28"/>
       <c r="C71" s="28"/>
@@ -4549,7 +4605,7 @@
       <c r="N71" s="28"/>
       <c r="P71" s="28"/>
     </row>
-    <row r="72" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="27"/>
       <c r="B72" s="28"/>
       <c r="C72" s="28"/>
@@ -4564,7 +4620,7 @@
       <c r="N72" s="28"/>
       <c r="P72" s="28"/>
     </row>
-    <row r="73" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="27"/>
       <c r="B73" s="28"/>
       <c r="C73" s="28"/>
@@ -4579,7 +4635,7 @@
       <c r="N73" s="28"/>
       <c r="P73" s="28"/>
     </row>
-    <row r="74" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="27"/>
       <c r="B74" s="28"/>
       <c r="C74" s="28"/>
@@ -4594,7 +4650,7 @@
       <c r="N74" s="28"/>
       <c r="P74" s="28"/>
     </row>
-    <row r="75" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="27"/>
       <c r="B75" s="28"/>
       <c r="C75" s="28"/>
@@ -4609,7 +4665,7 @@
       <c r="N75" s="28"/>
       <c r="P75" s="28"/>
     </row>
-    <row r="76" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="27"/>
       <c r="B76" s="28"/>
       <c r="C76" s="28"/>
@@ -4624,7 +4680,7 @@
       <c r="N76" s="28"/>
       <c r="P76" s="28"/>
     </row>
-    <row r="77" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="27"/>
       <c r="B77" s="28"/>
       <c r="C77" s="28"/>
@@ -4639,7 +4695,7 @@
       <c r="N77" s="28"/>
       <c r="P77" s="28"/>
     </row>
-    <row r="78" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="27"/>
       <c r="B78" s="28"/>
       <c r="C78" s="28"/>
@@ -4654,7 +4710,7 @@
       <c r="N78" s="28"/>
       <c r="P78" s="28"/>
     </row>
-    <row r="79" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="27"/>
       <c r="B79" s="28"/>
       <c r="C79" s="28"/>
@@ -4669,7 +4725,7 @@
       <c r="N79" s="28"/>
       <c r="P79" s="28"/>
     </row>
-    <row r="80" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="27"/>
       <c r="B80" s="28"/>
       <c r="C80" s="28"/>
@@ -4684,7 +4740,7 @@
       <c r="N80" s="28"/>
       <c r="P80" s="28"/>
     </row>
-    <row r="81" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="27"/>
       <c r="B81" s="28"/>
       <c r="C81" s="28"/>
@@ -4699,7 +4755,7 @@
       <c r="N81" s="28"/>
       <c r="P81" s="28"/>
     </row>
-    <row r="82" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="27"/>
       <c r="B82" s="28"/>
       <c r="C82" s="28"/>
@@ -4714,7 +4770,7 @@
       <c r="N82" s="28"/>
       <c r="P82" s="28"/>
     </row>
-    <row r="83" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="27"/>
       <c r="B83" s="28"/>
       <c r="C83" s="28"/>
@@ -4729,7 +4785,7 @@
       <c r="N83" s="28"/>
       <c r="P83" s="28"/>
     </row>
-    <row r="84" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="27"/>
       <c r="B84" s="28"/>
       <c r="C84" s="28"/>
@@ -4744,7 +4800,7 @@
       <c r="N84" s="28"/>
       <c r="P84" s="28"/>
     </row>
-    <row r="85" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="27"/>
       <c r="B85" s="28"/>
       <c r="C85" s="28"/>
@@ -4759,7 +4815,7 @@
       <c r="N85" s="28"/>
       <c r="P85" s="28"/>
     </row>
-    <row r="86" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="27"/>
       <c r="B86" s="28"/>
       <c r="C86" s="28"/>
@@ -4774,7 +4830,7 @@
       <c r="N86" s="28"/>
       <c r="P86" s="28"/>
     </row>
-    <row r="87" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="27"/>
       <c r="B87" s="28"/>
       <c r="C87" s="28"/>
@@ -4789,7 +4845,7 @@
       <c r="N87" s="28"/>
       <c r="P87" s="28"/>
     </row>
-    <row r="88" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="27"/>
       <c r="B88" s="28"/>
       <c r="C88" s="28"/>
@@ -4804,7 +4860,7 @@
       <c r="N88" s="28"/>
       <c r="P88" s="28"/>
     </row>
-    <row r="89" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="27"/>
       <c r="B89" s="28"/>
       <c r="C89" s="28"/>
@@ -4819,7 +4875,7 @@
       <c r="N89" s="28"/>
       <c r="P89" s="28"/>
     </row>
-    <row r="90" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="27"/>
       <c r="B90" s="28"/>
       <c r="C90" s="28"/>
@@ -4834,7 +4890,7 @@
       <c r="N90" s="28"/>
       <c r="P90" s="28"/>
     </row>
-    <row r="91" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="27"/>
       <c r="B91" s="28"/>
       <c r="C91" s="28"/>
@@ -4849,7 +4905,7 @@
       <c r="N91" s="28"/>
       <c r="P91" s="28"/>
     </row>
-    <row r="92" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="27"/>
       <c r="B92" s="28"/>
       <c r="C92" s="28"/>
@@ -4864,7 +4920,7 @@
       <c r="N92" s="28"/>
       <c r="P92" s="28"/>
     </row>
-    <row r="93" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="27"/>
       <c r="B93" s="28"/>
       <c r="C93" s="28"/>
@@ -4879,7 +4935,7 @@
       <c r="N93" s="28"/>
       <c r="P93" s="28"/>
     </row>
-    <row r="94" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="27"/>
       <c r="B94" s="28"/>
       <c r="C94" s="28"/>
@@ -4894,7 +4950,7 @@
       <c r="N94" s="28"/>
       <c r="P94" s="28"/>
     </row>
-    <row r="95" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="27"/>
       <c r="B95" s="28"/>
       <c r="C95" s="28"/>
@@ -4909,7 +4965,7 @@
       <c r="N95" s="28"/>
       <c r="P95" s="28"/>
     </row>
-    <row r="96" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="27"/>
       <c r="B96" s="28"/>
       <c r="C96" s="28"/>
@@ -4924,7 +4980,7 @@
       <c r="N96" s="28"/>
       <c r="P96" s="28"/>
     </row>
-    <row r="97" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="27"/>
       <c r="B97" s="28"/>
       <c r="C97" s="28"/>
@@ -4939,7 +4995,7 @@
       <c r="N97" s="28"/>
       <c r="P97" s="28"/>
     </row>
-    <row r="98" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="27"/>
       <c r="B98" s="28"/>
       <c r="C98" s="28"/>
@@ -4954,7 +5010,7 @@
       <c r="N98" s="28"/>
       <c r="P98" s="28"/>
     </row>
-    <row r="99" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="27"/>
       <c r="B99" s="28"/>
       <c r="C99" s="28"/>
@@ -4969,7 +5025,7 @@
       <c r="N99" s="28"/>
       <c r="P99" s="28"/>
     </row>
-    <row r="100" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="27"/>
       <c r="B100" s="28"/>
       <c r="C100" s="28"/>
@@ -4984,7 +5040,7 @@
       <c r="N100" s="28"/>
       <c r="P100" s="28"/>
     </row>
-    <row r="101" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="27"/>
       <c r="B101" s="28"/>
       <c r="C101" s="28"/>
@@ -4999,7 +5055,7 @@
       <c r="N101" s="28"/>
       <c r="P101" s="28"/>
     </row>
-    <row r="102" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="27"/>
       <c r="B102" s="28"/>
       <c r="C102" s="28"/>
@@ -5014,7 +5070,7 @@
       <c r="N102" s="28"/>
       <c r="P102" s="28"/>
     </row>
-    <row r="103" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="27"/>
       <c r="B103" s="28"/>
       <c r="C103" s="28"/>
@@ -5029,7 +5085,7 @@
       <c r="N103" s="28"/>
       <c r="P103" s="28"/>
     </row>
-    <row r="104" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="27"/>
       <c r="B104" s="28"/>
       <c r="C104" s="28"/>
@@ -5044,7 +5100,7 @@
       <c r="N104" s="28"/>
       <c r="P104" s="28"/>
     </row>
-    <row r="105" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="27"/>
       <c r="B105" s="28"/>
       <c r="C105" s="28"/>
@@ -5059,7 +5115,7 @@
       <c r="N105" s="28"/>
       <c r="P105" s="28"/>
     </row>
-    <row r="106" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="27"/>
       <c r="B106" s="28"/>
       <c r="C106" s="28"/>
@@ -5074,7 +5130,7 @@
       <c r="N106" s="28"/>
       <c r="P106" s="28"/>
     </row>
-    <row r="107" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="27"/>
       <c r="B107" s="28"/>
       <c r="C107" s="28"/>
@@ -5089,7 +5145,7 @@
       <c r="N107" s="28"/>
       <c r="P107" s="28"/>
     </row>
-    <row r="108" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="27"/>
       <c r="B108" s="28"/>
       <c r="C108" s="28"/>
@@ -5104,7 +5160,7 @@
       <c r="N108" s="28"/>
       <c r="P108" s="28"/>
     </row>
-    <row r="109" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="27"/>
       <c r="B109" s="28"/>
       <c r="C109" s="28"/>
@@ -5119,7 +5175,7 @@
       <c r="N109" s="28"/>
       <c r="P109" s="28"/>
     </row>
-    <row r="110" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="27"/>
       <c r="B110" s="28"/>
       <c r="C110" s="28"/>
@@ -5134,7 +5190,7 @@
       <c r="N110" s="28"/>
       <c r="P110" s="28"/>
     </row>
-    <row r="111" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="27"/>
       <c r="B111" s="28"/>
       <c r="C111" s="28"/>
@@ -5149,7 +5205,7 @@
       <c r="N111" s="28"/>
       <c r="P111" s="28"/>
     </row>
-    <row r="112" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="27"/>
       <c r="B112" s="28"/>
       <c r="C112" s="28"/>
@@ -5164,7 +5220,7 @@
       <c r="N112" s="28"/>
       <c r="P112" s="28"/>
     </row>
-    <row r="113" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="27"/>
       <c r="B113" s="28"/>
       <c r="C113" s="28"/>
@@ -5179,7 +5235,7 @@
       <c r="N113" s="28"/>
       <c r="P113" s="28"/>
     </row>
-    <row r="114" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="27"/>
       <c r="B114" s="28"/>
       <c r="C114" s="28"/>
@@ -5194,7 +5250,7 @@
       <c r="N114" s="28"/>
       <c r="P114" s="28"/>
     </row>
-    <row r="115" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="27"/>
       <c r="B115" s="28"/>
       <c r="C115" s="28"/>
@@ -5209,7 +5265,7 @@
       <c r="N115" s="28"/>
       <c r="P115" s="28"/>
     </row>
-    <row r="116" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="27"/>
       <c r="B116" s="28"/>
       <c r="C116" s="28"/>
@@ -5224,7 +5280,7 @@
       <c r="N116" s="28"/>
       <c r="P116" s="28"/>
     </row>
-    <row r="117" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="27"/>
       <c r="B117" s="28"/>
       <c r="C117" s="28"/>
@@ -5239,7 +5295,7 @@
       <c r="N117" s="28"/>
       <c r="P117" s="28"/>
     </row>
-    <row r="118" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="27"/>
       <c r="B118" s="28"/>
       <c r="C118" s="28"/>
@@ -5254,7 +5310,7 @@
       <c r="N118" s="28"/>
       <c r="P118" s="28"/>
     </row>
-    <row r="119" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="27"/>
       <c r="B119" s="28"/>
       <c r="C119" s="28"/>
@@ -5269,7 +5325,7 @@
       <c r="N119" s="28"/>
       <c r="P119" s="28"/>
     </row>
-    <row r="120" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="27"/>
       <c r="B120" s="28"/>
       <c r="C120" s="28"/>
@@ -5284,7 +5340,7 @@
       <c r="N120" s="28"/>
       <c r="P120" s="28"/>
     </row>
-    <row r="121" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="27"/>
       <c r="B121" s="28"/>
       <c r="C121" s="28"/>
@@ -5299,7 +5355,7 @@
       <c r="N121" s="28"/>
       <c r="P121" s="28"/>
     </row>
-    <row r="122" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="27"/>
       <c r="B122" s="28"/>
       <c r="C122" s="28"/>
@@ -5314,7 +5370,7 @@
       <c r="N122" s="28"/>
       <c r="P122" s="28"/>
     </row>
-    <row r="123" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="27"/>
       <c r="B123" s="28"/>
       <c r="C123" s="28"/>
@@ -5329,7 +5385,7 @@
       <c r="N123" s="28"/>
       <c r="P123" s="28"/>
     </row>
-    <row r="124" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="27"/>
       <c r="B124" s="28"/>
       <c r="C124" s="28"/>
@@ -5344,7 +5400,7 @@
       <c r="N124" s="28"/>
       <c r="P124" s="28"/>
     </row>
-    <row r="125" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="27"/>
       <c r="B125" s="28"/>
       <c r="C125" s="28"/>
@@ -5359,7 +5415,7 @@
       <c r="N125" s="28"/>
       <c r="P125" s="28"/>
     </row>
-    <row r="126" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="27"/>
       <c r="B126" s="28"/>
       <c r="C126" s="28"/>
@@ -5374,7 +5430,7 @@
       <c r="N126" s="28"/>
       <c r="P126" s="28"/>
     </row>
-    <row r="127" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="27"/>
       <c r="B127" s="28"/>
       <c r="C127" s="28"/>
@@ -5389,7 +5445,7 @@
       <c r="N127" s="28"/>
       <c r="P127" s="28"/>
     </row>
-    <row r="128" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="27"/>
       <c r="B128" s="28"/>
       <c r="C128" s="28"/>
@@ -5404,7 +5460,7 @@
       <c r="N128" s="28"/>
       <c r="P128" s="28"/>
     </row>
-    <row r="129" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="27"/>
       <c r="B129" s="28"/>
       <c r="C129" s="28"/>
@@ -5419,7 +5475,7 @@
       <c r="N129" s="28"/>
       <c r="P129" s="28"/>
     </row>
-    <row r="130" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="27"/>
       <c r="B130" s="28"/>
       <c r="C130" s="28"/>
@@ -5434,7 +5490,7 @@
       <c r="N130" s="28"/>
       <c r="P130" s="28"/>
     </row>
-    <row r="131" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="27"/>
       <c r="B131" s="28"/>
       <c r="C131" s="28"/>
@@ -5449,7 +5505,7 @@
       <c r="N131" s="28"/>
       <c r="P131" s="28"/>
     </row>
-    <row r="132" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="27"/>
       <c r="B132" s="28"/>
       <c r="C132" s="28"/>
@@ -5464,7 +5520,7 @@
       <c r="N132" s="28"/>
       <c r="P132" s="28"/>
     </row>
-    <row r="133" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="27"/>
       <c r="B133" s="28"/>
       <c r="C133" s="28"/>
@@ -5479,7 +5535,7 @@
       <c r="N133" s="28"/>
       <c r="P133" s="28"/>
     </row>
-    <row r="134" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="27"/>
       <c r="B134" s="28"/>
       <c r="C134" s="28"/>
@@ -5494,7 +5550,7 @@
       <c r="N134" s="28"/>
       <c r="P134" s="28"/>
     </row>
-    <row r="135" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="27"/>
       <c r="B135" s="28"/>
       <c r="C135" s="28"/>
@@ -5509,7 +5565,7 @@
       <c r="N135" s="28"/>
       <c r="P135" s="28"/>
     </row>
-    <row r="136" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="27"/>
       <c r="B136" s="28"/>
       <c r="C136" s="28"/>
@@ -5524,7 +5580,7 @@
       <c r="N136" s="28"/>
       <c r="P136" s="28"/>
     </row>
-    <row r="137" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="27"/>
       <c r="B137" s="28"/>
       <c r="C137" s="28"/>
@@ -5539,7 +5595,7 @@
       <c r="N137" s="28"/>
       <c r="P137" s="28"/>
     </row>
-    <row r="138" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="27"/>
       <c r="B138" s="28"/>
       <c r="C138" s="28"/>
@@ -5554,7 +5610,7 @@
       <c r="N138" s="28"/>
       <c r="P138" s="28"/>
     </row>
-    <row r="139" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="27"/>
       <c r="B139" s="28"/>
       <c r="C139" s="28"/>
@@ -5569,7 +5625,7 @@
       <c r="N139" s="28"/>
       <c r="P139" s="28"/>
     </row>
-    <row r="140" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="27"/>
       <c r="B140" s="28"/>
       <c r="C140" s="28"/>
@@ -5584,7 +5640,7 @@
       <c r="N140" s="28"/>
       <c r="P140" s="28"/>
     </row>
-    <row r="141" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="27"/>
       <c r="B141" s="28"/>
       <c r="C141" s="28"/>
@@ -5599,7 +5655,7 @@
       <c r="N141" s="28"/>
       <c r="P141" s="28"/>
     </row>
-    <row r="142" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="27"/>
       <c r="B142" s="28"/>
       <c r="C142" s="28"/>
@@ -5614,7 +5670,7 @@
       <c r="N142" s="28"/>
       <c r="P142" s="28"/>
     </row>
-    <row r="143" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="27"/>
       <c r="B143" s="28"/>
       <c r="C143" s="28"/>
@@ -5629,7 +5685,7 @@
       <c r="N143" s="28"/>
       <c r="P143" s="28"/>
     </row>
-    <row r="144" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="27"/>
       <c r="B144" s="28"/>
       <c r="C144" s="28"/>
@@ -5644,7 +5700,7 @@
       <c r="N144" s="28"/>
       <c r="P144" s="28"/>
     </row>
-    <row r="145" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="27"/>
       <c r="B145" s="28"/>
       <c r="C145" s="28"/>
@@ -5659,7 +5715,7 @@
       <c r="N145" s="28"/>
       <c r="P145" s="28"/>
     </row>
-    <row r="146" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="27"/>
       <c r="B146" s="28"/>
       <c r="C146" s="28"/>
@@ -5674,7 +5730,7 @@
       <c r="N146" s="28"/>
       <c r="P146" s="28"/>
     </row>
-    <row r="147" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="27"/>
       <c r="B147" s="28"/>
       <c r="C147" s="28"/>
@@ -5689,7 +5745,7 @@
       <c r="N147" s="28"/>
       <c r="P147" s="28"/>
     </row>
-    <row r="148" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="27"/>
       <c r="B148" s="28"/>
       <c r="C148" s="28"/>
@@ -5704,7 +5760,7 @@
       <c r="N148" s="28"/>
       <c r="P148" s="28"/>
     </row>
-    <row r="149" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="27"/>
       <c r="B149" s="28"/>
       <c r="C149" s="28"/>
@@ -5719,7 +5775,7 @@
       <c r="N149" s="28"/>
       <c r="P149" s="28"/>
     </row>
-    <row r="150" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="27"/>
       <c r="B150" s="28"/>
       <c r="C150" s="28"/>
@@ -5734,7 +5790,7 @@
       <c r="N150" s="28"/>
       <c r="P150" s="28"/>
     </row>
-    <row r="151" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="27"/>
       <c r="B151" s="28"/>
       <c r="C151" s="28"/>
@@ -5749,7 +5805,7 @@
       <c r="N151" s="28"/>
       <c r="P151" s="28"/>
     </row>
-    <row r="152" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="27"/>
       <c r="B152" s="28"/>
       <c r="C152" s="28"/>
@@ -5764,7 +5820,7 @@
       <c r="N152" s="28"/>
       <c r="P152" s="28"/>
     </row>
-    <row r="153" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="27"/>
       <c r="B153" s="28"/>
       <c r="C153" s="28"/>
@@ -5779,7 +5835,7 @@
       <c r="N153" s="28"/>
       <c r="P153" s="28"/>
     </row>
-    <row r="154" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="27"/>
       <c r="B154" s="28"/>
       <c r="C154" s="28"/>
@@ -5794,7 +5850,7 @@
       <c r="N154" s="28"/>
       <c r="P154" s="28"/>
     </row>
-    <row r="155" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="27"/>
       <c r="B155" s="28"/>
       <c r="C155" s="28"/>
@@ -5809,7 +5865,7 @@
       <c r="N155" s="28"/>
       <c r="P155" s="28"/>
     </row>
-    <row r="156" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="27"/>
       <c r="B156" s="28"/>
       <c r="C156" s="28"/>
@@ -5824,7 +5880,7 @@
       <c r="N156" s="28"/>
       <c r="P156" s="28"/>
     </row>
-    <row r="157" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="27"/>
       <c r="B157" s="28"/>
       <c r="C157" s="28"/>
@@ -5839,7 +5895,7 @@
       <c r="N157" s="28"/>
       <c r="P157" s="28"/>
     </row>
-    <row r="158" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="27"/>
       <c r="B158" s="28"/>
       <c r="C158" s="28"/>
@@ -5854,7 +5910,7 @@
       <c r="N158" s="28"/>
       <c r="P158" s="28"/>
     </row>
-    <row r="159" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="27"/>
       <c r="B159" s="28"/>
       <c r="C159" s="28"/>
@@ -5869,7 +5925,7 @@
       <c r="N159" s="28"/>
       <c r="P159" s="28"/>
     </row>
-    <row r="160" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="27"/>
       <c r="B160" s="28"/>
       <c r="C160" s="28"/>
@@ -5884,7 +5940,7 @@
       <c r="N160" s="28"/>
       <c r="P160" s="28"/>
     </row>
-    <row r="161" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="27"/>
       <c r="B161" s="28"/>
       <c r="C161" s="28"/>
@@ -5899,7 +5955,7 @@
       <c r="N161" s="28"/>
       <c r="P161" s="28"/>
     </row>
-    <row r="162" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="27"/>
       <c r="B162" s="28"/>
       <c r="C162" s="28"/>
@@ -5914,7 +5970,7 @@
       <c r="N162" s="28"/>
       <c r="P162" s="28"/>
     </row>
-    <row r="163" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="27"/>
       <c r="B163" s="28"/>
       <c r="C163" s="28"/>
@@ -5929,7 +5985,7 @@
       <c r="N163" s="28"/>
       <c r="P163" s="28"/>
     </row>
-    <row r="164" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="27"/>
       <c r="B164" s="28"/>
       <c r="C164" s="28"/>
@@ -5944,7 +6000,7 @@
       <c r="N164" s="28"/>
       <c r="P164" s="28"/>
     </row>
-    <row r="165" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="27"/>
       <c r="B165" s="28"/>
       <c r="C165" s="28"/>
@@ -5959,7 +6015,7 @@
       <c r="N165" s="28"/>
       <c r="P165" s="28"/>
     </row>
-    <row r="166" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="27"/>
       <c r="B166" s="28"/>
       <c r="C166" s="28"/>
@@ -5974,7 +6030,7 @@
       <c r="N166" s="28"/>
       <c r="P166" s="28"/>
     </row>
-    <row r="167" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="27"/>
       <c r="B167" s="28"/>
       <c r="C167" s="28"/>
@@ -5989,7 +6045,7 @@
       <c r="N167" s="28"/>
       <c r="P167" s="28"/>
     </row>
-    <row r="168" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="27"/>
       <c r="B168" s="28"/>
       <c r="C168" s="28"/>
@@ -6004,7 +6060,7 @@
       <c r="N168" s="28"/>
       <c r="P168" s="28"/>
     </row>
-    <row r="169" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="27"/>
       <c r="B169" s="28"/>
       <c r="C169" s="28"/>
@@ -6019,7 +6075,7 @@
       <c r="N169" s="28"/>
       <c r="P169" s="28"/>
     </row>
-    <row r="170" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="27"/>
       <c r="B170" s="28"/>
       <c r="C170" s="28"/>
@@ -6034,7 +6090,7 @@
       <c r="N170" s="28"/>
       <c r="P170" s="28"/>
     </row>
-    <row r="171" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="27"/>
       <c r="B171" s="28"/>
       <c r="C171" s="28"/>
@@ -6049,7 +6105,7 @@
       <c r="N171" s="28"/>
       <c r="P171" s="28"/>
     </row>
-    <row r="172" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="27"/>
       <c r="B172" s="28"/>
       <c r="C172" s="28"/>
@@ -6064,7 +6120,7 @@
       <c r="N172" s="28"/>
       <c r="P172" s="28"/>
     </row>
-    <row r="173" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="27"/>
       <c r="B173" s="28"/>
       <c r="C173" s="28"/>
@@ -6079,7 +6135,7 @@
       <c r="N173" s="28"/>
       <c r="P173" s="28"/>
     </row>
-    <row r="174" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="27"/>
       <c r="B174" s="28"/>
       <c r="C174" s="28"/>
@@ -6094,7 +6150,7 @@
       <c r="N174" s="28"/>
       <c r="P174" s="28"/>
     </row>
-    <row r="175" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="27"/>
       <c r="B175" s="28"/>
       <c r="C175" s="28"/>
@@ -6109,7 +6165,7 @@
       <c r="N175" s="28"/>
       <c r="P175" s="28"/>
     </row>
-    <row r="176" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="27"/>
       <c r="B176" s="28"/>
       <c r="C176" s="28"/>
@@ -6124,7 +6180,7 @@
       <c r="N176" s="28"/>
       <c r="P176" s="28"/>
     </row>
-    <row r="177" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="27"/>
       <c r="B177" s="28"/>
       <c r="C177" s="28"/>
@@ -6139,7 +6195,7 @@
       <c r="N177" s="28"/>
       <c r="P177" s="28"/>
     </row>
-    <row r="178" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="27"/>
       <c r="B178" s="28"/>
       <c r="C178" s="28"/>
@@ -6154,7 +6210,7 @@
       <c r="N178" s="28"/>
       <c r="P178" s="28"/>
     </row>
-    <row r="179" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="27"/>
       <c r="B179" s="28"/>
       <c r="C179" s="28"/>
@@ -6169,7 +6225,7 @@
       <c r="N179" s="28"/>
       <c r="P179" s="28"/>
     </row>
-    <row r="180" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="27"/>
       <c r="B180" s="28"/>
       <c r="C180" s="28"/>
@@ -6184,7 +6240,7 @@
       <c r="N180" s="28"/>
       <c r="P180" s="28"/>
     </row>
-    <row r="181" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="27"/>
       <c r="B181" s="28"/>
       <c r="C181" s="28"/>
@@ -6199,7 +6255,7 @@
       <c r="N181" s="28"/>
       <c r="P181" s="28"/>
     </row>
-    <row r="182" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="27"/>
       <c r="B182" s="28"/>
       <c r="C182" s="28"/>
@@ -6214,7 +6270,7 @@
       <c r="N182" s="28"/>
       <c r="P182" s="28"/>
     </row>
-    <row r="183" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="27"/>
       <c r="B183" s="28"/>
       <c r="C183" s="28"/>
@@ -6229,7 +6285,7 @@
       <c r="N183" s="28"/>
       <c r="P183" s="28"/>
     </row>
-    <row r="184" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" s="27"/>
       <c r="B184" s="28"/>
       <c r="C184" s="28"/>
@@ -6244,7 +6300,7 @@
       <c r="N184" s="28"/>
       <c r="P184" s="28"/>
     </row>
-    <row r="185" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" s="27"/>
       <c r="B185" s="28"/>
       <c r="C185" s="28"/>
@@ -6259,7 +6315,7 @@
       <c r="N185" s="28"/>
       <c r="P185" s="28"/>
     </row>
-    <row r="186" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="27"/>
       <c r="B186" s="28"/>
       <c r="C186" s="28"/>
@@ -6274,7 +6330,7 @@
       <c r="N186" s="28"/>
       <c r="P186" s="28"/>
     </row>
-    <row r="187" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="27"/>
       <c r="B187" s="28"/>
       <c r="C187" s="28"/>
@@ -6289,7 +6345,7 @@
       <c r="N187" s="28"/>
       <c r="P187" s="28"/>
     </row>
-    <row r="188" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" s="27"/>
       <c r="B188" s="28"/>
       <c r="C188" s="28"/>
@@ -6304,7 +6360,7 @@
       <c r="N188" s="28"/>
       <c r="P188" s="28"/>
     </row>
-    <row r="189" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" s="27"/>
       <c r="B189" s="28"/>
       <c r="C189" s="28"/>
@@ -6319,7 +6375,7 @@
       <c r="N189" s="28"/>
       <c r="P189" s="28"/>
     </row>
-    <row r="190" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="27"/>
       <c r="B190" s="28"/>
       <c r="C190" s="28"/>
@@ -6334,7 +6390,7 @@
       <c r="N190" s="28"/>
       <c r="P190" s="28"/>
     </row>
-    <row r="191" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="27"/>
       <c r="B191" s="28"/>
       <c r="C191" s="28"/>
@@ -6349,7 +6405,7 @@
       <c r="N191" s="28"/>
       <c r="P191" s="28"/>
     </row>
-    <row r="192" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="27"/>
       <c r="B192" s="28"/>
       <c r="C192" s="28"/>
@@ -6364,7 +6420,7 @@
       <c r="N192" s="28"/>
       <c r="P192" s="28"/>
     </row>
-    <row r="193" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="27"/>
       <c r="B193" s="28"/>
       <c r="C193" s="28"/>
@@ -6379,7 +6435,7 @@
       <c r="N193" s="28"/>
       <c r="P193" s="28"/>
     </row>
-    <row r="194" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="27"/>
       <c r="B194" s="28"/>
       <c r="C194" s="28"/>
@@ -6394,7 +6450,7 @@
       <c r="N194" s="28"/>
       <c r="P194" s="28"/>
     </row>
-    <row r="195" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="27"/>
       <c r="B195" s="28"/>
       <c r="C195" s="28"/>
@@ -6409,7 +6465,7 @@
       <c r="N195" s="28"/>
       <c r="P195" s="28"/>
     </row>
-    <row r="196" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" s="27"/>
       <c r="B196" s="28"/>
       <c r="C196" s="28"/>
@@ -6424,7 +6480,7 @@
       <c r="N196" s="28"/>
       <c r="P196" s="28"/>
     </row>
-    <row r="197" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="27"/>
       <c r="B197" s="28"/>
       <c r="C197" s="28"/>
@@ -6439,7 +6495,7 @@
       <c r="N197" s="28"/>
       <c r="P197" s="28"/>
     </row>
-    <row r="198" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" s="27"/>
       <c r="B198" s="28"/>
       <c r="C198" s="28"/>
@@ -6454,7 +6510,7 @@
       <c r="N198" s="28"/>
       <c r="P198" s="28"/>
     </row>
-    <row r="199" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199" s="27"/>
       <c r="B199" s="28"/>
       <c r="C199" s="28"/>
@@ -6469,7 +6525,7 @@
       <c r="N199" s="28"/>
       <c r="P199" s="28"/>
     </row>
-    <row r="200" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A200" s="27"/>
       <c r="B200" s="28"/>
       <c r="C200" s="28"/>
@@ -6484,7 +6540,7 @@
       <c r="N200" s="28"/>
       <c r="P200" s="28"/>
     </row>
-    <row r="201" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201" s="27"/>
       <c r="B201" s="28"/>
       <c r="C201" s="28"/>
@@ -6499,7 +6555,7 @@
       <c r="N201" s="28"/>
       <c r="P201" s="28"/>
     </row>
-    <row r="202" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="27"/>
       <c r="B202" s="28"/>
       <c r="C202" s="28"/>
@@ -6514,7 +6570,7 @@
       <c r="N202" s="28"/>
       <c r="P202" s="28"/>
     </row>
-    <row r="203" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" s="27"/>
       <c r="B203" s="28"/>
       <c r="C203" s="28"/>
@@ -6529,7 +6585,7 @@
       <c r="N203" s="28"/>
       <c r="P203" s="28"/>
     </row>
-    <row r="204" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" s="27"/>
       <c r="B204" s="28"/>
       <c r="C204" s="28"/>
@@ -6544,7 +6600,7 @@
       <c r="N204" s="28"/>
       <c r="P204" s="28"/>
     </row>
-    <row r="205" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205" s="27"/>
       <c r="B205" s="28"/>
       <c r="C205" s="28"/>
@@ -6559,7 +6615,7 @@
       <c r="N205" s="28"/>
       <c r="P205" s="28"/>
     </row>
-    <row r="206" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A206" s="27"/>
       <c r="B206" s="28"/>
       <c r="C206" s="28"/>
@@ -6574,7 +6630,7 @@
       <c r="N206" s="28"/>
       <c r="P206" s="28"/>
     </row>
-    <row r="207" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" s="27"/>
       <c r="B207" s="28"/>
       <c r="C207" s="28"/>
@@ -6589,7 +6645,7 @@
       <c r="N207" s="28"/>
       <c r="P207" s="28"/>
     </row>
-    <row r="208" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A208" s="27"/>
       <c r="B208" s="28"/>
       <c r="C208" s="28"/>
@@ -6604,7 +6660,7 @@
       <c r="N208" s="28"/>
       <c r="P208" s="28"/>
     </row>
-    <row r="209" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209" s="27"/>
       <c r="B209" s="28"/>
       <c r="C209" s="28"/>
@@ -6619,7 +6675,7 @@
       <c r="N209" s="28"/>
       <c r="P209" s="28"/>
     </row>
-    <row r="210" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210" s="27"/>
       <c r="B210" s="28"/>
       <c r="C210" s="28"/>
@@ -6634,7 +6690,7 @@
       <c r="N210" s="28"/>
       <c r="P210" s="28"/>
     </row>
-    <row r="211" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A211" s="27"/>
       <c r="B211" s="28"/>
       <c r="C211" s="28"/>
@@ -6649,7 +6705,7 @@
       <c r="N211" s="28"/>
       <c r="P211" s="28"/>
     </row>
-    <row r="212" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A212" s="27"/>
       <c r="B212" s="28"/>
       <c r="C212" s="28"/>
@@ -6664,7 +6720,7 @@
       <c r="N212" s="28"/>
       <c r="P212" s="28"/>
     </row>
-    <row r="213" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213" s="27"/>
       <c r="B213" s="28"/>
       <c r="C213" s="28"/>
@@ -6679,7 +6735,7 @@
       <c r="N213" s="28"/>
       <c r="P213" s="28"/>
     </row>
-    <row r="214" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A214" s="27"/>
       <c r="B214" s="28"/>
       <c r="C214" s="28"/>
@@ -6694,7 +6750,7 @@
       <c r="N214" s="28"/>
       <c r="P214" s="28"/>
     </row>
-    <row r="215" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" s="27"/>
       <c r="B215" s="28"/>
       <c r="C215" s="28"/>
@@ -6709,7 +6765,7 @@
       <c r="N215" s="28"/>
       <c r="P215" s="28"/>
     </row>
-    <row r="216" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A216" s="27"/>
       <c r="B216" s="28"/>
       <c r="C216" s="28"/>
@@ -6724,7 +6780,7 @@
       <c r="N216" s="28"/>
       <c r="P216" s="28"/>
     </row>
-    <row r="217" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A217" s="27"/>
       <c r="B217" s="28"/>
       <c r="C217" s="28"/>
@@ -6739,7 +6795,7 @@
       <c r="N217" s="28"/>
       <c r="P217" s="28"/>
     </row>
-    <row r="218" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A218" s="27"/>
       <c r="B218" s="28"/>
       <c r="C218" s="28"/>
@@ -6754,7 +6810,7 @@
       <c r="N218" s="28"/>
       <c r="P218" s="28"/>
     </row>
-    <row r="219" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A219" s="27"/>
       <c r="B219" s="28"/>
       <c r="C219" s="28"/>
@@ -6769,7 +6825,7 @@
       <c r="N219" s="28"/>
       <c r="P219" s="28"/>
     </row>
-    <row r="220" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="27"/>
       <c r="B220" s="28"/>
       <c r="C220" s="28"/>
@@ -6784,7 +6840,7 @@
       <c r="N220" s="28"/>
       <c r="P220" s="28"/>
     </row>
-    <row r="221" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A221" s="27"/>
       <c r="B221" s="28"/>
       <c r="C221" s="28"/>
@@ -6799,7 +6855,7 @@
       <c r="N221" s="28"/>
       <c r="P221" s="28"/>
     </row>
-    <row r="222" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A222" s="27"/>
       <c r="B222" s="28"/>
       <c r="C222" s="28"/>
@@ -6814,7 +6870,7 @@
       <c r="N222" s="28"/>
       <c r="P222" s="28"/>
     </row>
-    <row r="223" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A223" s="27"/>
       <c r="B223" s="28"/>
       <c r="C223" s="28"/>
@@ -6829,7 +6885,7 @@
       <c r="N223" s="28"/>
       <c r="P223" s="28"/>
     </row>
-    <row r="224" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A224" s="27"/>
       <c r="B224" s="28"/>
       <c r="C224" s="28"/>
@@ -6844,7 +6900,7 @@
       <c r="N224" s="28"/>
       <c r="P224" s="28"/>
     </row>
-    <row r="225" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A225" s="27"/>
       <c r="B225" s="28"/>
       <c r="C225" s="28"/>
@@ -6859,7 +6915,7 @@
       <c r="N225" s="28"/>
       <c r="P225" s="28"/>
     </row>
-    <row r="226" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A226" s="27"/>
       <c r="B226" s="28"/>
       <c r="C226" s="28"/>
@@ -6874,7 +6930,7 @@
       <c r="N226" s="28"/>
       <c r="P226" s="28"/>
     </row>
-    <row r="227" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A227" s="27"/>
       <c r="B227" s="28"/>
       <c r="C227" s="28"/>
@@ -6889,7 +6945,7 @@
       <c r="N227" s="28"/>
       <c r="P227" s="28"/>
     </row>
-    <row r="228" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A228" s="27"/>
       <c r="B228" s="28"/>
       <c r="C228" s="28"/>
@@ -6904,7 +6960,7 @@
       <c r="N228" s="28"/>
       <c r="P228" s="28"/>
     </row>
-    <row r="229" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A229" s="27"/>
       <c r="B229" s="28"/>
       <c r="C229" s="28"/>
@@ -6919,7 +6975,7 @@
       <c r="N229" s="28"/>
       <c r="P229" s="28"/>
     </row>
-    <row r="230" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A230" s="27"/>
       <c r="B230" s="28"/>
       <c r="C230" s="28"/>
@@ -6934,7 +6990,7 @@
       <c r="N230" s="28"/>
       <c r="P230" s="28"/>
     </row>
-    <row r="231" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A231" s="27"/>
       <c r="B231" s="28"/>
       <c r="C231" s="28"/>
@@ -6949,7 +7005,7 @@
       <c r="N231" s="28"/>
       <c r="P231" s="28"/>
     </row>
-    <row r="232" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A232" s="27"/>
       <c r="B232" s="28"/>
       <c r="C232" s="28"/>
@@ -6964,7 +7020,7 @@
       <c r="N232" s="28"/>
       <c r="P232" s="28"/>
     </row>
-    <row r="233" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A233" s="27"/>
       <c r="B233" s="28"/>
       <c r="C233" s="28"/>
@@ -6979,7 +7035,7 @@
       <c r="N233" s="28"/>
       <c r="P233" s="28"/>
     </row>
-    <row r="234" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A234" s="27"/>
       <c r="B234" s="28"/>
       <c r="C234" s="28"/>
@@ -6994,7 +7050,7 @@
       <c r="N234" s="28"/>
       <c r="P234" s="28"/>
     </row>
-    <row r="235" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A235" s="27"/>
       <c r="B235" s="28"/>
       <c r="C235" s="28"/>
@@ -7009,7 +7065,7 @@
       <c r="N235" s="28"/>
       <c r="P235" s="28"/>
     </row>
-    <row r="236" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A236" s="27"/>
       <c r="B236" s="28"/>
       <c r="C236" s="28"/>
@@ -7024,7 +7080,7 @@
       <c r="N236" s="28"/>
       <c r="P236" s="28"/>
     </row>
-    <row r="237" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A237" s="27"/>
       <c r="B237" s="28"/>
       <c r="C237" s="28"/>
@@ -7039,7 +7095,7 @@
       <c r="N237" s="28"/>
       <c r="P237" s="28"/>
     </row>
-    <row r="238" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A238" s="27"/>
       <c r="B238" s="28"/>
       <c r="C238" s="28"/>
@@ -7054,7 +7110,7 @@
       <c r="N238" s="28"/>
       <c r="P238" s="28"/>
     </row>
-    <row r="239" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A239" s="27"/>
       <c r="B239" s="28"/>
       <c r="C239" s="28"/>
@@ -7069,7 +7125,7 @@
       <c r="N239" s="28"/>
       <c r="P239" s="28"/>
     </row>
-    <row r="240" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A240" s="27"/>
       <c r="B240" s="28"/>
       <c r="C240" s="28"/>
@@ -7084,7 +7140,7 @@
       <c r="N240" s="28"/>
       <c r="P240" s="28"/>
     </row>
-    <row r="241" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A241" s="27"/>
       <c r="B241" s="28"/>
       <c r="C241" s="28"/>
@@ -7099,7 +7155,7 @@
       <c r="N241" s="28"/>
       <c r="P241" s="28"/>
     </row>
-    <row r="242" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A242" s="27"/>
       <c r="B242" s="28"/>
       <c r="C242" s="28"/>
@@ -7114,7 +7170,7 @@
       <c r="N242" s="28"/>
       <c r="P242" s="28"/>
     </row>
-    <row r="243" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A243" s="27"/>
       <c r="B243" s="28"/>
       <c r="C243" s="28"/>
@@ -7129,7 +7185,7 @@
       <c r="N243" s="28"/>
       <c r="P243" s="28"/>
     </row>
-    <row r="244" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A244" s="27"/>
       <c r="B244" s="28"/>
       <c r="C244" s="28"/>
@@ -7144,7 +7200,7 @@
       <c r="N244" s="28"/>
       <c r="P244" s="28"/>
     </row>
-    <row r="245" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A245" s="27"/>
       <c r="B245" s="28"/>
       <c r="C245" s="28"/>
@@ -7159,7 +7215,7 @@
       <c r="N245" s="28"/>
       <c r="P245" s="28"/>
     </row>
-    <row r="246" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A246" s="27"/>
       <c r="B246" s="28"/>
       <c r="C246" s="28"/>
@@ -7174,7 +7230,7 @@
       <c r="N246" s="28"/>
       <c r="P246" s="28"/>
     </row>
-    <row r="247" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A247" s="27"/>
       <c r="B247" s="28"/>
       <c r="C247" s="28"/>
@@ -7189,7 +7245,7 @@
       <c r="N247" s="28"/>
       <c r="P247" s="28"/>
     </row>
-    <row r="248" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A248" s="27"/>
       <c r="B248" s="28"/>
       <c r="C248" s="28"/>
@@ -7204,7 +7260,7 @@
       <c r="N248" s="28"/>
       <c r="P248" s="28"/>
     </row>
-    <row r="249" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A249" s="27"/>
       <c r="B249" s="28"/>
       <c r="C249" s="28"/>
@@ -7219,7 +7275,7 @@
       <c r="N249" s="28"/>
       <c r="P249" s="28"/>
     </row>
-    <row r="250" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A250" s="27"/>
       <c r="B250" s="28"/>
       <c r="C250" s="28"/>
@@ -7234,7 +7290,7 @@
       <c r="N250" s="28"/>
       <c r="P250" s="28"/>
     </row>
-    <row r="251" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A251" s="27"/>
       <c r="B251" s="28"/>
       <c r="C251" s="28"/>
@@ -7249,7 +7305,7 @@
       <c r="N251" s="28"/>
       <c r="P251" s="28"/>
     </row>
-    <row r="252" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A252" s="27"/>
       <c r="B252" s="28"/>
       <c r="C252" s="28"/>
@@ -7264,7 +7320,7 @@
       <c r="N252" s="28"/>
       <c r="P252" s="28"/>
     </row>
-    <row r="253" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A253" s="27"/>
       <c r="B253" s="28"/>
       <c r="C253" s="28"/>
@@ -7279,7 +7335,7 @@
       <c r="N253" s="28"/>
       <c r="P253" s="28"/>
     </row>
-    <row r="254" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A254" s="27"/>
       <c r="B254" s="28"/>
       <c r="C254" s="28"/>
@@ -7294,7 +7350,7 @@
       <c r="N254" s="28"/>
       <c r="P254" s="28"/>
     </row>
-    <row r="255" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A255" s="27"/>
       <c r="B255" s="28"/>
       <c r="C255" s="28"/>
@@ -7309,7 +7365,7 @@
       <c r="N255" s="28"/>
       <c r="P255" s="28"/>
     </row>
-    <row r="256" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A256" s="27"/>
       <c r="B256" s="28"/>
       <c r="C256" s="28"/>
@@ -7324,7 +7380,7 @@
       <c r="N256" s="28"/>
       <c r="P256" s="28"/>
     </row>
-    <row r="257" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A257" s="27"/>
       <c r="B257" s="28"/>
       <c r="C257" s="28"/>
@@ -7339,7 +7395,7 @@
       <c r="N257" s="28"/>
       <c r="P257" s="28"/>
     </row>
-    <row r="258" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A258" s="27"/>
       <c r="B258" s="28"/>
       <c r="C258" s="28"/>
@@ -7354,7 +7410,7 @@
       <c r="N258" s="28"/>
       <c r="P258" s="28"/>
     </row>
-    <row r="259" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A259" s="27"/>
       <c r="B259" s="28"/>
       <c r="C259" s="28"/>
@@ -7369,7 +7425,7 @@
       <c r="N259" s="28"/>
       <c r="P259" s="28"/>
     </row>
-    <row r="260" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A260" s="27"/>
       <c r="B260" s="28"/>
       <c r="C260" s="28"/>
@@ -7384,7 +7440,7 @@
       <c r="N260" s="28"/>
       <c r="P260" s="28"/>
     </row>
-    <row r="261" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A261" s="27"/>
       <c r="B261" s="28"/>
       <c r="C261" s="28"/>
@@ -7399,7 +7455,7 @@
       <c r="N261" s="28"/>
       <c r="P261" s="28"/>
     </row>
-    <row r="262" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A262" s="27"/>
       <c r="B262" s="28"/>
       <c r="C262" s="28"/>
@@ -7414,7 +7470,7 @@
       <c r="N262" s="28"/>
       <c r="P262" s="28"/>
     </row>
-    <row r="263" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A263" s="27"/>
       <c r="B263" s="28"/>
       <c r="C263" s="28"/>
@@ -7429,7 +7485,7 @@
       <c r="N263" s="28"/>
       <c r="P263" s="28"/>
     </row>
-    <row r="264" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A264" s="27"/>
       <c r="B264" s="28"/>
       <c r="C264" s="28"/>
@@ -7444,7 +7500,7 @@
       <c r="N264" s="28"/>
       <c r="P264" s="28"/>
     </row>
-    <row r="265" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A265" s="27"/>
       <c r="B265" s="28"/>
       <c r="C265" s="28"/>
@@ -7459,7 +7515,7 @@
       <c r="N265" s="28"/>
       <c r="P265" s="28"/>
     </row>
-    <row r="266" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A266" s="27"/>
       <c r="B266" s="28"/>
       <c r="C266" s="28"/>
@@ -7474,7 +7530,7 @@
       <c r="N266" s="28"/>
       <c r="P266" s="28"/>
     </row>
-    <row r="267" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A267" s="27"/>
       <c r="B267" s="28"/>
       <c r="C267" s="28"/>
@@ -7489,7 +7545,7 @@
       <c r="N267" s="28"/>
       <c r="P267" s="28"/>
     </row>
-    <row r="268" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A268" s="27"/>
       <c r="B268" s="28"/>
       <c r="C268" s="28"/>
@@ -7504,7 +7560,7 @@
       <c r="N268" s="28"/>
       <c r="P268" s="28"/>
     </row>
-    <row r="269" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A269" s="27"/>
       <c r="B269" s="28"/>
       <c r="C269" s="28"/>
@@ -7519,7 +7575,7 @@
       <c r="N269" s="28"/>
       <c r="P269" s="28"/>
     </row>
-    <row r="270" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A270" s="27"/>
       <c r="B270" s="28"/>
       <c r="C270" s="28"/>
@@ -7534,7 +7590,7 @@
       <c r="N270" s="28"/>
       <c r="P270" s="28"/>
     </row>
-    <row r="271" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A271" s="27"/>
       <c r="B271" s="28"/>
       <c r="C271" s="28"/>
@@ -7549,7 +7605,7 @@
       <c r="N271" s="28"/>
       <c r="P271" s="28"/>
     </row>
-    <row r="272" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A272" s="27"/>
       <c r="B272" s="28"/>
       <c r="C272" s="28"/>
@@ -7564,7 +7620,7 @@
       <c r="N272" s="28"/>
       <c r="P272" s="28"/>
     </row>
-    <row r="273" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A273" s="27"/>
       <c r="B273" s="28"/>
       <c r="C273" s="28"/>
@@ -7579,7 +7635,7 @@
       <c r="N273" s="28"/>
       <c r="P273" s="28"/>
     </row>
-    <row r="274" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A274" s="27"/>
       <c r="B274" s="28"/>
       <c r="C274" s="28"/>
@@ -7594,7 +7650,7 @@
       <c r="N274" s="28"/>
       <c r="P274" s="28"/>
     </row>
-    <row r="275" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A275" s="27"/>
       <c r="B275" s="28"/>
       <c r="C275" s="28"/>
@@ -7609,7 +7665,7 @@
       <c r="N275" s="28"/>
       <c r="P275" s="28"/>
     </row>
-    <row r="276" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A276" s="27"/>
       <c r="B276" s="28"/>
       <c r="C276" s="28"/>
@@ -7624,7 +7680,7 @@
       <c r="N276" s="28"/>
       <c r="P276" s="28"/>
     </row>
-    <row r="277" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A277" s="27"/>
       <c r="B277" s="28"/>
       <c r="C277" s="28"/>
@@ -7639,7 +7695,7 @@
       <c r="N277" s="28"/>
       <c r="P277" s="28"/>
     </row>
-    <row r="278" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A278" s="27"/>
       <c r="B278" s="28"/>
       <c r="C278" s="28"/>
@@ -7654,7 +7710,7 @@
       <c r="N278" s="28"/>
       <c r="P278" s="28"/>
     </row>
-    <row r="279" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A279" s="27"/>
       <c r="B279" s="28"/>
       <c r="C279" s="28"/>
@@ -7669,7 +7725,7 @@
       <c r="N279" s="28"/>
       <c r="P279" s="28"/>
     </row>
-    <row r="280" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A280" s="27"/>
       <c r="B280" s="28"/>
       <c r="C280" s="28"/>
@@ -7684,7 +7740,7 @@
       <c r="N280" s="28"/>
       <c r="P280" s="28"/>
     </row>
-    <row r="281" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A281" s="27"/>
       <c r="B281" s="28"/>
       <c r="C281" s="28"/>
@@ -7699,7 +7755,7 @@
       <c r="N281" s="28"/>
       <c r="P281" s="28"/>
     </row>
-    <row r="282" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A282" s="27"/>
       <c r="B282" s="28"/>
       <c r="C282" s="28"/>
@@ -7714,7 +7770,7 @@
       <c r="N282" s="28"/>
       <c r="P282" s="28"/>
     </row>
-    <row r="283" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A283" s="27"/>
       <c r="B283" s="28"/>
       <c r="C283" s="28"/>
@@ -7729,7 +7785,7 @@
       <c r="N283" s="28"/>
       <c r="P283" s="28"/>
     </row>
-    <row r="284" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A284" s="27"/>
       <c r="B284" s="28"/>
       <c r="C284" s="28"/>
@@ -7744,7 +7800,7 @@
       <c r="N284" s="28"/>
       <c r="P284" s="28"/>
     </row>
-    <row r="285" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A285" s="27"/>
       <c r="B285" s="28"/>
       <c r="C285" s="28"/>
@@ -7759,7 +7815,7 @@
       <c r="N285" s="28"/>
       <c r="P285" s="28"/>
     </row>
-    <row r="286" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A286" s="27"/>
       <c r="B286" s="28"/>
       <c r="C286" s="28"/>
@@ -7774,7 +7830,7 @@
       <c r="N286" s="28"/>
       <c r="P286" s="28"/>
     </row>
-    <row r="287" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A287" s="27"/>
       <c r="B287" s="28"/>
       <c r="C287" s="28"/>
@@ -7789,7 +7845,7 @@
       <c r="N287" s="28"/>
       <c r="P287" s="28"/>
     </row>
-    <row r="288" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A288" s="27"/>
       <c r="B288" s="28"/>
       <c r="C288" s="28"/>
@@ -7804,7 +7860,7 @@
       <c r="N288" s="28"/>
       <c r="P288" s="28"/>
     </row>
-    <row r="289" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A289" s="27"/>
       <c r="B289" s="28"/>
       <c r="C289" s="28"/>
@@ -7819,7 +7875,7 @@
       <c r="N289" s="28"/>
       <c r="P289" s="28"/>
     </row>
-    <row r="290" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A290" s="27"/>
       <c r="B290" s="28"/>
       <c r="C290" s="28"/>
@@ -7834,7 +7890,7 @@
       <c r="N290" s="28"/>
       <c r="P290" s="28"/>
     </row>
-    <row r="291" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A291" s="27"/>
       <c r="B291" s="28"/>
       <c r="C291" s="28"/>
@@ -7849,7 +7905,7 @@
       <c r="N291" s="28"/>
       <c r="P291" s="28"/>
     </row>
-    <row r="292" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A292" s="27"/>
       <c r="B292" s="28"/>
       <c r="C292" s="28"/>
@@ -7864,7 +7920,7 @@
       <c r="N292" s="28"/>
       <c r="P292" s="28"/>
     </row>
-    <row r="293" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A293" s="27"/>
       <c r="B293" s="28"/>
       <c r="C293" s="28"/>
@@ -7879,7 +7935,7 @@
       <c r="N293" s="28"/>
       <c r="P293" s="28"/>
     </row>
-    <row r="294" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A294" s="27"/>
       <c r="B294" s="28"/>
       <c r="C294" s="28"/>
@@ -7894,7 +7950,7 @@
       <c r="N294" s="28"/>
       <c r="P294" s="28"/>
     </row>
-    <row r="295" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A295" s="27"/>
       <c r="B295" s="28"/>
       <c r="C295" s="28"/>
@@ -7909,7 +7965,7 @@
       <c r="N295" s="28"/>
       <c r="P295" s="28"/>
     </row>
-    <row r="296" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A296" s="27"/>
       <c r="B296" s="28"/>
       <c r="C296" s="28"/>
@@ -7924,7 +7980,7 @@
       <c r="N296" s="28"/>
       <c r="P296" s="28"/>
     </row>
-    <row r="297" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A297" s="27"/>
       <c r="B297" s="28"/>
       <c r="C297" s="28"/>
@@ -7939,7 +7995,7 @@
       <c r="N297" s="28"/>
       <c r="P297" s="28"/>
     </row>
-    <row r="298" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A298" s="27"/>
       <c r="B298" s="28"/>
       <c r="C298" s="28"/>
@@ -7954,7 +8010,7 @@
       <c r="N298" s="28"/>
       <c r="P298" s="28"/>
     </row>
-    <row r="299" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A299" s="27"/>
       <c r="B299" s="28"/>
       <c r="C299" s="28"/>
@@ -7969,7 +8025,7 @@
       <c r="N299" s="28"/>
       <c r="P299" s="28"/>
     </row>
-    <row r="300" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A300" s="27"/>
       <c r="B300" s="28"/>
       <c r="C300" s="28"/>
@@ -7984,7 +8040,7 @@
       <c r="N300" s="28"/>
       <c r="P300" s="28"/>
     </row>
-    <row r="301" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A301" s="27"/>
       <c r="B301" s="28"/>
       <c r="C301" s="28"/>
@@ -7999,7 +8055,7 @@
       <c r="N301" s="28"/>
       <c r="P301" s="28"/>
     </row>
-    <row r="302" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A302" s="27"/>
       <c r="B302" s="28"/>
       <c r="C302" s="28"/>
@@ -8014,7 +8070,7 @@
       <c r="N302" s="28"/>
       <c r="P302" s="28"/>
     </row>
-    <row r="303" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A303" s="27"/>
       <c r="B303" s="28"/>
       <c r="C303" s="28"/>
@@ -8029,7 +8085,7 @@
       <c r="N303" s="28"/>
       <c r="P303" s="28"/>
     </row>
-    <row r="304" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A304" s="27"/>
       <c r="B304" s="28"/>
       <c r="C304" s="28"/>
@@ -8044,7 +8100,7 @@
       <c r="N304" s="28"/>
       <c r="P304" s="28"/>
     </row>
-    <row r="305" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A305" s="27"/>
       <c r="B305" s="28"/>
       <c r="C305" s="28"/>
@@ -8059,7 +8115,7 @@
       <c r="N305" s="28"/>
       <c r="P305" s="28"/>
     </row>
-    <row r="306" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A306" s="27"/>
       <c r="B306" s="28"/>
       <c r="C306" s="28"/>
@@ -8074,7 +8130,7 @@
       <c r="N306" s="28"/>
       <c r="P306" s="28"/>
     </row>
-    <row r="307" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A307" s="27"/>
       <c r="B307" s="28"/>
       <c r="C307" s="28"/>
@@ -8089,7 +8145,7 @@
       <c r="N307" s="28"/>
       <c r="P307" s="28"/>
     </row>
-    <row r="308" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A308" s="27"/>
       <c r="B308" s="28"/>
       <c r="C308" s="28"/>
@@ -8104,7 +8160,7 @@
       <c r="N308" s="28"/>
       <c r="P308" s="28"/>
     </row>
-    <row r="309" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A309" s="27"/>
       <c r="B309" s="28"/>
       <c r="C309" s="28"/>
@@ -8119,7 +8175,7 @@
       <c r="N309" s="28"/>
       <c r="P309" s="28"/>
     </row>
-    <row r="310" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="310" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A310" s="27"/>
       <c r="B310" s="28"/>
       <c r="C310" s="28"/>
@@ -8134,7 +8190,7 @@
       <c r="N310" s="28"/>
       <c r="P310" s="28"/>
     </row>
-    <row r="311" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A311" s="27"/>
       <c r="B311" s="28"/>
       <c r="C311" s="28"/>
@@ -8149,7 +8205,7 @@
       <c r="N311" s="28"/>
       <c r="P311" s="28"/>
     </row>
-    <row r="312" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A312" s="27"/>
       <c r="B312" s="28"/>
       <c r="C312" s="28"/>
@@ -8164,7 +8220,7 @@
       <c r="N312" s="28"/>
       <c r="P312" s="28"/>
     </row>
-    <row r="313" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A313" s="27"/>
       <c r="B313" s="28"/>
       <c r="C313" s="28"/>
@@ -8179,7 +8235,7 @@
       <c r="N313" s="28"/>
       <c r="P313" s="28"/>
     </row>
-    <row r="314" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A314" s="27"/>
       <c r="B314" s="28"/>
       <c r="C314" s="28"/>
@@ -8194,7 +8250,7 @@
       <c r="N314" s="28"/>
       <c r="P314" s="28"/>
     </row>
-    <row r="315" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A315" s="27"/>
       <c r="B315" s="28"/>
       <c r="C315" s="28"/>
@@ -8209,7 +8265,7 @@
       <c r="N315" s="28"/>
       <c r="P315" s="28"/>
     </row>
-    <row r="316" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="316" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A316" s="27"/>
       <c r="B316" s="28"/>
       <c r="C316" s="28"/>
@@ -8224,7 +8280,7 @@
       <c r="N316" s="28"/>
       <c r="P316" s="28"/>
     </row>
-    <row r="317" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A317" s="27"/>
       <c r="B317" s="28"/>
       <c r="C317" s="28"/>
@@ -8239,7 +8295,7 @@
       <c r="N317" s="28"/>
       <c r="P317" s="28"/>
     </row>
-    <row r="318" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A318" s="27"/>
       <c r="B318" s="28"/>
       <c r="C318" s="28"/>
@@ -8254,7 +8310,7 @@
       <c r="N318" s="28"/>
       <c r="P318" s="28"/>
     </row>
-    <row r="319" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="319" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A319" s="27"/>
       <c r="B319" s="28"/>
       <c r="C319" s="28"/>
@@ -8269,7 +8325,7 @@
       <c r="N319" s="28"/>
       <c r="P319" s="28"/>
     </row>
-    <row r="320" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="320" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A320" s="27"/>
       <c r="B320" s="28"/>
       <c r="C320" s="28"/>
@@ -8284,7 +8340,7 @@
       <c r="N320" s="28"/>
       <c r="P320" s="28"/>
     </row>
-    <row r="321" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="321" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A321" s="27"/>
       <c r="B321" s="28"/>
       <c r="C321" s="28"/>
@@ -8299,7 +8355,7 @@
       <c r="N321" s="28"/>
       <c r="P321" s="28"/>
     </row>
-    <row r="322" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="322" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A322" s="27"/>
       <c r="B322" s="28"/>
       <c r="C322" s="28"/>
@@ -8314,7 +8370,7 @@
       <c r="N322" s="28"/>
       <c r="P322" s="28"/>
     </row>
-    <row r="323" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="323" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A323" s="27"/>
       <c r="B323" s="28"/>
       <c r="C323" s="28"/>
@@ -8329,7 +8385,7 @@
       <c r="N323" s="28"/>
       <c r="P323" s="28"/>
     </row>
-    <row r="324" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="324" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A324" s="27"/>
       <c r="B324" s="28"/>
       <c r="C324" s="28"/>
@@ -8344,7 +8400,7 @@
       <c r="N324" s="28"/>
       <c r="P324" s="28"/>
     </row>
-    <row r="325" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="325" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A325" s="27"/>
       <c r="B325" s="28"/>
       <c r="C325" s="28"/>
@@ -8359,7 +8415,7 @@
       <c r="N325" s="28"/>
       <c r="P325" s="28"/>
     </row>
-    <row r="326" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="326" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A326" s="27"/>
       <c r="B326" s="28"/>
       <c r="C326" s="28"/>
@@ -8374,7 +8430,7 @@
       <c r="N326" s="28"/>
       <c r="P326" s="28"/>
     </row>
-    <row r="327" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="327" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A327" s="27"/>
       <c r="B327" s="28"/>
       <c r="C327" s="28"/>
@@ -8389,7 +8445,7 @@
       <c r="N327" s="28"/>
       <c r="P327" s="28"/>
     </row>
-    <row r="328" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="328" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A328" s="27"/>
       <c r="B328" s="28"/>
       <c r="C328" s="28"/>
@@ -8404,7 +8460,7 @@
       <c r="N328" s="28"/>
       <c r="P328" s="28"/>
     </row>
-    <row r="329" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="329" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A329" s="27"/>
       <c r="B329" s="28"/>
       <c r="C329" s="28"/>
@@ -8419,7 +8475,7 @@
       <c r="N329" s="28"/>
       <c r="P329" s="28"/>
     </row>
-    <row r="330" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="330" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A330" s="27"/>
       <c r="B330" s="28"/>
       <c r="C330" s="28"/>
@@ -8434,7 +8490,7 @@
       <c r="N330" s="28"/>
       <c r="P330" s="28"/>
     </row>
-    <row r="331" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="331" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A331" s="27"/>
       <c r="B331" s="28"/>
       <c r="C331" s="28"/>
@@ -8449,7 +8505,7 @@
       <c r="N331" s="28"/>
       <c r="P331" s="28"/>
     </row>
-    <row r="332" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="332" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A332" s="27"/>
       <c r="B332" s="28"/>
       <c r="C332" s="28"/>
@@ -8464,7 +8520,7 @@
       <c r="N332" s="28"/>
       <c r="P332" s="28"/>
     </row>
-    <row r="333" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="333" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A333" s="27"/>
       <c r="B333" s="28"/>
       <c r="C333" s="28"/>
@@ -8479,7 +8535,7 @@
       <c r="N333" s="28"/>
       <c r="P333" s="28"/>
     </row>
-    <row r="334" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="334" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A334" s="27"/>
       <c r="B334" s="28"/>
       <c r="C334" s="28"/>
@@ -8494,7 +8550,7 @@
       <c r="N334" s="28"/>
       <c r="P334" s="28"/>
     </row>
-    <row r="335" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="335" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A335" s="27"/>
       <c r="B335" s="28"/>
       <c r="C335" s="28"/>
@@ -8509,7 +8565,7 @@
       <c r="N335" s="28"/>
       <c r="P335" s="28"/>
     </row>
-    <row r="336" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="336" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A336" s="27"/>
       <c r="B336" s="28"/>
       <c r="C336" s="28"/>
@@ -8524,7 +8580,7 @@
       <c r="N336" s="28"/>
       <c r="P336" s="28"/>
     </row>
-    <row r="337" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="337" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A337" s="27"/>
       <c r="B337" s="28"/>
       <c r="C337" s="28"/>
@@ -8539,7 +8595,7 @@
       <c r="N337" s="28"/>
       <c r="P337" s="28"/>
     </row>
-    <row r="338" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="338" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A338" s="27"/>
       <c r="B338" s="28"/>
       <c r="C338" s="28"/>
@@ -8554,7 +8610,7 @@
       <c r="N338" s="28"/>
       <c r="P338" s="28"/>
     </row>
-    <row r="339" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="339" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A339" s="27"/>
       <c r="B339" s="28"/>
       <c r="C339" s="28"/>
@@ -8569,7 +8625,7 @@
       <c r="N339" s="28"/>
       <c r="P339" s="28"/>
     </row>
-    <row r="340" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="340" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A340" s="27"/>
       <c r="B340" s="28"/>
       <c r="C340" s="28"/>
@@ -8584,7 +8640,7 @@
       <c r="N340" s="28"/>
       <c r="P340" s="28"/>
     </row>
-    <row r="341" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="341" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A341" s="27"/>
       <c r="B341" s="28"/>
       <c r="C341" s="28"/>
@@ -8599,7 +8655,7 @@
       <c r="N341" s="28"/>
       <c r="P341" s="28"/>
     </row>
-    <row r="342" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="342" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A342" s="27"/>
       <c r="B342" s="28"/>
       <c r="C342" s="28"/>
@@ -8614,7 +8670,7 @@
       <c r="N342" s="28"/>
       <c r="P342" s="28"/>
     </row>
-    <row r="343" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="343" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A343" s="27"/>
       <c r="B343" s="28"/>
       <c r="C343" s="28"/>
@@ -8629,7 +8685,7 @@
       <c r="N343" s="28"/>
       <c r="P343" s="28"/>
     </row>
-    <row r="344" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="344" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A344" s="27"/>
       <c r="B344" s="28"/>
       <c r="C344" s="28"/>
@@ -8644,7 +8700,7 @@
       <c r="N344" s="28"/>
       <c r="P344" s="28"/>
     </row>
-    <row r="345" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="345" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A345" s="27"/>
       <c r="B345" s="28"/>
       <c r="C345" s="28"/>
@@ -8659,7 +8715,7 @@
       <c r="N345" s="28"/>
       <c r="P345" s="28"/>
     </row>
-    <row r="346" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="346" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A346" s="27"/>
       <c r="B346" s="28"/>
       <c r="C346" s="28"/>
@@ -8674,7 +8730,7 @@
       <c r="N346" s="28"/>
       <c r="P346" s="28"/>
     </row>
-    <row r="347" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="347" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A347" s="27"/>
       <c r="B347" s="28"/>
       <c r="C347" s="28"/>
@@ -8689,7 +8745,7 @@
       <c r="N347" s="28"/>
       <c r="P347" s="28"/>
     </row>
-    <row r="348" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="348" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A348" s="27"/>
       <c r="B348" s="28"/>
       <c r="C348" s="28"/>
@@ -8704,7 +8760,7 @@
       <c r="N348" s="28"/>
       <c r="P348" s="28"/>
     </row>
-    <row r="349" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="349" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A349" s="27"/>
       <c r="B349" s="28"/>
       <c r="C349" s="28"/>
@@ -8719,7 +8775,7 @@
       <c r="N349" s="28"/>
       <c r="P349" s="28"/>
     </row>
-    <row r="350" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="350" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A350" s="27"/>
       <c r="B350" s="28"/>
       <c r="C350" s="28"/>
@@ -8734,7 +8790,7 @@
       <c r="N350" s="28"/>
       <c r="P350" s="28"/>
     </row>
-    <row r="351" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="351" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A351" s="27"/>
       <c r="B351" s="28"/>
       <c r="C351" s="28"/>
@@ -8749,7 +8805,7 @@
       <c r="N351" s="28"/>
       <c r="P351" s="28"/>
     </row>
-    <row r="352" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="352" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A352" s="27"/>
       <c r="B352" s="28"/>
       <c r="C352" s="28"/>
@@ -8764,7 +8820,7 @@
       <c r="N352" s="28"/>
       <c r="P352" s="28"/>
     </row>
-    <row r="353" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="353" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A353" s="27"/>
       <c r="B353" s="28"/>
       <c r="C353" s="28"/>
@@ -8779,7 +8835,7 @@
       <c r="N353" s="28"/>
       <c r="P353" s="28"/>
     </row>
-    <row r="354" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="354" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A354" s="27"/>
       <c r="B354" s="28"/>
       <c r="C354" s="28"/>
@@ -8794,7 +8850,7 @@
       <c r="N354" s="28"/>
       <c r="P354" s="28"/>
     </row>
-    <row r="355" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="355" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A355" s="27"/>
       <c r="B355" s="28"/>
       <c r="C355" s="28"/>
@@ -8809,7 +8865,7 @@
       <c r="N355" s="28"/>
       <c r="P355" s="28"/>
     </row>
-    <row r="356" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="356" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A356" s="27"/>
       <c r="B356" s="28"/>
       <c r="C356" s="28"/>
@@ -8824,7 +8880,7 @@
       <c r="N356" s="28"/>
       <c r="P356" s="28"/>
     </row>
-    <row r="357" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="357" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A357" s="27"/>
       <c r="B357" s="28"/>
       <c r="C357" s="28"/>
@@ -8839,7 +8895,7 @@
       <c r="N357" s="28"/>
       <c r="P357" s="28"/>
     </row>
-    <row r="358" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="358" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A358" s="27"/>
       <c r="B358" s="28"/>
       <c r="C358" s="28"/>
@@ -8854,7 +8910,7 @@
       <c r="N358" s="28"/>
       <c r="P358" s="28"/>
     </row>
-    <row r="359" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="359" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A359" s="27"/>
       <c r="B359" s="28"/>
       <c r="C359" s="28"/>
@@ -8869,7 +8925,7 @@
       <c r="N359" s="28"/>
       <c r="P359" s="28"/>
     </row>
-    <row r="360" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="360" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A360" s="27"/>
       <c r="B360" s="28"/>
       <c r="C360" s="28"/>
@@ -8884,7 +8940,7 @@
       <c r="N360" s="28"/>
       <c r="P360" s="28"/>
     </row>
-    <row r="361" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="361" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A361" s="27"/>
       <c r="B361" s="28"/>
       <c r="C361" s="28"/>
@@ -8899,7 +8955,7 @@
       <c r="N361" s="28"/>
       <c r="P361" s="28"/>
     </row>
-    <row r="362" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="362" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A362" s="27"/>
       <c r="B362" s="28"/>
       <c r="C362" s="28"/>
@@ -8914,7 +8970,7 @@
       <c r="N362" s="28"/>
       <c r="P362" s="28"/>
     </row>
-    <row r="363" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="363" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A363" s="27"/>
       <c r="B363" s="28"/>
       <c r="C363" s="28"/>
@@ -8929,7 +8985,7 @@
       <c r="N363" s="28"/>
       <c r="P363" s="28"/>
     </row>
-    <row r="364" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="364" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A364" s="27"/>
       <c r="B364" s="28"/>
       <c r="C364" s="28"/>
@@ -8944,7 +9000,7 @@
       <c r="N364" s="28"/>
       <c r="P364" s="28"/>
     </row>
-    <row r="365" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="365" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A365" s="27"/>
       <c r="B365" s="28"/>
       <c r="C365" s="28"/>
@@ -8959,7 +9015,7 @@
       <c r="N365" s="28"/>
       <c r="P365" s="28"/>
     </row>
-    <row r="366" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="366" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A366" s="27"/>
       <c r="B366" s="28"/>
       <c r="C366" s="28"/>
@@ -8974,7 +9030,7 @@
       <c r="N366" s="28"/>
       <c r="P366" s="28"/>
     </row>
-    <row r="367" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="367" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A367" s="27"/>
       <c r="B367" s="28"/>
       <c r="C367" s="28"/>
@@ -8989,7 +9045,7 @@
       <c r="N367" s="28"/>
       <c r="P367" s="28"/>
     </row>
-    <row r="368" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="368" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A368" s="27"/>
       <c r="B368" s="28"/>
       <c r="C368" s="28"/>
@@ -9004,7 +9060,7 @@
       <c r="N368" s="28"/>
       <c r="P368" s="28"/>
     </row>
-    <row r="369" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="369" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A369" s="27"/>
       <c r="B369" s="28"/>
       <c r="C369" s="28"/>
@@ -9019,7 +9075,7 @@
       <c r="N369" s="28"/>
       <c r="P369" s="28"/>
     </row>
-    <row r="370" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="370" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A370" s="27"/>
       <c r="B370" s="28"/>
       <c r="C370" s="28"/>
@@ -9034,7 +9090,7 @@
       <c r="N370" s="28"/>
       <c r="P370" s="28"/>
     </row>
-    <row r="371" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="371" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A371" s="27"/>
       <c r="B371" s="28"/>
       <c r="C371" s="28"/>
@@ -9049,7 +9105,7 @@
       <c r="N371" s="28"/>
       <c r="P371" s="28"/>
     </row>
-    <row r="372" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="372" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A372" s="27"/>
       <c r="B372" s="28"/>
       <c r="C372" s="28"/>
@@ -9064,7 +9120,7 @@
       <c r="N372" s="28"/>
       <c r="P372" s="28"/>
     </row>
-    <row r="373" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="373" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A373" s="27"/>
       <c r="B373" s="28"/>
       <c r="C373" s="28"/>
@@ -9079,7 +9135,7 @@
       <c r="N373" s="28"/>
       <c r="P373" s="28"/>
     </row>
-    <row r="374" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="374" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A374" s="27"/>
       <c r="B374" s="28"/>
       <c r="C374" s="28"/>
@@ -9094,7 +9150,7 @@
       <c r="N374" s="28"/>
       <c r="P374" s="28"/>
     </row>
-    <row r="375" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="375" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A375" s="27"/>
       <c r="B375" s="28"/>
       <c r="C375" s="28"/>
@@ -9109,7 +9165,7 @@
       <c r="N375" s="28"/>
       <c r="P375" s="28"/>
     </row>
-    <row r="376" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="376" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A376" s="27"/>
       <c r="B376" s="28"/>
       <c r="C376" s="28"/>
@@ -9124,7 +9180,7 @@
       <c r="N376" s="28"/>
       <c r="P376" s="28"/>
     </row>
-    <row r="377" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="377" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A377" s="27"/>
       <c r="B377" s="28"/>
       <c r="C377" s="28"/>
@@ -9139,7 +9195,7 @@
       <c r="N377" s="28"/>
       <c r="P377" s="28"/>
     </row>
-    <row r="378" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="378" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A378" s="27"/>
       <c r="B378" s="28"/>
       <c r="C378" s="28"/>
@@ -9154,7 +9210,7 @@
       <c r="N378" s="28"/>
       <c r="P378" s="28"/>
     </row>
-    <row r="379" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="379" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A379" s="27"/>
       <c r="B379" s="28"/>
       <c r="C379" s="28"/>
@@ -9169,7 +9225,7 @@
       <c r="N379" s="28"/>
       <c r="P379" s="28"/>
     </row>
-    <row r="380" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="380" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A380" s="27"/>
       <c r="B380" s="28"/>
       <c r="C380" s="28"/>
@@ -9184,7 +9240,7 @@
       <c r="N380" s="28"/>
       <c r="P380" s="28"/>
     </row>
-    <row r="381" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="381" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A381" s="27"/>
       <c r="B381" s="28"/>
       <c r="C381" s="28"/>
@@ -9199,7 +9255,7 @@
       <c r="N381" s="28"/>
       <c r="P381" s="28"/>
     </row>
-    <row r="382" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="382" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A382" s="27"/>
       <c r="B382" s="28"/>
       <c r="C382" s="28"/>
@@ -9214,7 +9270,7 @@
       <c r="N382" s="28"/>
       <c r="P382" s="28"/>
     </row>
-    <row r="383" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="383" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A383" s="27"/>
       <c r="B383" s="28"/>
       <c r="C383" s="28"/>
@@ -9229,7 +9285,7 @@
       <c r="N383" s="28"/>
       <c r="P383" s="28"/>
     </row>
-    <row r="384" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="384" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A384" s="27"/>
       <c r="B384" s="28"/>
       <c r="C384" s="28"/>
@@ -9244,7 +9300,7 @@
       <c r="N384" s="28"/>
       <c r="P384" s="28"/>
     </row>
-    <row r="385" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="385" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A385" s="27"/>
       <c r="B385" s="28"/>
       <c r="C385" s="28"/>
@@ -9259,7 +9315,7 @@
       <c r="N385" s="28"/>
       <c r="P385" s="28"/>
     </row>
-    <row r="386" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="386" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A386" s="27"/>
       <c r="B386" s="28"/>
       <c r="C386" s="28"/>
@@ -9274,7 +9330,7 @@
       <c r="N386" s="28"/>
       <c r="P386" s="28"/>
     </row>
-    <row r="387" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="387" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A387" s="27"/>
       <c r="B387" s="28"/>
       <c r="C387" s="28"/>
@@ -9289,7 +9345,7 @@
       <c r="N387" s="28"/>
       <c r="P387" s="28"/>
     </row>
-    <row r="388" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="388" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A388" s="27"/>
       <c r="B388" s="28"/>
       <c r="C388" s="28"/>
@@ -9304,7 +9360,7 @@
       <c r="N388" s="28"/>
       <c r="P388" s="28"/>
     </row>
-    <row r="389" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="389" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A389" s="27"/>
       <c r="B389" s="28"/>
       <c r="C389" s="28"/>
@@ -9319,7 +9375,7 @@
       <c r="N389" s="28"/>
       <c r="P389" s="28"/>
     </row>
-    <row r="390" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="390" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A390" s="27"/>
       <c r="B390" s="28"/>
       <c r="C390" s="28"/>
@@ -9334,7 +9390,7 @@
       <c r="N390" s="28"/>
       <c r="P390" s="28"/>
     </row>
-    <row r="391" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="391" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A391" s="27"/>
       <c r="B391" s="28"/>
       <c r="C391" s="28"/>
@@ -9349,7 +9405,7 @@
       <c r="N391" s="28"/>
       <c r="P391" s="28"/>
     </row>
-    <row r="392" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="392" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A392" s="27"/>
       <c r="B392" s="28"/>
       <c r="C392" s="28"/>
@@ -9364,7 +9420,7 @@
       <c r="N392" s="28"/>
       <c r="P392" s="28"/>
     </row>
-    <row r="393" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="393" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A393" s="27"/>
       <c r="B393" s="28"/>
       <c r="C393" s="28"/>
@@ -9379,7 +9435,7 @@
       <c r="N393" s="28"/>
       <c r="P393" s="28"/>
     </row>
-    <row r="394" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="394" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A394" s="27"/>
       <c r="B394" s="28"/>
       <c r="C394" s="28"/>
@@ -9394,7 +9450,7 @@
       <c r="N394" s="28"/>
       <c r="P394" s="28"/>
     </row>
-    <row r="395" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="395" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A395" s="27"/>
       <c r="B395" s="28"/>
       <c r="C395" s="28"/>
@@ -9409,7 +9465,7 @@
       <c r="N395" s="28"/>
       <c r="P395" s="28"/>
     </row>
-    <row r="396" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="396" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A396" s="27"/>
       <c r="B396" s="28"/>
       <c r="C396" s="28"/>
@@ -9424,7 +9480,7 @@
       <c r="N396" s="28"/>
       <c r="P396" s="28"/>
     </row>
-    <row r="397" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="397" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A397" s="27"/>
       <c r="B397" s="28"/>
       <c r="C397" s="28"/>
@@ -9439,7 +9495,7 @@
       <c r="N397" s="28"/>
       <c r="P397" s="28"/>
     </row>
-    <row r="398" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="398" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A398" s="27"/>
       <c r="B398" s="28"/>
       <c r="C398" s="28"/>
@@ -9454,7 +9510,7 @@
       <c r="N398" s="28"/>
       <c r="P398" s="28"/>
     </row>
-    <row r="399" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="399" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A399" s="27"/>
       <c r="B399" s="28"/>
       <c r="C399" s="28"/>
@@ -9469,7 +9525,7 @@
       <c r="N399" s="28"/>
       <c r="P399" s="28"/>
     </row>
-    <row r="400" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="400" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A400" s="27"/>
       <c r="B400" s="28"/>
       <c r="C400" s="28"/>
@@ -9484,7 +9540,7 @@
       <c r="N400" s="28"/>
       <c r="P400" s="28"/>
     </row>
-    <row r="401" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="401" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A401" s="27"/>
       <c r="B401" s="28"/>
       <c r="C401" s="28"/>
@@ -9499,7 +9555,7 @@
       <c r="N401" s="28"/>
       <c r="P401" s="28"/>
     </row>
-    <row r="402" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="402" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A402" s="27"/>
       <c r="B402" s="28"/>
       <c r="C402" s="28"/>
@@ -9514,7 +9570,7 @@
       <c r="N402" s="28"/>
       <c r="P402" s="28"/>
     </row>
-    <row r="403" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="403" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A403" s="27"/>
       <c r="B403" s="28"/>
       <c r="C403" s="28"/>
@@ -9529,7 +9585,7 @@
       <c r="N403" s="28"/>
       <c r="P403" s="28"/>
     </row>
-    <row r="404" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="404" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A404" s="27"/>
       <c r="B404" s="28"/>
       <c r="C404" s="28"/>
@@ -9544,7 +9600,7 @@
       <c r="N404" s="28"/>
       <c r="P404" s="28"/>
     </row>
-    <row r="405" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="405" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A405" s="27"/>
       <c r="B405" s="28"/>
       <c r="C405" s="28"/>
@@ -9559,7 +9615,7 @@
       <c r="N405" s="28"/>
       <c r="P405" s="28"/>
     </row>
-    <row r="406" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="406" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A406" s="27"/>
       <c r="B406" s="28"/>
       <c r="C406" s="28"/>
@@ -9574,7 +9630,7 @@
       <c r="N406" s="28"/>
       <c r="P406" s="28"/>
     </row>
-    <row r="407" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="407" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A407" s="27"/>
       <c r="B407" s="28"/>
       <c r="C407" s="28"/>
@@ -9589,7 +9645,7 @@
       <c r="N407" s="28"/>
       <c r="P407" s="28"/>
     </row>
-    <row r="408" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="408" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A408" s="27"/>
       <c r="B408" s="28"/>
       <c r="C408" s="28"/>
@@ -9604,7 +9660,7 @@
       <c r="N408" s="28"/>
       <c r="P408" s="28"/>
     </row>
-    <row r="409" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="409" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A409" s="27"/>
       <c r="B409" s="28"/>
       <c r="C409" s="28"/>
@@ -9619,7 +9675,7 @@
       <c r="N409" s="28"/>
       <c r="P409" s="28"/>
     </row>
-    <row r="410" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="410" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A410" s="27"/>
       <c r="B410" s="28"/>
       <c r="C410" s="28"/>
@@ -9634,7 +9690,7 @@
       <c r="N410" s="28"/>
       <c r="P410" s="28"/>
     </row>
-    <row r="411" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="411" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A411" s="27"/>
       <c r="B411" s="28"/>
       <c r="C411" s="28"/>
@@ -9649,7 +9705,7 @@
       <c r="N411" s="28"/>
       <c r="P411" s="28"/>
     </row>
-    <row r="412" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="412" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A412" s="27"/>
       <c r="B412" s="28"/>
       <c r="C412" s="28"/>
@@ -9664,7 +9720,7 @@
       <c r="N412" s="28"/>
       <c r="P412" s="28"/>
     </row>
-    <row r="413" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="413" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A413" s="27"/>
       <c r="B413" s="28"/>
       <c r="C413" s="28"/>
@@ -9679,7 +9735,7 @@
       <c r="N413" s="28"/>
       <c r="P413" s="28"/>
     </row>
-    <row r="414" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="414" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A414" s="27"/>
       <c r="B414" s="28"/>
       <c r="C414" s="28"/>
@@ -9694,7 +9750,7 @@
       <c r="N414" s="28"/>
       <c r="P414" s="28"/>
     </row>
-    <row r="415" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="415" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A415" s="27"/>
       <c r="B415" s="28"/>
       <c r="C415" s="28"/>
@@ -9709,7 +9765,7 @@
       <c r="N415" s="28"/>
       <c r="P415" s="28"/>
     </row>
-    <row r="416" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="416" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A416" s="27"/>
       <c r="B416" s="28"/>
       <c r="C416" s="28"/>
@@ -9724,7 +9780,7 @@
       <c r="N416" s="28"/>
       <c r="P416" s="28"/>
     </row>
-    <row r="417" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="417" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A417" s="27"/>
       <c r="B417" s="28"/>
       <c r="C417" s="28"/>
@@ -9739,7 +9795,7 @@
       <c r="N417" s="28"/>
       <c r="P417" s="28"/>
     </row>
-    <row r="418" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="418" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A418" s="27"/>
       <c r="B418" s="28"/>
       <c r="C418" s="28"/>
@@ -9754,7 +9810,7 @@
       <c r="N418" s="28"/>
       <c r="P418" s="28"/>
     </row>
-    <row r="419" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="419" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A419" s="27"/>
       <c r="B419" s="28"/>
       <c r="C419" s="28"/>
@@ -9769,7 +9825,7 @@
       <c r="N419" s="28"/>
       <c r="P419" s="28"/>
     </row>
-    <row r="420" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="420" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A420" s="27"/>
       <c r="B420" s="28"/>
       <c r="C420" s="28"/>
@@ -9784,7 +9840,7 @@
       <c r="N420" s="28"/>
       <c r="P420" s="28"/>
     </row>
-    <row r="421" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="421" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A421" s="27"/>
       <c r="B421" s="28"/>
       <c r="C421" s="28"/>
@@ -9799,7 +9855,7 @@
       <c r="N421" s="28"/>
       <c r="P421" s="28"/>
     </row>
-    <row r="422" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="422" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A422" s="27"/>
       <c r="B422" s="28"/>
       <c r="C422" s="28"/>
@@ -9814,7 +9870,7 @@
       <c r="N422" s="28"/>
       <c r="P422" s="28"/>
     </row>
-    <row r="423" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="423" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A423" s="27"/>
       <c r="B423" s="28"/>
       <c r="C423" s="28"/>
@@ -9829,7 +9885,7 @@
       <c r="N423" s="28"/>
       <c r="P423" s="28"/>
     </row>
-    <row r="424" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="424" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A424" s="27"/>
       <c r="B424" s="28"/>
       <c r="C424" s="28"/>
@@ -9844,7 +9900,7 @@
       <c r="N424" s="28"/>
       <c r="P424" s="28"/>
     </row>
-    <row r="425" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="425" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A425" s="27"/>
       <c r="B425" s="28"/>
       <c r="C425" s="28"/>
@@ -9859,7 +9915,7 @@
       <c r="N425" s="28"/>
       <c r="P425" s="28"/>
     </row>
-    <row r="426" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="426" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A426" s="27"/>
       <c r="B426" s="28"/>
       <c r="C426" s="28"/>
@@ -9874,7 +9930,7 @@
       <c r="N426" s="28"/>
       <c r="P426" s="28"/>
     </row>
-    <row r="427" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="427" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A427" s="27"/>
       <c r="B427" s="28"/>
       <c r="C427" s="28"/>
@@ -9889,7 +9945,7 @@
       <c r="N427" s="28"/>
       <c r="P427" s="28"/>
     </row>
-    <row r="428" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="428" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A428" s="27"/>
       <c r="B428" s="28"/>
       <c r="C428" s="28"/>
@@ -9904,7 +9960,7 @@
       <c r="N428" s="28"/>
       <c r="P428" s="28"/>
     </row>
-    <row r="429" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="429" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A429" s="27"/>
       <c r="B429" s="28"/>
       <c r="C429" s="28"/>
@@ -9919,7 +9975,7 @@
       <c r="N429" s="28"/>
       <c r="P429" s="28"/>
     </row>
-    <row r="430" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="430" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A430" s="27"/>
       <c r="B430" s="28"/>
       <c r="C430" s="28"/>
@@ -9934,7 +9990,7 @@
       <c r="N430" s="28"/>
       <c r="P430" s="28"/>
     </row>
-    <row r="431" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="431" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A431" s="27"/>
       <c r="B431" s="28"/>
       <c r="C431" s="28"/>
@@ -9949,7 +10005,7 @@
       <c r="N431" s="28"/>
       <c r="P431" s="28"/>
     </row>
-    <row r="432" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="432" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A432" s="27"/>
       <c r="B432" s="28"/>
       <c r="C432" s="28"/>
@@ -9964,7 +10020,7 @@
       <c r="N432" s="28"/>
       <c r="P432" s="28"/>
     </row>
-    <row r="433" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="433" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A433" s="27"/>
       <c r="B433" s="28"/>
       <c r="C433" s="28"/>
@@ -9979,7 +10035,7 @@
       <c r="N433" s="28"/>
       <c r="P433" s="28"/>
     </row>
-    <row r="434" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="434" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A434" s="27"/>
       <c r="B434" s="28"/>
       <c r="C434" s="28"/>
@@ -9994,7 +10050,7 @@
       <c r="N434" s="28"/>
       <c r="P434" s="28"/>
     </row>
-    <row r="435" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="435" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A435" s="27"/>
       <c r="B435" s="28"/>
       <c r="C435" s="28"/>
@@ -10009,7 +10065,7 @@
       <c r="N435" s="28"/>
       <c r="P435" s="28"/>
     </row>
-    <row r="436" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="436" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A436" s="27"/>
       <c r="B436" s="28"/>
       <c r="C436" s="28"/>
@@ -10024,7 +10080,7 @@
       <c r="N436" s="28"/>
       <c r="P436" s="28"/>
     </row>
-    <row r="437" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="437" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A437" s="27"/>
       <c r="B437" s="28"/>
       <c r="C437" s="28"/>
@@ -10039,7 +10095,7 @@
       <c r="N437" s="28"/>
       <c r="P437" s="28"/>
     </row>
-    <row r="438" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="438" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A438" s="27"/>
       <c r="B438" s="28"/>
       <c r="C438" s="28"/>
@@ -10054,7 +10110,7 @@
       <c r="N438" s="28"/>
       <c r="P438" s="28"/>
     </row>
-    <row r="439" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="439" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A439" s="27"/>
       <c r="B439" s="28"/>
       <c r="C439" s="28"/>
@@ -10069,7 +10125,7 @@
       <c r="N439" s="28"/>
       <c r="P439" s="28"/>
     </row>
-    <row r="440" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="440" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A440" s="27"/>
       <c r="B440" s="28"/>
       <c r="C440" s="28"/>
@@ -10084,7 +10140,7 @@
       <c r="N440" s="28"/>
       <c r="P440" s="28"/>
     </row>
-    <row r="441" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="441" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A441" s="27"/>
       <c r="B441" s="28"/>
       <c r="C441" s="28"/>
@@ -10099,7 +10155,7 @@
       <c r="N441" s="28"/>
       <c r="P441" s="28"/>
     </row>
-    <row r="442" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="442" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A442" s="27"/>
       <c r="B442" s="28"/>
       <c r="C442" s="28"/>
@@ -10114,7 +10170,7 @@
       <c r="N442" s="28"/>
       <c r="P442" s="28"/>
     </row>
-    <row r="443" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="443" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A443" s="27"/>
       <c r="B443" s="28"/>
       <c r="C443" s="28"/>
@@ -10129,7 +10185,7 @@
       <c r="N443" s="28"/>
       <c r="P443" s="28"/>
     </row>
-    <row r="444" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="444" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A444" s="27"/>
       <c r="B444" s="28"/>
       <c r="C444" s="28"/>
@@ -10144,7 +10200,7 @@
       <c r="N444" s="28"/>
       <c r="P444" s="28"/>
     </row>
-    <row r="445" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="445" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A445" s="27"/>
       <c r="B445" s="28"/>
       <c r="C445" s="28"/>
@@ -10159,7 +10215,7 @@
       <c r="N445" s="28"/>
       <c r="P445" s="28"/>
     </row>
-    <row r="446" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="446" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A446" s="27"/>
       <c r="B446" s="28"/>
       <c r="C446" s="28"/>
@@ -10174,7 +10230,7 @@
       <c r="N446" s="28"/>
       <c r="P446" s="28"/>
     </row>
-    <row r="447" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="447" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A447" s="27"/>
       <c r="B447" s="28"/>
       <c r="C447" s="28"/>
@@ -10189,7 +10245,7 @@
       <c r="N447" s="28"/>
       <c r="P447" s="28"/>
     </row>
-    <row r="448" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="448" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A448" s="27"/>
       <c r="B448" s="28"/>
       <c r="C448" s="28"/>
@@ -10204,7 +10260,7 @@
       <c r="N448" s="28"/>
       <c r="P448" s="28"/>
     </row>
-    <row r="449" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="449" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A449" s="27"/>
       <c r="B449" s="28"/>
       <c r="C449" s="28"/>
@@ -10219,7 +10275,7 @@
       <c r="N449" s="28"/>
       <c r="P449" s="28"/>
     </row>
-    <row r="450" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="450" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A450" s="27"/>
       <c r="B450" s="28"/>
       <c r="C450" s="28"/>
@@ -10234,7 +10290,7 @@
       <c r="N450" s="28"/>
       <c r="P450" s="28"/>
     </row>
-    <row r="451" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="451" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A451" s="27"/>
       <c r="B451" s="28"/>
       <c r="C451" s="28"/>
@@ -10249,7 +10305,7 @@
       <c r="N451" s="28"/>
       <c r="P451" s="28"/>
     </row>
-    <row r="452" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="452" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A452" s="27"/>
       <c r="B452" s="28"/>
       <c r="C452" s="28"/>
@@ -10264,7 +10320,7 @@
       <c r="N452" s="28"/>
       <c r="P452" s="28"/>
     </row>
-    <row r="453" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="453" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A453" s="27"/>
       <c r="B453" s="28"/>
       <c r="C453" s="28"/>
@@ -10279,7 +10335,7 @@
       <c r="N453" s="28"/>
       <c r="P453" s="28"/>
     </row>
-    <row r="454" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="454" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A454" s="27"/>
       <c r="B454" s="28"/>
       <c r="C454" s="28"/>
@@ -10294,7 +10350,7 @@
       <c r="N454" s="28"/>
       <c r="P454" s="28"/>
     </row>
-    <row r="455" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="455" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A455" s="27"/>
       <c r="B455" s="28"/>
       <c r="C455" s="28"/>
@@ -10309,7 +10365,7 @@
       <c r="N455" s="28"/>
       <c r="P455" s="28"/>
     </row>
-    <row r="456" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="456" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A456" s="27"/>
       <c r="B456" s="28"/>
       <c r="C456" s="28"/>
@@ -10324,7 +10380,7 @@
       <c r="N456" s="28"/>
       <c r="P456" s="28"/>
     </row>
-    <row r="457" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="457" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A457" s="27"/>
       <c r="B457" s="28"/>
       <c r="C457" s="28"/>
@@ -10339,7 +10395,7 @@
       <c r="N457" s="28"/>
       <c r="P457" s="28"/>
     </row>
-    <row r="458" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="458" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A458" s="27"/>
       <c r="B458" s="28"/>
       <c r="C458" s="28"/>
@@ -10354,7 +10410,7 @@
       <c r="N458" s="28"/>
       <c r="P458" s="28"/>
     </row>
-    <row r="459" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="459" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A459" s="27"/>
       <c r="B459" s="28"/>
       <c r="C459" s="28"/>
@@ -10369,7 +10425,7 @@
       <c r="N459" s="28"/>
       <c r="P459" s="28"/>
     </row>
-    <row r="460" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="460" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A460" s="27"/>
       <c r="B460" s="28"/>
       <c r="C460" s="28"/>
@@ -10384,7 +10440,7 @@
       <c r="N460" s="28"/>
       <c r="P460" s="28"/>
     </row>
-    <row r="461" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="461" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A461" s="27"/>
       <c r="B461" s="28"/>
       <c r="C461" s="28"/>
@@ -10399,7 +10455,7 @@
       <c r="N461" s="28"/>
       <c r="P461" s="28"/>
     </row>
-    <row r="462" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="462" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A462" s="27"/>
       <c r="B462" s="28"/>
       <c r="C462" s="28"/>
@@ -10414,7 +10470,7 @@
       <c r="N462" s="28"/>
       <c r="P462" s="28"/>
     </row>
-    <row r="463" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="463" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A463" s="27"/>
       <c r="B463" s="28"/>
       <c r="C463" s="28"/>
@@ -10429,7 +10485,7 @@
       <c r="N463" s="28"/>
       <c r="P463" s="28"/>
     </row>
-    <row r="464" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="464" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A464" s="27"/>
       <c r="B464" s="28"/>
       <c r="C464" s="28"/>
@@ -10444,7 +10500,7 @@
       <c r="N464" s="28"/>
       <c r="P464" s="28"/>
     </row>
-    <row r="465" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="465" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A465" s="27"/>
       <c r="B465" s="28"/>
       <c r="C465" s="28"/>
@@ -10459,7 +10515,7 @@
       <c r="N465" s="28"/>
       <c r="P465" s="28"/>
     </row>
-    <row r="466" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="466" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A466" s="27"/>
       <c r="B466" s="28"/>
       <c r="C466" s="28"/>
@@ -10474,7 +10530,7 @@
       <c r="N466" s="28"/>
       <c r="P466" s="28"/>
     </row>
-    <row r="467" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="467" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A467" s="27"/>
       <c r="B467" s="28"/>
       <c r="C467" s="28"/>
@@ -10489,7 +10545,7 @@
       <c r="N467" s="28"/>
       <c r="P467" s="28"/>
     </row>
-    <row r="468" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="468" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A468" s="27"/>
       <c r="B468" s="28"/>
       <c r="C468" s="28"/>
@@ -10504,7 +10560,7 @@
       <c r="N468" s="28"/>
       <c r="P468" s="28"/>
     </row>
-    <row r="469" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="469" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A469" s="27"/>
       <c r="B469" s="28"/>
       <c r="C469" s="28"/>
@@ -10519,7 +10575,7 @@
       <c r="N469" s="28"/>
       <c r="P469" s="28"/>
     </row>
-    <row r="470" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="470" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A470" s="27"/>
       <c r="B470" s="28"/>
       <c r="C470" s="28"/>
@@ -10534,7 +10590,7 @@
       <c r="N470" s="28"/>
       <c r="P470" s="28"/>
     </row>
-    <row r="471" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="471" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A471" s="27"/>
       <c r="B471" s="28"/>
       <c r="C471" s="28"/>
@@ -10549,7 +10605,7 @@
       <c r="N471" s="28"/>
       <c r="P471" s="28"/>
     </row>
-    <row r="472" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="472" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A472" s="27"/>
       <c r="B472" s="28"/>
       <c r="C472" s="28"/>
@@ -10564,7 +10620,7 @@
       <c r="N472" s="28"/>
       <c r="P472" s="28"/>
     </row>
-    <row r="473" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="473" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A473" s="27"/>
       <c r="B473" s="28"/>
       <c r="C473" s="28"/>
@@ -10579,7 +10635,7 @@
       <c r="N473" s="28"/>
       <c r="P473" s="28"/>
     </row>
-    <row r="474" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="474" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A474" s="27"/>
       <c r="B474" s="28"/>
       <c r="C474" s="28"/>
@@ -10594,7 +10650,7 @@
       <c r="N474" s="28"/>
       <c r="P474" s="28"/>
     </row>
-    <row r="475" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="475" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A475" s="27"/>
       <c r="B475" s="28"/>
       <c r="C475" s="28"/>
@@ -10609,7 +10665,7 @@
       <c r="N475" s="28"/>
       <c r="P475" s="28"/>
     </row>
-    <row r="476" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="476" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A476" s="27"/>
       <c r="B476" s="28"/>
       <c r="C476" s="28"/>
@@ -10624,7 +10680,7 @@
       <c r="N476" s="28"/>
       <c r="P476" s="28"/>
     </row>
-    <row r="477" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="477" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A477" s="27"/>
       <c r="B477" s="28"/>
       <c r="C477" s="28"/>
@@ -10639,7 +10695,7 @@
       <c r="N477" s="28"/>
       <c r="P477" s="28"/>
     </row>
-    <row r="478" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="478" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A478" s="27"/>
       <c r="B478" s="28"/>
       <c r="C478" s="28"/>
@@ -10654,7 +10710,7 @@
       <c r="N478" s="28"/>
       <c r="P478" s="28"/>
     </row>
-    <row r="479" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="479" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A479" s="27"/>
       <c r="B479" s="28"/>
       <c r="C479" s="28"/>
@@ -10669,7 +10725,7 @@
       <c r="N479" s="28"/>
       <c r="P479" s="28"/>
     </row>
-    <row r="480" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="480" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A480" s="27"/>
       <c r="B480" s="28"/>
       <c r="C480" s="28"/>
@@ -10684,7 +10740,7 @@
       <c r="N480" s="28"/>
       <c r="P480" s="28"/>
     </row>
-    <row r="481" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="481" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A481" s="27"/>
       <c r="B481" s="28"/>
       <c r="C481" s="28"/>
@@ -10699,7 +10755,7 @@
       <c r="N481" s="28"/>
       <c r="P481" s="28"/>
     </row>
-    <row r="482" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="482" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A482" s="27"/>
       <c r="B482" s="28"/>
       <c r="C482" s="28"/>
@@ -10714,7 +10770,7 @@
       <c r="N482" s="28"/>
       <c r="P482" s="28"/>
     </row>
-    <row r="483" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="483" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A483" s="27"/>
       <c r="B483" s="28"/>
       <c r="C483" s="28"/>
@@ -10729,7 +10785,7 @@
       <c r="N483" s="28"/>
       <c r="P483" s="28"/>
     </row>
-    <row r="484" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="484" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A484" s="27"/>
       <c r="B484" s="28"/>
       <c r="C484" s="28"/>
@@ -10744,7 +10800,7 @@
       <c r="N484" s="28"/>
       <c r="P484" s="28"/>
     </row>
-    <row r="485" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="485" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A485" s="27"/>
       <c r="B485" s="28"/>
       <c r="C485" s="28"/>
@@ -10759,7 +10815,7 @@
       <c r="N485" s="28"/>
       <c r="P485" s="28"/>
     </row>
-    <row r="486" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="486" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A486" s="27"/>
       <c r="B486" s="28"/>
       <c r="C486" s="28"/>
@@ -10774,7 +10830,7 @@
       <c r="N486" s="28"/>
       <c r="P486" s="28"/>
     </row>
-    <row r="487" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="487" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A487" s="27"/>
       <c r="B487" s="28"/>
       <c r="C487" s="28"/>
@@ -10789,7 +10845,7 @@
       <c r="N487" s="28"/>
       <c r="P487" s="28"/>
     </row>
-    <row r="488" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="488" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A488" s="27"/>
       <c r="B488" s="28"/>
       <c r="C488" s="28"/>
@@ -10804,7 +10860,7 @@
       <c r="N488" s="28"/>
       <c r="P488" s="28"/>
     </row>
-    <row r="489" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="489" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A489" s="27"/>
       <c r="B489" s="28"/>
       <c r="C489" s="28"/>
@@ -10819,7 +10875,7 @@
       <c r="N489" s="28"/>
       <c r="P489" s="28"/>
     </row>
-    <row r="490" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="490" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A490" s="27"/>
       <c r="B490" s="28"/>
       <c r="C490" s="28"/>
@@ -10834,7 +10890,7 @@
       <c r="N490" s="28"/>
       <c r="P490" s="28"/>
     </row>
-    <row r="491" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="491" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A491" s="27"/>
       <c r="B491" s="28"/>
       <c r="C491" s="28"/>
@@ -10849,7 +10905,7 @@
       <c r="N491" s="28"/>
       <c r="P491" s="28"/>
     </row>
-    <row r="492" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="492" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A492" s="27"/>
       <c r="B492" s="28"/>
       <c r="C492" s="28"/>
@@ -10864,7 +10920,7 @@
       <c r="N492" s="28"/>
       <c r="P492" s="28"/>
     </row>
-    <row r="493" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="493" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A493" s="27"/>
       <c r="B493" s="28"/>
       <c r="C493" s="28"/>
@@ -10879,7 +10935,7 @@
       <c r="N493" s="28"/>
       <c r="P493" s="28"/>
     </row>
-    <row r="494" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="494" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A494" s="27"/>
       <c r="B494" s="28"/>
       <c r="C494" s="28"/>
@@ -10894,7 +10950,7 @@
       <c r="N494" s="28"/>
       <c r="P494" s="28"/>
     </row>
-    <row r="495" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="495" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A495" s="27"/>
       <c r="B495" s="28"/>
       <c r="C495" s="28"/>
@@ -10909,7 +10965,7 @@
       <c r="N495" s="28"/>
       <c r="P495" s="28"/>
     </row>
-    <row r="496" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="496" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A496" s="27"/>
       <c r="B496" s="28"/>
       <c r="C496" s="28"/>
@@ -10924,7 +10980,7 @@
       <c r="N496" s="28"/>
       <c r="P496" s="28"/>
     </row>
-    <row r="497" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="497" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A497" s="27"/>
       <c r="B497" s="28"/>
       <c r="C497" s="28"/>
@@ -10939,7 +10995,7 @@
       <c r="N497" s="28"/>
       <c r="P497" s="28"/>
     </row>
-    <row r="498" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="498" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A498" s="27"/>
       <c r="B498" s="28"/>
       <c r="C498" s="28"/>
@@ -10954,7 +11010,7 @@
       <c r="N498" s="28"/>
       <c r="P498" s="28"/>
     </row>
-    <row r="499" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="499" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A499" s="27"/>
       <c r="B499" s="28"/>
       <c r="C499" s="28"/>
@@ -10969,7 +11025,7 @@
       <c r="N499" s="28"/>
       <c r="P499" s="28"/>
     </row>
-    <row r="500" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="500" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A500" s="27"/>
       <c r="B500" s="28"/>
       <c r="C500" s="28"/>
@@ -10984,7 +11040,7 @@
       <c r="N500" s="28"/>
       <c r="P500" s="28"/>
     </row>
-    <row r="501" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="501" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A501" s="27"/>
       <c r="B501" s="28"/>
       <c r="C501" s="28"/>
@@ -10999,7 +11055,7 @@
       <c r="N501" s="28"/>
       <c r="P501" s="28"/>
     </row>
-    <row r="502" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="502" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A502" s="27"/>
       <c r="B502" s="28"/>
       <c r="C502" s="28"/>
@@ -11014,7 +11070,7 @@
       <c r="N502" s="28"/>
       <c r="P502" s="28"/>
     </row>
-    <row r="503" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="503" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A503" s="27"/>
       <c r="B503" s="28"/>
       <c r="C503" s="28"/>
@@ -11029,7 +11085,7 @@
       <c r="N503" s="28"/>
       <c r="P503" s="28"/>
     </row>
-    <row r="504" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="504" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A504" s="27"/>
       <c r="B504" s="28"/>
       <c r="C504" s="28"/>
@@ -11044,7 +11100,7 @@
       <c r="N504" s="28"/>
       <c r="P504" s="28"/>
     </row>
-    <row r="505" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="505" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A505" s="27"/>
       <c r="B505" s="28"/>
       <c r="C505" s="28"/>
@@ -11059,7 +11115,7 @@
       <c r="N505" s="28"/>
       <c r="P505" s="28"/>
     </row>
-    <row r="506" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="506" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A506" s="27"/>
       <c r="B506" s="28"/>
       <c r="C506" s="28"/>
@@ -11074,7 +11130,7 @@
       <c r="N506" s="28"/>
       <c r="P506" s="28"/>
     </row>
-    <row r="507" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="507" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A507" s="27"/>
       <c r="B507" s="28"/>
       <c r="C507" s="28"/>
@@ -11089,7 +11145,7 @@
       <c r="N507" s="28"/>
       <c r="P507" s="28"/>
     </row>
-    <row r="508" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="508" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A508" s="27"/>
       <c r="B508" s="28"/>
       <c r="C508" s="28"/>
@@ -11104,7 +11160,7 @@
       <c r="N508" s="28"/>
       <c r="P508" s="28"/>
     </row>
-    <row r="509" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="509" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A509" s="27"/>
       <c r="B509" s="28"/>
       <c r="C509" s="28"/>
@@ -11119,7 +11175,7 @@
       <c r="N509" s="28"/>
       <c r="P509" s="28"/>
     </row>
-    <row r="510" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="510" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A510" s="27"/>
       <c r="B510" s="28"/>
       <c r="C510" s="28"/>
@@ -11134,7 +11190,7 @@
       <c r="N510" s="28"/>
       <c r="P510" s="28"/>
     </row>
-    <row r="511" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="511" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A511" s="27"/>
       <c r="B511" s="28"/>
       <c r="C511" s="28"/>
@@ -11149,7 +11205,7 @@
       <c r="N511" s="28"/>
       <c r="P511" s="28"/>
     </row>
-    <row r="512" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="512" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A512" s="27"/>
       <c r="B512" s="28"/>
       <c r="C512" s="28"/>
@@ -11164,7 +11220,7 @@
       <c r="N512" s="28"/>
       <c r="P512" s="28"/>
     </row>
-    <row r="513" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="513" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A513" s="27"/>
       <c r="B513" s="28"/>
       <c r="C513" s="28"/>
@@ -11179,7 +11235,7 @@
       <c r="N513" s="28"/>
       <c r="P513" s="28"/>
     </row>
-    <row r="514" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="514" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A514" s="27"/>
       <c r="B514" s="28"/>
       <c r="C514" s="28"/>
@@ -11194,7 +11250,7 @@
       <c r="N514" s="28"/>
       <c r="P514" s="28"/>
     </row>
-    <row r="515" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="515" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A515" s="27"/>
       <c r="B515" s="28"/>
       <c r="C515" s="28"/>
@@ -11209,7 +11265,7 @@
       <c r="N515" s="28"/>
       <c r="P515" s="28"/>
     </row>
-    <row r="516" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="516" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A516" s="27"/>
       <c r="B516" s="28"/>
       <c r="C516" s="28"/>
@@ -11224,7 +11280,7 @@
       <c r="N516" s="28"/>
       <c r="P516" s="28"/>
     </row>
-    <row r="517" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="517" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A517" s="27"/>
       <c r="B517" s="28"/>
       <c r="C517" s="28"/>
@@ -11239,7 +11295,7 @@
       <c r="N517" s="28"/>
       <c r="P517" s="28"/>
     </row>
-    <row r="518" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="518" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A518" s="27"/>
       <c r="B518" s="28"/>
       <c r="C518" s="28"/>
@@ -11254,7 +11310,7 @@
       <c r="N518" s="28"/>
       <c r="P518" s="28"/>
     </row>
-    <row r="519" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="519" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A519" s="27"/>
       <c r="B519" s="28"/>
       <c r="C519" s="28"/>
@@ -11269,7 +11325,7 @@
       <c r="N519" s="28"/>
       <c r="P519" s="28"/>
     </row>
-    <row r="520" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="520" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A520" s="27"/>
       <c r="B520" s="28"/>
       <c r="C520" s="28"/>
@@ -11284,7 +11340,7 @@
       <c r="N520" s="28"/>
       <c r="P520" s="28"/>
     </row>
-    <row r="521" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="521" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A521" s="27"/>
       <c r="B521" s="28"/>
       <c r="C521" s="28"/>
@@ -11299,7 +11355,7 @@
       <c r="N521" s="28"/>
       <c r="P521" s="28"/>
     </row>
-    <row r="522" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="522" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A522" s="27"/>
       <c r="B522" s="28"/>
       <c r="C522" s="28"/>
@@ -11314,7 +11370,7 @@
       <c r="N522" s="28"/>
       <c r="P522" s="28"/>
     </row>
-    <row r="523" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="523" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A523" s="27"/>
       <c r="B523" s="28"/>
       <c r="C523" s="28"/>
@@ -11329,7 +11385,7 @@
       <c r="N523" s="28"/>
       <c r="P523" s="28"/>
     </row>
-    <row r="524" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="524" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A524" s="27"/>
       <c r="B524" s="28"/>
       <c r="C524" s="28"/>
@@ -11344,7 +11400,7 @@
       <c r="N524" s="28"/>
       <c r="P524" s="28"/>
     </row>
-    <row r="525" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="525" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A525" s="27"/>
       <c r="B525" s="28"/>
       <c r="C525" s="28"/>
@@ -11359,7 +11415,7 @@
       <c r="N525" s="28"/>
       <c r="P525" s="28"/>
     </row>
-    <row r="526" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="526" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A526" s="27"/>
       <c r="B526" s="28"/>
       <c r="C526" s="28"/>
@@ -11374,7 +11430,7 @@
       <c r="N526" s="28"/>
       <c r="P526" s="28"/>
     </row>
-    <row r="527" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="527" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A527" s="27"/>
       <c r="B527" s="28"/>
       <c r="C527" s="28"/>
@@ -11389,7 +11445,7 @@
       <c r="N527" s="28"/>
       <c r="P527" s="28"/>
     </row>
-    <row r="528" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="528" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A528" s="27"/>
       <c r="B528" s="28"/>
       <c r="C528" s="28"/>
@@ -11404,7 +11460,7 @@
       <c r="N528" s="28"/>
       <c r="P528" s="28"/>
     </row>
-    <row r="529" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="529" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A529" s="27"/>
       <c r="B529" s="28"/>
       <c r="C529" s="28"/>
@@ -11419,7 +11475,7 @@
       <c r="N529" s="28"/>
       <c r="P529" s="28"/>
     </row>
-    <row r="530" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="530" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A530" s="27"/>
       <c r="B530" s="28"/>
       <c r="C530" s="28"/>
@@ -11434,7 +11490,7 @@
       <c r="N530" s="28"/>
       <c r="P530" s="28"/>
     </row>
-    <row r="531" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="531" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A531" s="27"/>
       <c r="B531" s="28"/>
       <c r="C531" s="28"/>
@@ -11449,7 +11505,7 @@
       <c r="N531" s="28"/>
       <c r="P531" s="28"/>
     </row>
-    <row r="532" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="532" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A532" s="27"/>
       <c r="B532" s="28"/>
       <c r="C532" s="28"/>
@@ -11464,7 +11520,7 @@
       <c r="N532" s="28"/>
       <c r="P532" s="28"/>
     </row>
-    <row r="533" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="533" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A533" s="27"/>
       <c r="B533" s="28"/>
       <c r="C533" s="28"/>
@@ -11479,7 +11535,7 @@
       <c r="N533" s="28"/>
       <c r="P533" s="28"/>
     </row>
-    <row r="534" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="534" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A534" s="27"/>
       <c r="B534" s="28"/>
       <c r="C534" s="28"/>
@@ -11494,7 +11550,7 @@
       <c r="N534" s="28"/>
       <c r="P534" s="28"/>
     </row>
-    <row r="535" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="535" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A535" s="27"/>
       <c r="B535" s="28"/>
       <c r="C535" s="28"/>
@@ -11509,7 +11565,7 @@
       <c r="N535" s="28"/>
       <c r="P535" s="28"/>
     </row>
-    <row r="536" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="536" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A536" s="27"/>
       <c r="B536" s="28"/>
       <c r="C536" s="28"/>
@@ -11524,7 +11580,7 @@
       <c r="N536" s="28"/>
       <c r="P536" s="28"/>
     </row>
-    <row r="537" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="537" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A537" s="27"/>
       <c r="B537" s="28"/>
       <c r="C537" s="28"/>
@@ -11539,7 +11595,7 @@
       <c r="N537" s="28"/>
       <c r="P537" s="28"/>
     </row>
-    <row r="538" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="538" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A538" s="27"/>
       <c r="B538" s="28"/>
       <c r="C538" s="28"/>
@@ -11554,7 +11610,7 @@
       <c r="N538" s="28"/>
       <c r="P538" s="28"/>
     </row>
-    <row r="539" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="539" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A539" s="27"/>
       <c r="B539" s="28"/>
       <c r="C539" s="28"/>
@@ -11569,7 +11625,7 @@
       <c r="N539" s="28"/>
       <c r="P539" s="28"/>
     </row>
-    <row r="540" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="540" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A540" s="27"/>
       <c r="B540" s="28"/>
       <c r="C540" s="28"/>
@@ -11584,7 +11640,7 @@
       <c r="N540" s="28"/>
       <c r="P540" s="28"/>
     </row>
-    <row r="541" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="541" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A541" s="27"/>
       <c r="B541" s="28"/>
       <c r="C541" s="28"/>
@@ -11599,7 +11655,7 @@
       <c r="N541" s="28"/>
       <c r="P541" s="28"/>
     </row>
-    <row r="542" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="542" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A542" s="27"/>
       <c r="B542" s="28"/>
       <c r="C542" s="28"/>
@@ -11614,7 +11670,7 @@
       <c r="N542" s="28"/>
       <c r="P542" s="28"/>
     </row>
-    <row r="543" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="543" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A543" s="27"/>
       <c r="B543" s="28"/>
       <c r="C543" s="28"/>
@@ -11629,7 +11685,7 @@
       <c r="N543" s="28"/>
       <c r="P543" s="28"/>
     </row>
-    <row r="544" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="544" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A544" s="27"/>
       <c r="B544" s="28"/>
       <c r="C544" s="28"/>
@@ -11644,7 +11700,7 @@
       <c r="N544" s="28"/>
       <c r="P544" s="28"/>
     </row>
-    <row r="545" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="545" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A545" s="27"/>
       <c r="B545" s="28"/>
       <c r="C545" s="28"/>
@@ -11659,7 +11715,7 @@
       <c r="N545" s="28"/>
       <c r="P545" s="28"/>
     </row>
-    <row r="546" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="546" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A546" s="27"/>
       <c r="B546" s="28"/>
       <c r="C546" s="28"/>
@@ -11674,7 +11730,7 @@
       <c r="N546" s="28"/>
       <c r="P546" s="28"/>
     </row>
-    <row r="547" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="547" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A547" s="27"/>
       <c r="B547" s="28"/>
       <c r="C547" s="28"/>
@@ -11689,7 +11745,7 @@
       <c r="N547" s="28"/>
       <c r="P547" s="28"/>
     </row>
-    <row r="548" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="548" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A548" s="27"/>
       <c r="B548" s="28"/>
       <c r="C548" s="28"/>
@@ -11704,7 +11760,7 @@
       <c r="N548" s="28"/>
       <c r="P548" s="28"/>
     </row>
-    <row r="549" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="549" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A549" s="27"/>
       <c r="B549" s="28"/>
       <c r="C549" s="28"/>
@@ -11719,7 +11775,7 @@
       <c r="N549" s="28"/>
       <c r="P549" s="28"/>
     </row>
-    <row r="550" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="550" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A550" s="27"/>
       <c r="B550" s="28"/>
       <c r="C550" s="28"/>
@@ -11734,7 +11790,7 @@
       <c r="N550" s="28"/>
       <c r="P550" s="28"/>
     </row>
-    <row r="551" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="551" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A551" s="27"/>
       <c r="B551" s="28"/>
       <c r="C551" s="28"/>
@@ -11754,6 +11810,18 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="G1:G2"/>
@@ -11762,63 +11830,9 @@
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="K1:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>DATOS!$E$2:$E$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>K3:K45</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>DATOS!$F$2:$F$6</xm:f>
-          </x14:formula1>
-          <xm:sqref>L3:L45</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>DATOS!$G$2:$G$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>P3:P45</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>DATOS!$C$2:$C$39</xm:f>
-          </x14:formula1>
-          <xm:sqref>M3:M45</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>DATOS!$B$2:$B$14</xm:f>
-          </x14:formula1>
-          <xm:sqref>N3:N45</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>DATOS!$D$2:$D$5</xm:f>
-          </x14:formula1>
-          <xm:sqref>A3:A45</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -11830,16 +11844,16 @@
       <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="14.59765625" customWidth="1"/>
-    <col min="4" max="4" width="13.86328125" customWidth="1"/>
-    <col min="5" max="5" width="15.1328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.59765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>25</v>
       </c>
@@ -11862,7 +11876,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="4" t="s">
         <v>34</v>
@@ -11883,7 +11897,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
         <v>35</v>
@@ -11904,7 +11918,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
         <v>36</v>
@@ -11921,7 +11935,7 @@
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
         <v>37</v>
@@ -11938,7 +11952,7 @@
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
         <v>38</v>
@@ -11953,7 +11967,7 @@
       </c>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
         <v>39</v>
@@ -11966,7 +11980,7 @@
       <c r="F7" s="4"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
         <v>40</v>
@@ -11979,7 +11993,7 @@
       <c r="F8" s="4"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
         <v>41</v>
@@ -11992,7 +12006,7 @@
       <c r="F9" s="4"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
         <v>42</v>
@@ -12005,7 +12019,7 @@
       <c r="F10" s="4"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
         <v>43</v>
@@ -12020,7 +12034,7 @@
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
         <v>44</v>
@@ -12035,7 +12049,7 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
         <v>45</v>
@@ -12050,7 +12064,7 @@
       <c r="M13" s="1"/>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
         <v>46</v>
@@ -12065,7 +12079,7 @@
       <c r="M14" s="1"/>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
@@ -12078,7 +12092,7 @@
       <c r="M15" s="1"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
@@ -12091,7 +12105,7 @@
       <c r="M16" s="1"/>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4" t="s">
@@ -12104,7 +12118,7 @@
       <c r="M17" s="1"/>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
@@ -12117,7 +12131,7 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4" t="s">
@@ -12130,7 +12144,7 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4" t="s">
@@ -12143,7 +12157,7 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4" t="s">
@@ -12156,7 +12170,7 @@
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4" t="s">
@@ -12169,7 +12183,7 @@
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4" t="s">
@@ -12182,7 +12196,7 @@
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4" t="s">
@@ -12195,7 +12209,7 @@
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4" t="s">
@@ -12206,7 +12220,7 @@
       <c r="F25" s="4"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4" t="s">
@@ -12217,7 +12231,7 @@
       <c r="F26" s="4"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4" t="s">
@@ -12228,7 +12242,7 @@
       <c r="F27" s="4"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4" t="s">
@@ -12239,7 +12253,7 @@
       <c r="F28" s="4"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4" t="s">
@@ -12250,7 +12264,7 @@
       <c r="F29" s="4"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4" t="s">
@@ -12261,7 +12275,7 @@
       <c r="F30" s="4"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4" t="s">
@@ -12272,7 +12286,7 @@
       <c r="F31" s="4"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4" t="s">
@@ -12283,7 +12297,7 @@
       <c r="F32" s="4"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4" t="s">
@@ -12294,7 +12308,7 @@
       <c r="F33" s="4"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4" t="s">
@@ -12305,7 +12319,7 @@
       <c r="F34" s="4"/>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4" t="s">
@@ -12316,7 +12330,7 @@
       <c r="F35" s="4"/>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4" t="s">
@@ -12327,7 +12341,7 @@
       <c r="F36" s="4"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="4" t="s">
@@ -12338,7 +12352,7 @@
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3" t="s">
@@ -12349,7 +12363,7 @@
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3" t="s">
@@ -12360,7 +12374,7 @@
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -12369,7 +12383,7 @@
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -12378,7 +12392,7 @@
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -12387,7 +12401,7 @@
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -12396,7 +12410,7 @@
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -12405,7 +12419,7 @@
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -12414,7 +12428,7 @@
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -12423,7 +12437,7 @@
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -12432,7 +12446,7 @@
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -12441,7 +12455,7 @@
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -12450,7 +12464,7 @@
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>

--- a/fuentes/contenidos/grado08/guion01/Escaleta_LE_08_01_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion01/Escaleta_LE_08_01_CO.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis\Documents\GitHub\Lenguaje\fuentes\contenidos\grado08\guion01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\psf\Home\Documents\Aula Planeta Colombia\Repositorios\Lenguaje\fuentes\contenidos\grado08\guion01\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15270" windowHeight="4635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15267" windowHeight="4637"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1104,7 +1104,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1181,9 +1181,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1205,17 +1202,14 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1507,127 +1501,127 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U551"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J9" sqref="J9"/>
+      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.35" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="50.5703125" style="10" customWidth="1"/>
-    <col min="5" max="5" width="41.5703125" style="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="63.42578125" style="9" customWidth="1"/>
-    <col min="8" max="9" width="11.42578125" style="7"/>
-    <col min="10" max="10" width="47.28515625" style="31" customWidth="1"/>
-    <col min="11" max="11" width="17.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.7109375" style="8" customWidth="1"/>
+    <col min="1" max="1" width="10.73046875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.86328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50.59765625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="41.59765625" style="30" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="63.3984375" style="9" customWidth="1"/>
+    <col min="8" max="9" width="11.3984375" style="7"/>
+    <col min="10" max="10" width="47.265625" style="30" customWidth="1"/>
+    <col min="11" max="11" width="17.73046875" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.73046875" style="8" customWidth="1"/>
     <col min="13" max="13" width="14" style="6" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="7" customWidth="1"/>
-    <col min="15" max="15" width="60" style="31" customWidth="1"/>
-    <col min="16" max="16" width="21.140625" style="7" customWidth="1"/>
-    <col min="17" max="17" width="12.7109375" style="31" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.28515625" style="31" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.140625" style="31" customWidth="1"/>
-    <col min="20" max="20" width="42.85546875" style="31" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.42578125" style="31" customWidth="1"/>
-    <col min="22" max="16384" width="11.42578125" style="31"/>
+    <col min="14" max="14" width="15.1328125" style="7" customWidth="1"/>
+    <col min="15" max="15" width="60" style="30" customWidth="1"/>
+    <col min="16" max="16" width="21.1328125" style="7" customWidth="1"/>
+    <col min="17" max="17" width="12.73046875" style="30" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.265625" style="30" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.1328125" style="30" customWidth="1"/>
+    <col min="20" max="20" width="42.86328125" style="30" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.3984375" style="30" customWidth="1"/>
+    <col min="22" max="16384" width="11.3984375" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="F1" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="G1" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="45" t="s">
+      <c r="H1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="45" t="s">
+      <c r="I1" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="45" t="s">
+      <c r="J1" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="45" t="s">
+      <c r="K1" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="45" t="s">
+      <c r="L1" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="45" t="s">
+      <c r="M1" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45" t="s">
+      <c r="N1" s="43"/>
+      <c r="O1" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="45" t="s">
+      <c r="P1" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="45" t="s">
+      <c r="Q1" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="45" t="s">
+      <c r="R1" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="45" t="s">
+      <c r="S1" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="45" t="s">
+      <c r="T1" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="45" t="s">
+      <c r="U1" s="43" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="45"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
+    <row r="2" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
       <c r="M2" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="N2" s="30" t="s">
+      <c r="N2" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="45"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="45"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
+      <c r="U2" s="43"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A3" s="11" t="s">
         <v>68</v>
       </c>
@@ -1651,7 +1645,7 @@
       <c r="I3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="33" t="s">
+      <c r="J3" s="32" t="s">
         <v>138</v>
       </c>
       <c r="K3" s="6" t="s">
@@ -1664,7 +1658,7 @@
         <v>84</v>
       </c>
       <c r="N3" s="6"/>
-      <c r="O3" s="33" t="s">
+      <c r="O3" s="32" t="s">
         <v>139</v>
       </c>
       <c r="P3" s="6" t="s">
@@ -1686,7 +1680,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A4" s="11" t="s">
         <v>68</v>
       </c>
@@ -1710,7 +1704,7 @@
       <c r="I4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="33" t="s">
+      <c r="J4" s="32" t="s">
         <v>145</v>
       </c>
       <c r="K4" s="6" t="s">
@@ -1723,7 +1717,7 @@
         <v>76</v>
       </c>
       <c r="N4" s="6"/>
-      <c r="O4" s="33" t="s">
+      <c r="O4" s="32" t="s">
         <v>139</v>
       </c>
       <c r="P4" s="6" t="s">
@@ -1745,7 +1739,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A5" s="11" t="s">
         <v>68</v>
       </c>
@@ -1769,7 +1763,7 @@
       <c r="I5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="33" t="s">
+      <c r="J5" s="32" t="s">
         <v>146</v>
       </c>
       <c r="K5" s="6" t="s">
@@ -1778,11 +1772,11 @@
       <c r="L5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="M5" s="34" t="s">
+      <c r="M5" s="33" t="s">
         <v>24</v>
       </c>
       <c r="N5" s="6"/>
-      <c r="O5" s="33" t="s">
+      <c r="O5" s="32" t="s">
         <v>139</v>
       </c>
       <c r="P5" s="6" t="s">
@@ -1804,7 +1798,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A6" s="11" t="s">
         <v>68</v>
       </c>
@@ -1828,7 +1822,7 @@
       <c r="I6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="33" t="s">
+      <c r="J6" s="32" t="s">
         <v>141</v>
       </c>
       <c r="K6" s="6" t="s">
@@ -1841,7 +1835,7 @@
         <v>84</v>
       </c>
       <c r="N6" s="6"/>
-      <c r="O6" s="33" t="s">
+      <c r="O6" s="32" t="s">
         <v>139</v>
       </c>
       <c r="P6" s="6" t="s">
@@ -1863,7 +1857,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A7" s="11" t="s">
         <v>68</v>
       </c>
@@ -1887,7 +1881,7 @@
       <c r="I7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="33" t="s">
+      <c r="J7" s="32" t="s">
         <v>202</v>
       </c>
       <c r="K7" s="6" t="s">
@@ -1922,7 +1916,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A8" s="11" t="s">
         <v>68</v>
       </c>
@@ -1946,7 +1940,7 @@
       <c r="I8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="33" t="s">
+      <c r="J8" s="32" t="s">
         <v>144</v>
       </c>
       <c r="K8" s="6" t="s">
@@ -1959,7 +1953,7 @@
         <v>62</v>
       </c>
       <c r="N8" s="6"/>
-      <c r="O8" s="33" t="s">
+      <c r="O8" s="32" t="s">
         <v>139</v>
       </c>
       <c r="P8" s="6" t="s">
@@ -1981,7 +1975,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A9" s="11" t="s">
         <v>68</v>
       </c>
@@ -1994,7 +1988,7 @@
       <c r="D9" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="E9" s="35" t="s">
+      <c r="E9" s="34" t="s">
         <v>186</v>
       </c>
       <c r="F9" s="11"/>
@@ -2007,7 +2001,7 @@
       <c r="I9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="41" t="s">
+      <c r="J9" s="35" t="s">
         <v>294</v>
       </c>
       <c r="K9" s="6" t="s">
@@ -2019,7 +2013,7 @@
       <c r="N9" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="O9" s="41" t="s">
+      <c r="O9" s="35" t="s">
         <v>289</v>
       </c>
       <c r="P9" s="6" t="s">
@@ -2041,7 +2035,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A10" s="11" t="s">
         <v>68</v>
       </c>
@@ -2054,7 +2048,7 @@
       <c r="D10" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="E10" s="35" t="s">
+      <c r="E10" s="34" t="s">
         <v>186</v>
       </c>
       <c r="F10" s="11" t="s">
@@ -2082,7 +2076,7 @@
         <v>77</v>
       </c>
       <c r="N10" s="6"/>
-      <c r="O10" s="42" t="s">
+      <c r="O10" s="32" t="s">
         <v>205</v>
       </c>
       <c r="P10" s="6" t="s">
@@ -2104,7 +2098,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A11" s="11" t="s">
         <v>68</v>
       </c>
@@ -2117,7 +2111,7 @@
       <c r="D11" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="E11" s="35" t="s">
+      <c r="E11" s="34" t="s">
         <v>186</v>
       </c>
       <c r="F11" s="11" t="s">
@@ -2144,7 +2138,7 @@
       <c r="N11" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="O11" s="42" t="s">
+      <c r="O11" s="32" t="s">
         <v>161</v>
       </c>
       <c r="P11" s="6" t="s">
@@ -2166,7 +2160,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A12" s="11" t="s">
         <v>68</v>
       </c>
@@ -2179,7 +2173,7 @@
       <c r="D12" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="E12" s="35" t="s">
+      <c r="E12" s="34" t="s">
         <v>186</v>
       </c>
       <c r="F12" s="11" t="s">
@@ -2194,7 +2188,7 @@
       <c r="I12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="36" t="s">
+      <c r="J12" s="35" t="s">
         <v>95</v>
       </c>
       <c r="K12" s="6" t="s">
@@ -2207,7 +2201,7 @@
         <v>24</v>
       </c>
       <c r="N12" s="6"/>
-      <c r="O12" s="42" t="s">
+      <c r="O12" s="32" t="s">
         <v>163</v>
       </c>
       <c r="P12" s="6" t="s">
@@ -2229,7 +2223,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A13" s="11" t="s">
         <v>68</v>
       </c>
@@ -2257,7 +2251,7 @@
       <c r="I13" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="36" t="s">
+      <c r="J13" s="35" t="s">
         <v>94</v>
       </c>
       <c r="K13" s="6" t="s">
@@ -2270,7 +2264,7 @@
         <v>84</v>
       </c>
       <c r="N13" s="6"/>
-      <c r="O13" s="37" t="s">
+      <c r="O13" s="36" t="s">
         <v>288</v>
       </c>
       <c r="P13" s="6" t="s">
@@ -2292,7 +2286,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A14" s="11" t="s">
         <v>68</v>
       </c>
@@ -2320,7 +2314,7 @@
       <c r="I14" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="36" t="s">
+      <c r="J14" s="35" t="s">
         <v>114</v>
       </c>
       <c r="K14" s="6" t="s">
@@ -2332,7 +2326,7 @@
       <c r="N14" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="O14" s="37" t="s">
+      <c r="O14" s="36" t="s">
         <v>148</v>
       </c>
       <c r="P14" s="6" t="s">
@@ -2354,7 +2348,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A15" s="11" t="s">
         <v>68</v>
       </c>
@@ -2380,7 +2374,7 @@
       <c r="I15" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="33" t="s">
+      <c r="J15" s="32" t="s">
         <v>115</v>
       </c>
       <c r="K15" s="6" t="s">
@@ -2393,7 +2387,7 @@
         <v>73</v>
       </c>
       <c r="N15" s="6"/>
-      <c r="O15" s="37" t="s">
+      <c r="O15" s="36" t="s">
         <v>148</v>
       </c>
       <c r="P15" s="6" t="s">
@@ -2415,7 +2409,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A16" s="11" t="s">
         <v>68</v>
       </c>
@@ -2441,7 +2435,7 @@
       <c r="I16" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="33" t="s">
+      <c r="J16" s="32" t="s">
         <v>174</v>
       </c>
       <c r="K16" s="6" t="s">
@@ -2454,7 +2448,7 @@
         <v>62</v>
       </c>
       <c r="N16" s="6"/>
-      <c r="O16" s="38" t="s">
+      <c r="O16" s="37" t="s">
         <v>172</v>
       </c>
       <c r="P16" s="6" t="s">
@@ -2476,7 +2470,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A17" s="11" t="s">
         <v>68</v>
       </c>
@@ -2502,7 +2496,7 @@
       <c r="I17" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J17" s="33" t="s">
+      <c r="J17" s="32" t="s">
         <v>175</v>
       </c>
       <c r="K17" s="6" t="s">
@@ -2514,7 +2508,7 @@
       <c r="N17" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="O17" s="38" t="s">
+      <c r="O17" s="37" t="s">
         <v>203</v>
       </c>
       <c r="P17" s="6" t="s">
@@ -2536,7 +2530,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A18" s="11" t="s">
         <v>68</v>
       </c>
@@ -2549,7 +2543,7 @@
       <c r="D18" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="E18" s="33"/>
+      <c r="E18" s="32"/>
       <c r="F18" s="12"/>
       <c r="G18" s="11" t="s">
         <v>164</v>
@@ -2560,7 +2554,7 @@
       <c r="I18" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J18" s="39" t="s">
+      <c r="J18" s="38" t="s">
         <v>266</v>
       </c>
       <c r="K18" s="6" t="s">
@@ -2572,7 +2566,7 @@
       <c r="N18" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="O18" s="33" t="s">
+      <c r="O18" s="32" t="s">
         <v>168</v>
       </c>
       <c r="P18" s="6" t="s">
@@ -2594,7 +2588,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A19" s="11" t="s">
         <v>68</v>
       </c>
@@ -2607,7 +2601,7 @@
       <c r="D19" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="E19" s="33" t="s">
+      <c r="E19" s="32" t="s">
         <v>192</v>
       </c>
       <c r="F19" s="12"/>
@@ -2620,7 +2614,7 @@
       <c r="I19" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="35" t="s">
+      <c r="J19" s="34" t="s">
         <v>267</v>
       </c>
       <c r="K19" s="6" t="s">
@@ -2633,7 +2627,7 @@
         <v>59</v>
       </c>
       <c r="N19" s="6"/>
-      <c r="O19" s="33" t="s">
+      <c r="O19" s="32" t="s">
         <v>98</v>
       </c>
       <c r="P19" s="6" t="s">
@@ -2655,7 +2649,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A20" s="11" t="s">
         <v>68</v>
       </c>
@@ -2681,7 +2675,7 @@
       <c r="I20" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="35" t="s">
+      <c r="J20" s="34" t="s">
         <v>165</v>
       </c>
       <c r="K20" s="6" t="s">
@@ -2694,7 +2688,7 @@
         <v>64</v>
       </c>
       <c r="N20" s="6"/>
-      <c r="O20" s="33" t="s">
+      <c r="O20" s="32" t="s">
         <v>171</v>
       </c>
       <c r="P20" s="6" t="s">
@@ -2716,7 +2710,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A21" s="11" t="s">
         <v>68</v>
       </c>
@@ -2729,7 +2723,7 @@
       <c r="D21" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="E21" s="33" t="s">
+      <c r="E21" s="32" t="s">
         <v>194</v>
       </c>
       <c r="F21" s="12"/>
@@ -2742,7 +2736,7 @@
       <c r="I21" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J21" s="35" t="s">
+      <c r="J21" s="34" t="s">
         <v>268</v>
       </c>
       <c r="K21" s="6" t="s">
@@ -2755,7 +2749,7 @@
         <v>59</v>
       </c>
       <c r="N21" s="6"/>
-      <c r="O21" s="33" t="s">
+      <c r="O21" s="32" t="s">
         <v>169</v>
       </c>
       <c r="P21" s="6" t="s">
@@ -2777,7 +2771,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A22" s="11" t="s">
         <v>68</v>
       </c>
@@ -2803,7 +2797,7 @@
       <c r="I22" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J22" s="35" t="s">
+      <c r="J22" s="34" t="s">
         <v>121</v>
       </c>
       <c r="K22" s="6" t="s">
@@ -2838,7 +2832,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A23" s="11" t="s">
         <v>68</v>
       </c>
@@ -2894,7 +2888,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A24" s="11" t="s">
         <v>68</v>
       </c>
@@ -2950,7 +2944,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A25" s="11" t="s">
         <v>68</v>
       </c>
@@ -2989,7 +2983,7 @@
         <v>83</v>
       </c>
       <c r="N25" s="6"/>
-      <c r="O25" s="33" t="s">
+      <c r="O25" s="32" t="s">
         <v>109</v>
       </c>
       <c r="P25" s="6" t="s">
@@ -3011,7 +3005,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A26" s="11" t="s">
         <v>68</v>
       </c>
@@ -3047,7 +3041,7 @@
         <v>32</v>
       </c>
       <c r="N26" s="6"/>
-      <c r="O26" s="33" t="s">
+      <c r="O26" s="32" t="s">
         <v>110</v>
       </c>
       <c r="P26" s="6" t="s">
@@ -3069,7 +3063,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A27" s="11" t="s">
         <v>68</v>
       </c>
@@ -3082,7 +3076,7 @@
       <c r="D27" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="E27" s="33" t="s">
+      <c r="E27" s="32" t="s">
         <v>196</v>
       </c>
       <c r="F27" s="12"/>
@@ -3105,7 +3099,7 @@
         <v>32</v>
       </c>
       <c r="N27" s="6"/>
-      <c r="O27" s="33" t="s">
+      <c r="O27" s="32" t="s">
         <v>110</v>
       </c>
       <c r="P27" s="6" t="s">
@@ -3127,7 +3121,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A28" s="11" t="s">
         <v>68</v>
       </c>
@@ -3140,7 +3134,7 @@
       <c r="D28" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="E28" s="33" t="s">
+      <c r="E28" s="32" t="s">
         <v>197</v>
       </c>
       <c r="F28" s="12"/>
@@ -3163,7 +3157,7 @@
         <v>32</v>
       </c>
       <c r="N28" s="6"/>
-      <c r="O28" s="33" t="s">
+      <c r="O28" s="32" t="s">
         <v>110</v>
       </c>
       <c r="P28" s="6" t="s">
@@ -3185,7 +3179,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A29" s="11" t="s">
         <v>68</v>
       </c>
@@ -3243,7 +3237,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A30" s="11" t="s">
         <v>68</v>
       </c>
@@ -3301,7 +3295,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A31" s="11" t="s">
         <v>68</v>
       </c>
@@ -3359,7 +3353,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A32" s="11" t="s">
         <v>68</v>
       </c>
@@ -3383,7 +3377,7 @@
       <c r="I32" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J32" s="33" t="s">
+      <c r="J32" s="32" t="s">
         <v>122</v>
       </c>
       <c r="K32" s="6" t="s">
@@ -3395,7 +3389,7 @@
       <c r="N32" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="O32" s="33" t="s">
+      <c r="O32" s="32" t="s">
         <v>216</v>
       </c>
       <c r="P32" s="6" t="s">
@@ -3417,7 +3411,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A33" s="11" t="s">
         <v>68</v>
       </c>
@@ -3430,7 +3424,7 @@
       <c r="D33" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="E33" s="33" t="s">
+      <c r="E33" s="32" t="s">
         <v>198</v>
       </c>
       <c r="F33" s="12"/>
@@ -3443,7 +3437,7 @@
       <c r="I33" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J33" s="33" t="s">
+      <c r="J33" s="32" t="s">
         <v>273</v>
       </c>
       <c r="K33" s="6" t="s">
@@ -3455,7 +3449,7 @@
       <c r="N33" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="O33" s="33" t="s">
+      <c r="O33" s="32" t="s">
         <v>123</v>
       </c>
       <c r="P33" s="6" t="s">
@@ -3477,7 +3471,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A34" s="11" t="s">
         <v>68</v>
       </c>
@@ -3490,7 +3484,7 @@
       <c r="D34" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="E34" s="33" t="s">
+      <c r="E34" s="32" t="s">
         <v>199</v>
       </c>
       <c r="F34" s="12"/>
@@ -3503,7 +3497,7 @@
       <c r="I34" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J34" s="33" t="s">
+      <c r="J34" s="32" t="s">
         <v>274</v>
       </c>
       <c r="K34" s="6" t="s">
@@ -3516,7 +3510,7 @@
         <v>78</v>
       </c>
       <c r="N34" s="6"/>
-      <c r="O34" s="33" t="s">
+      <c r="O34" s="32" t="s">
         <v>215</v>
       </c>
       <c r="P34" s="6" t="s">
@@ -3538,7 +3532,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A35" s="11" t="s">
         <v>68</v>
       </c>
@@ -3564,7 +3558,7 @@
       <c r="I35" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J35" s="36" t="s">
+      <c r="J35" s="35" t="s">
         <v>275</v>
       </c>
       <c r="K35" s="6" t="s">
@@ -3576,7 +3570,7 @@
       <c r="N35" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="O35" s="33" t="s">
+      <c r="O35" s="32" t="s">
         <v>208</v>
       </c>
       <c r="P35" s="6" t="s">
@@ -3598,7 +3592,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A36" s="11" t="s">
         <v>68</v>
       </c>
@@ -3624,7 +3618,7 @@
       <c r="I36" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J36" s="33" t="s">
+      <c r="J36" s="32" t="s">
         <v>149</v>
       </c>
       <c r="K36" s="6" t="s">
@@ -3637,7 +3631,7 @@
         <v>62</v>
       </c>
       <c r="N36" s="6"/>
-      <c r="O36" s="33" t="s">
+      <c r="O36" s="32" t="s">
         <v>178</v>
       </c>
       <c r="P36" s="6" t="s">
@@ -3659,7 +3653,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A37" s="11" t="s">
         <v>68</v>
       </c>
@@ -3697,7 +3691,7 @@
       <c r="N37" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="O37" s="33" t="s">
+      <c r="O37" s="32" t="s">
         <v>214</v>
       </c>
       <c r="P37" s="6" t="s">
@@ -3719,7 +3713,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A38" s="11" t="s">
         <v>68</v>
       </c>
@@ -3745,7 +3739,7 @@
       <c r="I38" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J38" s="33" t="s">
+      <c r="J38" s="32" t="s">
         <v>276</v>
       </c>
       <c r="K38" s="6" t="s">
@@ -3757,7 +3751,7 @@
       <c r="N38" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="O38" s="36" t="s">
+      <c r="O38" s="35" t="s">
         <v>211</v>
       </c>
       <c r="P38" s="6" t="s">
@@ -3779,7 +3773,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A39" s="11" t="s">
         <v>68</v>
       </c>
@@ -3805,7 +3799,7 @@
       <c r="I39" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J39" s="33" t="s">
+      <c r="J39" s="32" t="s">
         <v>129</v>
       </c>
       <c r="K39" s="6" t="s">
@@ -3818,7 +3812,7 @@
         <v>81</v>
       </c>
       <c r="N39" s="6"/>
-      <c r="O39" s="33" t="s">
+      <c r="O39" s="32" t="s">
         <v>209</v>
       </c>
       <c r="P39" s="6" t="s">
@@ -3840,7 +3834,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A40" s="11" t="s">
         <v>68</v>
       </c>
@@ -3864,7 +3858,7 @@
       <c r="I40" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J40" s="33" t="s">
+      <c r="J40" s="32" t="s">
         <v>277</v>
       </c>
       <c r="K40" s="16" t="s">
@@ -3877,7 +3871,7 @@
       <c r="N40" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="O40" s="33" t="s">
+      <c r="O40" s="32" t="s">
         <v>212</v>
       </c>
       <c r="P40" s="16" t="s">
@@ -3899,7 +3893,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A41" s="11" t="s">
         <v>68</v>
       </c>
@@ -3923,7 +3917,7 @@
       <c r="I41" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J41" s="33" t="s">
+      <c r="J41" s="32" t="s">
         <v>134</v>
       </c>
       <c r="K41" s="16" t="s">
@@ -3936,7 +3930,7 @@
         <v>64</v>
       </c>
       <c r="N41" s="20"/>
-      <c r="O41" s="33" t="s">
+      <c r="O41" s="32" t="s">
         <v>213</v>
       </c>
       <c r="P41" s="16" t="s">
@@ -3958,7 +3952,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A42" s="11" t="s">
         <v>68</v>
       </c>
@@ -3973,7 +3967,7 @@
       </c>
       <c r="E42" s="23"/>
       <c r="F42" s="24"/>
-      <c r="G42" s="39" t="s">
+      <c r="G42" s="38" t="s">
         <v>136</v>
       </c>
       <c r="H42" s="6">
@@ -3982,7 +3976,7 @@
       <c r="I42" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="J42" s="39" t="s">
+      <c r="J42" s="38" t="s">
         <v>135</v>
       </c>
       <c r="K42" s="22" t="s">
@@ -3995,7 +3989,7 @@
         <v>24</v>
       </c>
       <c r="N42" s="21"/>
-      <c r="O42" s="35" t="s">
+      <c r="O42" s="34" t="s">
         <v>125</v>
       </c>
       <c r="P42" s="22" t="s">
@@ -4017,7 +4011,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A43" s="11" t="s">
         <v>68</v>
       </c>
@@ -4032,7 +4026,7 @@
       </c>
       <c r="E43" s="23"/>
       <c r="F43" s="24"/>
-      <c r="G43" s="39" t="s">
+      <c r="G43" s="38" t="s">
         <v>137</v>
       </c>
       <c r="H43" s="6">
@@ -4041,7 +4035,7 @@
       <c r="I43" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="J43" s="35" t="s">
+      <c r="J43" s="34" t="s">
         <v>278</v>
       </c>
       <c r="K43" s="21" t="s">
@@ -4054,7 +4048,7 @@
         <v>22</v>
       </c>
       <c r="N43" s="21"/>
-      <c r="O43" s="35" t="s">
+      <c r="O43" s="34" t="s">
         <v>210</v>
       </c>
       <c r="P43" s="22" t="s">
@@ -4076,7 +4070,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A44" s="11" t="s">
         <v>68</v>
       </c>
@@ -4089,7 +4083,7 @@
       <c r="D44" s="13" t="s">
         <v>280</v>
       </c>
-      <c r="E44" s="33"/>
+      <c r="E44" s="32"/>
       <c r="F44" s="12"/>
       <c r="G44" s="11" t="s">
         <v>131</v>
@@ -4100,7 +4094,7 @@
       <c r="I44" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J44" s="33" t="s">
+      <c r="J44" s="32" t="s">
         <v>156</v>
       </c>
       <c r="K44" s="6" t="s">
@@ -4108,7 +4102,7 @@
       </c>
       <c r="L44" s="6"/>
       <c r="N44" s="6"/>
-      <c r="O44" s="33"/>
+      <c r="O44" s="32"/>
       <c r="P44" s="6"/>
       <c r="Q44" s="6"/>
       <c r="R44" s="6"/>
@@ -4116,7 +4110,7 @@
       <c r="T44" s="6"/>
       <c r="U44" s="6"/>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A45" s="11" t="s">
         <v>68</v>
       </c>
@@ -4129,7 +4123,7 @@
       <c r="D45" s="13" t="s">
         <v>280</v>
       </c>
-      <c r="E45" s="33"/>
+      <c r="E45" s="32"/>
       <c r="F45" s="12"/>
       <c r="G45" s="15" t="s">
         <v>91</v>
@@ -4140,7 +4134,7 @@
       <c r="I45" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J45" s="33" t="s">
+      <c r="J45" s="32" t="s">
         <v>130</v>
       </c>
       <c r="K45" s="6" t="s">
@@ -4153,7 +4147,7 @@
         <v>23</v>
       </c>
       <c r="N45" s="6"/>
-      <c r="O45" s="33"/>
+      <c r="O45" s="32"/>
       <c r="P45" s="6" t="s">
         <v>20</v>
       </c>
@@ -4169,11 +4163,11 @@
       <c r="T45" s="26" t="s">
         <v>253</v>
       </c>
-      <c r="U45" s="43" t="s">
+      <c r="U45" s="40" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="46" spans="1:21" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A46" s="13" t="s">
         <v>68</v>
       </c>
@@ -4226,11 +4220,11 @@
       <c r="T46" s="12" t="s">
         <v>292</v>
       </c>
-      <c r="U46" s="44" t="s">
+      <c r="U46" s="41" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="47" spans="1:21" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A47" s="27"/>
       <c r="B47" s="28"/>
       <c r="C47" s="28"/>
@@ -4245,7 +4239,7 @@
       <c r="N47" s="28"/>
       <c r="P47" s="28"/>
     </row>
-    <row r="48" spans="1:21" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A48" s="27"/>
       <c r="B48" s="28"/>
       <c r="C48" s="28"/>
@@ -4260,7 +4254,7 @@
       <c r="N48" s="28"/>
       <c r="P48" s="28"/>
     </row>
-    <row r="49" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A49" s="27"/>
       <c r="B49" s="28"/>
       <c r="C49" s="28"/>
@@ -4275,7 +4269,7 @@
       <c r="N49" s="28"/>
       <c r="P49" s="28"/>
     </row>
-    <row r="50" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A50" s="27"/>
       <c r="B50" s="28"/>
       <c r="C50" s="28"/>
@@ -4290,7 +4284,7 @@
       <c r="N50" s="28"/>
       <c r="P50" s="28"/>
     </row>
-    <row r="51" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A51" s="27"/>
       <c r="B51" s="28"/>
       <c r="C51" s="28"/>
@@ -4305,7 +4299,7 @@
       <c r="N51" s="28"/>
       <c r="P51" s="28"/>
     </row>
-    <row r="52" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A52" s="27"/>
       <c r="B52" s="28"/>
       <c r="C52" s="28"/>
@@ -4320,7 +4314,7 @@
       <c r="N52" s="28"/>
       <c r="P52" s="28"/>
     </row>
-    <row r="53" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A53" s="27"/>
       <c r="B53" s="28"/>
       <c r="C53" s="28"/>
@@ -4335,7 +4329,7 @@
       <c r="N53" s="28"/>
       <c r="P53" s="28"/>
     </row>
-    <row r="54" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A54" s="27"/>
       <c r="B54" s="28"/>
       <c r="C54" s="28"/>
@@ -4350,7 +4344,7 @@
       <c r="N54" s="28"/>
       <c r="P54" s="28"/>
     </row>
-    <row r="55" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A55" s="27"/>
       <c r="B55" s="28"/>
       <c r="C55" s="28"/>
@@ -4365,7 +4359,7 @@
       <c r="N55" s="28"/>
       <c r="P55" s="28"/>
     </row>
-    <row r="56" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A56" s="27"/>
       <c r="B56" s="28"/>
       <c r="C56" s="28"/>
@@ -4380,7 +4374,7 @@
       <c r="N56" s="28"/>
       <c r="P56" s="28"/>
     </row>
-    <row r="57" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A57" s="27"/>
       <c r="B57" s="28"/>
       <c r="C57" s="28"/>
@@ -4395,7 +4389,7 @@
       <c r="N57" s="28"/>
       <c r="P57" s="28"/>
     </row>
-    <row r="58" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A58" s="27"/>
       <c r="B58" s="28"/>
       <c r="C58" s="28"/>
@@ -4410,7 +4404,7 @@
       <c r="N58" s="28"/>
       <c r="P58" s="28"/>
     </row>
-    <row r="59" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A59" s="27"/>
       <c r="B59" s="28"/>
       <c r="C59" s="28"/>
@@ -4425,7 +4419,7 @@
       <c r="N59" s="28"/>
       <c r="P59" s="28"/>
     </row>
-    <row r="60" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A60" s="27"/>
       <c r="B60" s="28"/>
       <c r="C60" s="28"/>
@@ -4440,7 +4434,7 @@
       <c r="N60" s="28"/>
       <c r="P60" s="28"/>
     </row>
-    <row r="61" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A61" s="27"/>
       <c r="B61" s="28"/>
       <c r="C61" s="28"/>
@@ -4455,7 +4449,7 @@
       <c r="N61" s="28"/>
       <c r="P61" s="28"/>
     </row>
-    <row r="62" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A62" s="27"/>
       <c r="B62" s="28"/>
       <c r="C62" s="28"/>
@@ -4470,7 +4464,7 @@
       <c r="N62" s="28"/>
       <c r="P62" s="28"/>
     </row>
-    <row r="63" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A63" s="27"/>
       <c r="B63" s="28"/>
       <c r="C63" s="28"/>
@@ -4485,7 +4479,7 @@
       <c r="N63" s="28"/>
       <c r="P63" s="28"/>
     </row>
-    <row r="64" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A64" s="27"/>
       <c r="B64" s="28"/>
       <c r="C64" s="28"/>
@@ -4500,7 +4494,7 @@
       <c r="N64" s="28"/>
       <c r="P64" s="28"/>
     </row>
-    <row r="65" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A65" s="27"/>
       <c r="B65" s="28"/>
       <c r="C65" s="28"/>
@@ -4515,7 +4509,7 @@
       <c r="N65" s="28"/>
       <c r="P65" s="28"/>
     </row>
-    <row r="66" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A66" s="27"/>
       <c r="B66" s="28"/>
       <c r="C66" s="28"/>
@@ -4530,7 +4524,7 @@
       <c r="N66" s="28"/>
       <c r="P66" s="28"/>
     </row>
-    <row r="67" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A67" s="27"/>
       <c r="B67" s="28"/>
       <c r="C67" s="28"/>
@@ -4545,7 +4539,7 @@
       <c r="N67" s="28"/>
       <c r="P67" s="28"/>
     </row>
-    <row r="68" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A68" s="27"/>
       <c r="B68" s="28"/>
       <c r="C68" s="28"/>
@@ -4560,7 +4554,7 @@
       <c r="N68" s="28"/>
       <c r="P68" s="28"/>
     </row>
-    <row r="69" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A69" s="27"/>
       <c r="B69" s="28"/>
       <c r="C69" s="28"/>
@@ -4575,7 +4569,7 @@
       <c r="N69" s="28"/>
       <c r="P69" s="28"/>
     </row>
-    <row r="70" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A70" s="27"/>
       <c r="B70" s="28"/>
       <c r="C70" s="28"/>
@@ -4590,7 +4584,7 @@
       <c r="N70" s="28"/>
       <c r="P70" s="28"/>
     </row>
-    <row r="71" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A71" s="27"/>
       <c r="B71" s="28"/>
       <c r="C71" s="28"/>
@@ -4605,7 +4599,7 @@
       <c r="N71" s="28"/>
       <c r="P71" s="28"/>
     </row>
-    <row r="72" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A72" s="27"/>
       <c r="B72" s="28"/>
       <c r="C72" s="28"/>
@@ -4620,7 +4614,7 @@
       <c r="N72" s="28"/>
       <c r="P72" s="28"/>
     </row>
-    <row r="73" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A73" s="27"/>
       <c r="B73" s="28"/>
       <c r="C73" s="28"/>
@@ -4635,7 +4629,7 @@
       <c r="N73" s="28"/>
       <c r="P73" s="28"/>
     </row>
-    <row r="74" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A74" s="27"/>
       <c r="B74" s="28"/>
       <c r="C74" s="28"/>
@@ -4650,7 +4644,7 @@
       <c r="N74" s="28"/>
       <c r="P74" s="28"/>
     </row>
-    <row r="75" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A75" s="27"/>
       <c r="B75" s="28"/>
       <c r="C75" s="28"/>
@@ -4665,7 +4659,7 @@
       <c r="N75" s="28"/>
       <c r="P75" s="28"/>
     </row>
-    <row r="76" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A76" s="27"/>
       <c r="B76" s="28"/>
       <c r="C76" s="28"/>
@@ -4680,7 +4674,7 @@
       <c r="N76" s="28"/>
       <c r="P76" s="28"/>
     </row>
-    <row r="77" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A77" s="27"/>
       <c r="B77" s="28"/>
       <c r="C77" s="28"/>
@@ -4695,7 +4689,7 @@
       <c r="N77" s="28"/>
       <c r="P77" s="28"/>
     </row>
-    <row r="78" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A78" s="27"/>
       <c r="B78" s="28"/>
       <c r="C78" s="28"/>
@@ -4710,7 +4704,7 @@
       <c r="N78" s="28"/>
       <c r="P78" s="28"/>
     </row>
-    <row r="79" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A79" s="27"/>
       <c r="B79" s="28"/>
       <c r="C79" s="28"/>
@@ -4725,7 +4719,7 @@
       <c r="N79" s="28"/>
       <c r="P79" s="28"/>
     </row>
-    <row r="80" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A80" s="27"/>
       <c r="B80" s="28"/>
       <c r="C80" s="28"/>
@@ -4740,7 +4734,7 @@
       <c r="N80" s="28"/>
       <c r="P80" s="28"/>
     </row>
-    <row r="81" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A81" s="27"/>
       <c r="B81" s="28"/>
       <c r="C81" s="28"/>
@@ -4755,7 +4749,7 @@
       <c r="N81" s="28"/>
       <c r="P81" s="28"/>
     </row>
-    <row r="82" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A82" s="27"/>
       <c r="B82" s="28"/>
       <c r="C82" s="28"/>
@@ -4770,7 +4764,7 @@
       <c r="N82" s="28"/>
       <c r="P82" s="28"/>
     </row>
-    <row r="83" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A83" s="27"/>
       <c r="B83" s="28"/>
       <c r="C83" s="28"/>
@@ -4785,7 +4779,7 @@
       <c r="N83" s="28"/>
       <c r="P83" s="28"/>
     </row>
-    <row r="84" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A84" s="27"/>
       <c r="B84" s="28"/>
       <c r="C84" s="28"/>
@@ -4800,7 +4794,7 @@
       <c r="N84" s="28"/>
       <c r="P84" s="28"/>
     </row>
-    <row r="85" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A85" s="27"/>
       <c r="B85" s="28"/>
       <c r="C85" s="28"/>
@@ -4815,7 +4809,7 @@
       <c r="N85" s="28"/>
       <c r="P85" s="28"/>
     </row>
-    <row r="86" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A86" s="27"/>
       <c r="B86" s="28"/>
       <c r="C86" s="28"/>
@@ -4830,7 +4824,7 @@
       <c r="N86" s="28"/>
       <c r="P86" s="28"/>
     </row>
-    <row r="87" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A87" s="27"/>
       <c r="B87" s="28"/>
       <c r="C87" s="28"/>
@@ -4845,7 +4839,7 @@
       <c r="N87" s="28"/>
       <c r="P87" s="28"/>
     </row>
-    <row r="88" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A88" s="27"/>
       <c r="B88" s="28"/>
       <c r="C88" s="28"/>
@@ -4860,7 +4854,7 @@
       <c r="N88" s="28"/>
       <c r="P88" s="28"/>
     </row>
-    <row r="89" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A89" s="27"/>
       <c r="B89" s="28"/>
       <c r="C89" s="28"/>
@@ -4875,7 +4869,7 @@
       <c r="N89" s="28"/>
       <c r="P89" s="28"/>
     </row>
-    <row r="90" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A90" s="27"/>
       <c r="B90" s="28"/>
       <c r="C90" s="28"/>
@@ -4890,7 +4884,7 @@
       <c r="N90" s="28"/>
       <c r="P90" s="28"/>
     </row>
-    <row r="91" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A91" s="27"/>
       <c r="B91" s="28"/>
       <c r="C91" s="28"/>
@@ -4905,7 +4899,7 @@
       <c r="N91" s="28"/>
       <c r="P91" s="28"/>
     </row>
-    <row r="92" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A92" s="27"/>
       <c r="B92" s="28"/>
       <c r="C92" s="28"/>
@@ -4920,7 +4914,7 @@
       <c r="N92" s="28"/>
       <c r="P92" s="28"/>
     </row>
-    <row r="93" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A93" s="27"/>
       <c r="B93" s="28"/>
       <c r="C93" s="28"/>
@@ -4935,7 +4929,7 @@
       <c r="N93" s="28"/>
       <c r="P93" s="28"/>
     </row>
-    <row r="94" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A94" s="27"/>
       <c r="B94" s="28"/>
       <c r="C94" s="28"/>
@@ -4950,7 +4944,7 @@
       <c r="N94" s="28"/>
       <c r="P94" s="28"/>
     </row>
-    <row r="95" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A95" s="27"/>
       <c r="B95" s="28"/>
       <c r="C95" s="28"/>
@@ -4965,7 +4959,7 @@
       <c r="N95" s="28"/>
       <c r="P95" s="28"/>
     </row>
-    <row r="96" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A96" s="27"/>
       <c r="B96" s="28"/>
       <c r="C96" s="28"/>
@@ -4980,7 +4974,7 @@
       <c r="N96" s="28"/>
       <c r="P96" s="28"/>
     </row>
-    <row r="97" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A97" s="27"/>
       <c r="B97" s="28"/>
       <c r="C97" s="28"/>
@@ -4995,7 +4989,7 @@
       <c r="N97" s="28"/>
       <c r="P97" s="28"/>
     </row>
-    <row r="98" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A98" s="27"/>
       <c r="B98" s="28"/>
       <c r="C98" s="28"/>
@@ -5010,7 +5004,7 @@
       <c r="N98" s="28"/>
       <c r="P98" s="28"/>
     </row>
-    <row r="99" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A99" s="27"/>
       <c r="B99" s="28"/>
       <c r="C99" s="28"/>
@@ -5025,7 +5019,7 @@
       <c r="N99" s="28"/>
       <c r="P99" s="28"/>
     </row>
-    <row r="100" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A100" s="27"/>
       <c r="B100" s="28"/>
       <c r="C100" s="28"/>
@@ -5040,7 +5034,7 @@
       <c r="N100" s="28"/>
       <c r="P100" s="28"/>
     </row>
-    <row r="101" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A101" s="27"/>
       <c r="B101" s="28"/>
       <c r="C101" s="28"/>
@@ -5055,7 +5049,7 @@
       <c r="N101" s="28"/>
       <c r="P101" s="28"/>
     </row>
-    <row r="102" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A102" s="27"/>
       <c r="B102" s="28"/>
       <c r="C102" s="28"/>
@@ -5070,7 +5064,7 @@
       <c r="N102" s="28"/>
       <c r="P102" s="28"/>
     </row>
-    <row r="103" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A103" s="27"/>
       <c r="B103" s="28"/>
       <c r="C103" s="28"/>
@@ -5085,7 +5079,7 @@
       <c r="N103" s="28"/>
       <c r="P103" s="28"/>
     </row>
-    <row r="104" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A104" s="27"/>
       <c r="B104" s="28"/>
       <c r="C104" s="28"/>
@@ -5100,7 +5094,7 @@
       <c r="N104" s="28"/>
       <c r="P104" s="28"/>
     </row>
-    <row r="105" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A105" s="27"/>
       <c r="B105" s="28"/>
       <c r="C105" s="28"/>
@@ -5115,7 +5109,7 @@
       <c r="N105" s="28"/>
       <c r="P105" s="28"/>
     </row>
-    <row r="106" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A106" s="27"/>
       <c r="B106" s="28"/>
       <c r="C106" s="28"/>
@@ -5130,7 +5124,7 @@
       <c r="N106" s="28"/>
       <c r="P106" s="28"/>
     </row>
-    <row r="107" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A107" s="27"/>
       <c r="B107" s="28"/>
       <c r="C107" s="28"/>
@@ -5145,7 +5139,7 @@
       <c r="N107" s="28"/>
       <c r="P107" s="28"/>
     </row>
-    <row r="108" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A108" s="27"/>
       <c r="B108" s="28"/>
       <c r="C108" s="28"/>
@@ -5160,7 +5154,7 @@
       <c r="N108" s="28"/>
       <c r="P108" s="28"/>
     </row>
-    <row r="109" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A109" s="27"/>
       <c r="B109" s="28"/>
       <c r="C109" s="28"/>
@@ -5175,7 +5169,7 @@
       <c r="N109" s="28"/>
       <c r="P109" s="28"/>
     </row>
-    <row r="110" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A110" s="27"/>
       <c r="B110" s="28"/>
       <c r="C110" s="28"/>
@@ -5190,7 +5184,7 @@
       <c r="N110" s="28"/>
       <c r="P110" s="28"/>
     </row>
-    <row r="111" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A111" s="27"/>
       <c r="B111" s="28"/>
       <c r="C111" s="28"/>
@@ -5205,7 +5199,7 @@
       <c r="N111" s="28"/>
       <c r="P111" s="28"/>
     </row>
-    <row r="112" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A112" s="27"/>
       <c r="B112" s="28"/>
       <c r="C112" s="28"/>
@@ -5220,7 +5214,7 @@
       <c r="N112" s="28"/>
       <c r="P112" s="28"/>
     </row>
-    <row r="113" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A113" s="27"/>
       <c r="B113" s="28"/>
       <c r="C113" s="28"/>
@@ -5235,7 +5229,7 @@
       <c r="N113" s="28"/>
       <c r="P113" s="28"/>
     </row>
-    <row r="114" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A114" s="27"/>
       <c r="B114" s="28"/>
       <c r="C114" s="28"/>
@@ -5250,7 +5244,7 @@
       <c r="N114" s="28"/>
       <c r="P114" s="28"/>
     </row>
-    <row r="115" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A115" s="27"/>
       <c r="B115" s="28"/>
       <c r="C115" s="28"/>
@@ -5265,7 +5259,7 @@
       <c r="N115" s="28"/>
       <c r="P115" s="28"/>
     </row>
-    <row r="116" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A116" s="27"/>
       <c r="B116" s="28"/>
       <c r="C116" s="28"/>
@@ -5280,7 +5274,7 @@
       <c r="N116" s="28"/>
       <c r="P116" s="28"/>
     </row>
-    <row r="117" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A117" s="27"/>
       <c r="B117" s="28"/>
       <c r="C117" s="28"/>
@@ -5295,7 +5289,7 @@
       <c r="N117" s="28"/>
       <c r="P117" s="28"/>
     </row>
-    <row r="118" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A118" s="27"/>
       <c r="B118" s="28"/>
       <c r="C118" s="28"/>
@@ -5310,7 +5304,7 @@
       <c r="N118" s="28"/>
       <c r="P118" s="28"/>
     </row>
-    <row r="119" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A119" s="27"/>
       <c r="B119" s="28"/>
       <c r="C119" s="28"/>
@@ -5325,7 +5319,7 @@
       <c r="N119" s="28"/>
       <c r="P119" s="28"/>
     </row>
-    <row r="120" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A120" s="27"/>
       <c r="B120" s="28"/>
       <c r="C120" s="28"/>
@@ -5340,7 +5334,7 @@
       <c r="N120" s="28"/>
       <c r="P120" s="28"/>
     </row>
-    <row r="121" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A121" s="27"/>
       <c r="B121" s="28"/>
       <c r="C121" s="28"/>
@@ -5355,7 +5349,7 @@
       <c r="N121" s="28"/>
       <c r="P121" s="28"/>
     </row>
-    <row r="122" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A122" s="27"/>
       <c r="B122" s="28"/>
       <c r="C122" s="28"/>
@@ -5370,7 +5364,7 @@
       <c r="N122" s="28"/>
       <c r="P122" s="28"/>
     </row>
-    <row r="123" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A123" s="27"/>
       <c r="B123" s="28"/>
       <c r="C123" s="28"/>
@@ -5385,7 +5379,7 @@
       <c r="N123" s="28"/>
       <c r="P123" s="28"/>
     </row>
-    <row r="124" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A124" s="27"/>
       <c r="B124" s="28"/>
       <c r="C124" s="28"/>
@@ -5400,7 +5394,7 @@
       <c r="N124" s="28"/>
       <c r="P124" s="28"/>
     </row>
-    <row r="125" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A125" s="27"/>
       <c r="B125" s="28"/>
       <c r="C125" s="28"/>
@@ -5415,7 +5409,7 @@
       <c r="N125" s="28"/>
       <c r="P125" s="28"/>
     </row>
-    <row r="126" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A126" s="27"/>
       <c r="B126" s="28"/>
       <c r="C126" s="28"/>
@@ -5430,7 +5424,7 @@
       <c r="N126" s="28"/>
       <c r="P126" s="28"/>
     </row>
-    <row r="127" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A127" s="27"/>
       <c r="B127" s="28"/>
       <c r="C127" s="28"/>
@@ -5445,7 +5439,7 @@
       <c r="N127" s="28"/>
       <c r="P127" s="28"/>
     </row>
-    <row r="128" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A128" s="27"/>
       <c r="B128" s="28"/>
       <c r="C128" s="28"/>
@@ -5460,7 +5454,7 @@
       <c r="N128" s="28"/>
       <c r="P128" s="28"/>
     </row>
-    <row r="129" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A129" s="27"/>
       <c r="B129" s="28"/>
       <c r="C129" s="28"/>
@@ -5475,7 +5469,7 @@
       <c r="N129" s="28"/>
       <c r="P129" s="28"/>
     </row>
-    <row r="130" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A130" s="27"/>
       <c r="B130" s="28"/>
       <c r="C130" s="28"/>
@@ -5490,7 +5484,7 @@
       <c r="N130" s="28"/>
       <c r="P130" s="28"/>
     </row>
-    <row r="131" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A131" s="27"/>
       <c r="B131" s="28"/>
       <c r="C131" s="28"/>
@@ -5505,7 +5499,7 @@
       <c r="N131" s="28"/>
       <c r="P131" s="28"/>
     </row>
-    <row r="132" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A132" s="27"/>
       <c r="B132" s="28"/>
       <c r="C132" s="28"/>
@@ -5520,7 +5514,7 @@
       <c r="N132" s="28"/>
       <c r="P132" s="28"/>
     </row>
-    <row r="133" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A133" s="27"/>
       <c r="B133" s="28"/>
       <c r="C133" s="28"/>
@@ -5535,7 +5529,7 @@
       <c r="N133" s="28"/>
       <c r="P133" s="28"/>
     </row>
-    <row r="134" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A134" s="27"/>
       <c r="B134" s="28"/>
       <c r="C134" s="28"/>
@@ -5550,7 +5544,7 @@
       <c r="N134" s="28"/>
       <c r="P134" s="28"/>
     </row>
-    <row r="135" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A135" s="27"/>
       <c r="B135" s="28"/>
       <c r="C135" s="28"/>
@@ -5565,7 +5559,7 @@
       <c r="N135" s="28"/>
       <c r="P135" s="28"/>
     </row>
-    <row r="136" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A136" s="27"/>
       <c r="B136" s="28"/>
       <c r="C136" s="28"/>
@@ -5580,7 +5574,7 @@
       <c r="N136" s="28"/>
       <c r="P136" s="28"/>
     </row>
-    <row r="137" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A137" s="27"/>
       <c r="B137" s="28"/>
       <c r="C137" s="28"/>
@@ -5595,7 +5589,7 @@
       <c r="N137" s="28"/>
       <c r="P137" s="28"/>
     </row>
-    <row r="138" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A138" s="27"/>
       <c r="B138" s="28"/>
       <c r="C138" s="28"/>
@@ -5610,7 +5604,7 @@
       <c r="N138" s="28"/>
       <c r="P138" s="28"/>
     </row>
-    <row r="139" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A139" s="27"/>
       <c r="B139" s="28"/>
       <c r="C139" s="28"/>
@@ -5625,7 +5619,7 @@
       <c r="N139" s="28"/>
       <c r="P139" s="28"/>
     </row>
-    <row r="140" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A140" s="27"/>
       <c r="B140" s="28"/>
       <c r="C140" s="28"/>
@@ -5640,7 +5634,7 @@
       <c r="N140" s="28"/>
       <c r="P140" s="28"/>
     </row>
-    <row r="141" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A141" s="27"/>
       <c r="B141" s="28"/>
       <c r="C141" s="28"/>
@@ -5655,7 +5649,7 @@
       <c r="N141" s="28"/>
       <c r="P141" s="28"/>
     </row>
-    <row r="142" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A142" s="27"/>
       <c r="B142" s="28"/>
       <c r="C142" s="28"/>
@@ -5670,7 +5664,7 @@
       <c r="N142" s="28"/>
       <c r="P142" s="28"/>
     </row>
-    <row r="143" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A143" s="27"/>
       <c r="B143" s="28"/>
       <c r="C143" s="28"/>
@@ -5685,7 +5679,7 @@
       <c r="N143" s="28"/>
       <c r="P143" s="28"/>
     </row>
-    <row r="144" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A144" s="27"/>
       <c r="B144" s="28"/>
       <c r="C144" s="28"/>
@@ -5700,7 +5694,7 @@
       <c r="N144" s="28"/>
       <c r="P144" s="28"/>
     </row>
-    <row r="145" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A145" s="27"/>
       <c r="B145" s="28"/>
       <c r="C145" s="28"/>
@@ -5715,7 +5709,7 @@
       <c r="N145" s="28"/>
       <c r="P145" s="28"/>
     </row>
-    <row r="146" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A146" s="27"/>
       <c r="B146" s="28"/>
       <c r="C146" s="28"/>
@@ -5730,7 +5724,7 @@
       <c r="N146" s="28"/>
       <c r="P146" s="28"/>
     </row>
-    <row r="147" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A147" s="27"/>
       <c r="B147" s="28"/>
       <c r="C147" s="28"/>
@@ -5745,7 +5739,7 @@
       <c r="N147" s="28"/>
       <c r="P147" s="28"/>
     </row>
-    <row r="148" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A148" s="27"/>
       <c r="B148" s="28"/>
       <c r="C148" s="28"/>
@@ -5760,7 +5754,7 @@
       <c r="N148" s="28"/>
       <c r="P148" s="28"/>
     </row>
-    <row r="149" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A149" s="27"/>
       <c r="B149" s="28"/>
       <c r="C149" s="28"/>
@@ -5775,7 +5769,7 @@
       <c r="N149" s="28"/>
       <c r="P149" s="28"/>
     </row>
-    <row r="150" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A150" s="27"/>
       <c r="B150" s="28"/>
       <c r="C150" s="28"/>
@@ -5790,7 +5784,7 @@
       <c r="N150" s="28"/>
       <c r="P150" s="28"/>
     </row>
-    <row r="151" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A151" s="27"/>
       <c r="B151" s="28"/>
       <c r="C151" s="28"/>
@@ -5805,7 +5799,7 @@
       <c r="N151" s="28"/>
       <c r="P151" s="28"/>
     </row>
-    <row r="152" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A152" s="27"/>
       <c r="B152" s="28"/>
       <c r="C152" s="28"/>
@@ -5820,7 +5814,7 @@
       <c r="N152" s="28"/>
       <c r="P152" s="28"/>
     </row>
-    <row r="153" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A153" s="27"/>
       <c r="B153" s="28"/>
       <c r="C153" s="28"/>
@@ -5835,7 +5829,7 @@
       <c r="N153" s="28"/>
       <c r="P153" s="28"/>
     </row>
-    <row r="154" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A154" s="27"/>
       <c r="B154" s="28"/>
       <c r="C154" s="28"/>
@@ -5850,7 +5844,7 @@
       <c r="N154" s="28"/>
       <c r="P154" s="28"/>
     </row>
-    <row r="155" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A155" s="27"/>
       <c r="B155" s="28"/>
       <c r="C155" s="28"/>
@@ -5865,7 +5859,7 @@
       <c r="N155" s="28"/>
       <c r="P155" s="28"/>
     </row>
-    <row r="156" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A156" s="27"/>
       <c r="B156" s="28"/>
       <c r="C156" s="28"/>
@@ -5880,7 +5874,7 @@
       <c r="N156" s="28"/>
       <c r="P156" s="28"/>
     </row>
-    <row r="157" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A157" s="27"/>
       <c r="B157" s="28"/>
       <c r="C157" s="28"/>
@@ -5895,7 +5889,7 @@
       <c r="N157" s="28"/>
       <c r="P157" s="28"/>
     </row>
-    <row r="158" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A158" s="27"/>
       <c r="B158" s="28"/>
       <c r="C158" s="28"/>
@@ -5910,7 +5904,7 @@
       <c r="N158" s="28"/>
       <c r="P158" s="28"/>
     </row>
-    <row r="159" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A159" s="27"/>
       <c r="B159" s="28"/>
       <c r="C159" s="28"/>
@@ -5925,7 +5919,7 @@
       <c r="N159" s="28"/>
       <c r="P159" s="28"/>
     </row>
-    <row r="160" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A160" s="27"/>
       <c r="B160" s="28"/>
       <c r="C160" s="28"/>
@@ -5940,7 +5934,7 @@
       <c r="N160" s="28"/>
       <c r="P160" s="28"/>
     </row>
-    <row r="161" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A161" s="27"/>
       <c r="B161" s="28"/>
       <c r="C161" s="28"/>
@@ -5955,7 +5949,7 @@
       <c r="N161" s="28"/>
       <c r="P161" s="28"/>
     </row>
-    <row r="162" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A162" s="27"/>
       <c r="B162" s="28"/>
       <c r="C162" s="28"/>
@@ -5970,7 +5964,7 @@
       <c r="N162" s="28"/>
       <c r="P162" s="28"/>
     </row>
-    <row r="163" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A163" s="27"/>
       <c r="B163" s="28"/>
       <c r="C163" s="28"/>
@@ -5985,7 +5979,7 @@
       <c r="N163" s="28"/>
       <c r="P163" s="28"/>
     </row>
-    <row r="164" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A164" s="27"/>
       <c r="B164" s="28"/>
       <c r="C164" s="28"/>
@@ -6000,7 +5994,7 @@
       <c r="N164" s="28"/>
       <c r="P164" s="28"/>
     </row>
-    <row r="165" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A165" s="27"/>
       <c r="B165" s="28"/>
       <c r="C165" s="28"/>
@@ -6015,7 +6009,7 @@
       <c r="N165" s="28"/>
       <c r="P165" s="28"/>
     </row>
-    <row r="166" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A166" s="27"/>
       <c r="B166" s="28"/>
       <c r="C166" s="28"/>
@@ -6030,7 +6024,7 @@
       <c r="N166" s="28"/>
       <c r="P166" s="28"/>
     </row>
-    <row r="167" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A167" s="27"/>
       <c r="B167" s="28"/>
       <c r="C167" s="28"/>
@@ -6045,7 +6039,7 @@
       <c r="N167" s="28"/>
       <c r="P167" s="28"/>
     </row>
-    <row r="168" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A168" s="27"/>
       <c r="B168" s="28"/>
       <c r="C168" s="28"/>
@@ -6060,7 +6054,7 @@
       <c r="N168" s="28"/>
       <c r="P168" s="28"/>
     </row>
-    <row r="169" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A169" s="27"/>
       <c r="B169" s="28"/>
       <c r="C169" s="28"/>
@@ -6075,7 +6069,7 @@
       <c r="N169" s="28"/>
       <c r="P169" s="28"/>
     </row>
-    <row r="170" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A170" s="27"/>
       <c r="B170" s="28"/>
       <c r="C170" s="28"/>
@@ -6090,7 +6084,7 @@
       <c r="N170" s="28"/>
       <c r="P170" s="28"/>
     </row>
-    <row r="171" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A171" s="27"/>
       <c r="B171" s="28"/>
       <c r="C171" s="28"/>
@@ -6105,7 +6099,7 @@
       <c r="N171" s="28"/>
       <c r="P171" s="28"/>
     </row>
-    <row r="172" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A172" s="27"/>
       <c r="B172" s="28"/>
       <c r="C172" s="28"/>
@@ -6120,7 +6114,7 @@
       <c r="N172" s="28"/>
       <c r="P172" s="28"/>
     </row>
-    <row r="173" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A173" s="27"/>
       <c r="B173" s="28"/>
       <c r="C173" s="28"/>
@@ -6135,7 +6129,7 @@
       <c r="N173" s="28"/>
       <c r="P173" s="28"/>
     </row>
-    <row r="174" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A174" s="27"/>
       <c r="B174" s="28"/>
       <c r="C174" s="28"/>
@@ -6150,7 +6144,7 @@
       <c r="N174" s="28"/>
       <c r="P174" s="28"/>
     </row>
-    <row r="175" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A175" s="27"/>
       <c r="B175" s="28"/>
       <c r="C175" s="28"/>
@@ -6165,7 +6159,7 @@
       <c r="N175" s="28"/>
       <c r="P175" s="28"/>
     </row>
-    <row r="176" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A176" s="27"/>
       <c r="B176" s="28"/>
       <c r="C176" s="28"/>
@@ -6180,7 +6174,7 @@
       <c r="N176" s="28"/>
       <c r="P176" s="28"/>
     </row>
-    <row r="177" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A177" s="27"/>
       <c r="B177" s="28"/>
       <c r="C177" s="28"/>
@@ -6195,7 +6189,7 @@
       <c r="N177" s="28"/>
       <c r="P177" s="28"/>
     </row>
-    <row r="178" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A178" s="27"/>
       <c r="B178" s="28"/>
       <c r="C178" s="28"/>
@@ -6210,7 +6204,7 @@
       <c r="N178" s="28"/>
       <c r="P178" s="28"/>
     </row>
-    <row r="179" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A179" s="27"/>
       <c r="B179" s="28"/>
       <c r="C179" s="28"/>
@@ -6225,7 +6219,7 @@
       <c r="N179" s="28"/>
       <c r="P179" s="28"/>
     </row>
-    <row r="180" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A180" s="27"/>
       <c r="B180" s="28"/>
       <c r="C180" s="28"/>
@@ -6240,7 +6234,7 @@
       <c r="N180" s="28"/>
       <c r="P180" s="28"/>
     </row>
-    <row r="181" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A181" s="27"/>
       <c r="B181" s="28"/>
       <c r="C181" s="28"/>
@@ -6255,7 +6249,7 @@
       <c r="N181" s="28"/>
       <c r="P181" s="28"/>
     </row>
-    <row r="182" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A182" s="27"/>
       <c r="B182" s="28"/>
       <c r="C182" s="28"/>
@@ -6270,7 +6264,7 @@
       <c r="N182" s="28"/>
       <c r="P182" s="28"/>
     </row>
-    <row r="183" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A183" s="27"/>
       <c r="B183" s="28"/>
       <c r="C183" s="28"/>
@@ -6285,7 +6279,7 @@
       <c r="N183" s="28"/>
       <c r="P183" s="28"/>
     </row>
-    <row r="184" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A184" s="27"/>
       <c r="B184" s="28"/>
       <c r="C184" s="28"/>
@@ -6300,7 +6294,7 @@
       <c r="N184" s="28"/>
       <c r="P184" s="28"/>
     </row>
-    <row r="185" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A185" s="27"/>
       <c r="B185" s="28"/>
       <c r="C185" s="28"/>
@@ -6315,7 +6309,7 @@
       <c r="N185" s="28"/>
       <c r="P185" s="28"/>
     </row>
-    <row r="186" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A186" s="27"/>
       <c r="B186" s="28"/>
       <c r="C186" s="28"/>
@@ -6330,7 +6324,7 @@
       <c r="N186" s="28"/>
       <c r="P186" s="28"/>
     </row>
-    <row r="187" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A187" s="27"/>
       <c r="B187" s="28"/>
       <c r="C187" s="28"/>
@@ -6345,7 +6339,7 @@
       <c r="N187" s="28"/>
       <c r="P187" s="28"/>
     </row>
-    <row r="188" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A188" s="27"/>
       <c r="B188" s="28"/>
       <c r="C188" s="28"/>
@@ -6360,7 +6354,7 @@
       <c r="N188" s="28"/>
       <c r="P188" s="28"/>
     </row>
-    <row r="189" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A189" s="27"/>
       <c r="B189" s="28"/>
       <c r="C189" s="28"/>
@@ -6375,7 +6369,7 @@
       <c r="N189" s="28"/>
       <c r="P189" s="28"/>
     </row>
-    <row r="190" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A190" s="27"/>
       <c r="B190" s="28"/>
       <c r="C190" s="28"/>
@@ -6390,7 +6384,7 @@
       <c r="N190" s="28"/>
       <c r="P190" s="28"/>
     </row>
-    <row r="191" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A191" s="27"/>
       <c r="B191" s="28"/>
       <c r="C191" s="28"/>
@@ -6405,7 +6399,7 @@
       <c r="N191" s="28"/>
       <c r="P191" s="28"/>
     </row>
-    <row r="192" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A192" s="27"/>
       <c r="B192" s="28"/>
       <c r="C192" s="28"/>
@@ -6420,7 +6414,7 @@
       <c r="N192" s="28"/>
       <c r="P192" s="28"/>
     </row>
-    <row r="193" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A193" s="27"/>
       <c r="B193" s="28"/>
       <c r="C193" s="28"/>
@@ -6435,7 +6429,7 @@
       <c r="N193" s="28"/>
       <c r="P193" s="28"/>
     </row>
-    <row r="194" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A194" s="27"/>
       <c r="B194" s="28"/>
       <c r="C194" s="28"/>
@@ -6450,7 +6444,7 @@
       <c r="N194" s="28"/>
       <c r="P194" s="28"/>
     </row>
-    <row r="195" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A195" s="27"/>
       <c r="B195" s="28"/>
       <c r="C195" s="28"/>
@@ -6465,7 +6459,7 @@
       <c r="N195" s="28"/>
       <c r="P195" s="28"/>
     </row>
-    <row r="196" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A196" s="27"/>
       <c r="B196" s="28"/>
       <c r="C196" s="28"/>
@@ -6480,7 +6474,7 @@
       <c r="N196" s="28"/>
       <c r="P196" s="28"/>
     </row>
-    <row r="197" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A197" s="27"/>
       <c r="B197" s="28"/>
       <c r="C197" s="28"/>
@@ -6495,7 +6489,7 @@
       <c r="N197" s="28"/>
       <c r="P197" s="28"/>
     </row>
-    <row r="198" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A198" s="27"/>
       <c r="B198" s="28"/>
       <c r="C198" s="28"/>
@@ -6510,7 +6504,7 @@
       <c r="N198" s="28"/>
       <c r="P198" s="28"/>
     </row>
-    <row r="199" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A199" s="27"/>
       <c r="B199" s="28"/>
       <c r="C199" s="28"/>
@@ -6525,7 +6519,7 @@
       <c r="N199" s="28"/>
       <c r="P199" s="28"/>
     </row>
-    <row r="200" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A200" s="27"/>
       <c r="B200" s="28"/>
       <c r="C200" s="28"/>
@@ -6540,7 +6534,7 @@
       <c r="N200" s="28"/>
       <c r="P200" s="28"/>
     </row>
-    <row r="201" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A201" s="27"/>
       <c r="B201" s="28"/>
       <c r="C201" s="28"/>
@@ -6555,7 +6549,7 @@
       <c r="N201" s="28"/>
       <c r="P201" s="28"/>
     </row>
-    <row r="202" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A202" s="27"/>
       <c r="B202" s="28"/>
       <c r="C202" s="28"/>
@@ -6570,7 +6564,7 @@
       <c r="N202" s="28"/>
       <c r="P202" s="28"/>
     </row>
-    <row r="203" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A203" s="27"/>
       <c r="B203" s="28"/>
       <c r="C203" s="28"/>
@@ -6585,7 +6579,7 @@
       <c r="N203" s="28"/>
       <c r="P203" s="28"/>
     </row>
-    <row r="204" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A204" s="27"/>
       <c r="B204" s="28"/>
       <c r="C204" s="28"/>
@@ -6600,7 +6594,7 @@
       <c r="N204" s="28"/>
       <c r="P204" s="28"/>
     </row>
-    <row r="205" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A205" s="27"/>
       <c r="B205" s="28"/>
       <c r="C205" s="28"/>
@@ -6615,7 +6609,7 @@
       <c r="N205" s="28"/>
       <c r="P205" s="28"/>
     </row>
-    <row r="206" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A206" s="27"/>
       <c r="B206" s="28"/>
       <c r="C206" s="28"/>
@@ -6630,7 +6624,7 @@
       <c r="N206" s="28"/>
       <c r="P206" s="28"/>
     </row>
-    <row r="207" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A207" s="27"/>
       <c r="B207" s="28"/>
       <c r="C207" s="28"/>
@@ -6645,7 +6639,7 @@
       <c r="N207" s="28"/>
       <c r="P207" s="28"/>
     </row>
-    <row r="208" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A208" s="27"/>
       <c r="B208" s="28"/>
       <c r="C208" s="28"/>
@@ -6660,7 +6654,7 @@
       <c r="N208" s="28"/>
       <c r="P208" s="28"/>
     </row>
-    <row r="209" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A209" s="27"/>
       <c r="B209" s="28"/>
       <c r="C209" s="28"/>
@@ -6675,7 +6669,7 @@
       <c r="N209" s="28"/>
       <c r="P209" s="28"/>
     </row>
-    <row r="210" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A210" s="27"/>
       <c r="B210" s="28"/>
       <c r="C210" s="28"/>
@@ -6690,7 +6684,7 @@
       <c r="N210" s="28"/>
       <c r="P210" s="28"/>
     </row>
-    <row r="211" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A211" s="27"/>
       <c r="B211" s="28"/>
       <c r="C211" s="28"/>
@@ -6705,7 +6699,7 @@
       <c r="N211" s="28"/>
       <c r="P211" s="28"/>
     </row>
-    <row r="212" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A212" s="27"/>
       <c r="B212" s="28"/>
       <c r="C212" s="28"/>
@@ -6720,7 +6714,7 @@
       <c r="N212" s="28"/>
       <c r="P212" s="28"/>
     </row>
-    <row r="213" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A213" s="27"/>
       <c r="B213" s="28"/>
       <c r="C213" s="28"/>
@@ -6735,7 +6729,7 @@
       <c r="N213" s="28"/>
       <c r="P213" s="28"/>
     </row>
-    <row r="214" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A214" s="27"/>
       <c r="B214" s="28"/>
       <c r="C214" s="28"/>
@@ -6750,7 +6744,7 @@
       <c r="N214" s="28"/>
       <c r="P214" s="28"/>
     </row>
-    <row r="215" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A215" s="27"/>
       <c r="B215" s="28"/>
       <c r="C215" s="28"/>
@@ -6765,7 +6759,7 @@
       <c r="N215" s="28"/>
       <c r="P215" s="28"/>
     </row>
-    <row r="216" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A216" s="27"/>
       <c r="B216" s="28"/>
       <c r="C216" s="28"/>
@@ -6780,7 +6774,7 @@
       <c r="N216" s="28"/>
       <c r="P216" s="28"/>
     </row>
-    <row r="217" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A217" s="27"/>
       <c r="B217" s="28"/>
       <c r="C217" s="28"/>
@@ -6795,7 +6789,7 @@
       <c r="N217" s="28"/>
       <c r="P217" s="28"/>
     </row>
-    <row r="218" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A218" s="27"/>
       <c r="B218" s="28"/>
       <c r="C218" s="28"/>
@@ -6810,7 +6804,7 @@
       <c r="N218" s="28"/>
       <c r="P218" s="28"/>
     </row>
-    <row r="219" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A219" s="27"/>
       <c r="B219" s="28"/>
       <c r="C219" s="28"/>
@@ -6825,7 +6819,7 @@
       <c r="N219" s="28"/>
       <c r="P219" s="28"/>
     </row>
-    <row r="220" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A220" s="27"/>
       <c r="B220" s="28"/>
       <c r="C220" s="28"/>
@@ -6840,7 +6834,7 @@
       <c r="N220" s="28"/>
       <c r="P220" s="28"/>
     </row>
-    <row r="221" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A221" s="27"/>
       <c r="B221" s="28"/>
       <c r="C221" s="28"/>
@@ -6855,7 +6849,7 @@
       <c r="N221" s="28"/>
       <c r="P221" s="28"/>
     </row>
-    <row r="222" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A222" s="27"/>
       <c r="B222" s="28"/>
       <c r="C222" s="28"/>
@@ -6870,7 +6864,7 @@
       <c r="N222" s="28"/>
       <c r="P222" s="28"/>
     </row>
-    <row r="223" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A223" s="27"/>
       <c r="B223" s="28"/>
       <c r="C223" s="28"/>
@@ -6885,7 +6879,7 @@
       <c r="N223" s="28"/>
       <c r="P223" s="28"/>
     </row>
-    <row r="224" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A224" s="27"/>
       <c r="B224" s="28"/>
       <c r="C224" s="28"/>
@@ -6900,7 +6894,7 @@
       <c r="N224" s="28"/>
       <c r="P224" s="28"/>
     </row>
-    <row r="225" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A225" s="27"/>
       <c r="B225" s="28"/>
       <c r="C225" s="28"/>
@@ -6915,7 +6909,7 @@
       <c r="N225" s="28"/>
       <c r="P225" s="28"/>
     </row>
-    <row r="226" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A226" s="27"/>
       <c r="B226" s="28"/>
       <c r="C226" s="28"/>
@@ -6930,7 +6924,7 @@
       <c r="N226" s="28"/>
       <c r="P226" s="28"/>
     </row>
-    <row r="227" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A227" s="27"/>
       <c r="B227" s="28"/>
       <c r="C227" s="28"/>
@@ -6945,7 +6939,7 @@
       <c r="N227" s="28"/>
       <c r="P227" s="28"/>
     </row>
-    <row r="228" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A228" s="27"/>
       <c r="B228" s="28"/>
       <c r="C228" s="28"/>
@@ -6960,7 +6954,7 @@
       <c r="N228" s="28"/>
       <c r="P228" s="28"/>
     </row>
-    <row r="229" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A229" s="27"/>
       <c r="B229" s="28"/>
       <c r="C229" s="28"/>
@@ -6975,7 +6969,7 @@
       <c r="N229" s="28"/>
       <c r="P229" s="28"/>
     </row>
-    <row r="230" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A230" s="27"/>
       <c r="B230" s="28"/>
       <c r="C230" s="28"/>
@@ -6990,7 +6984,7 @@
       <c r="N230" s="28"/>
       <c r="P230" s="28"/>
     </row>
-    <row r="231" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A231" s="27"/>
       <c r="B231" s="28"/>
       <c r="C231" s="28"/>
@@ -7005,7 +6999,7 @@
       <c r="N231" s="28"/>
       <c r="P231" s="28"/>
     </row>
-    <row r="232" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A232" s="27"/>
       <c r="B232" s="28"/>
       <c r="C232" s="28"/>
@@ -7020,7 +7014,7 @@
       <c r="N232" s="28"/>
       <c r="P232" s="28"/>
     </row>
-    <row r="233" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A233" s="27"/>
       <c r="B233" s="28"/>
       <c r="C233" s="28"/>
@@ -7035,7 +7029,7 @@
       <c r="N233" s="28"/>
       <c r="P233" s="28"/>
     </row>
-    <row r="234" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A234" s="27"/>
       <c r="B234" s="28"/>
       <c r="C234" s="28"/>
@@ -7050,7 +7044,7 @@
       <c r="N234" s="28"/>
       <c r="P234" s="28"/>
     </row>
-    <row r="235" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A235" s="27"/>
       <c r="B235" s="28"/>
       <c r="C235" s="28"/>
@@ -7065,7 +7059,7 @@
       <c r="N235" s="28"/>
       <c r="P235" s="28"/>
     </row>
-    <row r="236" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A236" s="27"/>
       <c r="B236" s="28"/>
       <c r="C236" s="28"/>
@@ -7080,7 +7074,7 @@
       <c r="N236" s="28"/>
       <c r="P236" s="28"/>
     </row>
-    <row r="237" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A237" s="27"/>
       <c r="B237" s="28"/>
       <c r="C237" s="28"/>
@@ -7095,7 +7089,7 @@
       <c r="N237" s="28"/>
       <c r="P237" s="28"/>
     </row>
-    <row r="238" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A238" s="27"/>
       <c r="B238" s="28"/>
       <c r="C238" s="28"/>
@@ -7110,7 +7104,7 @@
       <c r="N238" s="28"/>
       <c r="P238" s="28"/>
     </row>
-    <row r="239" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A239" s="27"/>
       <c r="B239" s="28"/>
       <c r="C239" s="28"/>
@@ -7125,7 +7119,7 @@
       <c r="N239" s="28"/>
       <c r="P239" s="28"/>
     </row>
-    <row r="240" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A240" s="27"/>
       <c r="B240" s="28"/>
       <c r="C240" s="28"/>
@@ -7140,7 +7134,7 @@
       <c r="N240" s="28"/>
       <c r="P240" s="28"/>
     </row>
-    <row r="241" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A241" s="27"/>
       <c r="B241" s="28"/>
       <c r="C241" s="28"/>
@@ -7155,7 +7149,7 @@
       <c r="N241" s="28"/>
       <c r="P241" s="28"/>
     </row>
-    <row r="242" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A242" s="27"/>
       <c r="B242" s="28"/>
       <c r="C242" s="28"/>
@@ -7170,7 +7164,7 @@
       <c r="N242" s="28"/>
       <c r="P242" s="28"/>
     </row>
-    <row r="243" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A243" s="27"/>
       <c r="B243" s="28"/>
       <c r="C243" s="28"/>
@@ -7185,7 +7179,7 @@
       <c r="N243" s="28"/>
       <c r="P243" s="28"/>
     </row>
-    <row r="244" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A244" s="27"/>
       <c r="B244" s="28"/>
       <c r="C244" s="28"/>
@@ -7200,7 +7194,7 @@
       <c r="N244" s="28"/>
       <c r="P244" s="28"/>
     </row>
-    <row r="245" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A245" s="27"/>
       <c r="B245" s="28"/>
       <c r="C245" s="28"/>
@@ -7215,7 +7209,7 @@
       <c r="N245" s="28"/>
       <c r="P245" s="28"/>
     </row>
-    <row r="246" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A246" s="27"/>
       <c r="B246" s="28"/>
       <c r="C246" s="28"/>
@@ -7230,7 +7224,7 @@
       <c r="N246" s="28"/>
       <c r="P246" s="28"/>
     </row>
-    <row r="247" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A247" s="27"/>
       <c r="B247" s="28"/>
       <c r="C247" s="28"/>
@@ -7245,7 +7239,7 @@
       <c r="N247" s="28"/>
       <c r="P247" s="28"/>
     </row>
-    <row r="248" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A248" s="27"/>
       <c r="B248" s="28"/>
       <c r="C248" s="28"/>
@@ -7260,7 +7254,7 @@
       <c r="N248" s="28"/>
       <c r="P248" s="28"/>
     </row>
-    <row r="249" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A249" s="27"/>
       <c r="B249" s="28"/>
       <c r="C249" s="28"/>
@@ -7275,7 +7269,7 @@
       <c r="N249" s="28"/>
       <c r="P249" s="28"/>
     </row>
-    <row r="250" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A250" s="27"/>
       <c r="B250" s="28"/>
       <c r="C250" s="28"/>
@@ -7290,7 +7284,7 @@
       <c r="N250" s="28"/>
       <c r="P250" s="28"/>
     </row>
-    <row r="251" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A251" s="27"/>
       <c r="B251" s="28"/>
       <c r="C251" s="28"/>
@@ -7305,7 +7299,7 @@
       <c r="N251" s="28"/>
       <c r="P251" s="28"/>
     </row>
-    <row r="252" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A252" s="27"/>
       <c r="B252" s="28"/>
       <c r="C252" s="28"/>
@@ -7320,7 +7314,7 @@
       <c r="N252" s="28"/>
       <c r="P252" s="28"/>
     </row>
-    <row r="253" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A253" s="27"/>
       <c r="B253" s="28"/>
       <c r="C253" s="28"/>
@@ -7335,7 +7329,7 @@
       <c r="N253" s="28"/>
       <c r="P253" s="28"/>
     </row>
-    <row r="254" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A254" s="27"/>
       <c r="B254" s="28"/>
       <c r="C254" s="28"/>
@@ -7350,7 +7344,7 @@
       <c r="N254" s="28"/>
       <c r="P254" s="28"/>
     </row>
-    <row r="255" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A255" s="27"/>
       <c r="B255" s="28"/>
       <c r="C255" s="28"/>
@@ -7365,7 +7359,7 @@
       <c r="N255" s="28"/>
       <c r="P255" s="28"/>
     </row>
-    <row r="256" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A256" s="27"/>
       <c r="B256" s="28"/>
       <c r="C256" s="28"/>
@@ -7380,7 +7374,7 @@
       <c r="N256" s="28"/>
       <c r="P256" s="28"/>
     </row>
-    <row r="257" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A257" s="27"/>
       <c r="B257" s="28"/>
       <c r="C257" s="28"/>
@@ -7395,7 +7389,7 @@
       <c r="N257" s="28"/>
       <c r="P257" s="28"/>
     </row>
-    <row r="258" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A258" s="27"/>
       <c r="B258" s="28"/>
       <c r="C258" s="28"/>
@@ -7410,7 +7404,7 @@
       <c r="N258" s="28"/>
       <c r="P258" s="28"/>
     </row>
-    <row r="259" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A259" s="27"/>
       <c r="B259" s="28"/>
       <c r="C259" s="28"/>
@@ -7425,7 +7419,7 @@
       <c r="N259" s="28"/>
       <c r="P259" s="28"/>
     </row>
-    <row r="260" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A260" s="27"/>
       <c r="B260" s="28"/>
       <c r="C260" s="28"/>
@@ -7440,7 +7434,7 @@
       <c r="N260" s="28"/>
       <c r="P260" s="28"/>
     </row>
-    <row r="261" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A261" s="27"/>
       <c r="B261" s="28"/>
       <c r="C261" s="28"/>
@@ -7455,7 +7449,7 @@
       <c r="N261" s="28"/>
       <c r="P261" s="28"/>
     </row>
-    <row r="262" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A262" s="27"/>
       <c r="B262" s="28"/>
       <c r="C262" s="28"/>
@@ -7470,7 +7464,7 @@
       <c r="N262" s="28"/>
       <c r="P262" s="28"/>
     </row>
-    <row r="263" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A263" s="27"/>
       <c r="B263" s="28"/>
       <c r="C263" s="28"/>
@@ -7485,7 +7479,7 @@
       <c r="N263" s="28"/>
       <c r="P263" s="28"/>
     </row>
-    <row r="264" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A264" s="27"/>
       <c r="B264" s="28"/>
       <c r="C264" s="28"/>
@@ -7500,7 +7494,7 @@
       <c r="N264" s="28"/>
       <c r="P264" s="28"/>
     </row>
-    <row r="265" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A265" s="27"/>
       <c r="B265" s="28"/>
       <c r="C265" s="28"/>
@@ -7515,7 +7509,7 @@
       <c r="N265" s="28"/>
       <c r="P265" s="28"/>
     </row>
-    <row r="266" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A266" s="27"/>
       <c r="B266" s="28"/>
       <c r="C266" s="28"/>
@@ -7530,7 +7524,7 @@
       <c r="N266" s="28"/>
       <c r="P266" s="28"/>
     </row>
-    <row r="267" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A267" s="27"/>
       <c r="B267" s="28"/>
       <c r="C267" s="28"/>
@@ -7545,7 +7539,7 @@
       <c r="N267" s="28"/>
       <c r="P267" s="28"/>
     </row>
-    <row r="268" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A268" s="27"/>
       <c r="B268" s="28"/>
       <c r="C268" s="28"/>
@@ -7560,7 +7554,7 @@
       <c r="N268" s="28"/>
       <c r="P268" s="28"/>
     </row>
-    <row r="269" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A269" s="27"/>
       <c r="B269" s="28"/>
       <c r="C269" s="28"/>
@@ -7575,7 +7569,7 @@
       <c r="N269" s="28"/>
       <c r="P269" s="28"/>
     </row>
-    <row r="270" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A270" s="27"/>
       <c r="B270" s="28"/>
       <c r="C270" s="28"/>
@@ -7590,7 +7584,7 @@
       <c r="N270" s="28"/>
       <c r="P270" s="28"/>
     </row>
-    <row r="271" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A271" s="27"/>
       <c r="B271" s="28"/>
       <c r="C271" s="28"/>
@@ -7605,7 +7599,7 @@
       <c r="N271" s="28"/>
       <c r="P271" s="28"/>
     </row>
-    <row r="272" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A272" s="27"/>
       <c r="B272" s="28"/>
       <c r="C272" s="28"/>
@@ -7620,7 +7614,7 @@
       <c r="N272" s="28"/>
       <c r="P272" s="28"/>
     </row>
-    <row r="273" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A273" s="27"/>
       <c r="B273" s="28"/>
       <c r="C273" s="28"/>
@@ -7635,7 +7629,7 @@
       <c r="N273" s="28"/>
       <c r="P273" s="28"/>
     </row>
-    <row r="274" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A274" s="27"/>
       <c r="B274" s="28"/>
       <c r="C274" s="28"/>
@@ -7650,7 +7644,7 @@
       <c r="N274" s="28"/>
       <c r="P274" s="28"/>
     </row>
-    <row r="275" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A275" s="27"/>
       <c r="B275" s="28"/>
       <c r="C275" s="28"/>
@@ -7665,7 +7659,7 @@
       <c r="N275" s="28"/>
       <c r="P275" s="28"/>
     </row>
-    <row r="276" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A276" s="27"/>
       <c r="B276" s="28"/>
       <c r="C276" s="28"/>
@@ -7680,7 +7674,7 @@
       <c r="N276" s="28"/>
       <c r="P276" s="28"/>
     </row>
-    <row r="277" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A277" s="27"/>
       <c r="B277" s="28"/>
       <c r="C277" s="28"/>
@@ -7695,7 +7689,7 @@
       <c r="N277" s="28"/>
       <c r="P277" s="28"/>
     </row>
-    <row r="278" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A278" s="27"/>
       <c r="B278" s="28"/>
       <c r="C278" s="28"/>
@@ -7710,7 +7704,7 @@
       <c r="N278" s="28"/>
       <c r="P278" s="28"/>
     </row>
-    <row r="279" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A279" s="27"/>
       <c r="B279" s="28"/>
       <c r="C279" s="28"/>
@@ -7725,7 +7719,7 @@
       <c r="N279" s="28"/>
       <c r="P279" s="28"/>
     </row>
-    <row r="280" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A280" s="27"/>
       <c r="B280" s="28"/>
       <c r="C280" s="28"/>
@@ -7740,7 +7734,7 @@
       <c r="N280" s="28"/>
       <c r="P280" s="28"/>
     </row>
-    <row r="281" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A281" s="27"/>
       <c r="B281" s="28"/>
       <c r="C281" s="28"/>
@@ -7755,7 +7749,7 @@
       <c r="N281" s="28"/>
       <c r="P281" s="28"/>
     </row>
-    <row r="282" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A282" s="27"/>
       <c r="B282" s="28"/>
       <c r="C282" s="28"/>
@@ -7770,7 +7764,7 @@
       <c r="N282" s="28"/>
       <c r="P282" s="28"/>
     </row>
-    <row r="283" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A283" s="27"/>
       <c r="B283" s="28"/>
       <c r="C283" s="28"/>
@@ -7785,7 +7779,7 @@
       <c r="N283" s="28"/>
       <c r="P283" s="28"/>
     </row>
-    <row r="284" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A284" s="27"/>
       <c r="B284" s="28"/>
       <c r="C284" s="28"/>
@@ -7800,7 +7794,7 @@
       <c r="N284" s="28"/>
       <c r="P284" s="28"/>
     </row>
-    <row r="285" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A285" s="27"/>
       <c r="B285" s="28"/>
       <c r="C285" s="28"/>
@@ -7815,7 +7809,7 @@
       <c r="N285" s="28"/>
       <c r="P285" s="28"/>
     </row>
-    <row r="286" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A286" s="27"/>
       <c r="B286" s="28"/>
       <c r="C286" s="28"/>
@@ -7830,7 +7824,7 @@
       <c r="N286" s="28"/>
       <c r="P286" s="28"/>
     </row>
-    <row r="287" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A287" s="27"/>
       <c r="B287" s="28"/>
       <c r="C287" s="28"/>
@@ -7845,7 +7839,7 @@
       <c r="N287" s="28"/>
       <c r="P287" s="28"/>
     </row>
-    <row r="288" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A288" s="27"/>
       <c r="B288" s="28"/>
       <c r="C288" s="28"/>
@@ -7860,7 +7854,7 @@
       <c r="N288" s="28"/>
       <c r="P288" s="28"/>
     </row>
-    <row r="289" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A289" s="27"/>
       <c r="B289" s="28"/>
       <c r="C289" s="28"/>
@@ -7875,7 +7869,7 @@
       <c r="N289" s="28"/>
       <c r="P289" s="28"/>
     </row>
-    <row r="290" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A290" s="27"/>
       <c r="B290" s="28"/>
       <c r="C290" s="28"/>
@@ -7890,7 +7884,7 @@
       <c r="N290" s="28"/>
       <c r="P290" s="28"/>
     </row>
-    <row r="291" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A291" s="27"/>
       <c r="B291" s="28"/>
       <c r="C291" s="28"/>
@@ -7905,7 +7899,7 @@
       <c r="N291" s="28"/>
       <c r="P291" s="28"/>
     </row>
-    <row r="292" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A292" s="27"/>
       <c r="B292" s="28"/>
       <c r="C292" s="28"/>
@@ -7920,7 +7914,7 @@
       <c r="N292" s="28"/>
       <c r="P292" s="28"/>
     </row>
-    <row r="293" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A293" s="27"/>
       <c r="B293" s="28"/>
       <c r="C293" s="28"/>
@@ -7935,7 +7929,7 @@
       <c r="N293" s="28"/>
       <c r="P293" s="28"/>
     </row>
-    <row r="294" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A294" s="27"/>
       <c r="B294" s="28"/>
       <c r="C294" s="28"/>
@@ -7950,7 +7944,7 @@
       <c r="N294" s="28"/>
       <c r="P294" s="28"/>
     </row>
-    <row r="295" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A295" s="27"/>
       <c r="B295" s="28"/>
       <c r="C295" s="28"/>
@@ -7965,7 +7959,7 @@
       <c r="N295" s="28"/>
       <c r="P295" s="28"/>
     </row>
-    <row r="296" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A296" s="27"/>
       <c r="B296" s="28"/>
       <c r="C296" s="28"/>
@@ -7980,7 +7974,7 @@
       <c r="N296" s="28"/>
       <c r="P296" s="28"/>
     </row>
-    <row r="297" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A297" s="27"/>
       <c r="B297" s="28"/>
       <c r="C297" s="28"/>
@@ -7995,7 +7989,7 @@
       <c r="N297" s="28"/>
       <c r="P297" s="28"/>
     </row>
-    <row r="298" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A298" s="27"/>
       <c r="B298" s="28"/>
       <c r="C298" s="28"/>
@@ -8010,7 +8004,7 @@
       <c r="N298" s="28"/>
       <c r="P298" s="28"/>
     </row>
-    <row r="299" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A299" s="27"/>
       <c r="B299" s="28"/>
       <c r="C299" s="28"/>
@@ -8025,7 +8019,7 @@
       <c r="N299" s="28"/>
       <c r="P299" s="28"/>
     </row>
-    <row r="300" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A300" s="27"/>
       <c r="B300" s="28"/>
       <c r="C300" s="28"/>
@@ -8040,7 +8034,7 @@
       <c r="N300" s="28"/>
       <c r="P300" s="28"/>
     </row>
-    <row r="301" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A301" s="27"/>
       <c r="B301" s="28"/>
       <c r="C301" s="28"/>
@@ -8055,7 +8049,7 @@
       <c r="N301" s="28"/>
       <c r="P301" s="28"/>
     </row>
-    <row r="302" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A302" s="27"/>
       <c r="B302" s="28"/>
       <c r="C302" s="28"/>
@@ -8070,7 +8064,7 @@
       <c r="N302" s="28"/>
       <c r="P302" s="28"/>
     </row>
-    <row r="303" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A303" s="27"/>
       <c r="B303" s="28"/>
       <c r="C303" s="28"/>
@@ -8085,7 +8079,7 @@
       <c r="N303" s="28"/>
       <c r="P303" s="28"/>
     </row>
-    <row r="304" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A304" s="27"/>
       <c r="B304" s="28"/>
       <c r="C304" s="28"/>
@@ -8100,7 +8094,7 @@
       <c r="N304" s="28"/>
       <c r="P304" s="28"/>
     </row>
-    <row r="305" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A305" s="27"/>
       <c r="B305" s="28"/>
       <c r="C305" s="28"/>
@@ -8115,7 +8109,7 @@
       <c r="N305" s="28"/>
       <c r="P305" s="28"/>
     </row>
-    <row r="306" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A306" s="27"/>
       <c r="B306" s="28"/>
       <c r="C306" s="28"/>
@@ -8130,7 +8124,7 @@
       <c r="N306" s="28"/>
       <c r="P306" s="28"/>
     </row>
-    <row r="307" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A307" s="27"/>
       <c r="B307" s="28"/>
       <c r="C307" s="28"/>
@@ -8145,7 +8139,7 @@
       <c r="N307" s="28"/>
       <c r="P307" s="28"/>
     </row>
-    <row r="308" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A308" s="27"/>
       <c r="B308" s="28"/>
       <c r="C308" s="28"/>
@@ -8160,7 +8154,7 @@
       <c r="N308" s="28"/>
       <c r="P308" s="28"/>
     </row>
-    <row r="309" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A309" s="27"/>
       <c r="B309" s="28"/>
       <c r="C309" s="28"/>
@@ -8175,7 +8169,7 @@
       <c r="N309" s="28"/>
       <c r="P309" s="28"/>
     </row>
-    <row r="310" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A310" s="27"/>
       <c r="B310" s="28"/>
       <c r="C310" s="28"/>
@@ -8190,7 +8184,7 @@
       <c r="N310" s="28"/>
       <c r="P310" s="28"/>
     </row>
-    <row r="311" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A311" s="27"/>
       <c r="B311" s="28"/>
       <c r="C311" s="28"/>
@@ -8205,7 +8199,7 @@
       <c r="N311" s="28"/>
       <c r="P311" s="28"/>
     </row>
-    <row r="312" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A312" s="27"/>
       <c r="B312" s="28"/>
       <c r="C312" s="28"/>
@@ -8220,7 +8214,7 @@
       <c r="N312" s="28"/>
       <c r="P312" s="28"/>
     </row>
-    <row r="313" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A313" s="27"/>
       <c r="B313" s="28"/>
       <c r="C313" s="28"/>
@@ -8235,7 +8229,7 @@
       <c r="N313" s="28"/>
       <c r="P313" s="28"/>
     </row>
-    <row r="314" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A314" s="27"/>
       <c r="B314" s="28"/>
       <c r="C314" s="28"/>
@@ -8250,7 +8244,7 @@
       <c r="N314" s="28"/>
       <c r="P314" s="28"/>
     </row>
-    <row r="315" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A315" s="27"/>
       <c r="B315" s="28"/>
       <c r="C315" s="28"/>
@@ -8265,7 +8259,7 @@
       <c r="N315" s="28"/>
       <c r="P315" s="28"/>
     </row>
-    <row r="316" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A316" s="27"/>
       <c r="B316" s="28"/>
       <c r="C316" s="28"/>
@@ -8280,7 +8274,7 @@
       <c r="N316" s="28"/>
       <c r="P316" s="28"/>
     </row>
-    <row r="317" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A317" s="27"/>
       <c r="B317" s="28"/>
       <c r="C317" s="28"/>
@@ -8295,7 +8289,7 @@
       <c r="N317" s="28"/>
       <c r="P317" s="28"/>
     </row>
-    <row r="318" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A318" s="27"/>
       <c r="B318" s="28"/>
       <c r="C318" s="28"/>
@@ -8310,7 +8304,7 @@
       <c r="N318" s="28"/>
       <c r="P318" s="28"/>
     </row>
-    <row r="319" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A319" s="27"/>
       <c r="B319" s="28"/>
       <c r="C319" s="28"/>
@@ -8325,7 +8319,7 @@
       <c r="N319" s="28"/>
       <c r="P319" s="28"/>
     </row>
-    <row r="320" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A320" s="27"/>
       <c r="B320" s="28"/>
       <c r="C320" s="28"/>
@@ -8340,7 +8334,7 @@
       <c r="N320" s="28"/>
       <c r="P320" s="28"/>
     </row>
-    <row r="321" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A321" s="27"/>
       <c r="B321" s="28"/>
       <c r="C321" s="28"/>
@@ -8355,7 +8349,7 @@
       <c r="N321" s="28"/>
       <c r="P321" s="28"/>
     </row>
-    <row r="322" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A322" s="27"/>
       <c r="B322" s="28"/>
       <c r="C322" s="28"/>
@@ -8370,7 +8364,7 @@
       <c r="N322" s="28"/>
       <c r="P322" s="28"/>
     </row>
-    <row r="323" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A323" s="27"/>
       <c r="B323" s="28"/>
       <c r="C323" s="28"/>
@@ -8385,7 +8379,7 @@
       <c r="N323" s="28"/>
       <c r="P323" s="28"/>
     </row>
-    <row r="324" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A324" s="27"/>
       <c r="B324" s="28"/>
       <c r="C324" s="28"/>
@@ -8400,7 +8394,7 @@
       <c r="N324" s="28"/>
       <c r="P324" s="28"/>
     </row>
-    <row r="325" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A325" s="27"/>
       <c r="B325" s="28"/>
       <c r="C325" s="28"/>
@@ -8415,7 +8409,7 @@
       <c r="N325" s="28"/>
       <c r="P325" s="28"/>
     </row>
-    <row r="326" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A326" s="27"/>
       <c r="B326" s="28"/>
       <c r="C326" s="28"/>
@@ -8430,7 +8424,7 @@
       <c r="N326" s="28"/>
       <c r="P326" s="28"/>
     </row>
-    <row r="327" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A327" s="27"/>
       <c r="B327" s="28"/>
       <c r="C327" s="28"/>
@@ -8445,7 +8439,7 @@
       <c r="N327" s="28"/>
       <c r="P327" s="28"/>
     </row>
-    <row r="328" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A328" s="27"/>
       <c r="B328" s="28"/>
       <c r="C328" s="28"/>
@@ -8460,7 +8454,7 @@
       <c r="N328" s="28"/>
       <c r="P328" s="28"/>
     </row>
-    <row r="329" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A329" s="27"/>
       <c r="B329" s="28"/>
       <c r="C329" s="28"/>
@@ -8475,7 +8469,7 @@
       <c r="N329" s="28"/>
       <c r="P329" s="28"/>
     </row>
-    <row r="330" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A330" s="27"/>
       <c r="B330" s="28"/>
       <c r="C330" s="28"/>
@@ -8490,7 +8484,7 @@
       <c r="N330" s="28"/>
       <c r="P330" s="28"/>
     </row>
-    <row r="331" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A331" s="27"/>
       <c r="B331" s="28"/>
       <c r="C331" s="28"/>
@@ -8505,7 +8499,7 @@
       <c r="N331" s="28"/>
       <c r="P331" s="28"/>
     </row>
-    <row r="332" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A332" s="27"/>
       <c r="B332" s="28"/>
       <c r="C332" s="28"/>
@@ -8520,7 +8514,7 @@
       <c r="N332" s="28"/>
       <c r="P332" s="28"/>
     </row>
-    <row r="333" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A333" s="27"/>
       <c r="B333" s="28"/>
       <c r="C333" s="28"/>
@@ -8535,7 +8529,7 @@
       <c r="N333" s="28"/>
       <c r="P333" s="28"/>
     </row>
-    <row r="334" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A334" s="27"/>
       <c r="B334" s="28"/>
       <c r="C334" s="28"/>
@@ -8550,7 +8544,7 @@
       <c r="N334" s="28"/>
       <c r="P334" s="28"/>
     </row>
-    <row r="335" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A335" s="27"/>
       <c r="B335" s="28"/>
       <c r="C335" s="28"/>
@@ -8565,7 +8559,7 @@
       <c r="N335" s="28"/>
       <c r="P335" s="28"/>
     </row>
-    <row r="336" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A336" s="27"/>
       <c r="B336" s="28"/>
       <c r="C336" s="28"/>
@@ -8580,7 +8574,7 @@
       <c r="N336" s="28"/>
       <c r="P336" s="28"/>
     </row>
-    <row r="337" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A337" s="27"/>
       <c r="B337" s="28"/>
       <c r="C337" s="28"/>
@@ -8595,7 +8589,7 @@
       <c r="N337" s="28"/>
       <c r="P337" s="28"/>
     </row>
-    <row r="338" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A338" s="27"/>
       <c r="B338" s="28"/>
       <c r="C338" s="28"/>
@@ -8610,7 +8604,7 @@
       <c r="N338" s="28"/>
       <c r="P338" s="28"/>
     </row>
-    <row r="339" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A339" s="27"/>
       <c r="B339" s="28"/>
       <c r="C339" s="28"/>
@@ -8625,7 +8619,7 @@
       <c r="N339" s="28"/>
       <c r="P339" s="28"/>
     </row>
-    <row r="340" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A340" s="27"/>
       <c r="B340" s="28"/>
       <c r="C340" s="28"/>
@@ -8640,7 +8634,7 @@
       <c r="N340" s="28"/>
       <c r="P340" s="28"/>
     </row>
-    <row r="341" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A341" s="27"/>
       <c r="B341" s="28"/>
       <c r="C341" s="28"/>
@@ -8655,7 +8649,7 @@
       <c r="N341" s="28"/>
       <c r="P341" s="28"/>
     </row>
-    <row r="342" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A342" s="27"/>
       <c r="B342" s="28"/>
       <c r="C342" s="28"/>
@@ -8670,7 +8664,7 @@
       <c r="N342" s="28"/>
       <c r="P342" s="28"/>
     </row>
-    <row r="343" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A343" s="27"/>
       <c r="B343" s="28"/>
       <c r="C343" s="28"/>
@@ -8685,7 +8679,7 @@
       <c r="N343" s="28"/>
       <c r="P343" s="28"/>
     </row>
-    <row r="344" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A344" s="27"/>
       <c r="B344" s="28"/>
       <c r="C344" s="28"/>
@@ -8700,7 +8694,7 @@
       <c r="N344" s="28"/>
       <c r="P344" s="28"/>
     </row>
-    <row r="345" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A345" s="27"/>
       <c r="B345" s="28"/>
       <c r="C345" s="28"/>
@@ -8715,7 +8709,7 @@
       <c r="N345" s="28"/>
       <c r="P345" s="28"/>
     </row>
-    <row r="346" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A346" s="27"/>
       <c r="B346" s="28"/>
       <c r="C346" s="28"/>
@@ -8730,7 +8724,7 @@
       <c r="N346" s="28"/>
       <c r="P346" s="28"/>
     </row>
-    <row r="347" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A347" s="27"/>
       <c r="B347" s="28"/>
       <c r="C347" s="28"/>
@@ -8745,7 +8739,7 @@
       <c r="N347" s="28"/>
       <c r="P347" s="28"/>
     </row>
-    <row r="348" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A348" s="27"/>
       <c r="B348" s="28"/>
       <c r="C348" s="28"/>
@@ -8760,7 +8754,7 @@
       <c r="N348" s="28"/>
       <c r="P348" s="28"/>
     </row>
-    <row r="349" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A349" s="27"/>
       <c r="B349" s="28"/>
       <c r="C349" s="28"/>
@@ -8775,7 +8769,7 @@
       <c r="N349" s="28"/>
       <c r="P349" s="28"/>
     </row>
-    <row r="350" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A350" s="27"/>
       <c r="B350" s="28"/>
       <c r="C350" s="28"/>
@@ -8790,7 +8784,7 @@
       <c r="N350" s="28"/>
       <c r="P350" s="28"/>
     </row>
-    <row r="351" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A351" s="27"/>
       <c r="B351" s="28"/>
       <c r="C351" s="28"/>
@@ -8805,7 +8799,7 @@
       <c r="N351" s="28"/>
       <c r="P351" s="28"/>
     </row>
-    <row r="352" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A352" s="27"/>
       <c r="B352" s="28"/>
       <c r="C352" s="28"/>
@@ -8820,7 +8814,7 @@
       <c r="N352" s="28"/>
       <c r="P352" s="28"/>
     </row>
-    <row r="353" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A353" s="27"/>
       <c r="B353" s="28"/>
       <c r="C353" s="28"/>
@@ -8835,7 +8829,7 @@
       <c r="N353" s="28"/>
       <c r="P353" s="28"/>
     </row>
-    <row r="354" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A354" s="27"/>
       <c r="B354" s="28"/>
       <c r="C354" s="28"/>
@@ -8850,7 +8844,7 @@
       <c r="N354" s="28"/>
       <c r="P354" s="28"/>
     </row>
-    <row r="355" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A355" s="27"/>
       <c r="B355" s="28"/>
       <c r="C355" s="28"/>
@@ -8865,7 +8859,7 @@
       <c r="N355" s="28"/>
       <c r="P355" s="28"/>
     </row>
-    <row r="356" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A356" s="27"/>
       <c r="B356" s="28"/>
       <c r="C356" s="28"/>
@@ -8880,7 +8874,7 @@
       <c r="N356" s="28"/>
       <c r="P356" s="28"/>
     </row>
-    <row r="357" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A357" s="27"/>
       <c r="B357" s="28"/>
       <c r="C357" s="28"/>
@@ -8895,7 +8889,7 @@
       <c r="N357" s="28"/>
       <c r="P357" s="28"/>
     </row>
-    <row r="358" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A358" s="27"/>
       <c r="B358" s="28"/>
       <c r="C358" s="28"/>
@@ -8910,7 +8904,7 @@
       <c r="N358" s="28"/>
       <c r="P358" s="28"/>
     </row>
-    <row r="359" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A359" s="27"/>
       <c r="B359" s="28"/>
       <c r="C359" s="28"/>
@@ -8925,7 +8919,7 @@
       <c r="N359" s="28"/>
       <c r="P359" s="28"/>
     </row>
-    <row r="360" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A360" s="27"/>
       <c r="B360" s="28"/>
       <c r="C360" s="28"/>
@@ -8940,7 +8934,7 @@
       <c r="N360" s="28"/>
       <c r="P360" s="28"/>
     </row>
-    <row r="361" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A361" s="27"/>
       <c r="B361" s="28"/>
       <c r="C361" s="28"/>
@@ -8955,7 +8949,7 @@
       <c r="N361" s="28"/>
       <c r="P361" s="28"/>
     </row>
-    <row r="362" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A362" s="27"/>
       <c r="B362" s="28"/>
       <c r="C362" s="28"/>
@@ -8970,7 +8964,7 @@
       <c r="N362" s="28"/>
       <c r="P362" s="28"/>
     </row>
-    <row r="363" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A363" s="27"/>
       <c r="B363" s="28"/>
       <c r="C363" s="28"/>
@@ -8985,7 +8979,7 @@
       <c r="N363" s="28"/>
       <c r="P363" s="28"/>
     </row>
-    <row r="364" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A364" s="27"/>
       <c r="B364" s="28"/>
       <c r="C364" s="28"/>
@@ -9000,7 +8994,7 @@
       <c r="N364" s="28"/>
       <c r="P364" s="28"/>
     </row>
-    <row r="365" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A365" s="27"/>
       <c r="B365" s="28"/>
       <c r="C365" s="28"/>
@@ -9015,7 +9009,7 @@
       <c r="N365" s="28"/>
       <c r="P365" s="28"/>
     </row>
-    <row r="366" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A366" s="27"/>
       <c r="B366" s="28"/>
       <c r="C366" s="28"/>
@@ -9030,7 +9024,7 @@
       <c r="N366" s="28"/>
       <c r="P366" s="28"/>
     </row>
-    <row r="367" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A367" s="27"/>
       <c r="B367" s="28"/>
       <c r="C367" s="28"/>
@@ -9045,7 +9039,7 @@
       <c r="N367" s="28"/>
       <c r="P367" s="28"/>
     </row>
-    <row r="368" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A368" s="27"/>
       <c r="B368" s="28"/>
       <c r="C368" s="28"/>
@@ -9060,7 +9054,7 @@
       <c r="N368" s="28"/>
       <c r="P368" s="28"/>
     </row>
-    <row r="369" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A369" s="27"/>
       <c r="B369" s="28"/>
       <c r="C369" s="28"/>
@@ -9075,7 +9069,7 @@
       <c r="N369" s="28"/>
       <c r="P369" s="28"/>
     </row>
-    <row r="370" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A370" s="27"/>
       <c r="B370" s="28"/>
       <c r="C370" s="28"/>
@@ -9090,7 +9084,7 @@
       <c r="N370" s="28"/>
       <c r="P370" s="28"/>
     </row>
-    <row r="371" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A371" s="27"/>
       <c r="B371" s="28"/>
       <c r="C371" s="28"/>
@@ -9105,7 +9099,7 @@
       <c r="N371" s="28"/>
       <c r="P371" s="28"/>
     </row>
-    <row r="372" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A372" s="27"/>
       <c r="B372" s="28"/>
       <c r="C372" s="28"/>
@@ -9120,7 +9114,7 @@
       <c r="N372" s="28"/>
       <c r="P372" s="28"/>
     </row>
-    <row r="373" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A373" s="27"/>
       <c r="B373" s="28"/>
       <c r="C373" s="28"/>
@@ -9135,7 +9129,7 @@
       <c r="N373" s="28"/>
       <c r="P373" s="28"/>
     </row>
-    <row r="374" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A374" s="27"/>
       <c r="B374" s="28"/>
       <c r="C374" s="28"/>
@@ -9150,7 +9144,7 @@
       <c r="N374" s="28"/>
       <c r="P374" s="28"/>
     </row>
-    <row r="375" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A375" s="27"/>
       <c r="B375" s="28"/>
       <c r="C375" s="28"/>
@@ -9165,7 +9159,7 @@
       <c r="N375" s="28"/>
       <c r="P375" s="28"/>
     </row>
-    <row r="376" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A376" s="27"/>
       <c r="B376" s="28"/>
       <c r="C376" s="28"/>
@@ -9180,7 +9174,7 @@
       <c r="N376" s="28"/>
       <c r="P376" s="28"/>
     </row>
-    <row r="377" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A377" s="27"/>
       <c r="B377" s="28"/>
       <c r="C377" s="28"/>
@@ -9195,7 +9189,7 @@
       <c r="N377" s="28"/>
       <c r="P377" s="28"/>
     </row>
-    <row r="378" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A378" s="27"/>
       <c r="B378" s="28"/>
       <c r="C378" s="28"/>
@@ -9210,7 +9204,7 @@
       <c r="N378" s="28"/>
       <c r="P378" s="28"/>
     </row>
-    <row r="379" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A379" s="27"/>
       <c r="B379" s="28"/>
       <c r="C379" s="28"/>
@@ -9225,7 +9219,7 @@
       <c r="N379" s="28"/>
       <c r="P379" s="28"/>
     </row>
-    <row r="380" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A380" s="27"/>
       <c r="B380" s="28"/>
       <c r="C380" s="28"/>
@@ -9240,7 +9234,7 @@
       <c r="N380" s="28"/>
       <c r="P380" s="28"/>
     </row>
-    <row r="381" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A381" s="27"/>
       <c r="B381" s="28"/>
       <c r="C381" s="28"/>
@@ -9255,7 +9249,7 @@
       <c r="N381" s="28"/>
       <c r="P381" s="28"/>
     </row>
-    <row r="382" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A382" s="27"/>
       <c r="B382" s="28"/>
       <c r="C382" s="28"/>
@@ -9270,7 +9264,7 @@
       <c r="N382" s="28"/>
       <c r="P382" s="28"/>
     </row>
-    <row r="383" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A383" s="27"/>
       <c r="B383" s="28"/>
       <c r="C383" s="28"/>
@@ -9285,7 +9279,7 @@
       <c r="N383" s="28"/>
       <c r="P383" s="28"/>
     </row>
-    <row r="384" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A384" s="27"/>
       <c r="B384" s="28"/>
       <c r="C384" s="28"/>
@@ -9300,7 +9294,7 @@
       <c r="N384" s="28"/>
       <c r="P384" s="28"/>
     </row>
-    <row r="385" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A385" s="27"/>
       <c r="B385" s="28"/>
       <c r="C385" s="28"/>
@@ -9315,7 +9309,7 @@
       <c r="N385" s="28"/>
       <c r="P385" s="28"/>
     </row>
-    <row r="386" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A386" s="27"/>
       <c r="B386" s="28"/>
       <c r="C386" s="28"/>
@@ -9330,7 +9324,7 @@
       <c r="N386" s="28"/>
       <c r="P386" s="28"/>
     </row>
-    <row r="387" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A387" s="27"/>
       <c r="B387" s="28"/>
       <c r="C387" s="28"/>
@@ -9345,7 +9339,7 @@
       <c r="N387" s="28"/>
       <c r="P387" s="28"/>
     </row>
-    <row r="388" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A388" s="27"/>
       <c r="B388" s="28"/>
       <c r="C388" s="28"/>
@@ -9360,7 +9354,7 @@
       <c r="N388" s="28"/>
       <c r="P388" s="28"/>
     </row>
-    <row r="389" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A389" s="27"/>
       <c r="B389" s="28"/>
       <c r="C389" s="28"/>
@@ -9375,7 +9369,7 @@
       <c r="N389" s="28"/>
       <c r="P389" s="28"/>
     </row>
-    <row r="390" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A390" s="27"/>
       <c r="B390" s="28"/>
       <c r="C390" s="28"/>
@@ -9390,7 +9384,7 @@
       <c r="N390" s="28"/>
       <c r="P390" s="28"/>
     </row>
-    <row r="391" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A391" s="27"/>
       <c r="B391" s="28"/>
       <c r="C391" s="28"/>
@@ -9405,7 +9399,7 @@
       <c r="N391" s="28"/>
       <c r="P391" s="28"/>
     </row>
-    <row r="392" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A392" s="27"/>
       <c r="B392" s="28"/>
       <c r="C392" s="28"/>
@@ -9420,7 +9414,7 @@
       <c r="N392" s="28"/>
       <c r="P392" s="28"/>
     </row>
-    <row r="393" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A393" s="27"/>
       <c r="B393" s="28"/>
       <c r="C393" s="28"/>
@@ -9435,7 +9429,7 @@
       <c r="N393" s="28"/>
       <c r="P393" s="28"/>
     </row>
-    <row r="394" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A394" s="27"/>
       <c r="B394" s="28"/>
       <c r="C394" s="28"/>
@@ -9450,7 +9444,7 @@
       <c r="N394" s="28"/>
       <c r="P394" s="28"/>
     </row>
-    <row r="395" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A395" s="27"/>
       <c r="B395" s="28"/>
       <c r="C395" s="28"/>
@@ -9465,7 +9459,7 @@
       <c r="N395" s="28"/>
       <c r="P395" s="28"/>
     </row>
-    <row r="396" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A396" s="27"/>
       <c r="B396" s="28"/>
       <c r="C396" s="28"/>
@@ -9480,7 +9474,7 @@
       <c r="N396" s="28"/>
       <c r="P396" s="28"/>
     </row>
-    <row r="397" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A397" s="27"/>
       <c r="B397" s="28"/>
       <c r="C397" s="28"/>
@@ -9495,7 +9489,7 @@
       <c r="N397" s="28"/>
       <c r="P397" s="28"/>
     </row>
-    <row r="398" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A398" s="27"/>
       <c r="B398" s="28"/>
       <c r="C398" s="28"/>
@@ -9510,7 +9504,7 @@
       <c r="N398" s="28"/>
       <c r="P398" s="28"/>
     </row>
-    <row r="399" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A399" s="27"/>
       <c r="B399" s="28"/>
       <c r="C399" s="28"/>
@@ -9525,7 +9519,7 @@
       <c r="N399" s="28"/>
       <c r="P399" s="28"/>
     </row>
-    <row r="400" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A400" s="27"/>
       <c r="B400" s="28"/>
       <c r="C400" s="28"/>
@@ -9540,7 +9534,7 @@
       <c r="N400" s="28"/>
       <c r="P400" s="28"/>
     </row>
-    <row r="401" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A401" s="27"/>
       <c r="B401" s="28"/>
       <c r="C401" s="28"/>
@@ -9555,7 +9549,7 @@
       <c r="N401" s="28"/>
       <c r="P401" s="28"/>
     </row>
-    <row r="402" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A402" s="27"/>
       <c r="B402" s="28"/>
       <c r="C402" s="28"/>
@@ -9570,7 +9564,7 @@
       <c r="N402" s="28"/>
       <c r="P402" s="28"/>
     </row>
-    <row r="403" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A403" s="27"/>
       <c r="B403" s="28"/>
       <c r="C403" s="28"/>
@@ -9585,7 +9579,7 @@
       <c r="N403" s="28"/>
       <c r="P403" s="28"/>
     </row>
-    <row r="404" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A404" s="27"/>
       <c r="B404" s="28"/>
       <c r="C404" s="28"/>
@@ -9600,7 +9594,7 @@
       <c r="N404" s="28"/>
       <c r="P404" s="28"/>
     </row>
-    <row r="405" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A405" s="27"/>
       <c r="B405" s="28"/>
       <c r="C405" s="28"/>
@@ -9615,7 +9609,7 @@
       <c r="N405" s="28"/>
       <c r="P405" s="28"/>
     </row>
-    <row r="406" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A406" s="27"/>
       <c r="B406" s="28"/>
       <c r="C406" s="28"/>
@@ -9630,7 +9624,7 @@
       <c r="N406" s="28"/>
       <c r="P406" s="28"/>
     </row>
-    <row r="407" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A407" s="27"/>
       <c r="B407" s="28"/>
       <c r="C407" s="28"/>
@@ -9645,7 +9639,7 @@
       <c r="N407" s="28"/>
       <c r="P407" s="28"/>
     </row>
-    <row r="408" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A408" s="27"/>
       <c r="B408" s="28"/>
       <c r="C408" s="28"/>
@@ -9660,7 +9654,7 @@
       <c r="N408" s="28"/>
       <c r="P408" s="28"/>
     </row>
-    <row r="409" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A409" s="27"/>
       <c r="B409" s="28"/>
       <c r="C409" s="28"/>
@@ -9675,7 +9669,7 @@
       <c r="N409" s="28"/>
       <c r="P409" s="28"/>
     </row>
-    <row r="410" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A410" s="27"/>
       <c r="B410" s="28"/>
       <c r="C410" s="28"/>
@@ -9690,7 +9684,7 @@
       <c r="N410" s="28"/>
       <c r="P410" s="28"/>
     </row>
-    <row r="411" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A411" s="27"/>
       <c r="B411" s="28"/>
       <c r="C411" s="28"/>
@@ -9705,7 +9699,7 @@
       <c r="N411" s="28"/>
       <c r="P411" s="28"/>
     </row>
-    <row r="412" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A412" s="27"/>
       <c r="B412" s="28"/>
       <c r="C412" s="28"/>
@@ -9720,7 +9714,7 @@
       <c r="N412" s="28"/>
       <c r="P412" s="28"/>
     </row>
-    <row r="413" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A413" s="27"/>
       <c r="B413" s="28"/>
       <c r="C413" s="28"/>
@@ -9735,7 +9729,7 @@
       <c r="N413" s="28"/>
       <c r="P413" s="28"/>
     </row>
-    <row r="414" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A414" s="27"/>
       <c r="B414" s="28"/>
       <c r="C414" s="28"/>
@@ -9750,7 +9744,7 @@
       <c r="N414" s="28"/>
       <c r="P414" s="28"/>
     </row>
-    <row r="415" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A415" s="27"/>
       <c r="B415" s="28"/>
       <c r="C415" s="28"/>
@@ -9765,7 +9759,7 @@
       <c r="N415" s="28"/>
       <c r="P415" s="28"/>
     </row>
-    <row r="416" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A416" s="27"/>
       <c r="B416" s="28"/>
       <c r="C416" s="28"/>
@@ -9780,7 +9774,7 @@
       <c r="N416" s="28"/>
       <c r="P416" s="28"/>
     </row>
-    <row r="417" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A417" s="27"/>
       <c r="B417" s="28"/>
       <c r="C417" s="28"/>
@@ -9795,7 +9789,7 @@
       <c r="N417" s="28"/>
       <c r="P417" s="28"/>
     </row>
-    <row r="418" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A418" s="27"/>
       <c r="B418" s="28"/>
       <c r="C418" s="28"/>
@@ -9810,7 +9804,7 @@
       <c r="N418" s="28"/>
       <c r="P418" s="28"/>
     </row>
-    <row r="419" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A419" s="27"/>
       <c r="B419" s="28"/>
       <c r="C419" s="28"/>
@@ -9825,7 +9819,7 @@
       <c r="N419" s="28"/>
       <c r="P419" s="28"/>
     </row>
-    <row r="420" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A420" s="27"/>
       <c r="B420" s="28"/>
       <c r="C420" s="28"/>
@@ -9840,7 +9834,7 @@
       <c r="N420" s="28"/>
       <c r="P420" s="28"/>
     </row>
-    <row r="421" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A421" s="27"/>
       <c r="B421" s="28"/>
       <c r="C421" s="28"/>
@@ -9855,7 +9849,7 @@
       <c r="N421" s="28"/>
       <c r="P421" s="28"/>
     </row>
-    <row r="422" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A422" s="27"/>
       <c r="B422" s="28"/>
       <c r="C422" s="28"/>
@@ -9870,7 +9864,7 @@
       <c r="N422" s="28"/>
       <c r="P422" s="28"/>
     </row>
-    <row r="423" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A423" s="27"/>
       <c r="B423" s="28"/>
       <c r="C423" s="28"/>
@@ -9885,7 +9879,7 @@
       <c r="N423" s="28"/>
       <c r="P423" s="28"/>
     </row>
-    <row r="424" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A424" s="27"/>
       <c r="B424" s="28"/>
       <c r="C424" s="28"/>
@@ -9900,7 +9894,7 @@
       <c r="N424" s="28"/>
       <c r="P424" s="28"/>
     </row>
-    <row r="425" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A425" s="27"/>
       <c r="B425" s="28"/>
       <c r="C425" s="28"/>
@@ -9915,7 +9909,7 @@
       <c r="N425" s="28"/>
       <c r="P425" s="28"/>
     </row>
-    <row r="426" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A426" s="27"/>
       <c r="B426" s="28"/>
       <c r="C426" s="28"/>
@@ -9930,7 +9924,7 @@
       <c r="N426" s="28"/>
       <c r="P426" s="28"/>
     </row>
-    <row r="427" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A427" s="27"/>
       <c r="B427" s="28"/>
       <c r="C427" s="28"/>
@@ -9945,7 +9939,7 @@
       <c r="N427" s="28"/>
       <c r="P427" s="28"/>
     </row>
-    <row r="428" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A428" s="27"/>
       <c r="B428" s="28"/>
       <c r="C428" s="28"/>
@@ -9960,7 +9954,7 @@
       <c r="N428" s="28"/>
       <c r="P428" s="28"/>
     </row>
-    <row r="429" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A429" s="27"/>
       <c r="B429" s="28"/>
       <c r="C429" s="28"/>
@@ -9975,7 +9969,7 @@
       <c r="N429" s="28"/>
       <c r="P429" s="28"/>
     </row>
-    <row r="430" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A430" s="27"/>
       <c r="B430" s="28"/>
       <c r="C430" s="28"/>
@@ -9990,7 +9984,7 @@
       <c r="N430" s="28"/>
       <c r="P430" s="28"/>
     </row>
-    <row r="431" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A431" s="27"/>
       <c r="B431" s="28"/>
       <c r="C431" s="28"/>
@@ -10005,7 +9999,7 @@
       <c r="N431" s="28"/>
       <c r="P431" s="28"/>
     </row>
-    <row r="432" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A432" s="27"/>
       <c r="B432" s="28"/>
       <c r="C432" s="28"/>
@@ -10020,7 +10014,7 @@
       <c r="N432" s="28"/>
       <c r="P432" s="28"/>
     </row>
-    <row r="433" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A433" s="27"/>
       <c r="B433" s="28"/>
       <c r="C433" s="28"/>
@@ -10035,7 +10029,7 @@
       <c r="N433" s="28"/>
       <c r="P433" s="28"/>
     </row>
-    <row r="434" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A434" s="27"/>
       <c r="B434" s="28"/>
       <c r="C434" s="28"/>
@@ -10050,7 +10044,7 @@
       <c r="N434" s="28"/>
       <c r="P434" s="28"/>
     </row>
-    <row r="435" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A435" s="27"/>
       <c r="B435" s="28"/>
       <c r="C435" s="28"/>
@@ -10065,7 +10059,7 @@
       <c r="N435" s="28"/>
       <c r="P435" s="28"/>
     </row>
-    <row r="436" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A436" s="27"/>
       <c r="B436" s="28"/>
       <c r="C436" s="28"/>
@@ -10080,7 +10074,7 @@
       <c r="N436" s="28"/>
       <c r="P436" s="28"/>
     </row>
-    <row r="437" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A437" s="27"/>
       <c r="B437" s="28"/>
       <c r="C437" s="28"/>
@@ -10095,7 +10089,7 @@
       <c r="N437" s="28"/>
       <c r="P437" s="28"/>
     </row>
-    <row r="438" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A438" s="27"/>
       <c r="B438" s="28"/>
       <c r="C438" s="28"/>
@@ -10110,7 +10104,7 @@
       <c r="N438" s="28"/>
       <c r="P438" s="28"/>
     </row>
-    <row r="439" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A439" s="27"/>
       <c r="B439" s="28"/>
       <c r="C439" s="28"/>
@@ -10125,7 +10119,7 @@
       <c r="N439" s="28"/>
       <c r="P439" s="28"/>
     </row>
-    <row r="440" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A440" s="27"/>
       <c r="B440" s="28"/>
       <c r="C440" s="28"/>
@@ -10140,7 +10134,7 @@
       <c r="N440" s="28"/>
       <c r="P440" s="28"/>
     </row>
-    <row r="441" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A441" s="27"/>
       <c r="B441" s="28"/>
       <c r="C441" s="28"/>
@@ -10155,7 +10149,7 @@
       <c r="N441" s="28"/>
       <c r="P441" s="28"/>
     </row>
-    <row r="442" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A442" s="27"/>
       <c r="B442" s="28"/>
       <c r="C442" s="28"/>
@@ -10170,7 +10164,7 @@
       <c r="N442" s="28"/>
       <c r="P442" s="28"/>
     </row>
-    <row r="443" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A443" s="27"/>
       <c r="B443" s="28"/>
       <c r="C443" s="28"/>
@@ -10185,7 +10179,7 @@
       <c r="N443" s="28"/>
       <c r="P443" s="28"/>
     </row>
-    <row r="444" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A444" s="27"/>
       <c r="B444" s="28"/>
       <c r="C444" s="28"/>
@@ -10200,7 +10194,7 @@
       <c r="N444" s="28"/>
       <c r="P444" s="28"/>
     </row>
-    <row r="445" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A445" s="27"/>
       <c r="B445" s="28"/>
       <c r="C445" s="28"/>
@@ -10215,7 +10209,7 @@
       <c r="N445" s="28"/>
       <c r="P445" s="28"/>
     </row>
-    <row r="446" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A446" s="27"/>
       <c r="B446" s="28"/>
       <c r="C446" s="28"/>
@@ -10230,7 +10224,7 @@
       <c r="N446" s="28"/>
       <c r="P446" s="28"/>
     </row>
-    <row r="447" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A447" s="27"/>
       <c r="B447" s="28"/>
       <c r="C447" s="28"/>
@@ -10245,7 +10239,7 @@
       <c r="N447" s="28"/>
       <c r="P447" s="28"/>
     </row>
-    <row r="448" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A448" s="27"/>
       <c r="B448" s="28"/>
       <c r="C448" s="28"/>
@@ -10260,7 +10254,7 @@
       <c r="N448" s="28"/>
       <c r="P448" s="28"/>
     </row>
-    <row r="449" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A449" s="27"/>
       <c r="B449" s="28"/>
       <c r="C449" s="28"/>
@@ -10275,7 +10269,7 @@
       <c r="N449" s="28"/>
       <c r="P449" s="28"/>
     </row>
-    <row r="450" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A450" s="27"/>
       <c r="B450" s="28"/>
       <c r="C450" s="28"/>
@@ -10290,7 +10284,7 @@
       <c r="N450" s="28"/>
       <c r="P450" s="28"/>
     </row>
-    <row r="451" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A451" s="27"/>
       <c r="B451" s="28"/>
       <c r="C451" s="28"/>
@@ -10305,7 +10299,7 @@
       <c r="N451" s="28"/>
       <c r="P451" s="28"/>
     </row>
-    <row r="452" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A452" s="27"/>
       <c r="B452" s="28"/>
       <c r="C452" s="28"/>
@@ -10320,7 +10314,7 @@
       <c r="N452" s="28"/>
       <c r="P452" s="28"/>
     </row>
-    <row r="453" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A453" s="27"/>
       <c r="B453" s="28"/>
       <c r="C453" s="28"/>
@@ -10335,7 +10329,7 @@
       <c r="N453" s="28"/>
       <c r="P453" s="28"/>
     </row>
-    <row r="454" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A454" s="27"/>
       <c r="B454" s="28"/>
       <c r="C454" s="28"/>
@@ -10350,7 +10344,7 @@
       <c r="N454" s="28"/>
       <c r="P454" s="28"/>
     </row>
-    <row r="455" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A455" s="27"/>
       <c r="B455" s="28"/>
       <c r="C455" s="28"/>
@@ -10365,7 +10359,7 @@
       <c r="N455" s="28"/>
       <c r="P455" s="28"/>
     </row>
-    <row r="456" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A456" s="27"/>
       <c r="B456" s="28"/>
       <c r="C456" s="28"/>
@@ -10380,7 +10374,7 @@
       <c r="N456" s="28"/>
       <c r="P456" s="28"/>
     </row>
-    <row r="457" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A457" s="27"/>
       <c r="B457" s="28"/>
       <c r="C457" s="28"/>
@@ -10395,7 +10389,7 @@
       <c r="N457" s="28"/>
       <c r="P457" s="28"/>
     </row>
-    <row r="458" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A458" s="27"/>
       <c r="B458" s="28"/>
       <c r="C458" s="28"/>
@@ -10410,7 +10404,7 @@
       <c r="N458" s="28"/>
       <c r="P458" s="28"/>
     </row>
-    <row r="459" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A459" s="27"/>
       <c r="B459" s="28"/>
       <c r="C459" s="28"/>
@@ -10425,7 +10419,7 @@
       <c r="N459" s="28"/>
       <c r="P459" s="28"/>
     </row>
-    <row r="460" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A460" s="27"/>
       <c r="B460" s="28"/>
       <c r="C460" s="28"/>
@@ -10440,7 +10434,7 @@
       <c r="N460" s="28"/>
       <c r="P460" s="28"/>
     </row>
-    <row r="461" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A461" s="27"/>
       <c r="B461" s="28"/>
       <c r="C461" s="28"/>
@@ -10455,7 +10449,7 @@
       <c r="N461" s="28"/>
       <c r="P461" s="28"/>
     </row>
-    <row r="462" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A462" s="27"/>
       <c r="B462" s="28"/>
       <c r="C462" s="28"/>
@@ -10470,7 +10464,7 @@
       <c r="N462" s="28"/>
       <c r="P462" s="28"/>
     </row>
-    <row r="463" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A463" s="27"/>
       <c r="B463" s="28"/>
       <c r="C463" s="28"/>
@@ -10485,7 +10479,7 @@
       <c r="N463" s="28"/>
       <c r="P463" s="28"/>
     </row>
-    <row r="464" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A464" s="27"/>
       <c r="B464" s="28"/>
       <c r="C464" s="28"/>
@@ -10500,7 +10494,7 @@
       <c r="N464" s="28"/>
       <c r="P464" s="28"/>
     </row>
-    <row r="465" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A465" s="27"/>
       <c r="B465" s="28"/>
       <c r="C465" s="28"/>
@@ -10515,7 +10509,7 @@
       <c r="N465" s="28"/>
       <c r="P465" s="28"/>
     </row>
-    <row r="466" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A466" s="27"/>
       <c r="B466" s="28"/>
       <c r="C466" s="28"/>
@@ -10530,7 +10524,7 @@
       <c r="N466" s="28"/>
       <c r="P466" s="28"/>
     </row>
-    <row r="467" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A467" s="27"/>
       <c r="B467" s="28"/>
       <c r="C467" s="28"/>
@@ -10545,7 +10539,7 @@
       <c r="N467" s="28"/>
       <c r="P467" s="28"/>
     </row>
-    <row r="468" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A468" s="27"/>
       <c r="B468" s="28"/>
       <c r="C468" s="28"/>
@@ -10560,7 +10554,7 @@
       <c r="N468" s="28"/>
       <c r="P468" s="28"/>
     </row>
-    <row r="469" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A469" s="27"/>
       <c r="B469" s="28"/>
       <c r="C469" s="28"/>
@@ -10575,7 +10569,7 @@
       <c r="N469" s="28"/>
       <c r="P469" s="28"/>
     </row>
-    <row r="470" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A470" s="27"/>
       <c r="B470" s="28"/>
       <c r="C470" s="28"/>
@@ -10590,7 +10584,7 @@
       <c r="N470" s="28"/>
       <c r="P470" s="28"/>
     </row>
-    <row r="471" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A471" s="27"/>
       <c r="B471" s="28"/>
       <c r="C471" s="28"/>
@@ -10605,7 +10599,7 @@
       <c r="N471" s="28"/>
       <c r="P471" s="28"/>
     </row>
-    <row r="472" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A472" s="27"/>
       <c r="B472" s="28"/>
       <c r="C472" s="28"/>
@@ -10620,7 +10614,7 @@
       <c r="N472" s="28"/>
       <c r="P472" s="28"/>
     </row>
-    <row r="473" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A473" s="27"/>
       <c r="B473" s="28"/>
       <c r="C473" s="28"/>
@@ -10635,7 +10629,7 @@
       <c r="N473" s="28"/>
       <c r="P473" s="28"/>
     </row>
-    <row r="474" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A474" s="27"/>
       <c r="B474" s="28"/>
       <c r="C474" s="28"/>
@@ -10650,7 +10644,7 @@
       <c r="N474" s="28"/>
       <c r="P474" s="28"/>
     </row>
-    <row r="475" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A475" s="27"/>
       <c r="B475" s="28"/>
       <c r="C475" s="28"/>
@@ -10665,7 +10659,7 @@
       <c r="N475" s="28"/>
       <c r="P475" s="28"/>
     </row>
-    <row r="476" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A476" s="27"/>
       <c r="B476" s="28"/>
       <c r="C476" s="28"/>
@@ -10680,7 +10674,7 @@
       <c r="N476" s="28"/>
       <c r="P476" s="28"/>
     </row>
-    <row r="477" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A477" s="27"/>
       <c r="B477" s="28"/>
       <c r="C477" s="28"/>
@@ -10695,7 +10689,7 @@
       <c r="N477" s="28"/>
       <c r="P477" s="28"/>
     </row>
-    <row r="478" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A478" s="27"/>
       <c r="B478" s="28"/>
       <c r="C478" s="28"/>
@@ -10710,7 +10704,7 @@
       <c r="N478" s="28"/>
       <c r="P478" s="28"/>
     </row>
-    <row r="479" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A479" s="27"/>
       <c r="B479" s="28"/>
       <c r="C479" s="28"/>
@@ -10725,7 +10719,7 @@
       <c r="N479" s="28"/>
       <c r="P479" s="28"/>
     </row>
-    <row r="480" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A480" s="27"/>
       <c r="B480" s="28"/>
       <c r="C480" s="28"/>
@@ -10740,7 +10734,7 @@
       <c r="N480" s="28"/>
       <c r="P480" s="28"/>
     </row>
-    <row r="481" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A481" s="27"/>
       <c r="B481" s="28"/>
       <c r="C481" s="28"/>
@@ -10755,7 +10749,7 @@
       <c r="N481" s="28"/>
       <c r="P481" s="28"/>
     </row>
-    <row r="482" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A482" s="27"/>
       <c r="B482" s="28"/>
       <c r="C482" s="28"/>
@@ -10770,7 +10764,7 @@
       <c r="N482" s="28"/>
       <c r="P482" s="28"/>
     </row>
-    <row r="483" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A483" s="27"/>
       <c r="B483" s="28"/>
       <c r="C483" s="28"/>
@@ -10785,7 +10779,7 @@
       <c r="N483" s="28"/>
       <c r="P483" s="28"/>
     </row>
-    <row r="484" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A484" s="27"/>
       <c r="B484" s="28"/>
       <c r="C484" s="28"/>
@@ -10800,7 +10794,7 @@
       <c r="N484" s="28"/>
       <c r="P484" s="28"/>
     </row>
-    <row r="485" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A485" s="27"/>
       <c r="B485" s="28"/>
       <c r="C485" s="28"/>
@@ -10815,7 +10809,7 @@
       <c r="N485" s="28"/>
       <c r="P485" s="28"/>
     </row>
-    <row r="486" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A486" s="27"/>
       <c r="B486" s="28"/>
       <c r="C486" s="28"/>
@@ -10830,7 +10824,7 @@
       <c r="N486" s="28"/>
       <c r="P486" s="28"/>
     </row>
-    <row r="487" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A487" s="27"/>
       <c r="B487" s="28"/>
       <c r="C487" s="28"/>
@@ -10845,7 +10839,7 @@
       <c r="N487" s="28"/>
       <c r="P487" s="28"/>
     </row>
-    <row r="488" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A488" s="27"/>
       <c r="B488" s="28"/>
       <c r="C488" s="28"/>
@@ -10860,7 +10854,7 @@
       <c r="N488" s="28"/>
       <c r="P488" s="28"/>
     </row>
-    <row r="489" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A489" s="27"/>
       <c r="B489" s="28"/>
       <c r="C489" s="28"/>
@@ -10875,7 +10869,7 @@
       <c r="N489" s="28"/>
       <c r="P489" s="28"/>
     </row>
-    <row r="490" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A490" s="27"/>
       <c r="B490" s="28"/>
       <c r="C490" s="28"/>
@@ -10890,7 +10884,7 @@
       <c r="N490" s="28"/>
       <c r="P490" s="28"/>
     </row>
-    <row r="491" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A491" s="27"/>
       <c r="B491" s="28"/>
       <c r="C491" s="28"/>
@@ -10905,7 +10899,7 @@
       <c r="N491" s="28"/>
       <c r="P491" s="28"/>
     </row>
-    <row r="492" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A492" s="27"/>
       <c r="B492" s="28"/>
       <c r="C492" s="28"/>
@@ -10920,7 +10914,7 @@
       <c r="N492" s="28"/>
       <c r="P492" s="28"/>
     </row>
-    <row r="493" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A493" s="27"/>
       <c r="B493" s="28"/>
       <c r="C493" s="28"/>
@@ -10935,7 +10929,7 @@
       <c r="N493" s="28"/>
       <c r="P493" s="28"/>
     </row>
-    <row r="494" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A494" s="27"/>
       <c r="B494" s="28"/>
       <c r="C494" s="28"/>
@@ -10950,7 +10944,7 @@
       <c r="N494" s="28"/>
       <c r="P494" s="28"/>
     </row>
-    <row r="495" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A495" s="27"/>
       <c r="B495" s="28"/>
       <c r="C495" s="28"/>
@@ -10965,7 +10959,7 @@
       <c r="N495" s="28"/>
       <c r="P495" s="28"/>
     </row>
-    <row r="496" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A496" s="27"/>
       <c r="B496" s="28"/>
       <c r="C496" s="28"/>
@@ -10980,7 +10974,7 @@
       <c r="N496" s="28"/>
       <c r="P496" s="28"/>
     </row>
-    <row r="497" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A497" s="27"/>
       <c r="B497" s="28"/>
       <c r="C497" s="28"/>
@@ -10995,7 +10989,7 @@
       <c r="N497" s="28"/>
       <c r="P497" s="28"/>
     </row>
-    <row r="498" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A498" s="27"/>
       <c r="B498" s="28"/>
       <c r="C498" s="28"/>
@@ -11010,7 +11004,7 @@
       <c r="N498" s="28"/>
       <c r="P498" s="28"/>
     </row>
-    <row r="499" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A499" s="27"/>
       <c r="B499" s="28"/>
       <c r="C499" s="28"/>
@@ -11025,7 +11019,7 @@
       <c r="N499" s="28"/>
       <c r="P499" s="28"/>
     </row>
-    <row r="500" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A500" s="27"/>
       <c r="B500" s="28"/>
       <c r="C500" s="28"/>
@@ -11040,7 +11034,7 @@
       <c r="N500" s="28"/>
       <c r="P500" s="28"/>
     </row>
-    <row r="501" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A501" s="27"/>
       <c r="B501" s="28"/>
       <c r="C501" s="28"/>
@@ -11055,7 +11049,7 @@
       <c r="N501" s="28"/>
       <c r="P501" s="28"/>
     </row>
-    <row r="502" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A502" s="27"/>
       <c r="B502" s="28"/>
       <c r="C502" s="28"/>
@@ -11070,7 +11064,7 @@
       <c r="N502" s="28"/>
       <c r="P502" s="28"/>
     </row>
-    <row r="503" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A503" s="27"/>
       <c r="B503" s="28"/>
       <c r="C503" s="28"/>
@@ -11085,7 +11079,7 @@
       <c r="N503" s="28"/>
       <c r="P503" s="28"/>
     </row>
-    <row r="504" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A504" s="27"/>
       <c r="B504" s="28"/>
       <c r="C504" s="28"/>
@@ -11100,7 +11094,7 @@
       <c r="N504" s="28"/>
       <c r="P504" s="28"/>
     </row>
-    <row r="505" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A505" s="27"/>
       <c r="B505" s="28"/>
       <c r="C505" s="28"/>
@@ -11115,7 +11109,7 @@
       <c r="N505" s="28"/>
       <c r="P505" s="28"/>
     </row>
-    <row r="506" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A506" s="27"/>
       <c r="B506" s="28"/>
       <c r="C506" s="28"/>
@@ -11130,7 +11124,7 @@
       <c r="N506" s="28"/>
       <c r="P506" s="28"/>
     </row>
-    <row r="507" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A507" s="27"/>
       <c r="B507" s="28"/>
       <c r="C507" s="28"/>
@@ -11145,7 +11139,7 @@
       <c r="N507" s="28"/>
       <c r="P507" s="28"/>
     </row>
-    <row r="508" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A508" s="27"/>
       <c r="B508" s="28"/>
       <c r="C508" s="28"/>
@@ -11160,7 +11154,7 @@
       <c r="N508" s="28"/>
       <c r="P508" s="28"/>
     </row>
-    <row r="509" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A509" s="27"/>
       <c r="B509" s="28"/>
       <c r="C509" s="28"/>
@@ -11175,7 +11169,7 @@
       <c r="N509" s="28"/>
       <c r="P509" s="28"/>
     </row>
-    <row r="510" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A510" s="27"/>
       <c r="B510" s="28"/>
       <c r="C510" s="28"/>
@@ -11190,7 +11184,7 @@
       <c r="N510" s="28"/>
       <c r="P510" s="28"/>
     </row>
-    <row r="511" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A511" s="27"/>
       <c r="B511" s="28"/>
       <c r="C511" s="28"/>
@@ -11205,7 +11199,7 @@
       <c r="N511" s="28"/>
       <c r="P511" s="28"/>
     </row>
-    <row r="512" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A512" s="27"/>
       <c r="B512" s="28"/>
       <c r="C512" s="28"/>
@@ -11220,7 +11214,7 @@
       <c r="N512" s="28"/>
       <c r="P512" s="28"/>
     </row>
-    <row r="513" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A513" s="27"/>
       <c r="B513" s="28"/>
       <c r="C513" s="28"/>
@@ -11235,7 +11229,7 @@
       <c r="N513" s="28"/>
       <c r="P513" s="28"/>
     </row>
-    <row r="514" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A514" s="27"/>
       <c r="B514" s="28"/>
       <c r="C514" s="28"/>
@@ -11250,7 +11244,7 @@
       <c r="N514" s="28"/>
       <c r="P514" s="28"/>
     </row>
-    <row r="515" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A515" s="27"/>
       <c r="B515" s="28"/>
       <c r="C515" s="28"/>
@@ -11265,7 +11259,7 @@
       <c r="N515" s="28"/>
       <c r="P515" s="28"/>
     </row>
-    <row r="516" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A516" s="27"/>
       <c r="B516" s="28"/>
       <c r="C516" s="28"/>
@@ -11280,7 +11274,7 @@
       <c r="N516" s="28"/>
       <c r="P516" s="28"/>
     </row>
-    <row r="517" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A517" s="27"/>
       <c r="B517" s="28"/>
       <c r="C517" s="28"/>
@@ -11295,7 +11289,7 @@
       <c r="N517" s="28"/>
       <c r="P517" s="28"/>
     </row>
-    <row r="518" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A518" s="27"/>
       <c r="B518" s="28"/>
       <c r="C518" s="28"/>
@@ -11310,7 +11304,7 @@
       <c r="N518" s="28"/>
       <c r="P518" s="28"/>
     </row>
-    <row r="519" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A519" s="27"/>
       <c r="B519" s="28"/>
       <c r="C519" s="28"/>
@@ -11325,7 +11319,7 @@
       <c r="N519" s="28"/>
       <c r="P519" s="28"/>
     </row>
-    <row r="520" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A520" s="27"/>
       <c r="B520" s="28"/>
       <c r="C520" s="28"/>
@@ -11340,7 +11334,7 @@
       <c r="N520" s="28"/>
       <c r="P520" s="28"/>
     </row>
-    <row r="521" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A521" s="27"/>
       <c r="B521" s="28"/>
       <c r="C521" s="28"/>
@@ -11355,7 +11349,7 @@
       <c r="N521" s="28"/>
       <c r="P521" s="28"/>
     </row>
-    <row r="522" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A522" s="27"/>
       <c r="B522" s="28"/>
       <c r="C522" s="28"/>
@@ -11370,7 +11364,7 @@
       <c r="N522" s="28"/>
       <c r="P522" s="28"/>
     </row>
-    <row r="523" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A523" s="27"/>
       <c r="B523" s="28"/>
       <c r="C523" s="28"/>
@@ -11385,7 +11379,7 @@
       <c r="N523" s="28"/>
       <c r="P523" s="28"/>
     </row>
-    <row r="524" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A524" s="27"/>
       <c r="B524" s="28"/>
       <c r="C524" s="28"/>
@@ -11400,7 +11394,7 @@
       <c r="N524" s="28"/>
       <c r="P524" s="28"/>
     </row>
-    <row r="525" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A525" s="27"/>
       <c r="B525" s="28"/>
       <c r="C525" s="28"/>
@@ -11415,7 +11409,7 @@
       <c r="N525" s="28"/>
       <c r="P525" s="28"/>
     </row>
-    <row r="526" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A526" s="27"/>
       <c r="B526" s="28"/>
       <c r="C526" s="28"/>
@@ -11430,7 +11424,7 @@
       <c r="N526" s="28"/>
       <c r="P526" s="28"/>
     </row>
-    <row r="527" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A527" s="27"/>
       <c r="B527" s="28"/>
       <c r="C527" s="28"/>
@@ -11445,7 +11439,7 @@
       <c r="N527" s="28"/>
       <c r="P527" s="28"/>
     </row>
-    <row r="528" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A528" s="27"/>
       <c r="B528" s="28"/>
       <c r="C528" s="28"/>
@@ -11460,7 +11454,7 @@
       <c r="N528" s="28"/>
       <c r="P528" s="28"/>
     </row>
-    <row r="529" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A529" s="27"/>
       <c r="B529" s="28"/>
       <c r="C529" s="28"/>
@@ -11475,7 +11469,7 @@
       <c r="N529" s="28"/>
       <c r="P529" s="28"/>
     </row>
-    <row r="530" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A530" s="27"/>
       <c r="B530" s="28"/>
       <c r="C530" s="28"/>
@@ -11490,7 +11484,7 @@
       <c r="N530" s="28"/>
       <c r="P530" s="28"/>
     </row>
-    <row r="531" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A531" s="27"/>
       <c r="B531" s="28"/>
       <c r="C531" s="28"/>
@@ -11505,7 +11499,7 @@
       <c r="N531" s="28"/>
       <c r="P531" s="28"/>
     </row>
-    <row r="532" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A532" s="27"/>
       <c r="B532" s="28"/>
       <c r="C532" s="28"/>
@@ -11520,7 +11514,7 @@
       <c r="N532" s="28"/>
       <c r="P532" s="28"/>
     </row>
-    <row r="533" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A533" s="27"/>
       <c r="B533" s="28"/>
       <c r="C533" s="28"/>
@@ -11535,7 +11529,7 @@
       <c r="N533" s="28"/>
       <c r="P533" s="28"/>
     </row>
-    <row r="534" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A534" s="27"/>
       <c r="B534" s="28"/>
       <c r="C534" s="28"/>
@@ -11550,7 +11544,7 @@
       <c r="N534" s="28"/>
       <c r="P534" s="28"/>
     </row>
-    <row r="535" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A535" s="27"/>
       <c r="B535" s="28"/>
       <c r="C535" s="28"/>
@@ -11565,7 +11559,7 @@
       <c r="N535" s="28"/>
       <c r="P535" s="28"/>
     </row>
-    <row r="536" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A536" s="27"/>
       <c r="B536" s="28"/>
       <c r="C536" s="28"/>
@@ -11580,7 +11574,7 @@
       <c r="N536" s="28"/>
       <c r="P536" s="28"/>
     </row>
-    <row r="537" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A537" s="27"/>
       <c r="B537" s="28"/>
       <c r="C537" s="28"/>
@@ -11595,7 +11589,7 @@
       <c r="N537" s="28"/>
       <c r="P537" s="28"/>
     </row>
-    <row r="538" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A538" s="27"/>
       <c r="B538" s="28"/>
       <c r="C538" s="28"/>
@@ -11610,7 +11604,7 @@
       <c r="N538" s="28"/>
       <c r="P538" s="28"/>
     </row>
-    <row r="539" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A539" s="27"/>
       <c r="B539" s="28"/>
       <c r="C539" s="28"/>
@@ -11625,7 +11619,7 @@
       <c r="N539" s="28"/>
       <c r="P539" s="28"/>
     </row>
-    <row r="540" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A540" s="27"/>
       <c r="B540" s="28"/>
       <c r="C540" s="28"/>
@@ -11640,7 +11634,7 @@
       <c r="N540" s="28"/>
       <c r="P540" s="28"/>
     </row>
-    <row r="541" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A541" s="27"/>
       <c r="B541" s="28"/>
       <c r="C541" s="28"/>
@@ -11655,7 +11649,7 @@
       <c r="N541" s="28"/>
       <c r="P541" s="28"/>
     </row>
-    <row r="542" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A542" s="27"/>
       <c r="B542" s="28"/>
       <c r="C542" s="28"/>
@@ -11670,7 +11664,7 @@
       <c r="N542" s="28"/>
       <c r="P542" s="28"/>
     </row>
-    <row r="543" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A543" s="27"/>
       <c r="B543" s="28"/>
       <c r="C543" s="28"/>
@@ -11685,7 +11679,7 @@
       <c r="N543" s="28"/>
       <c r="P543" s="28"/>
     </row>
-    <row r="544" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A544" s="27"/>
       <c r="B544" s="28"/>
       <c r="C544" s="28"/>
@@ -11700,7 +11694,7 @@
       <c r="N544" s="28"/>
       <c r="P544" s="28"/>
     </row>
-    <row r="545" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A545" s="27"/>
       <c r="B545" s="28"/>
       <c r="C545" s="28"/>
@@ -11715,7 +11709,7 @@
       <c r="N545" s="28"/>
       <c r="P545" s="28"/>
     </row>
-    <row r="546" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A546" s="27"/>
       <c r="B546" s="28"/>
       <c r="C546" s="28"/>
@@ -11730,7 +11724,7 @@
       <c r="N546" s="28"/>
       <c r="P546" s="28"/>
     </row>
-    <row r="547" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A547" s="27"/>
       <c r="B547" s="28"/>
       <c r="C547" s="28"/>
@@ -11745,7 +11739,7 @@
       <c r="N547" s="28"/>
       <c r="P547" s="28"/>
     </row>
-    <row r="548" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A548" s="27"/>
       <c r="B548" s="28"/>
       <c r="C548" s="28"/>
@@ -11760,7 +11754,7 @@
       <c r="N548" s="28"/>
       <c r="P548" s="28"/>
     </row>
-    <row r="549" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A549" s="27"/>
       <c r="B549" s="28"/>
       <c r="C549" s="28"/>
@@ -11775,7 +11769,7 @@
       <c r="N549" s="28"/>
       <c r="P549" s="28"/>
     </row>
-    <row r="550" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A550" s="27"/>
       <c r="B550" s="28"/>
       <c r="C550" s="28"/>
@@ -11790,7 +11784,7 @@
       <c r="N550" s="28"/>
       <c r="P550" s="28"/>
     </row>
-    <row r="551" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A551" s="27"/>
       <c r="B551" s="28"/>
       <c r="C551" s="28"/>
@@ -11810,18 +11804,6 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="G1:G2"/>
@@ -11830,6 +11812,18 @@
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="K1:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11844,16 +11838,16 @@
       <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="14.5703125" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.59765625" customWidth="1"/>
+    <col min="4" max="4" width="13.86328125" customWidth="1"/>
+    <col min="5" max="5" width="15.1328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>25</v>
       </c>
@@ -11876,7 +11870,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" s="4"/>
       <c r="B2" s="4" t="s">
         <v>34</v>
@@ -11897,7 +11891,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
         <v>35</v>
@@ -11918,7 +11912,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
         <v>36</v>
@@ -11935,7 +11929,7 @@
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
         <v>37</v>
@@ -11952,7 +11946,7 @@
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
         <v>38</v>
@@ -11967,7 +11961,7 @@
       </c>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
         <v>39</v>
@@ -11980,7 +11974,7 @@
       <c r="F7" s="4"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
         <v>40</v>
@@ -11993,7 +11987,7 @@
       <c r="F8" s="4"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
         <v>41</v>
@@ -12006,7 +12000,7 @@
       <c r="F9" s="4"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
         <v>42</v>
@@ -12019,7 +12013,7 @@
       <c r="F10" s="4"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
         <v>43</v>
@@ -12034,7 +12028,7 @@
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
         <v>44</v>
@@ -12049,7 +12043,7 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
         <v>45</v>
@@ -12064,7 +12058,7 @@
       <c r="M13" s="1"/>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
         <v>46</v>
@@ -12079,7 +12073,7 @@
       <c r="M14" s="1"/>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
@@ -12092,7 +12086,7 @@
       <c r="M15" s="1"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
@@ -12105,7 +12099,7 @@
       <c r="M16" s="1"/>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4" t="s">
@@ -12118,7 +12112,7 @@
       <c r="M17" s="1"/>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
@@ -12131,7 +12125,7 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4" t="s">
@@ -12144,7 +12138,7 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4" t="s">
@@ -12157,7 +12151,7 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4" t="s">
@@ -12170,7 +12164,7 @@
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4" t="s">
@@ -12183,7 +12177,7 @@
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4" t="s">
@@ -12196,7 +12190,7 @@
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4" t="s">
@@ -12209,7 +12203,7 @@
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4" t="s">
@@ -12220,7 +12214,7 @@
       <c r="F25" s="4"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4" t="s">
@@ -12231,7 +12225,7 @@
       <c r="F26" s="4"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4" t="s">
@@ -12242,7 +12236,7 @@
       <c r="F27" s="4"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4" t="s">
@@ -12253,7 +12247,7 @@
       <c r="F28" s="4"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4" t="s">
@@ -12264,7 +12258,7 @@
       <c r="F29" s="4"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4" t="s">
@@ -12275,7 +12269,7 @@
       <c r="F30" s="4"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4" t="s">
@@ -12286,7 +12280,7 @@
       <c r="F31" s="4"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4" t="s">
@@ -12297,7 +12291,7 @@
       <c r="F32" s="4"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4" t="s">
@@ -12308,7 +12302,7 @@
       <c r="F33" s="4"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4" t="s">
@@ -12319,7 +12313,7 @@
       <c r="F34" s="4"/>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4" t="s">
@@ -12330,7 +12324,7 @@
       <c r="F35" s="4"/>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4" t="s">
@@ -12341,7 +12335,7 @@
       <c r="F36" s="4"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="4" t="s">
@@ -12352,7 +12346,7 @@
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3" t="s">
@@ -12363,7 +12357,7 @@
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3" t="s">
@@ -12374,7 +12368,7 @@
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -12383,7 +12377,7 @@
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -12392,7 +12386,7 @@
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -12401,7 +12395,7 @@
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -12410,7 +12404,7 @@
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -12419,7 +12413,7 @@
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -12428,7 +12422,7 @@
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -12437,7 +12431,7 @@
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -12446,7 +12440,7 @@
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -12455,7 +12449,7 @@
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -12464,7 +12458,7 @@
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>

--- a/fuentes/contenidos/grado08/guion01/Escaleta_LE_08_01_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion01/Escaleta_LE_08_01_CO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis\Documents\GitHub\Lenguaje\fuentes\contenidos\grado08\guion01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$U$2</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="306">
   <si>
     <t>Asignatura</t>
   </si>
@@ -514,9 +514,6 @@
   </si>
   <si>
     <t xml:space="preserve">Secuencia de seis imágenes relacionadas con las culturas Precolombinas en Colombia, y su ubicación geográfica e histórica, cada imagen se acompaña de  preguntas de reflexión o aportes culturales o sociales. </t>
-  </si>
-  <si>
-    <t>Selecciona las características del periodo Prehispánico Clásico y Posclásico en América y en Colombia</t>
   </si>
   <si>
     <r>
@@ -973,7 +970,43 @@
     <t>Debe incluirse 10 preguntas abiertas:3 sobre literatura Precolombina; 2 sobre oraciones reflexivas y reciprocas, 3 sobre palabras con hiato, diptongo y triptongo, 2 sobre el anuncio publicitario.Debe marcarse en el greco Gestor de actividades como actividad didáctica</t>
   </si>
   <si>
-    <t>Intercativo para identificar sobre grupos indígenas de Colombia precolombina</t>
+    <t>Intercativo para conocer los grupos indígenas de Colombia precolombina</t>
+  </si>
+  <si>
+    <t>Selecciona el contexto histórico, social y cultural de la época prehispánica</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: Revisa el uso de los diptongos, triptongos e hiatos</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje:  Determina el uso de las oraciones reflexivas y recíprocas</t>
+  </si>
+  <si>
+    <t>Actividad para afianzar los conocimientos relacionados con las oraciones reflexivas y reciprocas</t>
+  </si>
+  <si>
+    <t>Actividad que reforzar los conceptos de  hiato, diptongo y triptongo</t>
+  </si>
+  <si>
+    <t>Elaborar 4 preguntas relacionadas con las oraciones reflexivas y reciprocas</t>
+  </si>
+  <si>
+    <t>Elaborar 4 preguntas relacionadas con el uso o aplicación de palabras que contienen diptongo, hiatos y triptongos</t>
+  </si>
+  <si>
+    <t>Recurso M101A-04</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje:Analiza la importancia de los anuncios publicitarios</t>
+  </si>
+  <si>
+    <t>Actividad que permite analizar la importancia del anuncio publicitario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuatro preguntas relaciones con la importancia de elaborar anuncios publicitarios o con la intencionalidad. </t>
+  </si>
+  <si>
+    <t>Recurso M101A-05</t>
   </si>
 </sst>
 </file>
@@ -1032,7 +1065,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1060,6 +1093,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1104,7 +1149,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1214,11 +1259,42 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1505,11 +1581,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U551"/>
+  <dimension ref="A1:U554"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1632,13 +1708,13 @@
         <v>68</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E3" s="14"/>
       <c r="F3" s="12"/>
@@ -1674,16 +1750,16 @@
         <v>6</v>
       </c>
       <c r="R3" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="S3" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="S3" s="6" t="s">
+      <c r="T3" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="T3" s="6" t="s">
+      <c r="U3" s="6" t="s">
         <v>219</v>
-      </c>
-      <c r="U3" s="6" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1691,13 +1767,13 @@
         <v>68</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="12"/>
@@ -1733,16 +1809,16 @@
         <v>6</v>
       </c>
       <c r="R4" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="S4" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="S4" s="6" t="s">
-        <v>218</v>
-      </c>
       <c r="T4" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="U4" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
@@ -1750,13 +1826,13 @@
         <v>68</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="12"/>
@@ -1792,16 +1868,16 @@
         <v>6</v>
       </c>
       <c r="R5" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="S5" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="S5" s="6" t="s">
-        <v>218</v>
-      </c>
       <c r="T5" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="U5" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
@@ -1809,13 +1885,13 @@
         <v>68</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="12"/>
@@ -1851,16 +1927,16 @@
         <v>6</v>
       </c>
       <c r="R6" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="S6" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="S6" s="6" t="s">
-        <v>218</v>
-      </c>
       <c r="T6" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="U6" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
@@ -1868,13 +1944,13 @@
         <v>68</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="12"/>
@@ -1888,7 +1964,7 @@
         <v>20</v>
       </c>
       <c r="J7" s="33" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K7" s="6" t="s">
         <v>69</v>
@@ -1901,7 +1977,7 @@
       </c>
       <c r="N7" s="6"/>
       <c r="O7" s="15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="P7" s="6" t="s">
         <v>19</v>
@@ -1910,16 +1986,16 @@
         <v>6</v>
       </c>
       <c r="R7" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="S7" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="S7" s="6" t="s">
-        <v>218</v>
-      </c>
       <c r="T7" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="U7" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
@@ -1927,13 +2003,13 @@
         <v>68</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="12"/>
@@ -1955,7 +2031,7 @@
       <c r="L8" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="M8" s="6" t="s">
+      <c r="M8" s="46" t="s">
         <v>62</v>
       </c>
       <c r="N8" s="6"/>
@@ -1969,16 +2045,16 @@
         <v>6</v>
       </c>
       <c r="R8" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="S8" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="S8" s="6" t="s">
-        <v>218</v>
-      </c>
       <c r="T8" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="U8" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1986,16 +2062,16 @@
         <v>68</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="11" t="s">
@@ -2008,7 +2084,7 @@
         <v>19</v>
       </c>
       <c r="J9" s="41" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K9" s="6" t="s">
         <v>69</v>
@@ -2020,7 +2096,7 @@
         <v>36</v>
       </c>
       <c r="O9" s="41" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="P9" s="6" t="s">
         <v>19</v>
@@ -2029,16 +2105,16 @@
         <v>6</v>
       </c>
       <c r="R9" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="S9" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="S9" s="6" t="s">
+      <c r="T9" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="T9" s="6" t="s">
+      <c r="U9" s="6" t="s">
         <v>228</v>
-      </c>
-      <c r="U9" s="6" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="60" x14ac:dyDescent="0.25">
@@ -2046,19 +2122,19 @@
         <v>68</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E10" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="F10" s="11" t="s">
         <v>186</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>187</v>
       </c>
       <c r="G10" s="11" t="s">
         <v>160</v>
@@ -2083,7 +2159,7 @@
       </c>
       <c r="N10" s="6"/>
       <c r="O10" s="42" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P10" s="6" t="s">
         <v>20</v>
@@ -2092,16 +2168,16 @@
         <v>6</v>
       </c>
       <c r="R10" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="S10" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="S10" s="6" t="s">
-        <v>218</v>
-      </c>
       <c r="T10" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="U10" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="60" x14ac:dyDescent="0.25">
@@ -2109,19 +2185,19 @@
         <v>68</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E11" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="F11" s="11" t="s">
         <v>186</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>187</v>
       </c>
       <c r="G11" s="11" t="s">
         <v>113</v>
@@ -2154,16 +2230,16 @@
         <v>6</v>
       </c>
       <c r="R11" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="S11" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="S11" s="6" t="s">
-        <v>227</v>
-      </c>
       <c r="T11" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="U11" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="60" x14ac:dyDescent="0.25">
@@ -2171,22 +2247,22 @@
         <v>68</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E12" s="35" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>162</v>
+        <v>187</v>
+      </c>
+      <c r="G12" s="44" t="s">
+        <v>294</v>
       </c>
       <c r="H12" s="6">
         <v>10</v>
@@ -2194,7 +2270,7 @@
       <c r="I12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="36" t="s">
+      <c r="J12" s="41" t="s">
         <v>95</v>
       </c>
       <c r="K12" s="6" t="s">
@@ -2208,7 +2284,7 @@
       </c>
       <c r="N12" s="6"/>
       <c r="O12" s="42" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P12" s="6" t="s">
         <v>19</v>
@@ -2217,16 +2293,16 @@
         <v>6</v>
       </c>
       <c r="R12" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="S12" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="S12" s="6" t="s">
-        <v>218</v>
-      </c>
       <c r="T12" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="U12" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
@@ -2234,19 +2310,19 @@
         <v>68</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E13" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="F13" s="11" t="s">
         <v>189</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>190</v>
       </c>
       <c r="G13" s="11" t="s">
         <v>93</v>
@@ -2271,7 +2347,7 @@
       </c>
       <c r="N13" s="6"/>
       <c r="O13" s="37" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="P13" s="6" t="s">
         <v>19</v>
@@ -2280,16 +2356,16 @@
         <v>6</v>
       </c>
       <c r="R13" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="S13" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="S13" s="6" t="s">
-        <v>218</v>
-      </c>
       <c r="T13" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="U13" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
@@ -2297,19 +2373,19 @@
         <v>68</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E14" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="F14" s="11" t="s">
         <v>189</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>190</v>
       </c>
       <c r="G14" s="11" t="s">
         <v>147</v>
@@ -2342,16 +2418,16 @@
         <v>6</v>
       </c>
       <c r="R14" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="S14" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="S14" s="6" t="s">
-        <v>227</v>
-      </c>
       <c r="T14" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="U14" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
@@ -2359,16 +2435,16 @@
         <v>68</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F15" s="11"/>
       <c r="G15" s="11" t="s">
@@ -2403,16 +2479,16 @@
         <v>6</v>
       </c>
       <c r="R15" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="S15" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="S15" s="6" t="s">
-        <v>218</v>
-      </c>
       <c r="T15" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="U15" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
@@ -2420,16 +2496,16 @@
         <v>68</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F16" s="11"/>
       <c r="G16" s="11" t="s">
@@ -2442,7 +2518,7 @@
         <v>20</v>
       </c>
       <c r="J16" s="33" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K16" s="6" t="s">
         <v>69</v>
@@ -2450,12 +2526,12 @@
       <c r="L16" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="M16" s="6" t="s">
+      <c r="M16" s="46" t="s">
         <v>62</v>
       </c>
       <c r="N16" s="6"/>
       <c r="O16" s="38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="P16" s="6" t="s">
         <v>19</v>
@@ -2464,16 +2540,16 @@
         <v>6</v>
       </c>
       <c r="R16" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="S16" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="S16" s="6" t="s">
-        <v>218</v>
-      </c>
       <c r="T16" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="U16" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
@@ -2481,20 +2557,20 @@
         <v>68</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H17" s="6">
         <v>15</v>
@@ -2503,7 +2579,7 @@
         <v>19</v>
       </c>
       <c r="J17" s="33" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K17" s="6" t="s">
         <v>69</v>
@@ -2515,7 +2591,7 @@
         <v>37</v>
       </c>
       <c r="O17" s="38" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="P17" s="6" t="s">
         <v>19</v>
@@ -2524,16 +2600,16 @@
         <v>6</v>
       </c>
       <c r="R17" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="S17" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="S17" s="25" t="s">
-        <v>218</v>
-      </c>
       <c r="T17" s="26" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="U17" s="25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
@@ -2541,18 +2617,18 @@
         <v>68</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E18" s="33"/>
       <c r="F18" s="12"/>
       <c r="G18" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H18" s="6">
         <v>16</v>
@@ -2561,7 +2637,7 @@
         <v>19</v>
       </c>
       <c r="J18" s="39" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K18" s="6" t="s">
         <v>69</v>
@@ -2573,7 +2649,7 @@
         <v>45</v>
       </c>
       <c r="O18" s="33" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P18" s="6" t="s">
         <v>19</v>
@@ -2582,16 +2658,16 @@
         <v>6</v>
       </c>
       <c r="R18" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="S18" s="25" t="s">
         <v>226</v>
       </c>
-      <c r="S18" s="25" t="s">
-        <v>227</v>
-      </c>
       <c r="T18" s="26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="U18" s="25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
@@ -2599,16 +2675,16 @@
         <v>68</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E19" s="33" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F19" s="12"/>
       <c r="G19" s="11" t="s">
@@ -2621,7 +2697,7 @@
         <v>20</v>
       </c>
       <c r="J19" s="35" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K19" s="6" t="s">
         <v>69</v>
@@ -2643,16 +2719,16 @@
         <v>6</v>
       </c>
       <c r="R19" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="S19" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="S19" s="25" t="s">
-        <v>218</v>
-      </c>
       <c r="T19" s="26" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="U19" s="25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
@@ -2660,16 +2736,16 @@
         <v>68</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F20" s="12"/>
       <c r="G20" s="11" t="s">
@@ -2682,7 +2758,7 @@
         <v>20</v>
       </c>
       <c r="J20" s="35" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K20" s="6" t="s">
         <v>69</v>
@@ -2695,7 +2771,7 @@
       </c>
       <c r="N20" s="6"/>
       <c r="O20" s="33" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P20" s="6" t="s">
         <v>19</v>
@@ -2704,16 +2780,16 @@
         <v>6</v>
       </c>
       <c r="R20" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="S20" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="S20" s="25" t="s">
-        <v>218</v>
-      </c>
       <c r="T20" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="U20" s="25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
@@ -2721,20 +2797,20 @@
         <v>68</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E21" s="33" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F21" s="12"/>
       <c r="G21" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H21" s="6">
         <v>19</v>
@@ -2743,7 +2819,7 @@
         <v>20</v>
       </c>
       <c r="J21" s="35" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K21" s="6" t="s">
         <v>69</v>
@@ -2756,7 +2832,7 @@
       </c>
       <c r="N21" s="6"/>
       <c r="O21" s="33" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P21" s="6" t="s">
         <v>19</v>
@@ -2765,16 +2841,16 @@
         <v>6</v>
       </c>
       <c r="R21" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="S21" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="S21" s="25" t="s">
-        <v>218</v>
-      </c>
       <c r="T21" s="26" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="U21" s="25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
@@ -2782,20 +2858,20 @@
         <v>68</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H22" s="6">
         <v>20</v>
@@ -2817,7 +2893,7 @@
       </c>
       <c r="N22" s="6"/>
       <c r="O22" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="P22" s="6" t="s">
         <v>19</v>
@@ -2826,91 +2902,96 @@
         <v>6</v>
       </c>
       <c r="R22" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="S22" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="S22" s="25" t="s">
-        <v>218</v>
-      </c>
       <c r="T22" s="26" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="U22" s="25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="C23" s="12" t="s">
+      <c r="B23" s="48" t="s">
+        <v>255</v>
+      </c>
+      <c r="C23" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="D23" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="E23" s="15"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="15" t="s">
-        <v>282</v>
-      </c>
-      <c r="H23" s="6">
+      <c r="D23" s="49" t="s">
+        <v>180</v>
+      </c>
+      <c r="E23" s="50" t="s">
+        <v>190</v>
+      </c>
+      <c r="F23" s="51"/>
+      <c r="G23" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="H23" s="51">
         <v>21</v>
       </c>
-      <c r="I23" s="6" t="s">
+      <c r="I23" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="J23" s="52" t="s">
+        <v>297</v>
+      </c>
+      <c r="K23" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="L23" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="M23" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="N23" s="51"/>
+      <c r="O23" s="50" t="s">
+        <v>299</v>
+      </c>
+      <c r="P23" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="J23" s="15" t="s">
-        <v>281</v>
-      </c>
-      <c r="K23" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="L23" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="N23" s="6"/>
-      <c r="O23" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="P23" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q23" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="R23" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="S23" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="T23" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="U23" s="6" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="Q23" s="51">
+        <v>6</v>
+      </c>
+      <c r="R23" s="51" t="s">
+        <v>216</v>
+      </c>
+      <c r="S23" s="51" t="s">
+        <v>217</v>
+      </c>
+      <c r="T23" s="51" t="s">
+        <v>244</v>
+      </c>
+      <c r="U23" s="51" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>68</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C24" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E24" s="15"/>
       <c r="F24" s="12"/>
       <c r="G24" s="15" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="H24" s="6">
         <v>22</v>
@@ -2919,7 +3000,7 @@
         <v>19</v>
       </c>
       <c r="J24" s="15" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="K24" s="6" t="s">
         <v>70</v>
@@ -2932,22 +3013,22 @@
         <v>110</v>
       </c>
       <c r="P24" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q24" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="R24" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="S24" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="T24" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="U24" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="53" t="s">
+        <v>263</v>
+      </c>
+      <c r="R24" s="53" t="s">
+        <v>262</v>
+      </c>
+      <c r="S24" s="53" t="s">
+        <v>261</v>
+      </c>
+      <c r="T24" s="53" t="s">
         <v>260</v>
+      </c>
+      <c r="U24" s="53" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
@@ -2955,60 +3036,55 @@
         <v>68</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C25" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>195</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="E25" s="15"/>
       <c r="F25" s="12"/>
-      <c r="G25" s="11" t="s">
-        <v>101</v>
+      <c r="G25" s="15" t="s">
+        <v>278</v>
       </c>
       <c r="H25" s="6">
         <v>23</v>
       </c>
       <c r="I25" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J25" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N25" s="6"/>
+      <c r="O25" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="P25" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J25" s="15" t="s">
-        <v>206</v>
-      </c>
-      <c r="K25" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="L25" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="M25" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="N25" s="6"/>
-      <c r="O25" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="P25" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q25" s="25">
-        <v>6</v>
-      </c>
-      <c r="R25" s="25" t="s">
-        <v>217</v>
-      </c>
-      <c r="S25" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="T25" s="26" t="s">
-        <v>240</v>
-      </c>
-      <c r="U25" s="25" t="s">
-        <v>220</v>
+      <c r="Q25" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="R25" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="S25" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="T25" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="U25" s="6" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
@@ -3016,20 +3092,20 @@
         <v>68</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F26" s="12"/>
       <c r="G26" s="11" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="H26" s="6">
         <v>24</v>
@@ -3038,35 +3114,38 @@
         <v>20</v>
       </c>
       <c r="J26" s="15" t="s">
-        <v>284</v>
+        <v>205</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L26" s="6" t="s">
         <v>32</v>
       </c>
+      <c r="M26" s="6" t="s">
+        <v>83</v>
+      </c>
       <c r="N26" s="6"/>
       <c r="O26" s="33" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P26" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q26" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="R26" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="S26" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="T26" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="U26" s="6" t="s">
-        <v>100</v>
+        <v>19</v>
+      </c>
+      <c r="Q26" s="25">
+        <v>6</v>
+      </c>
+      <c r="R26" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="S26" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="T26" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="U26" s="25" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
@@ -3074,20 +3153,20 @@
         <v>68</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="E27" s="33" t="s">
-        <v>196</v>
+        <v>181</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>194</v>
       </c>
       <c r="F27" s="12"/>
       <c r="G27" s="11" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="H27" s="6">
         <v>25</v>
@@ -3096,7 +3175,7 @@
         <v>20</v>
       </c>
       <c r="J27" s="15" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="K27" s="6" t="s">
         <v>70</v>
@@ -3109,7 +3188,7 @@
         <v>110</v>
       </c>
       <c r="P27" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q27" s="6" t="s">
         <v>103</v>
@@ -3118,10 +3197,10 @@
         <v>99</v>
       </c>
       <c r="S27" s="6" t="s">
-        <v>107</v>
+        <v>285</v>
       </c>
       <c r="T27" s="6" t="s">
-        <v>104</v>
+        <v>286</v>
       </c>
       <c r="U27" s="6" t="s">
         <v>100</v>
@@ -3132,20 +3211,20 @@
         <v>68</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E28" s="33" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F28" s="12"/>
       <c r="G28" s="11" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H28" s="6">
         <v>26</v>
@@ -3154,7 +3233,7 @@
         <v>20</v>
       </c>
       <c r="J28" s="15" t="s">
-        <v>207</v>
+        <v>268</v>
       </c>
       <c r="K28" s="6" t="s">
         <v>70</v>
@@ -3179,7 +3258,7 @@
         <v>107</v>
       </c>
       <c r="T28" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="U28" s="6" t="s">
         <v>100</v>
@@ -3190,20 +3269,20 @@
         <v>68</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C29" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="D29" s="24" t="s">
-        <v>182</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="F29" s="11"/>
-      <c r="G29" s="15" t="s">
-        <v>152</v>
+      <c r="D29" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="E29" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="F29" s="12"/>
+      <c r="G29" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="H29" s="6">
         <v>27</v>
@@ -3212,7 +3291,7 @@
         <v>20</v>
       </c>
       <c r="J29" s="15" t="s">
-        <v>270</v>
+        <v>206</v>
       </c>
       <c r="K29" s="6" t="s">
         <v>70</v>
@@ -3221,7 +3300,7 @@
         <v>32</v>
       </c>
       <c r="N29" s="6"/>
-      <c r="O29" s="15" t="s">
+      <c r="O29" s="33" t="s">
         <v>110</v>
       </c>
       <c r="P29" s="6" t="s">
@@ -3237,7 +3316,7 @@
         <v>107</v>
       </c>
       <c r="T29" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="U29" s="6" t="s">
         <v>100</v>
@@ -3248,20 +3327,20 @@
         <v>68</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C30" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F30" s="11"/>
       <c r="G30" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H30" s="6">
         <v>28</v>
@@ -3270,7 +3349,7 @@
         <v>20</v>
       </c>
       <c r="J30" s="15" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K30" s="6" t="s">
         <v>70</v>
@@ -3283,7 +3362,7 @@
         <v>110</v>
       </c>
       <c r="P30" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q30" s="6" t="s">
         <v>103</v>
@@ -3295,7 +3374,7 @@
         <v>107</v>
       </c>
       <c r="T30" s="6" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="U30" s="6" t="s">
         <v>100</v>
@@ -3306,20 +3385,20 @@
         <v>68</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C31" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F31" s="11"/>
       <c r="G31" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H31" s="6">
         <v>29</v>
@@ -3328,7 +3407,7 @@
         <v>20</v>
       </c>
       <c r="J31" s="15" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K31" s="6" t="s">
         <v>70</v>
@@ -3350,13 +3429,13 @@
         <v>99</v>
       </c>
       <c r="S31" s="6" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="T31" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="U31" s="6" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
@@ -3364,117 +3443,118 @@
         <v>68</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C32" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="D32" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="E32" s="14"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="11" t="s">
-        <v>90</v>
+      <c r="D32" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="F32" s="11"/>
+      <c r="G32" s="15" t="s">
+        <v>154</v>
       </c>
       <c r="H32" s="6">
         <v>30</v>
       </c>
       <c r="I32" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J32" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="L32" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="N32" s="6"/>
+      <c r="O32" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="P32" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q32" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="R32" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="S32" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="T32" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="U32" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A33" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" s="48" t="s">
+        <v>255</v>
+      </c>
+      <c r="C33" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="D33" s="54" t="s">
+        <v>181</v>
+      </c>
+      <c r="E33" s="47" t="s">
+        <v>190</v>
+      </c>
+      <c r="F33" s="47"/>
+      <c r="G33" s="50" t="s">
+        <v>295</v>
+      </c>
+      <c r="H33" s="51">
+        <v>31</v>
+      </c>
+      <c r="I33" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="J33" s="50" t="s">
+        <v>298</v>
+      </c>
+      <c r="K33" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="L33" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="M33" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="N33" s="51"/>
+      <c r="O33" s="50" t="s">
+        <v>300</v>
+      </c>
+      <c r="P33" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="J32" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="K32" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="L32" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="N32" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="O32" s="33" t="s">
+      <c r="Q33" s="51">
+        <v>6</v>
+      </c>
+      <c r="R33" s="51" t="s">
         <v>216</v>
       </c>
-      <c r="P32" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q32" s="25">
-        <v>6</v>
-      </c>
-      <c r="R32" s="25" t="s">
-        <v>226</v>
-      </c>
-      <c r="S32" s="25" t="s">
-        <v>227</v>
-      </c>
-      <c r="T32" s="26" t="s">
-        <v>241</v>
-      </c>
-      <c r="U32" s="25" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A33" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="E33" s="33" t="s">
-        <v>198</v>
-      </c>
-      <c r="F33" s="12"/>
-      <c r="G33" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="H33" s="6">
-        <v>31</v>
-      </c>
-      <c r="I33" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J33" s="33" t="s">
-        <v>273</v>
-      </c>
-      <c r="K33" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="L33" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="N33" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="O33" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="P33" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q33" s="25">
-        <v>6</v>
-      </c>
-      <c r="R33" s="25" t="s">
-        <v>226</v>
-      </c>
-      <c r="S33" s="25" t="s">
-        <v>227</v>
-      </c>
-      <c r="T33" s="26" t="s">
-        <v>242</v>
-      </c>
-      <c r="U33" s="25" t="s">
-        <v>229</v>
+      <c r="S33" s="51" t="s">
+        <v>217</v>
+      </c>
+      <c r="T33" s="51" t="s">
+        <v>301</v>
+      </c>
+      <c r="U33" s="51" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
@@ -3482,40 +3562,37 @@
         <v>68</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C34" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="E34" s="33" t="s">
-        <v>199</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="E34" s="14"/>
       <c r="F34" s="12"/>
       <c r="G34" s="11" t="s">
-        <v>124</v>
+        <v>90</v>
       </c>
       <c r="H34" s="6">
         <v>32</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J34" s="33" t="s">
-        <v>274</v>
+        <v>122</v>
       </c>
       <c r="K34" s="6" t="s">
         <v>69</v>
       </c>
       <c r="L34" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="M34" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="N34" s="6"/>
+        <v>31</v>
+      </c>
+      <c r="N34" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="O34" s="33" t="s">
         <v>215</v>
       </c>
@@ -3526,16 +3603,16 @@
         <v>6</v>
       </c>
       <c r="R34" s="25" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="S34" s="25" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="T34" s="26" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="U34" s="25" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
@@ -3543,29 +3620,29 @@
         <v>68</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C35" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="F35" s="13"/>
+        <v>182</v>
+      </c>
+      <c r="E35" s="33" t="s">
+        <v>197</v>
+      </c>
+      <c r="F35" s="12"/>
       <c r="G35" s="11" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="H35" s="6">
         <v>33</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J35" s="36" t="s">
-        <v>275</v>
+        <v>19</v>
+      </c>
+      <c r="J35" s="33" t="s">
+        <v>272</v>
       </c>
       <c r="K35" s="6" t="s">
         <v>69</v>
@@ -3574,10 +3651,10 @@
         <v>31</v>
       </c>
       <c r="N35" s="6" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="O35" s="33" t="s">
-        <v>208</v>
+        <v>123</v>
       </c>
       <c r="P35" s="6" t="s">
         <v>19</v>
@@ -3586,16 +3663,16 @@
         <v>6</v>
       </c>
       <c r="R35" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="S35" s="25" t="s">
         <v>226</v>
       </c>
-      <c r="S35" s="25" t="s">
-        <v>227</v>
-      </c>
       <c r="T35" s="26" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="U35" s="25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.25">
@@ -3603,20 +3680,20 @@
         <v>68</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C36" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="F36" s="13"/>
+        <v>182</v>
+      </c>
+      <c r="E36" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="F36" s="12"/>
       <c r="G36" s="11" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H36" s="6">
         <v>34</v>
@@ -3625,7 +3702,7 @@
         <v>20</v>
       </c>
       <c r="J36" s="33" t="s">
-        <v>149</v>
+        <v>273</v>
       </c>
       <c r="K36" s="6" t="s">
         <v>69</v>
@@ -3634,11 +3711,11 @@
         <v>32</v>
       </c>
       <c r="M36" s="6" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="N36" s="6"/>
       <c r="O36" s="33" t="s">
-        <v>178</v>
+        <v>214</v>
       </c>
       <c r="P36" s="6" t="s">
         <v>19</v>
@@ -3647,16 +3724,16 @@
         <v>6</v>
       </c>
       <c r="R36" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="S36" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="S36" s="25" t="s">
-        <v>218</v>
-      </c>
       <c r="T36" s="26" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="U36" s="25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
@@ -3664,29 +3741,29 @@
         <v>68</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C37" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="D37" s="17" t="s">
-        <v>184</v>
-      </c>
-      <c r="E37" s="18" t="s">
-        <v>200</v>
-      </c>
-      <c r="F37" s="12"/>
-      <c r="G37" s="19" t="s">
-        <v>126</v>
+      <c r="D37" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="F37" s="13"/>
+      <c r="G37" s="11" t="s">
+        <v>155</v>
       </c>
       <c r="H37" s="6">
         <v>35</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J37" s="11" t="s">
-        <v>127</v>
+        <v>20</v>
+      </c>
+      <c r="J37" s="36" t="s">
+        <v>274</v>
       </c>
       <c r="K37" s="6" t="s">
         <v>69</v>
@@ -3695,10 +3772,10 @@
         <v>31</v>
       </c>
       <c r="N37" s="6" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="O37" s="33" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="P37" s="6" t="s">
         <v>19</v>
@@ -3707,16 +3784,16 @@
         <v>6</v>
       </c>
       <c r="R37" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="S37" s="25" t="s">
         <v>226</v>
       </c>
-      <c r="S37" s="25" t="s">
-        <v>227</v>
-      </c>
       <c r="T37" s="26" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="U37" s="25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
@@ -3724,41 +3801,42 @@
         <v>68</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C38" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="E38" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="F38" s="12"/>
+        <v>182</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="F38" s="13"/>
       <c r="G38" s="11" t="s">
-        <v>177</v>
+        <v>128</v>
       </c>
       <c r="H38" s="6">
         <v>36</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J38" s="33" t="s">
-        <v>276</v>
+        <v>149</v>
       </c>
       <c r="K38" s="6" t="s">
         <v>69</v>
       </c>
       <c r="L38" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="N38" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="O38" s="36" t="s">
-        <v>211</v>
+        <v>32</v>
+      </c>
+      <c r="M38" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="N38" s="6"/>
+      <c r="O38" s="33" t="s">
+        <v>177</v>
       </c>
       <c r="P38" s="6" t="s">
         <v>19</v>
@@ -3767,16 +3845,16 @@
         <v>6</v>
       </c>
       <c r="R38" s="25" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="S38" s="25" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="T38" s="26" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="U38" s="25" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
@@ -3784,42 +3862,41 @@
         <v>68</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C39" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="D39" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="E39" s="15" t="s">
-        <v>191</v>
+      <c r="D39" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="E39" s="18" t="s">
+        <v>199</v>
       </c>
       <c r="F39" s="12"/>
-      <c r="G39" s="11" t="s">
-        <v>128</v>
+      <c r="G39" s="19" t="s">
+        <v>126</v>
       </c>
       <c r="H39" s="6">
         <v>37</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J39" s="33" t="s">
-        <v>129</v>
+        <v>19</v>
+      </c>
+      <c r="J39" s="11" t="s">
+        <v>127</v>
       </c>
       <c r="K39" s="6" t="s">
         <v>69</v>
       </c>
       <c r="L39" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="M39" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="N39" s="6"/>
+        <v>31</v>
+      </c>
+      <c r="N39" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="O39" s="33" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="P39" s="6" t="s">
         <v>19</v>
@@ -3828,16 +3905,16 @@
         <v>6</v>
       </c>
       <c r="R39" s="25" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="S39" s="25" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="T39" s="26" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="U39" s="25" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
@@ -3845,18 +3922,20 @@
         <v>68</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C40" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="E40" s="23"/>
-      <c r="F40" s="24"/>
+        <v>183</v>
+      </c>
+      <c r="E40" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="F40" s="12"/>
       <c r="G40" s="11" t="s">
-        <v>132</v>
+        <v>176</v>
       </c>
       <c r="H40" s="6">
         <v>38</v>
@@ -3865,38 +3944,37 @@
         <v>19</v>
       </c>
       <c r="J40" s="33" t="s">
-        <v>277</v>
-      </c>
-      <c r="K40" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="K40" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="L40" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="M40" s="16"/>
+      <c r="L40" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="N40" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="O40" s="33" t="s">
-        <v>212</v>
-      </c>
-      <c r="P40" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O40" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="P40" s="6" t="s">
         <v>19</v>
       </c>
       <c r="Q40" s="25">
         <v>6</v>
       </c>
       <c r="R40" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="S40" s="25" t="s">
         <v>226</v>
       </c>
-      <c r="S40" s="25" t="s">
-        <v>227</v>
-      </c>
       <c r="T40" s="26" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="U40" s="25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
@@ -3904,18 +3982,20 @@
         <v>68</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C41" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="E41" s="23"/>
-      <c r="F41" s="24"/>
+        <v>183</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="F41" s="12"/>
       <c r="G41" s="11" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="H41" s="6">
         <v>39</v>
@@ -3924,97 +4004,99 @@
         <v>20</v>
       </c>
       <c r="J41" s="33" t="s">
-        <v>134</v>
-      </c>
-      <c r="K41" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="K41" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="L41" s="16" t="s">
+      <c r="L41" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="M41" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="N41" s="20"/>
+      <c r="M41" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="N41" s="6"/>
       <c r="O41" s="33" t="s">
-        <v>213</v>
-      </c>
-      <c r="P41" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="P41" s="6" t="s">
         <v>19</v>
       </c>
       <c r="Q41" s="25">
         <v>6</v>
       </c>
       <c r="R41" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="S41" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="S41" s="25" t="s">
-        <v>218</v>
-      </c>
       <c r="T41" s="26" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="U41" s="25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A42" s="11" t="s">
+      <c r="A42" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="B42" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="C42" s="12" t="s">
+      <c r="B42" s="48" t="s">
+        <v>255</v>
+      </c>
+      <c r="C42" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="D42" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="E42" s="23"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="39" t="s">
-        <v>136</v>
-      </c>
-      <c r="H42" s="6">
+      <c r="D42" s="49" t="s">
+        <v>183</v>
+      </c>
+      <c r="E42" s="50" t="s">
+        <v>190</v>
+      </c>
+      <c r="F42" s="48"/>
+      <c r="G42" s="47" t="s">
+        <v>302</v>
+      </c>
+      <c r="H42" s="51">
         <v>40</v>
       </c>
-      <c r="I42" s="21" t="s">
+      <c r="I42" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="J42" s="39" t="s">
-        <v>135</v>
-      </c>
-      <c r="K42" s="22" t="s">
+      <c r="J42" s="55" t="s">
+        <v>303</v>
+      </c>
+      <c r="K42" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="L42" s="21" t="s">
+      <c r="L42" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="M42" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="N42" s="21"/>
-      <c r="O42" s="35" t="s">
-        <v>125</v>
-      </c>
-      <c r="P42" s="22" t="s">
+      <c r="M42" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="N42" s="51"/>
+      <c r="O42" s="55" t="s">
+        <v>304</v>
+      </c>
+      <c r="P42" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="Q42" s="25">
+      <c r="Q42" s="51">
         <v>6</v>
       </c>
-      <c r="R42" s="25" t="s">
+      <c r="R42" s="51" t="s">
+        <v>216</v>
+      </c>
+      <c r="S42" s="51" t="s">
         <v>217</v>
       </c>
-      <c r="S42" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="T42" s="26" t="s">
-        <v>255</v>
-      </c>
-      <c r="U42" s="25" t="s">
-        <v>220</v>
+      <c r="T42" s="51" t="s">
+        <v>305</v>
+      </c>
+      <c r="U42" s="51" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
@@ -4022,58 +4104,58 @@
         <v>68</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C43" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E43" s="23"/>
       <c r="F43" s="24"/>
-      <c r="G43" s="39" t="s">
-        <v>137</v>
+      <c r="G43" s="11" t="s">
+        <v>132</v>
       </c>
       <c r="H43" s="6">
         <v>41</v>
       </c>
-      <c r="I43" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="J43" s="35" t="s">
-        <v>278</v>
-      </c>
-      <c r="K43" s="21" t="s">
+      <c r="I43" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J43" s="33" t="s">
+        <v>276</v>
+      </c>
+      <c r="K43" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="L43" s="21" t="s">
+      <c r="L43" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="M43" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="N43" s="21"/>
-      <c r="O43" s="35" t="s">
-        <v>210</v>
-      </c>
-      <c r="P43" s="22" t="s">
+      <c r="M43" s="16"/>
+      <c r="N43" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="O43" s="33" t="s">
+        <v>211</v>
+      </c>
+      <c r="P43" s="16" t="s">
         <v>19</v>
       </c>
       <c r="Q43" s="25">
         <v>6</v>
       </c>
       <c r="R43" s="25" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="S43" s="25" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="T43" s="26" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="U43" s="25" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
@@ -4081,18 +4163,18 @@
         <v>68</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C44" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>280</v>
-      </c>
-      <c r="E44" s="33"/>
-      <c r="F44" s="12"/>
+        <v>184</v>
+      </c>
+      <c r="E44" s="23"/>
+      <c r="F44" s="24"/>
       <c r="G44" s="11" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H44" s="6">
         <v>42</v>
@@ -4101,181 +4183,313 @@
         <v>20</v>
       </c>
       <c r="J44" s="33" t="s">
-        <v>156</v>
-      </c>
-      <c r="K44" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="K44" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="L44" s="6"/>
-      <c r="N44" s="6"/>
-      <c r="O44" s="33"/>
-      <c r="P44" s="6"/>
-      <c r="Q44" s="6"/>
-      <c r="R44" s="6"/>
-      <c r="S44" s="6"/>
-      <c r="T44" s="6"/>
-      <c r="U44" s="6"/>
+      <c r="L44" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="M44" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="N44" s="20"/>
+      <c r="O44" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="P44" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q44" s="25">
+        <v>6</v>
+      </c>
+      <c r="R44" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="S44" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="T44" s="26" t="s">
+        <v>249</v>
+      </c>
+      <c r="U44" s="25" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
         <v>68</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C45" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>280</v>
-      </c>
-      <c r="E45" s="33"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="15" t="s">
-        <v>91</v>
+        <v>184</v>
+      </c>
+      <c r="E45" s="23"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="39" t="s">
+        <v>136</v>
       </c>
       <c r="H45" s="6">
         <v>43</v>
       </c>
-      <c r="I45" s="6" t="s">
+      <c r="I45" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="J45" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="K45" s="6" t="s">
+      <c r="J45" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="K45" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="L45" s="6" t="s">
+      <c r="L45" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="M45" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="N45" s="6"/>
-      <c r="O45" s="33"/>
-      <c r="P45" s="6" t="s">
-        <v>20</v>
+      <c r="M45" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="N45" s="21"/>
+      <c r="O45" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="P45" s="22" t="s">
+        <v>19</v>
       </c>
       <c r="Q45" s="25">
         <v>6</v>
       </c>
       <c r="R45" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="S45" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="S45" s="25" t="s">
-        <v>218</v>
-      </c>
       <c r="T45" s="26" t="s">
-        <v>253</v>
-      </c>
-      <c r="U45" s="43" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="U45" s="25" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A46" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="B46" s="13" t="s">
-        <v>256</v>
+      <c r="B46" s="12" t="s">
+        <v>255</v>
       </c>
       <c r="C46" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D46" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="E46" s="23"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="H46" s="6">
+        <v>44</v>
+      </c>
+      <c r="I46" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="J46" s="35" t="s">
+        <v>277</v>
+      </c>
+      <c r="K46" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="L46" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="M46" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="N46" s="21"/>
+      <c r="O46" s="35" t="s">
+        <v>209</v>
+      </c>
+      <c r="P46" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q46" s="25">
+        <v>6</v>
+      </c>
+      <c r="R46" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="S46" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="T46" s="26" t="s">
+        <v>251</v>
+      </c>
+      <c r="U46" s="25" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A47" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="E47" s="33"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="H47" s="6">
+        <v>45</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J47" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="K47" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="L47" s="6"/>
+      <c r="N47" s="6"/>
+      <c r="O47" s="33"/>
+      <c r="P47" s="6"/>
+      <c r="Q47" s="6"/>
+      <c r="R47" s="6"/>
+      <c r="S47" s="6"/>
+      <c r="T47" s="6"/>
+      <c r="U47" s="6"/>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A48" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="E48" s="33"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="H48" s="6">
+        <v>46</v>
+      </c>
+      <c r="I48" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J48" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="K48" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="L48" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="M48" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N48" s="6"/>
+      <c r="O48" s="33"/>
+      <c r="P48" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q48" s="25">
+        <v>6</v>
+      </c>
+      <c r="R48" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="S48" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="T48" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="U48" s="43" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="B49" s="49" t="s">
+        <v>255</v>
+      </c>
+      <c r="C49" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="D49" s="49" t="s">
+        <v>289</v>
+      </c>
+      <c r="E49" s="49"/>
+      <c r="F49" s="49"/>
+      <c r="G49" s="49"/>
+      <c r="H49" s="48">
+        <v>47</v>
+      </c>
+      <c r="I49" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="J49" s="49" t="s">
         <v>290</v>
       </c>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="13"/>
-      <c r="H46" s="12">
-        <v>44</v>
-      </c>
-      <c r="I46" s="12" t="s">
+      <c r="K49" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="L49" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="M49" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="N49" s="49"/>
+      <c r="O49" s="49" t="s">
+        <v>292</v>
+      </c>
+      <c r="P49" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="J46" s="13" t="s">
+      <c r="Q49" s="48">
+        <v>6</v>
+      </c>
+      <c r="R49" s="48" t="s">
+        <v>216</v>
+      </c>
+      <c r="S49" s="48" t="s">
+        <v>217</v>
+      </c>
+      <c r="T49" s="48" t="s">
         <v>291</v>
       </c>
-      <c r="K46" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="L46" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="M46" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="N46" s="13"/>
-      <c r="O46" s="13" t="s">
-        <v>293</v>
-      </c>
-      <c r="P46" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q46" s="12">
-        <v>6</v>
-      </c>
-      <c r="R46" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="S46" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="T46" s="12" t="s">
-        <v>292</v>
-      </c>
-      <c r="U46" s="44" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="47" spans="1:21" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="27"/>
-      <c r="B47" s="28"/>
-      <c r="C47" s="28"/>
-      <c r="D47" s="29"/>
-      <c r="F47" s="27"/>
-      <c r="G47" s="27"/>
-      <c r="H47" s="28"/>
-      <c r="I47" s="28"/>
-      <c r="K47" s="28"/>
-      <c r="L47" s="28"/>
-      <c r="M47" s="28"/>
-      <c r="N47" s="28"/>
-      <c r="P47" s="28"/>
-    </row>
-    <row r="48" spans="1:21" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="27"/>
-      <c r="B48" s="28"/>
-      <c r="C48" s="28"/>
-      <c r="D48" s="29"/>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
-      <c r="H48" s="28"/>
-      <c r="I48" s="28"/>
-      <c r="K48" s="28"/>
-      <c r="L48" s="28"/>
-      <c r="M48" s="28"/>
-      <c r="N48" s="28"/>
-      <c r="P48" s="28"/>
-    </row>
-    <row r="49" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="27"/>
-      <c r="B49" s="28"/>
-      <c r="C49" s="28"/>
-      <c r="D49" s="29"/>
-      <c r="F49" s="27"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="28"/>
-      <c r="I49" s="28"/>
-      <c r="K49" s="28"/>
-      <c r="L49" s="28"/>
-      <c r="M49" s="28"/>
-      <c r="N49" s="28"/>
-      <c r="P49" s="28"/>
-    </row>
-    <row r="50" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U49" s="56" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="27"/>
       <c r="B50" s="28"/>
       <c r="C50" s="28"/>
@@ -4290,7 +4504,7 @@
       <c r="N50" s="28"/>
       <c r="P50" s="28"/>
     </row>
-    <row r="51" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="27"/>
       <c r="B51" s="28"/>
       <c r="C51" s="28"/>
@@ -4305,7 +4519,7 @@
       <c r="N51" s="28"/>
       <c r="P51" s="28"/>
     </row>
-    <row r="52" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="27"/>
       <c r="B52" s="28"/>
       <c r="C52" s="28"/>
@@ -4320,7 +4534,7 @@
       <c r="N52" s="28"/>
       <c r="P52" s="28"/>
     </row>
-    <row r="53" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="27"/>
       <c r="B53" s="28"/>
       <c r="C53" s="28"/>
@@ -4335,7 +4549,7 @@
       <c r="N53" s="28"/>
       <c r="P53" s="28"/>
     </row>
-    <row r="54" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="27"/>
       <c r="B54" s="28"/>
       <c r="C54" s="28"/>
@@ -4350,7 +4564,7 @@
       <c r="N54" s="28"/>
       <c r="P54" s="28"/>
     </row>
-    <row r="55" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="27"/>
       <c r="B55" s="28"/>
       <c r="C55" s="28"/>
@@ -4365,7 +4579,7 @@
       <c r="N55" s="28"/>
       <c r="P55" s="28"/>
     </row>
-    <row r="56" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="27"/>
       <c r="B56" s="28"/>
       <c r="C56" s="28"/>
@@ -4380,7 +4594,7 @@
       <c r="N56" s="28"/>
       <c r="P56" s="28"/>
     </row>
-    <row r="57" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="27"/>
       <c r="B57" s="28"/>
       <c r="C57" s="28"/>
@@ -4395,7 +4609,7 @@
       <c r="N57" s="28"/>
       <c r="P57" s="28"/>
     </row>
-    <row r="58" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="27"/>
       <c r="B58" s="28"/>
       <c r="C58" s="28"/>
@@ -4410,7 +4624,7 @@
       <c r="N58" s="28"/>
       <c r="P58" s="28"/>
     </row>
-    <row r="59" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="27"/>
       <c r="B59" s="28"/>
       <c r="C59" s="28"/>
@@ -4425,7 +4639,7 @@
       <c r="N59" s="28"/>
       <c r="P59" s="28"/>
     </row>
-    <row r="60" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="27"/>
       <c r="B60" s="28"/>
       <c r="C60" s="28"/>
@@ -4440,7 +4654,7 @@
       <c r="N60" s="28"/>
       <c r="P60" s="28"/>
     </row>
-    <row r="61" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="27"/>
       <c r="B61" s="28"/>
       <c r="C61" s="28"/>
@@ -4455,7 +4669,7 @@
       <c r="N61" s="28"/>
       <c r="P61" s="28"/>
     </row>
-    <row r="62" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:21" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="27"/>
       <c r="B62" s="28"/>
       <c r="C62" s="28"/>
@@ -4470,7 +4684,7 @@
       <c r="N62" s="28"/>
       <c r="P62" s="28"/>
     </row>
-    <row r="63" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="27"/>
       <c r="B63" s="28"/>
       <c r="C63" s="28"/>
@@ -4485,7 +4699,7 @@
       <c r="N63" s="28"/>
       <c r="P63" s="28"/>
     </row>
-    <row r="64" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="27"/>
       <c r="B64" s="28"/>
       <c r="C64" s="28"/>
@@ -11805,23 +12019,56 @@
       <c r="N551" s="28"/>
       <c r="P551" s="28"/>
     </row>
+    <row r="552" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A552" s="27"/>
+      <c r="B552" s="28"/>
+      <c r="C552" s="28"/>
+      <c r="D552" s="29"/>
+      <c r="F552" s="27"/>
+      <c r="G552" s="27"/>
+      <c r="H552" s="28"/>
+      <c r="I552" s="28"/>
+      <c r="K552" s="28"/>
+      <c r="L552" s="28"/>
+      <c r="M552" s="28"/>
+      <c r="N552" s="28"/>
+      <c r="P552" s="28"/>
+    </row>
+    <row r="553" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A553" s="27"/>
+      <c r="B553" s="28"/>
+      <c r="C553" s="28"/>
+      <c r="D553" s="29"/>
+      <c r="F553" s="27"/>
+      <c r="G553" s="27"/>
+      <c r="H553" s="28"/>
+      <c r="I553" s="28"/>
+      <c r="K553" s="28"/>
+      <c r="L553" s="28"/>
+      <c r="M553" s="28"/>
+      <c r="N553" s="28"/>
+      <c r="P553" s="28"/>
+    </row>
+    <row r="554" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A554" s="27"/>
+      <c r="B554" s="28"/>
+      <c r="C554" s="28"/>
+      <c r="D554" s="29"/>
+      <c r="F554" s="27"/>
+      <c r="G554" s="27"/>
+      <c r="H554" s="28"/>
+      <c r="I554" s="28"/>
+      <c r="K554" s="28"/>
+      <c r="L554" s="28"/>
+      <c r="M554" s="28"/>
+      <c r="N554" s="28"/>
+      <c r="P554" s="28"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:U2">
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="G1:G2"/>
@@ -11830,6 +12077,18 @@
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="K1:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion01/Escaleta_LE_08_01_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion01/Escaleta_LE_08_01_CO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis\Documents\GitHub\Lenguaje\fuentes\contenidos\grado08\guion01\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="300">
   <si>
     <t>Asignatura</t>
   </si>
@@ -829,18 +829,6 @@
     <t>LE_08_01_CO</t>
   </si>
   <si>
-    <t>2 ESO</t>
-  </si>
-  <si>
-    <t>La ortografía</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Las normas de acentuación: diptongos e hiatos    </t>
-  </si>
-  <si>
-    <t>LC_08_04</t>
-  </si>
-  <si>
     <t xml:space="preserve">Diptongos e hiatos                                                         </t>
   </si>
   <si>
@@ -895,9 +883,6 @@
     <t>Actividad para completar un texto relacionado con el anuncio publicitario</t>
   </si>
   <si>
-    <t xml:space="preserve">Las normas de acentuación: diptongos e hiatos  </t>
-  </si>
-  <si>
     <t>Fin de tema</t>
   </si>
   <si>
@@ -905,9 +890,6 @@
   </si>
   <si>
     <t xml:space="preserve">Los diptongos y los hiatos </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interactivo que refuerza las normas de acentuación  en las palabras que contienen diptongos e hiatos </t>
   </si>
   <si>
     <t>Actividad que expone un crucigrama para descubrir palabras que contienen diptongos</t>
@@ -1262,9 +1244,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1295,6 +1274,9 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1581,11 +1563,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U554"/>
+  <dimension ref="A1:U553"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H50" sqref="H50"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1614,94 +1596,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="F1" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="G1" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="45" t="s">
+      <c r="H1" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="45" t="s">
+      <c r="I1" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="45" t="s">
+      <c r="J1" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="45" t="s">
+      <c r="K1" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="45" t="s">
+      <c r="L1" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="45" t="s">
+      <c r="M1" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45" t="s">
+      <c r="N1" s="56"/>
+      <c r="O1" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="45" t="s">
+      <c r="P1" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="45" t="s">
+      <c r="Q1" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="45" t="s">
+      <c r="R1" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="45" t="s">
+      <c r="S1" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="45" t="s">
+      <c r="T1" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="45" t="s">
+      <c r="U1" s="56" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="45"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
+      <c r="A2" s="56"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
       <c r="M2" s="20" t="s">
         <v>86</v>
       </c>
       <c r="N2" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="45"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="45"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -2031,7 +2013,7 @@
       <c r="L8" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="M8" s="46" t="s">
+      <c r="M8" s="45" t="s">
         <v>62</v>
       </c>
       <c r="N8" s="6"/>
@@ -2084,7 +2066,7 @@
         <v>19</v>
       </c>
       <c r="J9" s="41" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="K9" s="6" t="s">
         <v>69</v>
@@ -2096,7 +2078,7 @@
         <v>36</v>
       </c>
       <c r="O9" s="41" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="P9" s="6" t="s">
         <v>19</v>
@@ -2262,7 +2244,7 @@
         <v>187</v>
       </c>
       <c r="G12" s="44" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="H12" s="6">
         <v>10</v>
@@ -2347,7 +2329,7 @@
       </c>
       <c r="N13" s="6"/>
       <c r="O13" s="37" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="P13" s="6" t="s">
         <v>19</v>
@@ -2362,7 +2344,7 @@
         <v>217</v>
       </c>
       <c r="T13" s="6" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="U13" s="6" t="s">
         <v>219</v>
@@ -2526,7 +2508,7 @@
       <c r="L16" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="M16" s="46" t="s">
+      <c r="M16" s="45" t="s">
         <v>62</v>
       </c>
       <c r="N16" s="6"/>
@@ -2637,7 +2619,7 @@
         <v>19</v>
       </c>
       <c r="J18" s="39" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="K18" s="6" t="s">
         <v>69</v>
@@ -2697,7 +2679,7 @@
         <v>20</v>
       </c>
       <c r="J19" s="35" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="K19" s="6" t="s">
         <v>69</v>
@@ -2819,7 +2801,7 @@
         <v>20</v>
       </c>
       <c r="J21" s="35" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="K21" s="6" t="s">
         <v>69</v>
@@ -2915,63 +2897,63 @@
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A23" s="47" t="s">
+      <c r="A23" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="48" t="s">
+      <c r="B23" s="47" t="s">
         <v>255</v>
       </c>
-      <c r="C23" s="48" t="s">
+      <c r="C23" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="D23" s="49" t="s">
+      <c r="D23" s="48" t="s">
         <v>180</v>
       </c>
-      <c r="E23" s="50" t="s">
+      <c r="E23" s="49" t="s">
         <v>190</v>
       </c>
-      <c r="F23" s="51"/>
-      <c r="G23" s="50" t="s">
-        <v>296</v>
-      </c>
-      <c r="H23" s="51">
+      <c r="F23" s="50"/>
+      <c r="G23" s="49" t="s">
+        <v>290</v>
+      </c>
+      <c r="H23" s="50">
         <v>21</v>
       </c>
-      <c r="I23" s="51" t="s">
+      <c r="I23" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="J23" s="52" t="s">
-        <v>297</v>
-      </c>
-      <c r="K23" s="51" t="s">
+      <c r="J23" s="51" t="s">
+        <v>291</v>
+      </c>
+      <c r="K23" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="L23" s="51" t="s">
+      <c r="L23" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="M23" s="51" t="s">
+      <c r="M23" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="N23" s="51"/>
-      <c r="O23" s="50" t="s">
-        <v>299</v>
-      </c>
-      <c r="P23" s="51" t="s">
+      <c r="N23" s="50"/>
+      <c r="O23" s="49" t="s">
+        <v>293</v>
+      </c>
+      <c r="P23" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="Q23" s="51">
+      <c r="Q23" s="50">
         <v>6</v>
       </c>
-      <c r="R23" s="51" t="s">
+      <c r="R23" s="50" t="s">
         <v>216</v>
       </c>
-      <c r="S23" s="51" t="s">
+      <c r="S23" s="50" t="s">
         <v>217</v>
       </c>
-      <c r="T23" s="51" t="s">
+      <c r="T23" s="50" t="s">
         <v>244</v>
       </c>
-      <c r="U23" s="51" t="s">
+      <c r="U23" s="50" t="s">
         <v>219</v>
       </c>
     </row>
@@ -2991,7 +2973,7 @@
       <c r="E24" s="15"/>
       <c r="F24" s="12"/>
       <c r="G24" s="15" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="H24" s="6">
         <v>22</v>
@@ -3000,7 +2982,7 @@
         <v>19</v>
       </c>
       <c r="J24" s="15" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="K24" s="6" t="s">
         <v>70</v>
@@ -3015,20 +2997,20 @@
       <c r="P24" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="Q24" s="53" t="s">
-        <v>263</v>
-      </c>
-      <c r="R24" s="53" t="s">
-        <v>262</v>
-      </c>
-      <c r="S24" s="53" t="s">
-        <v>261</v>
-      </c>
-      <c r="T24" s="53" t="s">
+      <c r="Q24" s="52" t="s">
+        <v>259</v>
+      </c>
+      <c r="R24" s="52" t="s">
+        <v>258</v>
+      </c>
+      <c r="S24" s="52" t="s">
+        <v>257</v>
+      </c>
+      <c r="T24" s="52" t="s">
+        <v>256</v>
+      </c>
+      <c r="U24" s="52" t="s">
         <v>260</v>
-      </c>
-      <c r="U24" s="53" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
@@ -3044,47 +3026,52 @@
       <c r="D25" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="E25" s="15"/>
+      <c r="E25" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="F25" s="12"/>
-      <c r="G25" s="15" t="s">
-        <v>278</v>
+      <c r="G25" s="11" t="s">
+        <v>101</v>
       </c>
       <c r="H25" s="6">
         <v>23</v>
       </c>
       <c r="I25" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J25" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="N25" s="6"/>
+      <c r="O25" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="P25" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J25" s="15" t="s">
-        <v>282</v>
-      </c>
-      <c r="K25" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="L25" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="N25" s="6"/>
-      <c r="O25" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="P25" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q25" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="R25" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="S25" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="T25" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="U25" s="6" t="s">
-        <v>259</v>
+      <c r="Q25" s="25">
+        <v>6</v>
+      </c>
+      <c r="R25" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="S25" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="T25" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="U25" s="25" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
@@ -3105,7 +3092,7 @@
       </c>
       <c r="F26" s="12"/>
       <c r="G26" s="11" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="H26" s="6">
         <v>24</v>
@@ -3114,38 +3101,35 @@
         <v>20</v>
       </c>
       <c r="J26" s="15" t="s">
-        <v>205</v>
+        <v>277</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L26" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="M26" s="6" t="s">
-        <v>83</v>
-      </c>
       <c r="N26" s="6"/>
       <c r="O26" s="33" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P26" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q26" s="25">
-        <v>6</v>
-      </c>
-      <c r="R26" s="25" t="s">
-        <v>216</v>
-      </c>
-      <c r="S26" s="25" t="s">
-        <v>217</v>
-      </c>
-      <c r="T26" s="26" t="s">
-        <v>239</v>
-      </c>
-      <c r="U26" s="25" t="s">
-        <v>219</v>
+        <v>20</v>
+      </c>
+      <c r="Q26" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="R26" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="S26" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="T26" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="U26" s="6" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
@@ -3161,12 +3145,12 @@
       <c r="D27" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="E27" s="11" t="s">
-        <v>194</v>
+      <c r="E27" s="33" t="s">
+        <v>195</v>
       </c>
       <c r="F27" s="12"/>
       <c r="G27" s="11" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="H27" s="6">
         <v>25</v>
@@ -3175,7 +3159,7 @@
         <v>20</v>
       </c>
       <c r="J27" s="15" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
       <c r="K27" s="6" t="s">
         <v>70</v>
@@ -3188,7 +3172,7 @@
         <v>110</v>
       </c>
       <c r="P27" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q27" s="6" t="s">
         <v>103</v>
@@ -3197,10 +3181,10 @@
         <v>99</v>
       </c>
       <c r="S27" s="6" t="s">
-        <v>285</v>
+        <v>107</v>
       </c>
       <c r="T27" s="6" t="s">
-        <v>286</v>
+        <v>104</v>
       </c>
       <c r="U27" s="6" t="s">
         <v>100</v>
@@ -3220,11 +3204,11 @@
         <v>181</v>
       </c>
       <c r="E28" s="33" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F28" s="12"/>
       <c r="G28" s="11" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="H28" s="6">
         <v>26</v>
@@ -3233,7 +3217,7 @@
         <v>20</v>
       </c>
       <c r="J28" s="15" t="s">
-        <v>268</v>
+        <v>206</v>
       </c>
       <c r="K28" s="6" t="s">
         <v>70</v>
@@ -3258,7 +3242,7 @@
         <v>107</v>
       </c>
       <c r="T28" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="U28" s="6" t="s">
         <v>100</v>
@@ -3274,15 +3258,15 @@
       <c r="C29" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="E29" s="33" t="s">
-        <v>196</v>
-      </c>
-      <c r="F29" s="12"/>
-      <c r="G29" s="11" t="s">
-        <v>106</v>
+      <c r="E29" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="F29" s="11"/>
+      <c r="G29" s="15" t="s">
+        <v>152</v>
       </c>
       <c r="H29" s="6">
         <v>27</v>
@@ -3291,7 +3275,7 @@
         <v>20</v>
       </c>
       <c r="J29" s="15" t="s">
-        <v>206</v>
+        <v>265</v>
       </c>
       <c r="K29" s="6" t="s">
         <v>70</v>
@@ -3300,7 +3284,7 @@
         <v>32</v>
       </c>
       <c r="N29" s="6"/>
-      <c r="O29" s="33" t="s">
+      <c r="O29" s="15" t="s">
         <v>110</v>
       </c>
       <c r="P29" s="6" t="s">
@@ -3316,7 +3300,7 @@
         <v>107</v>
       </c>
       <c r="T29" s="6" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="U29" s="6" t="s">
         <v>100</v>
@@ -3340,7 +3324,7 @@
       </c>
       <c r="F30" s="11"/>
       <c r="G30" s="15" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H30" s="6">
         <v>28</v>
@@ -3349,7 +3333,7 @@
         <v>20</v>
       </c>
       <c r="J30" s="15" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="K30" s="6" t="s">
         <v>70</v>
@@ -3362,7 +3346,7 @@
         <v>110</v>
       </c>
       <c r="P30" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q30" s="6" t="s">
         <v>103</v>
@@ -3374,7 +3358,7 @@
         <v>107</v>
       </c>
       <c r="T30" s="6" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="U30" s="6" t="s">
         <v>100</v>
@@ -3398,7 +3382,7 @@
       </c>
       <c r="F31" s="11"/>
       <c r="G31" s="15" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H31" s="6">
         <v>29</v>
@@ -3407,7 +3391,7 @@
         <v>20</v>
       </c>
       <c r="J31" s="15" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="K31" s="6" t="s">
         <v>70</v>
@@ -3429,132 +3413,132 @@
         <v>99</v>
       </c>
       <c r="S31" s="6" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="T31" s="6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="U31" s="6" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="47" t="s">
         <v>255</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C32" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="D32" s="24" t="s">
+      <c r="D32" s="53" t="s">
         <v>181</v>
       </c>
-      <c r="E32" s="11" t="s">
+      <c r="E32" s="46" t="s">
         <v>190</v>
       </c>
-      <c r="F32" s="11"/>
-      <c r="G32" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="H32" s="6">
+      <c r="F32" s="46"/>
+      <c r="G32" s="49" t="s">
+        <v>289</v>
+      </c>
+      <c r="H32" s="50">
         <v>30</v>
       </c>
-      <c r="I32" s="6" t="s">
+      <c r="I32" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="J32" s="15" t="s">
-        <v>271</v>
-      </c>
-      <c r="K32" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="L32" s="6" t="s">
+      <c r="J32" s="49" t="s">
+        <v>292</v>
+      </c>
+      <c r="K32" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="L32" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="N32" s="6"/>
-      <c r="O32" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="P32" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q32" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="R32" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="S32" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="T32" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="U32" s="6" t="s">
-        <v>119</v>
+      <c r="M32" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="N32" s="50"/>
+      <c r="O32" s="49" t="s">
+        <v>294</v>
+      </c>
+      <c r="P32" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q32" s="50">
+        <v>6</v>
+      </c>
+      <c r="R32" s="50" t="s">
+        <v>216</v>
+      </c>
+      <c r="S32" s="50" t="s">
+        <v>217</v>
+      </c>
+      <c r="T32" s="50" t="s">
+        <v>295</v>
+      </c>
+      <c r="U32" s="50" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A33" s="47" t="s">
+      <c r="A33" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="48" t="s">
+      <c r="B33" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="C33" s="48" t="s">
+      <c r="C33" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="D33" s="54" t="s">
-        <v>181</v>
-      </c>
-      <c r="E33" s="47" t="s">
-        <v>190</v>
-      </c>
-      <c r="F33" s="47"/>
-      <c r="G33" s="50" t="s">
-        <v>295</v>
-      </c>
-      <c r="H33" s="51">
+      <c r="D33" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="E33" s="14"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H33" s="6">
         <v>31</v>
       </c>
-      <c r="I33" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="J33" s="50" t="s">
-        <v>298</v>
-      </c>
-      <c r="K33" s="51" t="s">
+      <c r="I33" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J33" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="K33" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="L33" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="M33" s="51" t="s">
-        <v>62</v>
-      </c>
-      <c r="N33" s="51"/>
-      <c r="O33" s="50" t="s">
-        <v>300</v>
-      </c>
-      <c r="P33" s="51" t="s">
+      <c r="L33" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N33" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O33" s="33" t="s">
+        <v>215</v>
+      </c>
+      <c r="P33" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="Q33" s="51">
+      <c r="Q33" s="25">
         <v>6</v>
       </c>
-      <c r="R33" s="51" t="s">
-        <v>216</v>
-      </c>
-      <c r="S33" s="51" t="s">
-        <v>217</v>
-      </c>
-      <c r="T33" s="51" t="s">
-        <v>301</v>
-      </c>
-      <c r="U33" s="51" t="s">
-        <v>219</v>
+      <c r="R33" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="S33" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="T33" s="26" t="s">
+        <v>240</v>
+      </c>
+      <c r="U33" s="25" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
@@ -3570,10 +3554,12 @@
       <c r="D34" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="E34" s="14"/>
+      <c r="E34" s="33" t="s">
+        <v>197</v>
+      </c>
       <c r="F34" s="12"/>
       <c r="G34" s="11" t="s">
-        <v>90</v>
+        <v>175</v>
       </c>
       <c r="H34" s="6">
         <v>32</v>
@@ -3582,7 +3568,7 @@
         <v>19</v>
       </c>
       <c r="J34" s="33" t="s">
-        <v>122</v>
+        <v>268</v>
       </c>
       <c r="K34" s="6" t="s">
         <v>69</v>
@@ -3591,10 +3577,10 @@
         <v>31</v>
       </c>
       <c r="N34" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O34" s="33" t="s">
-        <v>215</v>
+        <v>123</v>
       </c>
       <c r="P34" s="6" t="s">
         <v>19</v>
@@ -3609,7 +3595,7 @@
         <v>226</v>
       </c>
       <c r="T34" s="26" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="U34" s="25" t="s">
         <v>228</v>
@@ -3629,32 +3615,33 @@
         <v>182</v>
       </c>
       <c r="E35" s="33" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F35" s="12"/>
       <c r="G35" s="11" t="s">
-        <v>175</v>
+        <v>124</v>
       </c>
       <c r="H35" s="6">
         <v>33</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J35" s="33" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="K35" s="6" t="s">
         <v>69</v>
       </c>
       <c r="L35" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="N35" s="6" t="s">
-        <v>35</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="M35" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="N35" s="6"/>
       <c r="O35" s="33" t="s">
-        <v>123</v>
+        <v>214</v>
       </c>
       <c r="P35" s="6" t="s">
         <v>19</v>
@@ -3663,16 +3650,16 @@
         <v>6</v>
       </c>
       <c r="R35" s="25" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="S35" s="25" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="T35" s="26" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="U35" s="25" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.25">
@@ -3688,12 +3675,12 @@
       <c r="D36" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="E36" s="33" t="s">
-        <v>198</v>
-      </c>
-      <c r="F36" s="12"/>
+      <c r="E36" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="F36" s="13"/>
       <c r="G36" s="11" t="s">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="H36" s="6">
         <v>34</v>
@@ -3701,21 +3688,20 @@
       <c r="I36" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J36" s="33" t="s">
-        <v>273</v>
+      <c r="J36" s="36" t="s">
+        <v>270</v>
       </c>
       <c r="K36" s="6" t="s">
         <v>69</v>
       </c>
       <c r="L36" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="M36" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="N36" s="6"/>
+        <v>31</v>
+      </c>
+      <c r="N36" s="6" t="s">
+        <v>45</v>
+      </c>
       <c r="O36" s="33" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="P36" s="6" t="s">
         <v>19</v>
@@ -3724,16 +3710,16 @@
         <v>6</v>
       </c>
       <c r="R36" s="25" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="S36" s="25" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="T36" s="26" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="U36" s="25" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
@@ -3754,7 +3740,7 @@
       </c>
       <c r="F37" s="13"/>
       <c r="G37" s="11" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="H37" s="6">
         <v>35</v>
@@ -3762,20 +3748,21 @@
       <c r="I37" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J37" s="36" t="s">
-        <v>274</v>
+      <c r="J37" s="33" t="s">
+        <v>149</v>
       </c>
       <c r="K37" s="6" t="s">
         <v>69</v>
       </c>
       <c r="L37" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="N37" s="6" t="s">
-        <v>45</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="M37" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="N37" s="6"/>
       <c r="O37" s="33" t="s">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="P37" s="6" t="s">
         <v>19</v>
@@ -3784,16 +3771,16 @@
         <v>6</v>
       </c>
       <c r="R37" s="25" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="S37" s="25" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="T37" s="26" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="U37" s="25" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
@@ -3806,37 +3793,36 @@
       <c r="C38" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="D38" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="F38" s="13"/>
-      <c r="G38" s="11" t="s">
-        <v>128</v>
+      <c r="D38" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="E38" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="F38" s="12"/>
+      <c r="G38" s="19" t="s">
+        <v>126</v>
       </c>
       <c r="H38" s="6">
         <v>36</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J38" s="33" t="s">
-        <v>149</v>
+        <v>19</v>
+      </c>
+      <c r="J38" s="11" t="s">
+        <v>127</v>
       </c>
       <c r="K38" s="6" t="s">
         <v>69</v>
       </c>
       <c r="L38" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="M38" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="N38" s="6"/>
+        <v>31</v>
+      </c>
+      <c r="N38" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="O38" s="33" t="s">
-        <v>177</v>
+        <v>213</v>
       </c>
       <c r="P38" s="6" t="s">
         <v>19</v>
@@ -3845,16 +3831,16 @@
         <v>6</v>
       </c>
       <c r="R38" s="25" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="S38" s="25" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="T38" s="26" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="U38" s="25" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
@@ -3867,15 +3853,15 @@
       <c r="C39" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="D39" s="17" t="s">
+      <c r="D39" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="E39" s="18" t="s">
-        <v>199</v>
+      <c r="E39" s="15" t="s">
+        <v>200</v>
       </c>
       <c r="F39" s="12"/>
-      <c r="G39" s="19" t="s">
-        <v>126</v>
+      <c r="G39" s="11" t="s">
+        <v>176</v>
       </c>
       <c r="H39" s="6">
         <v>37</v>
@@ -3883,8 +3869,8 @@
       <c r="I39" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J39" s="11" t="s">
-        <v>127</v>
+      <c r="J39" s="33" t="s">
+        <v>271</v>
       </c>
       <c r="K39" s="6" t="s">
         <v>69</v>
@@ -3893,10 +3879,10 @@
         <v>31</v>
       </c>
       <c r="N39" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="O39" s="33" t="s">
-        <v>213</v>
+        <v>46</v>
+      </c>
+      <c r="O39" s="36" t="s">
+        <v>210</v>
       </c>
       <c r="P39" s="6" t="s">
         <v>19</v>
@@ -3911,7 +3897,7 @@
         <v>226</v>
       </c>
       <c r="T39" s="26" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="U39" s="25" t="s">
         <v>228</v>
@@ -3931,32 +3917,33 @@
         <v>183</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="F40" s="12"/>
       <c r="G40" s="11" t="s">
-        <v>176</v>
+        <v>128</v>
       </c>
       <c r="H40" s="6">
         <v>38</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J40" s="33" t="s">
-        <v>275</v>
+        <v>129</v>
       </c>
       <c r="K40" s="6" t="s">
         <v>69</v>
       </c>
       <c r="L40" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="N40" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="O40" s="36" t="s">
-        <v>210</v>
+        <v>32</v>
+      </c>
+      <c r="M40" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="N40" s="6"/>
+      <c r="O40" s="33" t="s">
+        <v>208</v>
       </c>
       <c r="P40" s="6" t="s">
         <v>19</v>
@@ -3965,138 +3952,136 @@
         <v>6</v>
       </c>
       <c r="R40" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="S40" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="T40" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="U40" s="25" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A41" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="B41" s="47" t="s">
+        <v>255</v>
+      </c>
+      <c r="C41" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="D41" s="48" t="s">
+        <v>183</v>
+      </c>
+      <c r="E41" s="49" t="s">
+        <v>190</v>
+      </c>
+      <c r="F41" s="47"/>
+      <c r="G41" s="46" t="s">
+        <v>296</v>
+      </c>
+      <c r="H41" s="50">
+        <v>39</v>
+      </c>
+      <c r="I41" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="J41" s="54" t="s">
+        <v>297</v>
+      </c>
+      <c r="K41" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="L41" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="M41" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="N41" s="50"/>
+      <c r="O41" s="54" t="s">
+        <v>298</v>
+      </c>
+      <c r="P41" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q41" s="50">
+        <v>6</v>
+      </c>
+      <c r="R41" s="50" t="s">
+        <v>216</v>
+      </c>
+      <c r="S41" s="50" t="s">
+        <v>217</v>
+      </c>
+      <c r="T41" s="50" t="s">
+        <v>299</v>
+      </c>
+      <c r="U41" s="50" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A42" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="E42" s="23"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="H42" s="6">
+        <v>40</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J42" s="33" t="s">
+        <v>272</v>
+      </c>
+      <c r="K42" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="L42" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="M42" s="16"/>
+      <c r="N42" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="O42" s="33" t="s">
+        <v>211</v>
+      </c>
+      <c r="P42" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q42" s="25">
+        <v>6</v>
+      </c>
+      <c r="R42" s="25" t="s">
         <v>225</v>
       </c>
-      <c r="S40" s="25" t="s">
+      <c r="S42" s="25" t="s">
         <v>226</v>
       </c>
-      <c r="T40" s="26" t="s">
-        <v>246</v>
-      </c>
-      <c r="U40" s="25" t="s">
+      <c r="T42" s="26" t="s">
+        <v>248</v>
+      </c>
+      <c r="U42" s="25" t="s">
         <v>228</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A41" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="B41" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="E41" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="F41" s="12"/>
-      <c r="G41" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="H41" s="6">
-        <v>39</v>
-      </c>
-      <c r="I41" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J41" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="K41" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="L41" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="M41" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="N41" s="6"/>
-      <c r="O41" s="33" t="s">
-        <v>208</v>
-      </c>
-      <c r="P41" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q41" s="25">
-        <v>6</v>
-      </c>
-      <c r="R41" s="25" t="s">
-        <v>216</v>
-      </c>
-      <c r="S41" s="25" t="s">
-        <v>217</v>
-      </c>
-      <c r="T41" s="26" t="s">
-        <v>247</v>
-      </c>
-      <c r="U41" s="25" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A42" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="B42" s="48" t="s">
-        <v>255</v>
-      </c>
-      <c r="C42" s="48" t="s">
-        <v>90</v>
-      </c>
-      <c r="D42" s="49" t="s">
-        <v>183</v>
-      </c>
-      <c r="E42" s="50" t="s">
-        <v>190</v>
-      </c>
-      <c r="F42" s="48"/>
-      <c r="G42" s="47" t="s">
-        <v>302</v>
-      </c>
-      <c r="H42" s="51">
-        <v>40</v>
-      </c>
-      <c r="I42" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="J42" s="55" t="s">
-        <v>303</v>
-      </c>
-      <c r="K42" s="51" t="s">
-        <v>69</v>
-      </c>
-      <c r="L42" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="M42" s="51" t="s">
-        <v>62</v>
-      </c>
-      <c r="N42" s="51"/>
-      <c r="O42" s="55" t="s">
-        <v>304</v>
-      </c>
-      <c r="P42" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q42" s="51">
-        <v>6</v>
-      </c>
-      <c r="R42" s="51" t="s">
-        <v>216</v>
-      </c>
-      <c r="S42" s="51" t="s">
-        <v>217</v>
-      </c>
-      <c r="T42" s="51" t="s">
-        <v>305</v>
-      </c>
-      <c r="U42" s="51" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
@@ -4115,16 +4100,16 @@
       <c r="E43" s="23"/>
       <c r="F43" s="24"/>
       <c r="G43" s="11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H43" s="6">
         <v>41</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J43" s="33" t="s">
-        <v>276</v>
+        <v>134</v>
       </c>
       <c r="K43" s="16" t="s">
         <v>69</v>
@@ -4132,12 +4117,12 @@
       <c r="L43" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="M43" s="16"/>
-      <c r="N43" s="6" t="s">
-        <v>45</v>
-      </c>
+      <c r="M43" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="N43" s="20"/>
       <c r="O43" s="33" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P43" s="16" t="s">
         <v>19</v>
@@ -4146,16 +4131,16 @@
         <v>6</v>
       </c>
       <c r="R43" s="25" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="S43" s="25" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="T43" s="26" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="U43" s="25" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
@@ -4173,32 +4158,32 @@
       </c>
       <c r="E44" s="23"/>
       <c r="F44" s="24"/>
-      <c r="G44" s="11" t="s">
-        <v>133</v>
+      <c r="G44" s="39" t="s">
+        <v>136</v>
       </c>
       <c r="H44" s="6">
         <v>42</v>
       </c>
-      <c r="I44" s="6" t="s">
+      <c r="I44" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="J44" s="33" t="s">
-        <v>134</v>
-      </c>
-      <c r="K44" s="16" t="s">
+      <c r="J44" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="K44" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="L44" s="16" t="s">
+      <c r="L44" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="M44" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="N44" s="20"/>
-      <c r="O44" s="33" t="s">
-        <v>212</v>
-      </c>
-      <c r="P44" s="16" t="s">
+      <c r="M44" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="N44" s="21"/>
+      <c r="O44" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="P44" s="22" t="s">
         <v>19</v>
       </c>
       <c r="Q44" s="25">
@@ -4211,7 +4196,7 @@
         <v>217</v>
       </c>
       <c r="T44" s="26" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="U44" s="25" t="s">
         <v>219</v>
@@ -4233,7 +4218,7 @@
       <c r="E45" s="23"/>
       <c r="F45" s="24"/>
       <c r="G45" s="39" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H45" s="6">
         <v>43</v>
@@ -4241,21 +4226,21 @@
       <c r="I45" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="J45" s="39" t="s">
-        <v>135</v>
-      </c>
-      <c r="K45" s="22" t="s">
+      <c r="J45" s="35" t="s">
+        <v>273</v>
+      </c>
+      <c r="K45" s="21" t="s">
         <v>69</v>
       </c>
       <c r="L45" s="21" t="s">
         <v>32</v>
       </c>
       <c r="M45" s="21" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N45" s="21"/>
       <c r="O45" s="35" t="s">
-        <v>125</v>
+        <v>209</v>
       </c>
       <c r="P45" s="22" t="s">
         <v>19</v>
@@ -4270,7 +4255,7 @@
         <v>217</v>
       </c>
       <c r="T45" s="26" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="U45" s="25" t="s">
         <v>219</v>
@@ -4287,53 +4272,34 @@
         <v>90</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="E46" s="23"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="39" t="s">
-        <v>137</v>
+        <v>274</v>
+      </c>
+      <c r="E46" s="33"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="H46" s="6">
         <v>44</v>
       </c>
-      <c r="I46" s="21" t="s">
+      <c r="I46" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J46" s="35" t="s">
-        <v>277</v>
-      </c>
-      <c r="K46" s="21" t="s">
+      <c r="J46" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="K46" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="L46" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="M46" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="N46" s="21"/>
-      <c r="O46" s="35" t="s">
-        <v>209</v>
-      </c>
-      <c r="P46" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q46" s="25">
-        <v>6</v>
-      </c>
-      <c r="R46" s="25" t="s">
-        <v>216</v>
-      </c>
-      <c r="S46" s="25" t="s">
-        <v>217</v>
-      </c>
-      <c r="T46" s="26" t="s">
-        <v>251</v>
-      </c>
-      <c r="U46" s="25" t="s">
-        <v>219</v>
-      </c>
+      <c r="L46" s="6"/>
+      <c r="N46" s="6"/>
+      <c r="O46" s="33"/>
+      <c r="P46" s="6"/>
+      <c r="Q46" s="6"/>
+      <c r="R46" s="6"/>
+      <c r="S46" s="6"/>
+      <c r="T46" s="6"/>
+      <c r="U46" s="6"/>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
@@ -4346,12 +4312,12 @@
         <v>90</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="E47" s="33"/>
       <c r="F47" s="12"/>
-      <c r="G47" s="11" t="s">
-        <v>131</v>
+      <c r="G47" s="15" t="s">
+        <v>91</v>
       </c>
       <c r="H47" s="6">
         <v>45</v>
@@ -4360,136 +4326,111 @@
         <v>20</v>
       </c>
       <c r="J47" s="33" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
       <c r="K47" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="L47" s="6"/>
+      <c r="L47" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="M47" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="N47" s="6"/>
       <c r="O47" s="33"/>
-      <c r="P47" s="6"/>
-      <c r="Q47" s="6"/>
-      <c r="R47" s="6"/>
-      <c r="S47" s="6"/>
-      <c r="T47" s="6"/>
-      <c r="U47" s="6"/>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A48" s="11" t="s">
+      <c r="P47" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q47" s="25">
+        <v>6</v>
+      </c>
+      <c r="R47" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="S47" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="T47" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="U47" s="43" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="B48" s="12" t="s">
+      <c r="B48" s="48" t="s">
         <v>255</v>
       </c>
-      <c r="C48" s="12" t="s">
+      <c r="C48" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="D48" s="13" t="s">
-        <v>279</v>
-      </c>
-      <c r="E48" s="33"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="H48" s="6">
+      <c r="D48" s="48" t="s">
+        <v>283</v>
+      </c>
+      <c r="E48" s="48"/>
+      <c r="F48" s="48"/>
+      <c r="G48" s="48"/>
+      <c r="H48" s="47">
         <v>46</v>
       </c>
-      <c r="I48" s="6" t="s">
+      <c r="I48" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="J48" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="K48" s="6" t="s">
+      <c r="J48" s="48" t="s">
+        <v>284</v>
+      </c>
+      <c r="K48" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="L48" s="6" t="s">
+      <c r="L48" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="M48" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="N48" s="6"/>
-      <c r="O48" s="33"/>
-      <c r="P48" s="6" t="s">
+      <c r="M48" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="N48" s="48"/>
+      <c r="O48" s="48" t="s">
+        <v>286</v>
+      </c>
+      <c r="P48" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="Q48" s="25">
+      <c r="Q48" s="47">
         <v>6</v>
       </c>
-      <c r="R48" s="25" t="s">
+      <c r="R48" s="47" t="s">
         <v>216</v>
       </c>
-      <c r="S48" s="25" t="s">
+      <c r="S48" s="47" t="s">
         <v>217</v>
       </c>
-      <c r="T48" s="26" t="s">
-        <v>252</v>
-      </c>
-      <c r="U48" s="43" t="s">
+      <c r="T48" s="47" t="s">
+        <v>285</v>
+      </c>
+      <c r="U48" s="55" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="49" spans="1:21" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="B49" s="49" t="s">
-        <v>255</v>
-      </c>
-      <c r="C49" s="48" t="s">
-        <v>90</v>
-      </c>
-      <c r="D49" s="49" t="s">
-        <v>289</v>
-      </c>
-      <c r="E49" s="49"/>
-      <c r="F49" s="49"/>
-      <c r="G49" s="49"/>
-      <c r="H49" s="48">
-        <v>47</v>
-      </c>
-      <c r="I49" s="48" t="s">
-        <v>20</v>
-      </c>
-      <c r="J49" s="49" t="s">
-        <v>290</v>
-      </c>
-      <c r="K49" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="L49" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="M49" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="N49" s="49"/>
-      <c r="O49" s="49" t="s">
-        <v>292</v>
-      </c>
-      <c r="P49" s="48" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q49" s="48">
-        <v>6</v>
-      </c>
-      <c r="R49" s="48" t="s">
-        <v>216</v>
-      </c>
-      <c r="S49" s="48" t="s">
-        <v>217</v>
-      </c>
-      <c r="T49" s="48" t="s">
-        <v>291</v>
-      </c>
-      <c r="U49" s="56" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="50" spans="1:21" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="27"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="29"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="28"/>
+      <c r="I49" s="28"/>
+      <c r="K49" s="28"/>
+      <c r="L49" s="28"/>
+      <c r="M49" s="28"/>
+      <c r="N49" s="28"/>
+      <c r="P49" s="28"/>
+    </row>
+    <row r="50" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="27"/>
       <c r="B50" s="28"/>
       <c r="C50" s="28"/>
@@ -4504,7 +4445,7 @@
       <c r="N50" s="28"/>
       <c r="P50" s="28"/>
     </row>
-    <row r="51" spans="1:21" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="27"/>
       <c r="B51" s="28"/>
       <c r="C51" s="28"/>
@@ -4519,7 +4460,7 @@
       <c r="N51" s="28"/>
       <c r="P51" s="28"/>
     </row>
-    <row r="52" spans="1:21" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="27"/>
       <c r="B52" s="28"/>
       <c r="C52" s="28"/>
@@ -4534,7 +4475,7 @@
       <c r="N52" s="28"/>
       <c r="P52" s="28"/>
     </row>
-    <row r="53" spans="1:21" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="27"/>
       <c r="B53" s="28"/>
       <c r="C53" s="28"/>
@@ -4549,7 +4490,7 @@
       <c r="N53" s="28"/>
       <c r="P53" s="28"/>
     </row>
-    <row r="54" spans="1:21" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="27"/>
       <c r="B54" s="28"/>
       <c r="C54" s="28"/>
@@ -4564,7 +4505,7 @@
       <c r="N54" s="28"/>
       <c r="P54" s="28"/>
     </row>
-    <row r="55" spans="1:21" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="27"/>
       <c r="B55" s="28"/>
       <c r="C55" s="28"/>
@@ -4579,7 +4520,7 @@
       <c r="N55" s="28"/>
       <c r="P55" s="28"/>
     </row>
-    <row r="56" spans="1:21" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="27"/>
       <c r="B56" s="28"/>
       <c r="C56" s="28"/>
@@ -4594,7 +4535,7 @@
       <c r="N56" s="28"/>
       <c r="P56" s="28"/>
     </row>
-    <row r="57" spans="1:21" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="27"/>
       <c r="B57" s="28"/>
       <c r="C57" s="28"/>
@@ -4609,7 +4550,7 @@
       <c r="N57" s="28"/>
       <c r="P57" s="28"/>
     </row>
-    <row r="58" spans="1:21" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="27"/>
       <c r="B58" s="28"/>
       <c r="C58" s="28"/>
@@ -4624,7 +4565,7 @@
       <c r="N58" s="28"/>
       <c r="P58" s="28"/>
     </row>
-    <row r="59" spans="1:21" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="27"/>
       <c r="B59" s="28"/>
       <c r="C59" s="28"/>
@@ -4639,7 +4580,7 @@
       <c r="N59" s="28"/>
       <c r="P59" s="28"/>
     </row>
-    <row r="60" spans="1:21" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="27"/>
       <c r="B60" s="28"/>
       <c r="C60" s="28"/>
@@ -4654,7 +4595,7 @@
       <c r="N60" s="28"/>
       <c r="P60" s="28"/>
     </row>
-    <row r="61" spans="1:21" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="27"/>
       <c r="B61" s="28"/>
       <c r="C61" s="28"/>
@@ -4669,7 +4610,7 @@
       <c r="N61" s="28"/>
       <c r="P61" s="28"/>
     </row>
-    <row r="62" spans="1:21" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="27"/>
       <c r="B62" s="28"/>
       <c r="C62" s="28"/>
@@ -4684,7 +4625,7 @@
       <c r="N62" s="28"/>
       <c r="P62" s="28"/>
     </row>
-    <row r="63" spans="1:21" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="27"/>
       <c r="B63" s="28"/>
       <c r="C63" s="28"/>
@@ -4699,7 +4640,7 @@
       <c r="N63" s="28"/>
       <c r="P63" s="28"/>
     </row>
-    <row r="64" spans="1:21" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="27"/>
       <c r="B64" s="28"/>
       <c r="C64" s="28"/>
@@ -12049,26 +11990,23 @@
       <c r="N553" s="28"/>
       <c r="P553" s="28"/>
     </row>
-    <row r="554" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A554" s="27"/>
-      <c r="B554" s="28"/>
-      <c r="C554" s="28"/>
-      <c r="D554" s="29"/>
-      <c r="F554" s="27"/>
-      <c r="G554" s="27"/>
-      <c r="H554" s="28"/>
-      <c r="I554" s="28"/>
-      <c r="K554" s="28"/>
-      <c r="L554" s="28"/>
-      <c r="M554" s="28"/>
-      <c r="N554" s="28"/>
-      <c r="P554" s="28"/>
-    </row>
   </sheetData>
   <autoFilter ref="A1:U2">
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="G1:G2"/>
@@ -12077,18 +12015,6 @@
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="K1:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion01/Escaleta_LE_08_01_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion01/Escaleta_LE_08_01_CO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis\Documents\GitHub\Lenguaje\fuentes\contenidos\grado08\guion01\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -943,9 +943,6 @@
     <t xml:space="preserve">Banco de actividades </t>
   </si>
   <si>
-    <t xml:space="preserve">Actividades para repasar los contenidos del tema la literatura de la Conquista y la Colonia </t>
-  </si>
-  <si>
     <t>Recurso M101AP-01</t>
   </si>
   <si>
@@ -989,6 +986,9 @@
   </si>
   <si>
     <t>Recurso M101A-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actividades para repasar los contenidos del tema La literatura de la época Precolombina </t>
   </si>
 </sst>
 </file>
@@ -1565,9 +1565,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U553"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I49" sqref="I49"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O48" sqref="O48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2066,7 +2066,7 @@
         <v>19</v>
       </c>
       <c r="J9" s="41" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="K9" s="6" t="s">
         <v>69</v>
@@ -2244,7 +2244,7 @@
         <v>187</v>
       </c>
       <c r="G12" s="44" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H12" s="6">
         <v>10</v>
@@ -2914,7 +2914,7 @@
       </c>
       <c r="F23" s="50"/>
       <c r="G23" s="49" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H23" s="50">
         <v>21</v>
@@ -2923,7 +2923,7 @@
         <v>20</v>
       </c>
       <c r="J23" s="51" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K23" s="50" t="s">
         <v>69</v>
@@ -2936,7 +2936,7 @@
       </c>
       <c r="N23" s="50"/>
       <c r="O23" s="49" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="P23" s="50" t="s">
         <v>19</v>
@@ -3440,7 +3440,7 @@
       </c>
       <c r="F32" s="46"/>
       <c r="G32" s="49" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H32" s="50">
         <v>30</v>
@@ -3449,7 +3449,7 @@
         <v>20</v>
       </c>
       <c r="J32" s="49" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K32" s="50" t="s">
         <v>69</v>
@@ -3462,7 +3462,7 @@
       </c>
       <c r="N32" s="50"/>
       <c r="O32" s="49" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="P32" s="50" t="s">
         <v>19</v>
@@ -3477,7 +3477,7 @@
         <v>217</v>
       </c>
       <c r="T32" s="50" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="U32" s="50" t="s">
         <v>219</v>
@@ -3982,7 +3982,7 @@
       </c>
       <c r="F41" s="47"/>
       <c r="G41" s="46" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H41" s="50">
         <v>39</v>
@@ -3991,7 +3991,7 @@
         <v>20</v>
       </c>
       <c r="J41" s="54" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K41" s="50" t="s">
         <v>69</v>
@@ -4004,7 +4004,7 @@
       </c>
       <c r="N41" s="50"/>
       <c r="O41" s="54" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="P41" s="50" t="s">
         <v>19</v>
@@ -4019,7 +4019,7 @@
         <v>217</v>
       </c>
       <c r="T41" s="50" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="U41" s="50" t="s">
         <v>219</v>
@@ -4381,7 +4381,7 @@
         <v>20</v>
       </c>
       <c r="J48" s="48" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="K48" s="47" t="s">
         <v>69</v>
@@ -4394,7 +4394,7 @@
       </c>
       <c r="N48" s="48"/>
       <c r="O48" s="48" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="P48" s="47" t="s">
         <v>20</v>
@@ -4409,7 +4409,7 @@
         <v>217</v>
       </c>
       <c r="T48" s="47" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="U48" s="55" t="s">
         <v>219</v>
@@ -11995,18 +11995,6 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="G1:G2"/>
@@ -12015,6 +12003,18 @@
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="K1:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion01/Escaleta_LE_08_01_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion01/Escaleta_LE_08_01_CO.xlsx
@@ -426,9 +426,6 @@
     <t>Mapa conceptual</t>
   </si>
   <si>
-    <t xml:space="preserve">Literatura: comprende poemas de la época Precolombina </t>
-  </si>
-  <si>
     <t>Gramática: analiza las oraciones reflexivas y reciprocas</t>
   </si>
   <si>
@@ -875,9 +872,6 @@
   </si>
   <si>
     <t>Interactivo para diseñar un anuncio publicitario</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actividad para comprender poemas de la época Precolombina </t>
   </si>
   <si>
     <t>Actividad para completar un texto relacionado con el anuncio publicitario</t>
@@ -989,6 +983,12 @@
   </si>
   <si>
     <t xml:space="preserve">Actividades para repasar los contenidos del tema La literatura de la época Precolombina </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Literatura: comprende fragmentos literarios de la época Precolombina </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actividad para interpretar y analizar fragmentos literarios de la época Precolombina </t>
   </si>
 </sst>
 </file>
@@ -1565,9 +1565,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U553"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O48" sqref="O48"/>
+      <selection pane="bottomLeft" activeCell="J50" sqref="J50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1690,18 +1690,18 @@
         <v>68</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E3" s="14"/>
       <c r="F3" s="12"/>
       <c r="G3" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H3" s="6">
         <v>1</v>
@@ -1710,7 +1710,7 @@
         <v>20</v>
       </c>
       <c r="J3" s="33" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K3" s="6" t="s">
         <v>69</v>
@@ -1723,7 +1723,7 @@
       </c>
       <c r="N3" s="6"/>
       <c r="O3" s="33" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P3" s="6" t="s">
         <v>19</v>
@@ -1732,16 +1732,16 @@
         <v>6</v>
       </c>
       <c r="R3" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="S3" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="S3" s="6" t="s">
+      <c r="T3" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="T3" s="6" t="s">
+      <c r="U3" s="6" t="s">
         <v>218</v>
-      </c>
-      <c r="U3" s="6" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1749,18 +1749,18 @@
         <v>68</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="12"/>
       <c r="G4" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H4" s="6">
         <v>2</v>
@@ -1769,7 +1769,7 @@
         <v>20</v>
       </c>
       <c r="J4" s="33" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K4" s="6" t="s">
         <v>69</v>
@@ -1782,7 +1782,7 @@
       </c>
       <c r="N4" s="6"/>
       <c r="O4" s="33" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P4" s="6" t="s">
         <v>19</v>
@@ -1791,16 +1791,16 @@
         <v>6</v>
       </c>
       <c r="R4" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="S4" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="S4" s="6" t="s">
-        <v>217</v>
-      </c>
       <c r="T4" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="U4" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
@@ -1808,18 +1808,18 @@
         <v>68</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="12"/>
       <c r="G5" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H5" s="6">
         <v>3</v>
@@ -1828,7 +1828,7 @@
         <v>20</v>
       </c>
       <c r="J5" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K5" s="6" t="s">
         <v>69</v>
@@ -1841,7 +1841,7 @@
       </c>
       <c r="N5" s="6"/>
       <c r="O5" s="33" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P5" s="6" t="s">
         <v>19</v>
@@ -1850,16 +1850,16 @@
         <v>6</v>
       </c>
       <c r="R5" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="S5" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="S5" s="6" t="s">
-        <v>217</v>
-      </c>
       <c r="T5" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="U5" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
@@ -1867,18 +1867,18 @@
         <v>68</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="12"/>
       <c r="G6" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H6" s="6">
         <v>4</v>
@@ -1887,7 +1887,7 @@
         <v>20</v>
       </c>
       <c r="J6" s="33" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K6" s="6" t="s">
         <v>69</v>
@@ -1900,7 +1900,7 @@
       </c>
       <c r="N6" s="6"/>
       <c r="O6" s="33" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P6" s="6" t="s">
         <v>19</v>
@@ -1909,16 +1909,16 @@
         <v>6</v>
       </c>
       <c r="R6" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="S6" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="S6" s="6" t="s">
-        <v>217</v>
-      </c>
       <c r="T6" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="U6" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
@@ -1926,18 +1926,18 @@
         <v>68</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="12"/>
       <c r="G7" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H7" s="6">
         <v>5</v>
@@ -1946,7 +1946,7 @@
         <v>20</v>
       </c>
       <c r="J7" s="33" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K7" s="6" t="s">
         <v>69</v>
@@ -1959,7 +1959,7 @@
       </c>
       <c r="N7" s="6"/>
       <c r="O7" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="P7" s="6" t="s">
         <v>19</v>
@@ -1968,16 +1968,16 @@
         <v>6</v>
       </c>
       <c r="R7" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="S7" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="S7" s="6" t="s">
-        <v>217</v>
-      </c>
       <c r="T7" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="U7" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
@@ -1985,18 +1985,18 @@
         <v>68</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="12"/>
       <c r="G8" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H8" s="6">
         <v>6</v>
@@ -2005,7 +2005,7 @@
         <v>20</v>
       </c>
       <c r="J8" s="33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K8" s="6" t="s">
         <v>69</v>
@@ -2018,7 +2018,7 @@
       </c>
       <c r="N8" s="6"/>
       <c r="O8" s="33" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P8" s="6" t="s">
         <v>19</v>
@@ -2027,16 +2027,16 @@
         <v>6</v>
       </c>
       <c r="R8" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="S8" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="S8" s="6" t="s">
-        <v>217</v>
-      </c>
       <c r="T8" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="U8" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2044,16 +2044,16 @@
         <v>68</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="11" t="s">
@@ -2066,7 +2066,7 @@
         <v>19</v>
       </c>
       <c r="J9" s="41" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K9" s="6" t="s">
         <v>69</v>
@@ -2078,7 +2078,7 @@
         <v>36</v>
       </c>
       <c r="O9" s="41" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="P9" s="6" t="s">
         <v>19</v>
@@ -2087,16 +2087,16 @@
         <v>6</v>
       </c>
       <c r="R9" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="S9" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="S9" s="6" t="s">
+      <c r="T9" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="T9" s="6" t="s">
+      <c r="U9" s="6" t="s">
         <v>227</v>
-      </c>
-      <c r="U9" s="6" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="60" x14ac:dyDescent="0.25">
@@ -2104,22 +2104,22 @@
         <v>68</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E10" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="F10" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="F10" s="11" t="s">
-        <v>186</v>
-      </c>
       <c r="G10" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H10" s="6">
         <v>8</v>
@@ -2141,7 +2141,7 @@
       </c>
       <c r="N10" s="6"/>
       <c r="O10" s="42" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="P10" s="6" t="s">
         <v>20</v>
@@ -2150,16 +2150,16 @@
         <v>6</v>
       </c>
       <c r="R10" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="S10" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="S10" s="6" t="s">
-        <v>217</v>
-      </c>
       <c r="T10" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="U10" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="60" x14ac:dyDescent="0.25">
@@ -2167,19 +2167,19 @@
         <v>68</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E11" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="F11" s="11" t="s">
         <v>185</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>186</v>
       </c>
       <c r="G11" s="11" t="s">
         <v>113</v>
@@ -2203,7 +2203,7 @@
         <v>40</v>
       </c>
       <c r="O11" s="42" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="P11" s="6" t="s">
         <v>19</v>
@@ -2212,16 +2212,16 @@
         <v>6</v>
       </c>
       <c r="R11" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="S11" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="S11" s="6" t="s">
-        <v>226</v>
-      </c>
       <c r="T11" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="U11" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="60" x14ac:dyDescent="0.25">
@@ -2229,22 +2229,22 @@
         <v>68</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E12" s="35" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G12" s="44" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="H12" s="6">
         <v>10</v>
@@ -2266,7 +2266,7 @@
       </c>
       <c r="N12" s="6"/>
       <c r="O12" s="42" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P12" s="6" t="s">
         <v>19</v>
@@ -2275,16 +2275,16 @@
         <v>6</v>
       </c>
       <c r="R12" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="S12" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="S12" s="6" t="s">
-        <v>217</v>
-      </c>
       <c r="T12" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="U12" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
@@ -2292,19 +2292,19 @@
         <v>68</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E13" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="F13" s="11" t="s">
         <v>188</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>189</v>
       </c>
       <c r="G13" s="11" t="s">
         <v>93</v>
@@ -2329,7 +2329,7 @@
       </c>
       <c r="N13" s="6"/>
       <c r="O13" s="37" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="P13" s="6" t="s">
         <v>19</v>
@@ -2338,16 +2338,16 @@
         <v>6</v>
       </c>
       <c r="R13" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="S13" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="S13" s="6" t="s">
-        <v>217</v>
-      </c>
       <c r="T13" s="6" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="U13" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
@@ -2355,22 +2355,22 @@
         <v>68</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E14" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="F14" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="F14" s="11" t="s">
-        <v>189</v>
-      </c>
       <c r="G14" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H14" s="6">
         <v>12</v>
@@ -2391,7 +2391,7 @@
         <v>41</v>
       </c>
       <c r="O14" s="37" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P14" s="6" t="s">
         <v>20</v>
@@ -2400,16 +2400,16 @@
         <v>6</v>
       </c>
       <c r="R14" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="S14" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="S14" s="6" t="s">
-        <v>226</v>
-      </c>
       <c r="T14" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="U14" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
@@ -2417,20 +2417,20 @@
         <v>68</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F15" s="11"/>
       <c r="G15" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H15" s="6">
         <v>13</v>
@@ -2452,7 +2452,7 @@
       </c>
       <c r="N15" s="6"/>
       <c r="O15" s="37" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P15" s="6" t="s">
         <v>19</v>
@@ -2461,16 +2461,16 @@
         <v>6</v>
       </c>
       <c r="R15" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="S15" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="S15" s="6" t="s">
-        <v>217</v>
-      </c>
       <c r="T15" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="U15" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
@@ -2478,20 +2478,20 @@
         <v>68</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F16" s="11"/>
       <c r="G16" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H16" s="6">
         <v>14</v>
@@ -2500,7 +2500,7 @@
         <v>20</v>
       </c>
       <c r="J16" s="33" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K16" s="6" t="s">
         <v>69</v>
@@ -2513,7 +2513,7 @@
       </c>
       <c r="N16" s="6"/>
       <c r="O16" s="38" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P16" s="6" t="s">
         <v>19</v>
@@ -2522,16 +2522,16 @@
         <v>6</v>
       </c>
       <c r="R16" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="S16" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="S16" s="6" t="s">
-        <v>217</v>
-      </c>
       <c r="T16" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="U16" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
@@ -2539,20 +2539,20 @@
         <v>68</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H17" s="6">
         <v>15</v>
@@ -2561,7 +2561,7 @@
         <v>19</v>
       </c>
       <c r="J17" s="33" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K17" s="6" t="s">
         <v>69</v>
@@ -2573,7 +2573,7 @@
         <v>37</v>
       </c>
       <c r="O17" s="38" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P17" s="6" t="s">
         <v>19</v>
@@ -2582,16 +2582,16 @@
         <v>6</v>
       </c>
       <c r="R17" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="S17" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="S17" s="25" t="s">
-        <v>217</v>
-      </c>
       <c r="T17" s="26" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="U17" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
@@ -2599,18 +2599,18 @@
         <v>68</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E18" s="33"/>
       <c r="F18" s="12"/>
       <c r="G18" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H18" s="6">
         <v>16</v>
@@ -2619,7 +2619,7 @@
         <v>19</v>
       </c>
       <c r="J18" s="39" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K18" s="6" t="s">
         <v>69</v>
@@ -2631,7 +2631,7 @@
         <v>45</v>
       </c>
       <c r="O18" s="33" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="P18" s="6" t="s">
         <v>19</v>
@@ -2640,16 +2640,16 @@
         <v>6</v>
       </c>
       <c r="R18" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="S18" s="25" t="s">
         <v>225</v>
       </c>
-      <c r="S18" s="25" t="s">
-        <v>226</v>
-      </c>
       <c r="T18" s="26" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="U18" s="25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
@@ -2657,16 +2657,16 @@
         <v>68</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E19" s="33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F19" s="12"/>
       <c r="G19" s="11" t="s">
@@ -2679,7 +2679,7 @@
         <v>20</v>
       </c>
       <c r="J19" s="35" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K19" s="6" t="s">
         <v>69</v>
@@ -2701,16 +2701,16 @@
         <v>6</v>
       </c>
       <c r="R19" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="S19" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="S19" s="25" t="s">
-        <v>217</v>
-      </c>
       <c r="T19" s="26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="U19" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
@@ -2718,16 +2718,16 @@
         <v>68</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F20" s="12"/>
       <c r="G20" s="11" t="s">
@@ -2740,7 +2740,7 @@
         <v>20</v>
       </c>
       <c r="J20" s="35" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K20" s="6" t="s">
         <v>69</v>
@@ -2753,7 +2753,7 @@
       </c>
       <c r="N20" s="6"/>
       <c r="O20" s="33" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="P20" s="6" t="s">
         <v>19</v>
@@ -2762,16 +2762,16 @@
         <v>6</v>
       </c>
       <c r="R20" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="S20" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="S20" s="25" t="s">
-        <v>217</v>
-      </c>
       <c r="T20" s="26" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="U20" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
@@ -2779,20 +2779,20 @@
         <v>68</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E21" s="33" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F21" s="12"/>
       <c r="G21" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H21" s="6">
         <v>19</v>
@@ -2801,7 +2801,7 @@
         <v>20</v>
       </c>
       <c r="J21" s="35" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K21" s="6" t="s">
         <v>69</v>
@@ -2814,7 +2814,7 @@
       </c>
       <c r="N21" s="6"/>
       <c r="O21" s="33" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P21" s="6" t="s">
         <v>19</v>
@@ -2823,16 +2823,16 @@
         <v>6</v>
       </c>
       <c r="R21" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="S21" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="S21" s="25" t="s">
-        <v>217</v>
-      </c>
       <c r="T21" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="U21" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
@@ -2840,20 +2840,20 @@
         <v>68</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H22" s="6">
         <v>20</v>
@@ -2875,7 +2875,7 @@
       </c>
       <c r="N22" s="6"/>
       <c r="O22" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P22" s="6" t="s">
         <v>19</v>
@@ -2884,16 +2884,16 @@
         <v>6</v>
       </c>
       <c r="R22" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="S22" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="S22" s="25" t="s">
-        <v>217</v>
-      </c>
       <c r="T22" s="26" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="U22" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
@@ -2901,20 +2901,20 @@
         <v>68</v>
       </c>
       <c r="B23" s="47" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C23" s="47" t="s">
         <v>90</v>
       </c>
       <c r="D23" s="48" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E23" s="49" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F23" s="50"/>
       <c r="G23" s="49" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="H23" s="50">
         <v>21</v>
@@ -2923,7 +2923,7 @@
         <v>20</v>
       </c>
       <c r="J23" s="51" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K23" s="50" t="s">
         <v>69</v>
@@ -2936,7 +2936,7 @@
       </c>
       <c r="N23" s="50"/>
       <c r="O23" s="49" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="P23" s="50" t="s">
         <v>19</v>
@@ -2945,16 +2945,16 @@
         <v>6</v>
       </c>
       <c r="R23" s="50" t="s">
+        <v>215</v>
+      </c>
+      <c r="S23" s="50" t="s">
         <v>216</v>
       </c>
-      <c r="S23" s="50" t="s">
-        <v>217</v>
-      </c>
       <c r="T23" s="50" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="U23" s="50" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="30" x14ac:dyDescent="0.25">
@@ -2962,18 +2962,18 @@
         <v>68</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C24" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E24" s="15"/>
       <c r="F24" s="12"/>
       <c r="G24" s="15" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="H24" s="6">
         <v>22</v>
@@ -2982,7 +2982,7 @@
         <v>19</v>
       </c>
       <c r="J24" s="15" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K24" s="6" t="s">
         <v>70</v>
@@ -2998,19 +2998,19 @@
         <v>19</v>
       </c>
       <c r="Q24" s="52" t="s">
+        <v>258</v>
+      </c>
+      <c r="R24" s="52" t="s">
+        <v>257</v>
+      </c>
+      <c r="S24" s="52" t="s">
+        <v>256</v>
+      </c>
+      <c r="T24" s="52" t="s">
+        <v>255</v>
+      </c>
+      <c r="U24" s="52" t="s">
         <v>259</v>
-      </c>
-      <c r="R24" s="52" t="s">
-        <v>258</v>
-      </c>
-      <c r="S24" s="52" t="s">
-        <v>257</v>
-      </c>
-      <c r="T24" s="52" t="s">
-        <v>256</v>
-      </c>
-      <c r="U24" s="52" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
@@ -3018,16 +3018,16 @@
         <v>68</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C25" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F25" s="12"/>
       <c r="G25" s="11" t="s">
@@ -3040,7 +3040,7 @@
         <v>20</v>
       </c>
       <c r="J25" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K25" s="6" t="s">
         <v>69</v>
@@ -3062,16 +3062,16 @@
         <v>6</v>
       </c>
       <c r="R25" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="S25" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="S25" s="25" t="s">
-        <v>217</v>
-      </c>
       <c r="T25" s="26" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="U25" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
@@ -3079,16 +3079,16 @@
         <v>68</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F26" s="12"/>
       <c r="G26" s="11" t="s">
@@ -3101,7 +3101,7 @@
         <v>20</v>
       </c>
       <c r="J26" s="15" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K26" s="6" t="s">
         <v>70</v>
@@ -3123,10 +3123,10 @@
         <v>99</v>
       </c>
       <c r="S26" s="6" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="T26" s="6" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="U26" s="6" t="s">
         <v>100</v>
@@ -3137,16 +3137,16 @@
         <v>68</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E27" s="33" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F27" s="12"/>
       <c r="G27" s="11" t="s">
@@ -3159,7 +3159,7 @@
         <v>20</v>
       </c>
       <c r="J27" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K27" s="6" t="s">
         <v>70</v>
@@ -3195,16 +3195,16 @@
         <v>68</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E28" s="33" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F28" s="12"/>
       <c r="G28" s="11" t="s">
@@ -3217,7 +3217,7 @@
         <v>20</v>
       </c>
       <c r="J28" s="15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K28" s="6" t="s">
         <v>70</v>
@@ -3253,20 +3253,20 @@
         <v>68</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C29" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F29" s="11"/>
       <c r="G29" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H29" s="6">
         <v>27</v>
@@ -3275,7 +3275,7 @@
         <v>20</v>
       </c>
       <c r="J29" s="15" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K29" s="6" t="s">
         <v>70</v>
@@ -3311,20 +3311,20 @@
         <v>68</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C30" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F30" s="11"/>
       <c r="G30" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H30" s="6">
         <v>28</v>
@@ -3333,7 +3333,7 @@
         <v>20</v>
       </c>
       <c r="J30" s="15" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K30" s="6" t="s">
         <v>70</v>
@@ -3369,20 +3369,20 @@
         <v>68</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C31" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F31" s="11"/>
       <c r="G31" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H31" s="6">
         <v>29</v>
@@ -3391,7 +3391,7 @@
         <v>20</v>
       </c>
       <c r="J31" s="15" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K31" s="6" t="s">
         <v>70</v>
@@ -3427,20 +3427,20 @@
         <v>68</v>
       </c>
       <c r="B32" s="47" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C32" s="47" t="s">
         <v>90</v>
       </c>
       <c r="D32" s="53" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E32" s="46" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F32" s="46"/>
       <c r="G32" s="49" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H32" s="50">
         <v>30</v>
@@ -3449,7 +3449,7 @@
         <v>20</v>
       </c>
       <c r="J32" s="49" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K32" s="50" t="s">
         <v>69</v>
@@ -3462,7 +3462,7 @@
       </c>
       <c r="N32" s="50"/>
       <c r="O32" s="49" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="P32" s="50" t="s">
         <v>19</v>
@@ -3471,16 +3471,16 @@
         <v>6</v>
       </c>
       <c r="R32" s="50" t="s">
+        <v>215</v>
+      </c>
+      <c r="S32" s="50" t="s">
         <v>216</v>
       </c>
-      <c r="S32" s="50" t="s">
-        <v>217</v>
-      </c>
       <c r="T32" s="50" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="U32" s="50" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
@@ -3488,13 +3488,13 @@
         <v>68</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C33" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E33" s="14"/>
       <c r="F33" s="12"/>
@@ -3520,7 +3520,7 @@
         <v>36</v>
       </c>
       <c r="O33" s="33" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="P33" s="6" t="s">
         <v>19</v>
@@ -3529,16 +3529,16 @@
         <v>6</v>
       </c>
       <c r="R33" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="S33" s="25" t="s">
         <v>225</v>
       </c>
-      <c r="S33" s="25" t="s">
-        <v>226</v>
-      </c>
       <c r="T33" s="26" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="U33" s="25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
@@ -3546,20 +3546,20 @@
         <v>68</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C34" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E34" s="33" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F34" s="12"/>
       <c r="G34" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H34" s="6">
         <v>32</v>
@@ -3568,7 +3568,7 @@
         <v>19</v>
       </c>
       <c r="J34" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K34" s="6" t="s">
         <v>69</v>
@@ -3589,16 +3589,16 @@
         <v>6</v>
       </c>
       <c r="R34" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="S34" s="25" t="s">
         <v>225</v>
       </c>
-      <c r="S34" s="25" t="s">
-        <v>226</v>
-      </c>
       <c r="T34" s="26" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="U34" s="25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
@@ -3606,16 +3606,16 @@
         <v>68</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C35" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E35" s="33" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F35" s="12"/>
       <c r="G35" s="11" t="s">
@@ -3628,7 +3628,7 @@
         <v>20</v>
       </c>
       <c r="J35" s="33" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K35" s="6" t="s">
         <v>69</v>
@@ -3641,7 +3641,7 @@
       </c>
       <c r="N35" s="6"/>
       <c r="O35" s="33" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="P35" s="6" t="s">
         <v>19</v>
@@ -3650,16 +3650,16 @@
         <v>6</v>
       </c>
       <c r="R35" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="S35" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="S35" s="25" t="s">
-        <v>217</v>
-      </c>
       <c r="T35" s="26" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="U35" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.25">
@@ -3667,20 +3667,20 @@
         <v>68</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C36" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F36" s="13"/>
       <c r="G36" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H36" s="6">
         <v>34</v>
@@ -3689,7 +3689,7 @@
         <v>20</v>
       </c>
       <c r="J36" s="36" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K36" s="6" t="s">
         <v>69</v>
@@ -3701,7 +3701,7 @@
         <v>45</v>
       </c>
       <c r="O36" s="33" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="P36" s="6" t="s">
         <v>19</v>
@@ -3710,16 +3710,16 @@
         <v>6</v>
       </c>
       <c r="R36" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="S36" s="25" t="s">
         <v>225</v>
       </c>
-      <c r="S36" s="25" t="s">
-        <v>226</v>
-      </c>
       <c r="T36" s="26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="U36" s="25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
@@ -3727,16 +3727,16 @@
         <v>68</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C37" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F37" s="13"/>
       <c r="G37" s="11" t="s">
@@ -3749,7 +3749,7 @@
         <v>20</v>
       </c>
       <c r="J37" s="33" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K37" s="6" t="s">
         <v>69</v>
@@ -3762,7 +3762,7 @@
       </c>
       <c r="N37" s="6"/>
       <c r="O37" s="33" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="P37" s="6" t="s">
         <v>19</v>
@@ -3771,16 +3771,16 @@
         <v>6</v>
       </c>
       <c r="R37" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="S37" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="S37" s="25" t="s">
-        <v>217</v>
-      </c>
       <c r="T37" s="26" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="U37" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
@@ -3788,16 +3788,16 @@
         <v>68</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C38" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E38" s="18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F38" s="12"/>
       <c r="G38" s="19" t="s">
@@ -3822,7 +3822,7 @@
         <v>40</v>
       </c>
       <c r="O38" s="33" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="P38" s="6" t="s">
         <v>19</v>
@@ -3831,16 +3831,16 @@
         <v>6</v>
       </c>
       <c r="R38" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="S38" s="25" t="s">
         <v>225</v>
       </c>
-      <c r="S38" s="25" t="s">
-        <v>226</v>
-      </c>
       <c r="T38" s="26" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="U38" s="25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
@@ -3848,20 +3848,20 @@
         <v>68</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C39" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F39" s="12"/>
       <c r="G39" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H39" s="6">
         <v>37</v>
@@ -3870,7 +3870,7 @@
         <v>19</v>
       </c>
       <c r="J39" s="33" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K39" s="6" t="s">
         <v>69</v>
@@ -3882,7 +3882,7 @@
         <v>46</v>
       </c>
       <c r="O39" s="36" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="P39" s="6" t="s">
         <v>19</v>
@@ -3891,16 +3891,16 @@
         <v>6</v>
       </c>
       <c r="R39" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="S39" s="25" t="s">
         <v>225</v>
       </c>
-      <c r="S39" s="25" t="s">
-        <v>226</v>
-      </c>
       <c r="T39" s="26" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="U39" s="25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
@@ -3908,16 +3908,16 @@
         <v>68</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C40" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F40" s="12"/>
       <c r="G40" s="11" t="s">
@@ -3943,7 +3943,7 @@
       </c>
       <c r="N40" s="6"/>
       <c r="O40" s="33" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="P40" s="6" t="s">
         <v>19</v>
@@ -3952,16 +3952,16 @@
         <v>6</v>
       </c>
       <c r="R40" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="S40" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="S40" s="25" t="s">
-        <v>217</v>
-      </c>
       <c r="T40" s="26" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="U40" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
@@ -3969,20 +3969,20 @@
         <v>68</v>
       </c>
       <c r="B41" s="47" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C41" s="47" t="s">
         <v>90</v>
       </c>
       <c r="D41" s="48" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E41" s="49" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F41" s="47"/>
       <c r="G41" s="46" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H41" s="50">
         <v>39</v>
@@ -3991,7 +3991,7 @@
         <v>20</v>
       </c>
       <c r="J41" s="54" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K41" s="50" t="s">
         <v>69</v>
@@ -4004,7 +4004,7 @@
       </c>
       <c r="N41" s="50"/>
       <c r="O41" s="54" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="P41" s="50" t="s">
         <v>19</v>
@@ -4013,16 +4013,16 @@
         <v>6</v>
       </c>
       <c r="R41" s="50" t="s">
+        <v>215</v>
+      </c>
+      <c r="S41" s="50" t="s">
         <v>216</v>
       </c>
-      <c r="S41" s="50" t="s">
-        <v>217</v>
-      </c>
       <c r="T41" s="50" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="U41" s="50" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
@@ -4030,18 +4030,18 @@
         <v>68</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C42" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E42" s="23"/>
       <c r="F42" s="24"/>
       <c r="G42" s="11" t="s">
-        <v>132</v>
+        <v>298</v>
       </c>
       <c r="H42" s="6">
         <v>40</v>
@@ -4050,7 +4050,7 @@
         <v>19</v>
       </c>
       <c r="J42" s="33" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="K42" s="16" t="s">
         <v>69</v>
@@ -4063,7 +4063,7 @@
         <v>45</v>
       </c>
       <c r="O42" s="33" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="P42" s="16" t="s">
         <v>19</v>
@@ -4072,16 +4072,16 @@
         <v>6</v>
       </c>
       <c r="R42" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="S42" s="25" t="s">
         <v>225</v>
       </c>
-      <c r="S42" s="25" t="s">
-        <v>226</v>
-      </c>
       <c r="T42" s="26" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="U42" s="25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
@@ -4089,18 +4089,18 @@
         <v>68</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C43" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E43" s="23"/>
       <c r="F43" s="24"/>
       <c r="G43" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H43" s="6">
         <v>41</v>
@@ -4109,7 +4109,7 @@
         <v>20</v>
       </c>
       <c r="J43" s="33" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K43" s="16" t="s">
         <v>69</v>
@@ -4122,7 +4122,7 @@
       </c>
       <c r="N43" s="20"/>
       <c r="O43" s="33" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="P43" s="16" t="s">
         <v>19</v>
@@ -4131,16 +4131,16 @@
         <v>6</v>
       </c>
       <c r="R43" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="S43" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="S43" s="25" t="s">
-        <v>217</v>
-      </c>
       <c r="T43" s="26" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="U43" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
@@ -4148,18 +4148,18 @@
         <v>68</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C44" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E44" s="23"/>
       <c r="F44" s="24"/>
       <c r="G44" s="39" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H44" s="6">
         <v>42</v>
@@ -4168,7 +4168,7 @@
         <v>20</v>
       </c>
       <c r="J44" s="39" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K44" s="22" t="s">
         <v>69</v>
@@ -4190,16 +4190,16 @@
         <v>6</v>
       </c>
       <c r="R44" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="S44" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="S44" s="25" t="s">
-        <v>217</v>
-      </c>
       <c r="T44" s="26" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="U44" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
@@ -4207,18 +4207,18 @@
         <v>68</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C45" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E45" s="23"/>
       <c r="F45" s="24"/>
       <c r="G45" s="39" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H45" s="6">
         <v>43</v>
@@ -4227,7 +4227,7 @@
         <v>20</v>
       </c>
       <c r="J45" s="35" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K45" s="21" t="s">
         <v>69</v>
@@ -4240,7 +4240,7 @@
       </c>
       <c r="N45" s="21"/>
       <c r="O45" s="35" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="P45" s="22" t="s">
         <v>19</v>
@@ -4249,16 +4249,16 @@
         <v>6</v>
       </c>
       <c r="R45" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="S45" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="S45" s="25" t="s">
-        <v>217</v>
-      </c>
       <c r="T45" s="26" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="U45" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.25">
@@ -4266,13 +4266,13 @@
         <v>68</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C46" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E46" s="33"/>
       <c r="F46" s="12"/>
@@ -4286,7 +4286,7 @@
         <v>20</v>
       </c>
       <c r="J46" s="33" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K46" s="6" t="s">
         <v>69</v>
@@ -4306,13 +4306,13 @@
         <v>68</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C47" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E47" s="33"/>
       <c r="F47" s="12"/>
@@ -4346,16 +4346,16 @@
         <v>6</v>
       </c>
       <c r="R47" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="S47" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="S47" s="25" t="s">
-        <v>217</v>
-      </c>
       <c r="T47" s="26" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="U47" s="43" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="48" spans="1:21" s="40" customFormat="1" x14ac:dyDescent="0.25">
@@ -4363,13 +4363,13 @@
         <v>68</v>
       </c>
       <c r="B48" s="48" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C48" s="47" t="s">
         <v>90</v>
       </c>
       <c r="D48" s="48" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E48" s="48"/>
       <c r="F48" s="48"/>
@@ -4381,7 +4381,7 @@
         <v>20</v>
       </c>
       <c r="J48" s="48" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K48" s="47" t="s">
         <v>69</v>
@@ -4394,7 +4394,7 @@
       </c>
       <c r="N48" s="48"/>
       <c r="O48" s="48" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="P48" s="47" t="s">
         <v>20</v>
@@ -4403,16 +4403,16 @@
         <v>6</v>
       </c>
       <c r="R48" s="47" t="s">
+        <v>215</v>
+      </c>
+      <c r="S48" s="47" t="s">
         <v>216</v>
       </c>
-      <c r="S48" s="47" t="s">
-        <v>217</v>
-      </c>
       <c r="T48" s="47" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="U48" s="55" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="49" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
@@ -11995,6 +11995,18 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="G1:G2"/>
@@ -12003,18 +12015,6 @@
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="K1:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion01/Escaleta_LE_08_01_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion01/Escaleta_LE_08_01_CO.xlsx
@@ -567,10 +567,6 @@
     <t>Identifica y jerarquiza la información más relevante de un texto para ampliar su comprensión a partir de la intencionalidad.</t>
   </si>
   <si>
-    <t xml:space="preserve">Aplica todas las etapas de la escritura en la elaboración de un anuncio publicitario con criterios cercanos a los de una publicación
-</t>
-  </si>
-  <si>
     <t>Se sugiere al autor invitar a los estudiantes a observar un anuncio publicitario de algún producto para que a partir de él, realicen cuatro preguntas, con respuesta libre.</t>
   </si>
   <si>
@@ -869,9 +865,6 @@
   </si>
   <si>
     <t xml:space="preserve">Interactivo para analizar un anuncio publicitario </t>
-  </si>
-  <si>
-    <t>Interactivo para diseñar un anuncio publicitario</t>
   </si>
   <si>
     <t>Actividad para completar un texto relacionado con el anuncio publicitario</t>
@@ -989,6 +982,12 @@
   </si>
   <si>
     <t xml:space="preserve">Actividad para interpretar y analizar fragmentos literarios de la época Precolombina </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Las etapas de la escritura para elaborar un anuncio publicitario </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interactivo para diseñar un anuncio publicitario con criterios cercanos a los de una publicación </t>
   </si>
 </sst>
 </file>
@@ -1567,7 +1566,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J50" sqref="J50"/>
+      <selection pane="bottomLeft" activeCell="J53" sqref="J53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1690,13 +1689,13 @@
         <v>68</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E3" s="14"/>
       <c r="F3" s="12"/>
@@ -1732,16 +1731,16 @@
         <v>6</v>
       </c>
       <c r="R3" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="S3" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="S3" s="6" t="s">
+      <c r="T3" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="T3" s="6" t="s">
+      <c r="U3" s="6" t="s">
         <v>217</v>
-      </c>
-      <c r="U3" s="6" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1749,13 +1748,13 @@
         <v>68</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="12"/>
@@ -1791,16 +1790,16 @@
         <v>6</v>
       </c>
       <c r="R4" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="S4" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="S4" s="6" t="s">
-        <v>216</v>
-      </c>
       <c r="T4" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="U4" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
@@ -1808,13 +1807,13 @@
         <v>68</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="12"/>
@@ -1850,16 +1849,16 @@
         <v>6</v>
       </c>
       <c r="R5" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="S5" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="S5" s="6" t="s">
-        <v>216</v>
-      </c>
       <c r="T5" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="U5" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
@@ -1867,13 +1866,13 @@
         <v>68</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="12"/>
@@ -1909,16 +1908,16 @@
         <v>6</v>
       </c>
       <c r="R6" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="S6" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="S6" s="6" t="s">
-        <v>216</v>
-      </c>
       <c r="T6" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="U6" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
@@ -1926,13 +1925,13 @@
         <v>68</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="12"/>
@@ -1946,7 +1945,7 @@
         <v>20</v>
       </c>
       <c r="J7" s="33" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K7" s="6" t="s">
         <v>69</v>
@@ -1959,7 +1958,7 @@
       </c>
       <c r="N7" s="6"/>
       <c r="O7" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P7" s="6" t="s">
         <v>19</v>
@@ -1968,16 +1967,16 @@
         <v>6</v>
       </c>
       <c r="R7" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="S7" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="S7" s="6" t="s">
-        <v>216</v>
-      </c>
       <c r="T7" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="U7" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
@@ -1985,13 +1984,13 @@
         <v>68</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="12"/>
@@ -2027,16 +2026,16 @@
         <v>6</v>
       </c>
       <c r="R8" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="S8" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="S8" s="6" t="s">
-        <v>216</v>
-      </c>
       <c r="T8" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="U8" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2044,16 +2043,16 @@
         <v>68</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="11" t="s">
@@ -2066,7 +2065,7 @@
         <v>19</v>
       </c>
       <c r="J9" s="41" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K9" s="6" t="s">
         <v>69</v>
@@ -2078,7 +2077,7 @@
         <v>36</v>
       </c>
       <c r="O9" s="41" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="P9" s="6" t="s">
         <v>19</v>
@@ -2087,16 +2086,16 @@
         <v>6</v>
       </c>
       <c r="R9" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="S9" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="S9" s="6" t="s">
+      <c r="T9" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="T9" s="6" t="s">
+      <c r="U9" s="6" t="s">
         <v>226</v>
-      </c>
-      <c r="U9" s="6" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="60" x14ac:dyDescent="0.25">
@@ -2104,19 +2103,19 @@
         <v>68</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E10" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="F10" s="11" t="s">
         <v>184</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>185</v>
       </c>
       <c r="G10" s="11" t="s">
         <v>159</v>
@@ -2141,7 +2140,7 @@
       </c>
       <c r="N10" s="6"/>
       <c r="O10" s="42" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="P10" s="6" t="s">
         <v>20</v>
@@ -2150,16 +2149,16 @@
         <v>6</v>
       </c>
       <c r="R10" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="S10" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="S10" s="6" t="s">
-        <v>216</v>
-      </c>
       <c r="T10" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="U10" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="60" x14ac:dyDescent="0.25">
@@ -2167,19 +2166,19 @@
         <v>68</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E11" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="F11" s="11" t="s">
         <v>184</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>185</v>
       </c>
       <c r="G11" s="11" t="s">
         <v>113</v>
@@ -2212,16 +2211,16 @@
         <v>6</v>
       </c>
       <c r="R11" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="S11" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="S11" s="6" t="s">
-        <v>225</v>
-      </c>
       <c r="T11" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="U11" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="60" x14ac:dyDescent="0.25">
@@ -2229,22 +2228,22 @@
         <v>68</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E12" s="35" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G12" s="44" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H12" s="6">
         <v>10</v>
@@ -2275,16 +2274,16 @@
         <v>6</v>
       </c>
       <c r="R12" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="S12" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="S12" s="6" t="s">
-        <v>216</v>
-      </c>
       <c r="T12" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="U12" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
@@ -2292,19 +2291,19 @@
         <v>68</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E13" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="F13" s="11" t="s">
         <v>187</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>188</v>
       </c>
       <c r="G13" s="11" t="s">
         <v>93</v>
@@ -2329,7 +2328,7 @@
       </c>
       <c r="N13" s="6"/>
       <c r="O13" s="37" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="P13" s="6" t="s">
         <v>19</v>
@@ -2338,16 +2337,16 @@
         <v>6</v>
       </c>
       <c r="R13" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="S13" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="S13" s="6" t="s">
-        <v>216</v>
-      </c>
       <c r="T13" s="6" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="U13" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
@@ -2355,19 +2354,19 @@
         <v>68</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E14" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="F14" s="11" t="s">
         <v>187</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>188</v>
       </c>
       <c r="G14" s="11" t="s">
         <v>146</v>
@@ -2400,16 +2399,16 @@
         <v>6</v>
       </c>
       <c r="R14" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="S14" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="S14" s="6" t="s">
-        <v>225</v>
-      </c>
       <c r="T14" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="U14" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
@@ -2417,16 +2416,16 @@
         <v>68</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F15" s="11"/>
       <c r="G15" s="11" t="s">
@@ -2461,16 +2460,16 @@
         <v>6</v>
       </c>
       <c r="R15" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="S15" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="S15" s="6" t="s">
-        <v>216</v>
-      </c>
       <c r="T15" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="U15" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
@@ -2478,16 +2477,16 @@
         <v>68</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F16" s="11"/>
       <c r="G16" s="11" t="s">
@@ -2522,16 +2521,16 @@
         <v>6</v>
       </c>
       <c r="R16" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="S16" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="S16" s="6" t="s">
-        <v>216</v>
-      </c>
       <c r="T16" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="U16" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
@@ -2539,16 +2538,16 @@
         <v>68</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="11" t="s">
@@ -2573,7 +2572,7 @@
         <v>37</v>
       </c>
       <c r="O17" s="38" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="P17" s="6" t="s">
         <v>19</v>
@@ -2582,16 +2581,16 @@
         <v>6</v>
       </c>
       <c r="R17" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="S17" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="S17" s="25" t="s">
-        <v>216</v>
-      </c>
       <c r="T17" s="26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="U17" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
@@ -2599,13 +2598,13 @@
         <v>68</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E18" s="33"/>
       <c r="F18" s="12"/>
@@ -2619,7 +2618,7 @@
         <v>19</v>
       </c>
       <c r="J18" s="39" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K18" s="6" t="s">
         <v>69</v>
@@ -2640,16 +2639,16 @@
         <v>6</v>
       </c>
       <c r="R18" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="S18" s="25" t="s">
         <v>224</v>
       </c>
-      <c r="S18" s="25" t="s">
-        <v>225</v>
-      </c>
       <c r="T18" s="26" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="U18" s="25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
@@ -2657,16 +2656,16 @@
         <v>68</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E19" s="33" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F19" s="12"/>
       <c r="G19" s="11" t="s">
@@ -2679,7 +2678,7 @@
         <v>20</v>
       </c>
       <c r="J19" s="35" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K19" s="6" t="s">
         <v>69</v>
@@ -2701,16 +2700,16 @@
         <v>6</v>
       </c>
       <c r="R19" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="S19" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="S19" s="25" t="s">
-        <v>216</v>
-      </c>
       <c r="T19" s="26" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="U19" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
@@ -2718,16 +2717,16 @@
         <v>68</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F20" s="12"/>
       <c r="G20" s="11" t="s">
@@ -2762,16 +2761,16 @@
         <v>6</v>
       </c>
       <c r="R20" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="S20" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="S20" s="25" t="s">
-        <v>216</v>
-      </c>
       <c r="T20" s="26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="U20" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
@@ -2779,16 +2778,16 @@
         <v>68</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E21" s="33" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F21" s="12"/>
       <c r="G21" s="11" t="s">
@@ -2801,7 +2800,7 @@
         <v>20</v>
       </c>
       <c r="J21" s="35" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K21" s="6" t="s">
         <v>69</v>
@@ -2823,16 +2822,16 @@
         <v>6</v>
       </c>
       <c r="R21" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="S21" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="S21" s="25" t="s">
-        <v>216</v>
-      </c>
       <c r="T21" s="26" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="U21" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
@@ -2840,16 +2839,16 @@
         <v>68</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="15" t="s">
@@ -2884,16 +2883,16 @@
         <v>6</v>
       </c>
       <c r="R22" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="S22" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="S22" s="25" t="s">
-        <v>216</v>
-      </c>
       <c r="T22" s="26" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="U22" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
@@ -2901,20 +2900,20 @@
         <v>68</v>
       </c>
       <c r="B23" s="47" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C23" s="47" t="s">
         <v>90</v>
       </c>
       <c r="D23" s="48" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E23" s="49" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F23" s="50"/>
       <c r="G23" s="49" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="H23" s="50">
         <v>21</v>
@@ -2923,7 +2922,7 @@
         <v>20</v>
       </c>
       <c r="J23" s="51" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K23" s="50" t="s">
         <v>69</v>
@@ -2936,7 +2935,7 @@
       </c>
       <c r="N23" s="50"/>
       <c r="O23" s="49" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="P23" s="50" t="s">
         <v>19</v>
@@ -2945,16 +2944,16 @@
         <v>6</v>
       </c>
       <c r="R23" s="50" t="s">
+        <v>214</v>
+      </c>
+      <c r="S23" s="50" t="s">
         <v>215</v>
       </c>
-      <c r="S23" s="50" t="s">
-        <v>216</v>
-      </c>
       <c r="T23" s="50" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="U23" s="50" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="30" x14ac:dyDescent="0.25">
@@ -2962,18 +2961,18 @@
         <v>68</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C24" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E24" s="15"/>
       <c r="F24" s="12"/>
       <c r="G24" s="15" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H24" s="6">
         <v>22</v>
@@ -2982,7 +2981,7 @@
         <v>19</v>
       </c>
       <c r="J24" s="15" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K24" s="6" t="s">
         <v>70</v>
@@ -2998,19 +2997,19 @@
         <v>19</v>
       </c>
       <c r="Q24" s="52" t="s">
+        <v>257</v>
+      </c>
+      <c r="R24" s="52" t="s">
+        <v>256</v>
+      </c>
+      <c r="S24" s="52" t="s">
+        <v>255</v>
+      </c>
+      <c r="T24" s="52" t="s">
+        <v>254</v>
+      </c>
+      <c r="U24" s="52" t="s">
         <v>258</v>
-      </c>
-      <c r="R24" s="52" t="s">
-        <v>257</v>
-      </c>
-      <c r="S24" s="52" t="s">
-        <v>256</v>
-      </c>
-      <c r="T24" s="52" t="s">
-        <v>255</v>
-      </c>
-      <c r="U24" s="52" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
@@ -3018,16 +3017,16 @@
         <v>68</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C25" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F25" s="12"/>
       <c r="G25" s="11" t="s">
@@ -3040,7 +3039,7 @@
         <v>20</v>
       </c>
       <c r="J25" s="15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K25" s="6" t="s">
         <v>69</v>
@@ -3062,16 +3061,16 @@
         <v>6</v>
       </c>
       <c r="R25" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="S25" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="S25" s="25" t="s">
-        <v>216</v>
-      </c>
       <c r="T25" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="U25" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
@@ -3079,16 +3078,16 @@
         <v>68</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F26" s="12"/>
       <c r="G26" s="11" t="s">
@@ -3101,7 +3100,7 @@
         <v>20</v>
       </c>
       <c r="J26" s="15" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K26" s="6" t="s">
         <v>70</v>
@@ -3123,10 +3122,10 @@
         <v>99</v>
       </c>
       <c r="S26" s="6" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="T26" s="6" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="U26" s="6" t="s">
         <v>100</v>
@@ -3137,16 +3136,16 @@
         <v>68</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E27" s="33" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F27" s="12"/>
       <c r="G27" s="11" t="s">
@@ -3159,7 +3158,7 @@
         <v>20</v>
       </c>
       <c r="J27" s="15" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K27" s="6" t="s">
         <v>70</v>
@@ -3195,16 +3194,16 @@
         <v>68</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E28" s="33" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F28" s="12"/>
       <c r="G28" s="11" t="s">
@@ -3217,7 +3216,7 @@
         <v>20</v>
       </c>
       <c r="J28" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K28" s="6" t="s">
         <v>70</v>
@@ -3253,16 +3252,16 @@
         <v>68</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C29" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F29" s="11"/>
       <c r="G29" s="15" t="s">
@@ -3275,7 +3274,7 @@
         <v>20</v>
       </c>
       <c r="J29" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K29" s="6" t="s">
         <v>70</v>
@@ -3311,16 +3310,16 @@
         <v>68</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C30" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F30" s="11"/>
       <c r="G30" s="15" t="s">
@@ -3333,7 +3332,7 @@
         <v>20</v>
       </c>
       <c r="J30" s="15" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K30" s="6" t="s">
         <v>70</v>
@@ -3369,16 +3368,16 @@
         <v>68</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C31" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F31" s="11"/>
       <c r="G31" s="15" t="s">
@@ -3391,7 +3390,7 @@
         <v>20</v>
       </c>
       <c r="J31" s="15" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K31" s="6" t="s">
         <v>70</v>
@@ -3427,20 +3426,20 @@
         <v>68</v>
       </c>
       <c r="B32" s="47" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C32" s="47" t="s">
         <v>90</v>
       </c>
       <c r="D32" s="53" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E32" s="46" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F32" s="46"/>
       <c r="G32" s="49" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H32" s="50">
         <v>30</v>
@@ -3449,7 +3448,7 @@
         <v>20</v>
       </c>
       <c r="J32" s="49" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K32" s="50" t="s">
         <v>69</v>
@@ -3462,7 +3461,7 @@
       </c>
       <c r="N32" s="50"/>
       <c r="O32" s="49" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="P32" s="50" t="s">
         <v>19</v>
@@ -3471,16 +3470,16 @@
         <v>6</v>
       </c>
       <c r="R32" s="50" t="s">
+        <v>214</v>
+      </c>
+      <c r="S32" s="50" t="s">
         <v>215</v>
       </c>
-      <c r="S32" s="50" t="s">
-        <v>216</v>
-      </c>
       <c r="T32" s="50" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="U32" s="50" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
@@ -3488,13 +3487,13 @@
         <v>68</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C33" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E33" s="14"/>
       <c r="F33" s="12"/>
@@ -3520,7 +3519,7 @@
         <v>36</v>
       </c>
       <c r="O33" s="33" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="P33" s="6" t="s">
         <v>19</v>
@@ -3529,16 +3528,16 @@
         <v>6</v>
       </c>
       <c r="R33" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="S33" s="25" t="s">
         <v>224</v>
       </c>
-      <c r="S33" s="25" t="s">
-        <v>225</v>
-      </c>
       <c r="T33" s="26" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="U33" s="25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
@@ -3546,16 +3545,16 @@
         <v>68</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C34" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E34" s="33" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F34" s="12"/>
       <c r="G34" s="11" t="s">
@@ -3568,7 +3567,7 @@
         <v>19</v>
       </c>
       <c r="J34" s="33" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K34" s="6" t="s">
         <v>69</v>
@@ -3589,16 +3588,16 @@
         <v>6</v>
       </c>
       <c r="R34" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="S34" s="25" t="s">
         <v>224</v>
       </c>
-      <c r="S34" s="25" t="s">
-        <v>225</v>
-      </c>
       <c r="T34" s="26" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="U34" s="25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
@@ -3606,16 +3605,16 @@
         <v>68</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C35" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E35" s="33" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F35" s="12"/>
       <c r="G35" s="11" t="s">
@@ -3628,7 +3627,7 @@
         <v>20</v>
       </c>
       <c r="J35" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K35" s="6" t="s">
         <v>69</v>
@@ -3641,7 +3640,7 @@
       </c>
       <c r="N35" s="6"/>
       <c r="O35" s="33" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="P35" s="6" t="s">
         <v>19</v>
@@ -3650,16 +3649,16 @@
         <v>6</v>
       </c>
       <c r="R35" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="S35" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="S35" s="25" t="s">
-        <v>216</v>
-      </c>
       <c r="T35" s="26" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="U35" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.25">
@@ -3667,16 +3666,16 @@
         <v>68</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C36" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F36" s="13"/>
       <c r="G36" s="11" t="s">
@@ -3689,7 +3688,7 @@
         <v>20</v>
       </c>
       <c r="J36" s="36" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K36" s="6" t="s">
         <v>69</v>
@@ -3701,7 +3700,7 @@
         <v>45</v>
       </c>
       <c r="O36" s="33" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P36" s="6" t="s">
         <v>19</v>
@@ -3710,16 +3709,16 @@
         <v>6</v>
       </c>
       <c r="R36" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="S36" s="25" t="s">
         <v>224</v>
       </c>
-      <c r="S36" s="25" t="s">
-        <v>225</v>
-      </c>
       <c r="T36" s="26" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="U36" s="25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
@@ -3727,16 +3726,16 @@
         <v>68</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C37" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F37" s="13"/>
       <c r="G37" s="11" t="s">
@@ -3762,7 +3761,7 @@
       </c>
       <c r="N37" s="6"/>
       <c r="O37" s="33" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="P37" s="6" t="s">
         <v>19</v>
@@ -3771,16 +3770,16 @@
         <v>6</v>
       </c>
       <c r="R37" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="S37" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="S37" s="25" t="s">
-        <v>216</v>
-      </c>
       <c r="T37" s="26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="U37" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
@@ -3788,16 +3787,16 @@
         <v>68</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C38" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E38" s="18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F38" s="12"/>
       <c r="G38" s="19" t="s">
@@ -3822,7 +3821,7 @@
         <v>40</v>
       </c>
       <c r="O38" s="33" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="P38" s="6" t="s">
         <v>19</v>
@@ -3831,16 +3830,16 @@
         <v>6</v>
       </c>
       <c r="R38" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="S38" s="25" t="s">
         <v>224</v>
       </c>
-      <c r="S38" s="25" t="s">
-        <v>225</v>
-      </c>
       <c r="T38" s="26" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="U38" s="25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
@@ -3848,20 +3847,20 @@
         <v>68</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C39" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F39" s="12"/>
       <c r="G39" s="11" t="s">
-        <v>175</v>
+        <v>298</v>
       </c>
       <c r="H39" s="6">
         <v>37</v>
@@ -3870,7 +3869,7 @@
         <v>19</v>
       </c>
       <c r="J39" s="33" t="s">
-        <v>270</v>
+        <v>299</v>
       </c>
       <c r="K39" s="6" t="s">
         <v>69</v>
@@ -3882,7 +3881,7 @@
         <v>46</v>
       </c>
       <c r="O39" s="36" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="P39" s="6" t="s">
         <v>19</v>
@@ -3891,16 +3890,16 @@
         <v>6</v>
       </c>
       <c r="R39" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="S39" s="25" t="s">
         <v>224</v>
       </c>
-      <c r="S39" s="25" t="s">
-        <v>225</v>
-      </c>
       <c r="T39" s="26" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="U39" s="25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
@@ -3908,16 +3907,16 @@
         <v>68</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C40" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F40" s="12"/>
       <c r="G40" s="11" t="s">
@@ -3943,7 +3942,7 @@
       </c>
       <c r="N40" s="6"/>
       <c r="O40" s="33" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="P40" s="6" t="s">
         <v>19</v>
@@ -3952,16 +3951,16 @@
         <v>6</v>
       </c>
       <c r="R40" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="S40" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="S40" s="25" t="s">
-        <v>216</v>
-      </c>
       <c r="T40" s="26" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="U40" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
@@ -3969,20 +3968,20 @@
         <v>68</v>
       </c>
       <c r="B41" s="47" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C41" s="47" t="s">
         <v>90</v>
       </c>
       <c r="D41" s="48" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E41" s="49" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F41" s="47"/>
       <c r="G41" s="46" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H41" s="50">
         <v>39</v>
@@ -3991,7 +3990,7 @@
         <v>20</v>
       </c>
       <c r="J41" s="54" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="K41" s="50" t="s">
         <v>69</v>
@@ -4004,7 +4003,7 @@
       </c>
       <c r="N41" s="50"/>
       <c r="O41" s="54" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="P41" s="50" t="s">
         <v>19</v>
@@ -4013,16 +4012,16 @@
         <v>6</v>
       </c>
       <c r="R41" s="50" t="s">
+        <v>214</v>
+      </c>
+      <c r="S41" s="50" t="s">
         <v>215</v>
       </c>
-      <c r="S41" s="50" t="s">
-        <v>216</v>
-      </c>
       <c r="T41" s="50" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="U41" s="50" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
@@ -4030,18 +4029,18 @@
         <v>68</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C42" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E42" s="23"/>
       <c r="F42" s="24"/>
       <c r="G42" s="11" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H42" s="6">
         <v>40</v>
@@ -4050,7 +4049,7 @@
         <v>19</v>
       </c>
       <c r="J42" s="33" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K42" s="16" t="s">
         <v>69</v>
@@ -4063,7 +4062,7 @@
         <v>45</v>
       </c>
       <c r="O42" s="33" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="P42" s="16" t="s">
         <v>19</v>
@@ -4072,16 +4071,16 @@
         <v>6</v>
       </c>
       <c r="R42" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="S42" s="25" t="s">
         <v>224</v>
       </c>
-      <c r="S42" s="25" t="s">
-        <v>225</v>
-      </c>
       <c r="T42" s="26" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="U42" s="25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
@@ -4089,13 +4088,13 @@
         <v>68</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C43" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E43" s="23"/>
       <c r="F43" s="24"/>
@@ -4122,7 +4121,7 @@
       </c>
       <c r="N43" s="20"/>
       <c r="O43" s="33" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="P43" s="16" t="s">
         <v>19</v>
@@ -4131,16 +4130,16 @@
         <v>6</v>
       </c>
       <c r="R43" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="S43" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="S43" s="25" t="s">
-        <v>216</v>
-      </c>
       <c r="T43" s="26" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="U43" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
@@ -4148,13 +4147,13 @@
         <v>68</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C44" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E44" s="23"/>
       <c r="F44" s="24"/>
@@ -4190,16 +4189,16 @@
         <v>6</v>
       </c>
       <c r="R44" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="S44" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="S44" s="25" t="s">
-        <v>216</v>
-      </c>
       <c r="T44" s="26" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="U44" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
@@ -4207,13 +4206,13 @@
         <v>68</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C45" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E45" s="23"/>
       <c r="F45" s="24"/>
@@ -4227,7 +4226,7 @@
         <v>20</v>
       </c>
       <c r="J45" s="35" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K45" s="21" t="s">
         <v>69</v>
@@ -4240,7 +4239,7 @@
       </c>
       <c r="N45" s="21"/>
       <c r="O45" s="35" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="P45" s="22" t="s">
         <v>19</v>
@@ -4249,16 +4248,16 @@
         <v>6</v>
       </c>
       <c r="R45" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="S45" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="S45" s="25" t="s">
-        <v>216</v>
-      </c>
       <c r="T45" s="26" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="U45" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.25">
@@ -4266,13 +4265,13 @@
         <v>68</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C46" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E46" s="33"/>
       <c r="F46" s="12"/>
@@ -4306,13 +4305,13 @@
         <v>68</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C47" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E47" s="33"/>
       <c r="F47" s="12"/>
@@ -4346,16 +4345,16 @@
         <v>6</v>
       </c>
       <c r="R47" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="S47" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="S47" s="25" t="s">
-        <v>216</v>
-      </c>
       <c r="T47" s="26" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="U47" s="43" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="48" spans="1:21" s="40" customFormat="1" x14ac:dyDescent="0.25">
@@ -4363,13 +4362,13 @@
         <v>68</v>
       </c>
       <c r="B48" s="48" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C48" s="47" t="s">
         <v>90</v>
       </c>
       <c r="D48" s="48" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E48" s="48"/>
       <c r="F48" s="48"/>
@@ -4381,7 +4380,7 @@
         <v>20</v>
       </c>
       <c r="J48" s="48" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K48" s="47" t="s">
         <v>69</v>
@@ -4394,7 +4393,7 @@
       </c>
       <c r="N48" s="48"/>
       <c r="O48" s="48" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="P48" s="47" t="s">
         <v>20</v>
@@ -4403,16 +4402,16 @@
         <v>6</v>
       </c>
       <c r="R48" s="47" t="s">
+        <v>214</v>
+      </c>
+      <c r="S48" s="47" t="s">
         <v>215</v>
       </c>
-      <c r="S48" s="47" t="s">
-        <v>216</v>
-      </c>
       <c r="T48" s="47" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="U48" s="55" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="49" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
@@ -11995,18 +11994,6 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="G1:G2"/>
@@ -12015,6 +12002,18 @@
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="K1:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion01/Escaleta_LE_08_01_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion01/Escaleta_LE_08_01_CO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AULA PLANETA\PROCESO JUNIO 2015\GRADO OCTAVO\LE_08_01_CO\EDICIÓN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis\Documents\GitHub\Lenguaje\fuentes\contenidos\grado08\guion01\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -695,9 +695,6 @@
     <t>Recurso F6-02</t>
   </si>
   <si>
-    <t>Recurso F4-01</t>
-  </si>
-  <si>
     <t>Recurso M3A-01</t>
   </si>
   <si>
@@ -984,6 +981,9 @@
   </si>
   <si>
     <t>Actividad para evaluar los conocimientos del estudiante sobre el anuncio publicitario; la literatura precolombina, las oraciones reflexivas y recíprocas y el hiato, el diptongo y el triptongo</t>
+  </si>
+  <si>
+    <t>Recurso F13B-02</t>
   </si>
 </sst>
 </file>
@@ -1303,17 +1303,17 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1602,9 +1602,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U553"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T39" sqref="T39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1633,101 +1633,101 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="70" t="s">
+      <c r="C1" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="70" t="s">
+      <c r="D1" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="70" t="s">
+      <c r="E1" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="70" t="s">
+      <c r="F1" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="70" t="s">
+      <c r="G1" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="70" t="s">
+      <c r="H1" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="70" t="s">
+      <c r="I1" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="69" t="s">
+      <c r="J1" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="70" t="s">
+      <c r="K1" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="70" t="s">
+      <c r="L1" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="70" t="s">
+      <c r="M1" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70" t="s">
+      <c r="N1" s="71"/>
+      <c r="O1" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="70" t="s">
+      <c r="P1" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="70" t="s">
+      <c r="Q1" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="70" t="s">
+      <c r="R1" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="70" t="s">
+      <c r="S1" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="70" t="s">
+      <c r="T1" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="70" t="s">
+      <c r="U1" s="71" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
+      <c r="A2" s="71"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
       <c r="M2" s="16" t="s">
         <v>86</v>
       </c>
       <c r="N2" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="70"/>
+      <c r="O2" s="71"/>
+      <c r="P2" s="71"/>
+      <c r="Q2" s="71"/>
+      <c r="R2" s="71"/>
+      <c r="S2" s="71"/>
+      <c r="T2" s="71"/>
+      <c r="U2" s="71"/>
     </row>
     <row r="3" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>68</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>90</v>
@@ -1738,7 +1738,7 @@
       <c r="E3" s="14"/>
       <c r="F3" s="12"/>
       <c r="G3" s="35" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H3" s="6">
         <v>1</v>
@@ -1747,7 +1747,7 @@
         <v>20</v>
       </c>
       <c r="J3" s="36" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K3" s="6" t="s">
         <v>69</v>
@@ -1786,7 +1786,7 @@
         <v>68</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>90</v>
@@ -1797,7 +1797,7 @@
       <c r="E4" s="14"/>
       <c r="F4" s="12"/>
       <c r="G4" s="35" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H4" s="6">
         <v>2</v>
@@ -1845,7 +1845,7 @@
         <v>68</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>90</v>
@@ -1856,7 +1856,7 @@
       <c r="E5" s="14"/>
       <c r="F5" s="12"/>
       <c r="G5" s="35" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H5" s="6">
         <v>3</v>
@@ -1865,7 +1865,7 @@
         <v>20</v>
       </c>
       <c r="J5" s="36" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K5" s="6" t="s">
         <v>69</v>
@@ -1904,7 +1904,7 @@
         <v>68</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>90</v>
@@ -1915,7 +1915,7 @@
       <c r="E6" s="14"/>
       <c r="F6" s="12"/>
       <c r="G6" s="35" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H6" s="6">
         <v>4</v>
@@ -1924,7 +1924,7 @@
         <v>20</v>
       </c>
       <c r="J6" s="58" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K6" s="6" t="s">
         <v>69</v>
@@ -1963,7 +1963,7 @@
         <v>68</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>90</v>
@@ -1974,7 +1974,7 @@
       <c r="E7" s="14"/>
       <c r="F7" s="12"/>
       <c r="G7" s="35" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H7" s="6">
         <v>5</v>
@@ -1983,7 +1983,7 @@
         <v>20</v>
       </c>
       <c r="J7" s="58" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K7" s="6" t="s">
         <v>69</v>
@@ -2022,7 +2022,7 @@
         <v>68</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>90</v>
@@ -2033,7 +2033,7 @@
       <c r="E8" s="14"/>
       <c r="F8" s="12"/>
       <c r="G8" s="35" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H8" s="6">
         <v>6</v>
@@ -2042,7 +2042,7 @@
         <v>20</v>
       </c>
       <c r="J8" s="58" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K8" s="6" t="s">
         <v>69</v>
@@ -2081,7 +2081,7 @@
         <v>68</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>90</v>
@@ -2089,7 +2089,7 @@
       <c r="D9" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="E9" s="71" t="s">
+      <c r="E9" s="69" t="s">
         <v>157</v>
       </c>
       <c r="F9" s="11"/>
@@ -2103,7 +2103,7 @@
         <v>19</v>
       </c>
       <c r="J9" s="58" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K9" s="6" t="s">
         <v>69</v>
@@ -2115,7 +2115,7 @@
         <v>36</v>
       </c>
       <c r="O9" s="32" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="P9" s="6" t="s">
         <v>19</v>
@@ -2141,7 +2141,7 @@
         <v>68</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>90</v>
@@ -2204,7 +2204,7 @@
         <v>68</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>90</v>
@@ -2228,7 +2228,7 @@
         <v>19</v>
       </c>
       <c r="J11" s="45" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K11" s="6" t="s">
         <v>69</v>
@@ -2266,7 +2266,7 @@
         <v>68</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>90</v>
@@ -2281,7 +2281,7 @@
         <v>159</v>
       </c>
       <c r="G12" s="35" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H12" s="6">
         <v>10</v>
@@ -2318,7 +2318,7 @@
         <v>188</v>
       </c>
       <c r="T12" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="U12" s="6" t="s">
         <v>190</v>
@@ -2329,7 +2329,7 @@
         <v>68</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>90</v>
@@ -2366,7 +2366,7 @@
       </c>
       <c r="N13" s="6"/>
       <c r="O13" s="29" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="P13" s="6" t="s">
         <v>19</v>
@@ -2381,7 +2381,7 @@
         <v>188</v>
       </c>
       <c r="T13" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="U13" s="6" t="s">
         <v>190</v>
@@ -2392,7 +2392,7 @@
         <v>68</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>90</v>
@@ -2454,7 +2454,7 @@
         <v>68</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>90</v>
@@ -2466,7 +2466,7 @@
         <v>162</v>
       </c>
       <c r="F15" s="11"/>
-      <c r="G15" s="72" t="s">
+      <c r="G15" s="70" t="s">
         <v>133</v>
       </c>
       <c r="H15" s="6">
@@ -2515,7 +2515,7 @@
         <v>68</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>90</v>
@@ -2527,7 +2527,7 @@
         <v>162</v>
       </c>
       <c r="F16" s="11"/>
-      <c r="G16" s="72" t="s">
+      <c r="G16" s="70" t="s">
         <v>134</v>
       </c>
       <c r="H16" s="6">
@@ -2537,7 +2537,7 @@
         <v>20</v>
       </c>
       <c r="J16" s="63" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K16" s="6" t="s">
         <v>69</v>
@@ -2576,7 +2576,7 @@
         <v>68</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>90</v>
@@ -2588,7 +2588,7 @@
         <v>162</v>
       </c>
       <c r="F17" s="11"/>
-      <c r="G17" s="72" t="s">
+      <c r="G17" s="70" t="s">
         <v>148</v>
       </c>
       <c r="H17" s="6">
@@ -2598,7 +2598,7 @@
         <v>19</v>
       </c>
       <c r="J17" s="61" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K17" s="6" t="s">
         <v>69</v>
@@ -2636,7 +2636,7 @@
         <v>68</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>90</v>
@@ -2656,7 +2656,7 @@
         <v>19</v>
       </c>
       <c r="J18" s="35" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K18" s="6" t="s">
         <v>69</v>
@@ -2694,7 +2694,7 @@
         <v>68</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>90</v>
@@ -2716,7 +2716,7 @@
         <v>20</v>
       </c>
       <c r="J19" s="62" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K19" s="6" t="s">
         <v>69</v>
@@ -2755,7 +2755,7 @@
         <v>68</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>90</v>
@@ -2777,7 +2777,7 @@
         <v>20</v>
       </c>
       <c r="J20" s="58" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K20" s="6" t="s">
         <v>69</v>
@@ -2816,7 +2816,7 @@
         <v>68</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>90</v>
@@ -2838,7 +2838,7 @@
         <v>20</v>
       </c>
       <c r="J21" s="62" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K21" s="6" t="s">
         <v>69</v>
@@ -2877,7 +2877,7 @@
         <v>68</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>90</v>
@@ -2889,8 +2889,8 @@
         <v>162</v>
       </c>
       <c r="F22" s="6"/>
-      <c r="G22" s="72" t="s">
-        <v>263</v>
+      <c r="G22" s="70" t="s">
+        <v>262</v>
       </c>
       <c r="H22" s="6">
         <v>20</v>
@@ -2927,7 +2927,7 @@
         <v>188</v>
       </c>
       <c r="T22" s="19" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="U22" s="18" t="s">
         <v>190</v>
@@ -2938,7 +2938,7 @@
         <v>68</v>
       </c>
       <c r="B23" s="41" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C23" s="41" t="s">
         <v>90</v>
@@ -2951,7 +2951,7 @@
       </c>
       <c r="F23" s="37"/>
       <c r="G23" s="36" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H23" s="37">
         <v>21</v>
@@ -2960,7 +2960,7 @@
         <v>20</v>
       </c>
       <c r="J23" s="58" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K23" s="37" t="s">
         <v>69</v>
@@ -2973,7 +2973,7 @@
       </c>
       <c r="N23" s="37"/>
       <c r="O23" s="39" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="P23" s="37" t="s">
         <v>19</v>
@@ -2988,7 +2988,7 @@
         <v>188</v>
       </c>
       <c r="T23" s="37" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="U23" s="34" t="s">
         <v>190</v>
@@ -2999,7 +2999,7 @@
         <v>68</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C24" s="12" t="s">
         <v>90</v>
@@ -3010,7 +3010,7 @@
       <c r="E24" s="15"/>
       <c r="F24" s="12"/>
       <c r="G24" s="11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H24" s="6">
         <v>22</v>
@@ -3019,7 +3019,7 @@
         <v>19</v>
       </c>
       <c r="J24" s="58" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K24" s="6" t="s">
         <v>70</v>
@@ -3035,19 +3035,19 @@
         <v>19</v>
       </c>
       <c r="Q24" s="34" t="s">
+        <v>229</v>
+      </c>
+      <c r="R24" s="34" t="s">
+        <v>228</v>
+      </c>
+      <c r="S24" s="34" t="s">
+        <v>227</v>
+      </c>
+      <c r="T24" s="34" t="s">
+        <v>226</v>
+      </c>
+      <c r="U24" s="34" t="s">
         <v>230</v>
-      </c>
-      <c r="R24" s="34" t="s">
-        <v>229</v>
-      </c>
-      <c r="S24" s="34" t="s">
-        <v>228</v>
-      </c>
-      <c r="T24" s="34" t="s">
-        <v>227</v>
-      </c>
-      <c r="U24" s="34" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="30" x14ac:dyDescent="0.25">
@@ -3055,7 +3055,7 @@
         <v>68</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C25" s="12" t="s">
         <v>90</v>
@@ -3116,7 +3116,7 @@
         <v>68</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>90</v>
@@ -3129,7 +3129,7 @@
       </c>
       <c r="F26" s="12"/>
       <c r="G26" s="36" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H26" s="6">
         <v>24</v>
@@ -3138,7 +3138,7 @@
         <v>20</v>
       </c>
       <c r="J26" s="58" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K26" s="6" t="s">
         <v>70</v>
@@ -3160,10 +3160,10 @@
         <v>99</v>
       </c>
       <c r="S26" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="T26" s="6" t="s">
         <v>242</v>
-      </c>
-      <c r="T26" s="6" t="s">
-        <v>243</v>
       </c>
       <c r="U26" s="6" t="s">
         <v>100</v>
@@ -3174,7 +3174,7 @@
         <v>68</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>90</v>
@@ -3196,7 +3196,7 @@
         <v>20</v>
       </c>
       <c r="J27" s="58" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="K27" s="6" t="s">
         <v>70</v>
@@ -3232,7 +3232,7 @@
         <v>68</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>90</v>
@@ -3290,7 +3290,7 @@
         <v>68</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C29" s="12" t="s">
         <v>90</v>
@@ -3303,7 +3303,7 @@
       </c>
       <c r="F29" s="11"/>
       <c r="G29" s="58" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H29" s="6">
         <v>27</v>
@@ -3312,7 +3312,7 @@
         <v>20</v>
       </c>
       <c r="J29" s="58" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K29" s="6" t="s">
         <v>70</v>
@@ -3348,7 +3348,7 @@
         <v>68</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C30" s="12" t="s">
         <v>90</v>
@@ -3361,7 +3361,7 @@
       </c>
       <c r="F30" s="11"/>
       <c r="G30" s="58" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H30" s="6">
         <v>28</v>
@@ -3370,7 +3370,7 @@
         <v>20</v>
       </c>
       <c r="J30" s="58" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="K30" s="6" t="s">
         <v>70</v>
@@ -3406,7 +3406,7 @@
         <v>68</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C31" s="12" t="s">
         <v>90</v>
@@ -3428,7 +3428,7 @@
         <v>20</v>
       </c>
       <c r="J31" s="58" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K31" s="6" t="s">
         <v>70</v>
@@ -3464,7 +3464,7 @@
         <v>68</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>90</v>
@@ -3477,7 +3477,7 @@
       </c>
       <c r="F32" s="11"/>
       <c r="G32" s="61" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H32" s="6">
         <v>30</v>
@@ -3486,7 +3486,7 @@
         <v>20</v>
       </c>
       <c r="J32" s="61" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K32" s="6" t="s">
         <v>69</v>
@@ -3499,7 +3499,7 @@
       </c>
       <c r="N32" s="6"/>
       <c r="O32" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="P32" s="6" t="s">
         <v>19</v>
@@ -3514,7 +3514,7 @@
         <v>188</v>
       </c>
       <c r="T32" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="U32" s="6" t="s">
         <v>190</v>
@@ -3525,7 +3525,7 @@
         <v>68</v>
       </c>
       <c r="B33" s="41" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C33" s="41" t="s">
         <v>90</v>
@@ -3584,7 +3584,7 @@
         <v>68</v>
       </c>
       <c r="B34" s="41" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C34" s="41" t="s">
         <v>90</v>
@@ -3597,7 +3597,7 @@
       </c>
       <c r="F34" s="41"/>
       <c r="G34" s="36" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H34" s="37">
         <v>32</v>
@@ -3606,7 +3606,7 @@
         <v>19</v>
       </c>
       <c r="J34" s="63" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K34" s="37" t="s">
         <v>69</v>
@@ -3616,7 +3616,7 @@
       </c>
       <c r="M34" s="37"/>
       <c r="N34" s="37" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="O34" s="46" t="s">
         <v>121</v>
@@ -3634,7 +3634,7 @@
         <v>197</v>
       </c>
       <c r="T34" s="48" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="U34" s="47" t="s">
         <v>199</v>
@@ -3645,7 +3645,7 @@
         <v>68</v>
       </c>
       <c r="B35" s="41" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C35" s="41" t="s">
         <v>90</v>
@@ -3658,7 +3658,7 @@
       </c>
       <c r="F35" s="41"/>
       <c r="G35" s="36" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H35" s="37">
         <v>33</v>
@@ -3667,7 +3667,7 @@
         <v>20</v>
       </c>
       <c r="J35" s="63" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K35" s="37" t="s">
         <v>69</v>
@@ -3695,7 +3695,7 @@
         <v>188</v>
       </c>
       <c r="T35" s="48" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="U35" s="47" t="s">
         <v>190</v>
@@ -3706,7 +3706,7 @@
         <v>68</v>
       </c>
       <c r="B36" s="41" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C36" s="41" t="s">
         <v>90</v>
@@ -3728,7 +3728,7 @@
         <v>20</v>
       </c>
       <c r="J36" s="64" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K36" s="37" t="s">
         <v>69</v>
@@ -3756,7 +3756,7 @@
         <v>197</v>
       </c>
       <c r="T36" s="48" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="U36" s="47" t="s">
         <v>199</v>
@@ -3767,7 +3767,7 @@
         <v>68</v>
       </c>
       <c r="B37" s="41" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C37" s="41" t="s">
         <v>90</v>
@@ -3817,7 +3817,7 @@
         <v>188</v>
       </c>
       <c r="T37" s="48" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="U37" s="47" t="s">
         <v>190</v>
@@ -3828,7 +3828,7 @@
         <v>68</v>
       </c>
       <c r="B38" s="41" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C38" s="41" t="s">
         <v>90</v>
@@ -3878,7 +3878,7 @@
         <v>197</v>
       </c>
       <c r="T38" s="48" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="U38" s="47" t="s">
         <v>199</v>
@@ -3889,7 +3889,7 @@
         <v>68</v>
       </c>
       <c r="B39" s="41" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C39" s="41" t="s">
         <v>90</v>
@@ -3902,7 +3902,7 @@
       </c>
       <c r="F39" s="41"/>
       <c r="G39" s="45" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H39" s="37">
         <v>37</v>
@@ -3911,7 +3911,7 @@
         <v>19</v>
       </c>
       <c r="J39" s="63" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K39" s="37" t="s">
         <v>69</v>
@@ -3939,7 +3939,7 @@
         <v>197</v>
       </c>
       <c r="T39" s="48" t="s">
-        <v>217</v>
+        <v>298</v>
       </c>
       <c r="U39" s="47" t="s">
         <v>199</v>
@@ -3950,7 +3950,7 @@
         <v>68</v>
       </c>
       <c r="B40" s="41" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C40" s="41" t="s">
         <v>90</v>
@@ -3972,7 +3972,7 @@
         <v>20</v>
       </c>
       <c r="J40" s="63" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K40" s="37" t="s">
         <v>69</v>
@@ -4000,7 +4000,7 @@
         <v>188</v>
       </c>
       <c r="T40" s="48" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="U40" s="47" t="s">
         <v>190</v>
@@ -4011,7 +4011,7 @@
         <v>68</v>
       </c>
       <c r="B41" s="41" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C41" s="41" t="s">
         <v>90</v>
@@ -4024,7 +4024,7 @@
       </c>
       <c r="F41" s="41"/>
       <c r="G41" s="45" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H41" s="37">
         <v>39</v>
@@ -4033,7 +4033,7 @@
         <v>20</v>
       </c>
       <c r="J41" s="63" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K41" s="37" t="s">
         <v>69</v>
@@ -4046,7 +4046,7 @@
       </c>
       <c r="N41" s="37"/>
       <c r="O41" s="46" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="P41" s="37" t="s">
         <v>19</v>
@@ -4061,7 +4061,7 @@
         <v>188</v>
       </c>
       <c r="T41" s="37" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="U41" s="37" t="s">
         <v>190</v>
@@ -4072,7 +4072,7 @@
         <v>68</v>
       </c>
       <c r="B42" s="41" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C42" s="41" t="s">
         <v>90</v>
@@ -4083,7 +4083,7 @@
       <c r="E42" s="52"/>
       <c r="F42" s="53"/>
       <c r="G42" s="36" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H42" s="37">
         <v>40</v>
@@ -4092,7 +4092,7 @@
         <v>19</v>
       </c>
       <c r="J42" s="67" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K42" s="54" t="s">
         <v>69</v>
@@ -4120,7 +4120,7 @@
         <v>197</v>
       </c>
       <c r="T42" s="48" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="U42" s="47" t="s">
         <v>199</v>
@@ -4131,7 +4131,7 @@
         <v>68</v>
       </c>
       <c r="B43" s="41" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C43" s="41" t="s">
         <v>90</v>
@@ -4142,7 +4142,7 @@
       <c r="E43" s="52"/>
       <c r="F43" s="53"/>
       <c r="G43" s="36" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H43" s="37">
         <v>41</v>
@@ -4151,7 +4151,7 @@
         <v>20</v>
       </c>
       <c r="J43" s="45" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K43" s="54" t="s">
         <v>69</v>
@@ -4179,7 +4179,7 @@
         <v>188</v>
       </c>
       <c r="T43" s="48" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="U43" s="47" t="s">
         <v>190</v>
@@ -4190,7 +4190,7 @@
         <v>68</v>
       </c>
       <c r="B44" s="41" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C44" s="41" t="s">
         <v>90</v>
@@ -4201,7 +4201,7 @@
       <c r="E44" s="52"/>
       <c r="F44" s="53"/>
       <c r="G44" s="35" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H44" s="37">
         <v>42</v>
@@ -4238,7 +4238,7 @@
         <v>188</v>
       </c>
       <c r="T44" s="48" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="U44" s="47" t="s">
         <v>190</v>
@@ -4249,7 +4249,7 @@
         <v>68</v>
       </c>
       <c r="B45" s="41" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C45" s="41" t="s">
         <v>90</v>
@@ -4260,7 +4260,7 @@
       <c r="E45" s="52"/>
       <c r="F45" s="53"/>
       <c r="G45" s="35" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H45" s="37">
         <v>43</v>
@@ -4269,7 +4269,7 @@
         <v>20</v>
       </c>
       <c r="J45" s="68" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K45" s="56" t="s">
         <v>69</v>
@@ -4297,7 +4297,7 @@
         <v>188</v>
       </c>
       <c r="T45" s="48" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="U45" s="47" t="s">
         <v>190</v>
@@ -4308,13 +4308,13 @@
         <v>68</v>
       </c>
       <c r="B46" s="41" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C46" s="41" t="s">
         <v>90</v>
       </c>
       <c r="D46" s="42" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E46" s="46"/>
       <c r="F46" s="41"/>
@@ -4349,13 +4349,13 @@
         <v>68</v>
       </c>
       <c r="B47" s="41" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C47" s="41" t="s">
         <v>90</v>
       </c>
       <c r="D47" s="42" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E47" s="46"/>
       <c r="F47" s="41"/>
@@ -4369,7 +4369,7 @@
         <v>20</v>
       </c>
       <c r="J47" s="63" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K47" s="37" t="s">
         <v>69</v>
@@ -4395,7 +4395,7 @@
         <v>188</v>
       </c>
       <c r="T47" s="48" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="U47" s="59" t="s">
         <v>190</v>
@@ -4406,13 +4406,13 @@
         <v>68</v>
       </c>
       <c r="B48" s="42" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C48" s="41" t="s">
         <v>90</v>
       </c>
       <c r="D48" s="42" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E48" s="42"/>
       <c r="F48" s="42"/>
@@ -4435,7 +4435,7 @@
       </c>
       <c r="N48" s="42"/>
       <c r="O48" s="42" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="P48" s="41" t="s">
         <v>20</v>
@@ -4450,7 +4450,7 @@
         <v>188</v>
       </c>
       <c r="T48" s="41" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="U48" s="60" t="s">
         <v>190</v>
@@ -12548,6 +12548,18 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="G1:G2"/>
@@ -12556,18 +12568,6 @@
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="K1:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion01/Escaleta_LE_08_01_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion01/Escaleta_LE_08_01_CO.xlsx
@@ -869,9 +869,6 @@
     <t>Lectura - comprensión textual: Determina las características del anuncio publicitario</t>
   </si>
   <si>
-    <t>Lectura - comprensión textual: Las palabras y expresiones publicitarias</t>
-  </si>
-  <si>
     <t>Lectura - producción textual: Explica los elementos de un anuncio publicitario</t>
   </si>
   <si>
@@ -905,9 +902,6 @@
     <t>Comprensión textual: Relaciona el anuncio publicitario con el receptor del mensaje</t>
   </si>
   <si>
-    <t>Producción textual: Reconoce las características para producir un anuncio publicitario</t>
-  </si>
-  <si>
     <t>Gramática: Analiza las oraciones reflexivas y reciprocas</t>
   </si>
   <si>
@@ -984,6 +978,12 @@
   </si>
   <si>
     <t>Recurso F13B-02</t>
+  </si>
+  <si>
+    <t>Lectura - comprensión textual: Relaciona las palabras y las expresiones publicitarias</t>
+  </si>
+  <si>
+    <t>Producción textual: Completa un anuncio publicitario</t>
   </si>
 </sst>
 </file>
@@ -1602,9 +1602,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U553"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T39" sqref="T39"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1747,7 +1747,7 @@
         <v>20</v>
       </c>
       <c r="J3" s="36" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K3" s="6" t="s">
         <v>69</v>
@@ -1865,7 +1865,7 @@
         <v>20</v>
       </c>
       <c r="J5" s="36" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K5" s="6" t="s">
         <v>69</v>
@@ -1924,7 +1924,7 @@
         <v>20</v>
       </c>
       <c r="J6" s="58" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K6" s="6" t="s">
         <v>69</v>
@@ -1974,7 +1974,7 @@
       <c r="E7" s="14"/>
       <c r="F7" s="12"/>
       <c r="G7" s="35" t="s">
-        <v>260</v>
+        <v>297</v>
       </c>
       <c r="H7" s="6">
         <v>5</v>
@@ -1983,7 +1983,7 @@
         <v>20</v>
       </c>
       <c r="J7" s="58" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="K7" s="6" t="s">
         <v>69</v>
@@ -2033,7 +2033,7 @@
       <c r="E8" s="14"/>
       <c r="F8" s="12"/>
       <c r="G8" s="35" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H8" s="6">
         <v>6</v>
@@ -2042,7 +2042,7 @@
         <v>20</v>
       </c>
       <c r="J8" s="58" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K8" s="6" t="s">
         <v>69</v>
@@ -2228,7 +2228,7 @@
         <v>19</v>
       </c>
       <c r="J11" s="45" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K11" s="6" t="s">
         <v>69</v>
@@ -2537,7 +2537,7 @@
         <v>20</v>
       </c>
       <c r="J16" s="63" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K16" s="6" t="s">
         <v>69</v>
@@ -2598,7 +2598,7 @@
         <v>19</v>
       </c>
       <c r="J17" s="61" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K17" s="6" t="s">
         <v>69</v>
@@ -2656,7 +2656,7 @@
         <v>19</v>
       </c>
       <c r="J18" s="35" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K18" s="6" t="s">
         <v>69</v>
@@ -2777,7 +2777,7 @@
         <v>20</v>
       </c>
       <c r="J20" s="58" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K20" s="6" t="s">
         <v>69</v>
@@ -2890,7 +2890,7 @@
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="70" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H22" s="6">
         <v>20</v>
@@ -2951,7 +2951,7 @@
       </c>
       <c r="F23" s="37"/>
       <c r="G23" s="36" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H23" s="37">
         <v>21</v>
@@ -2960,7 +2960,7 @@
         <v>20</v>
       </c>
       <c r="J23" s="58" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K23" s="37" t="s">
         <v>69</v>
@@ -3129,7 +3129,7 @@
       </c>
       <c r="F26" s="12"/>
       <c r="G26" s="36" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H26" s="6">
         <v>24</v>
@@ -3138,7 +3138,7 @@
         <v>20</v>
       </c>
       <c r="J26" s="58" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K26" s="6" t="s">
         <v>70</v>
@@ -3196,7 +3196,7 @@
         <v>20</v>
       </c>
       <c r="J27" s="58" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K27" s="6" t="s">
         <v>70</v>
@@ -3303,7 +3303,7 @@
       </c>
       <c r="F29" s="11"/>
       <c r="G29" s="58" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H29" s="6">
         <v>27</v>
@@ -3361,7 +3361,7 @@
       </c>
       <c r="F30" s="11"/>
       <c r="G30" s="58" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H30" s="6">
         <v>28</v>
@@ -3370,7 +3370,7 @@
         <v>20</v>
       </c>
       <c r="J30" s="58" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K30" s="6" t="s">
         <v>70</v>
@@ -3486,7 +3486,7 @@
         <v>20</v>
       </c>
       <c r="J32" s="61" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K32" s="6" t="s">
         <v>69</v>
@@ -3597,7 +3597,7 @@
       </c>
       <c r="F34" s="41"/>
       <c r="G34" s="36" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H34" s="37">
         <v>32</v>
@@ -3606,7 +3606,7 @@
         <v>19</v>
       </c>
       <c r="J34" s="63" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K34" s="37" t="s">
         <v>69</v>
@@ -3658,7 +3658,7 @@
       </c>
       <c r="F35" s="41"/>
       <c r="G35" s="36" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H35" s="37">
         <v>33</v>
@@ -3728,7 +3728,7 @@
         <v>20</v>
       </c>
       <c r="J36" s="64" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K36" s="37" t="s">
         <v>69</v>
@@ -3902,7 +3902,7 @@
       </c>
       <c r="F39" s="41"/>
       <c r="G39" s="45" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H39" s="37">
         <v>37</v>
@@ -3911,7 +3911,7 @@
         <v>19</v>
       </c>
       <c r="J39" s="63" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K39" s="37" t="s">
         <v>69</v>
@@ -3939,7 +3939,7 @@
         <v>197</v>
       </c>
       <c r="T39" s="48" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="U39" s="47" t="s">
         <v>199</v>
@@ -3972,7 +3972,7 @@
         <v>20</v>
       </c>
       <c r="J40" s="63" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K40" s="37" t="s">
         <v>69</v>
@@ -4024,7 +4024,7 @@
       </c>
       <c r="F41" s="41"/>
       <c r="G41" s="45" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H41" s="37">
         <v>39</v>
@@ -4033,7 +4033,7 @@
         <v>20</v>
       </c>
       <c r="J41" s="63" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K41" s="37" t="s">
         <v>69</v>
@@ -4083,7 +4083,7 @@
       <c r="E42" s="52"/>
       <c r="F42" s="53"/>
       <c r="G42" s="36" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H42" s="37">
         <v>40</v>
@@ -4092,7 +4092,7 @@
         <v>19</v>
       </c>
       <c r="J42" s="67" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K42" s="54" t="s">
         <v>69</v>
@@ -4142,7 +4142,7 @@
       <c r="E43" s="52"/>
       <c r="F43" s="53"/>
       <c r="G43" s="36" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H43" s="37">
         <v>41</v>
@@ -4151,7 +4151,7 @@
         <v>20</v>
       </c>
       <c r="J43" s="45" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K43" s="54" t="s">
         <v>69</v>
@@ -4201,7 +4201,7 @@
       <c r="E44" s="52"/>
       <c r="F44" s="53"/>
       <c r="G44" s="35" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H44" s="37">
         <v>42</v>
@@ -4260,7 +4260,7 @@
       <c r="E45" s="52"/>
       <c r="F45" s="53"/>
       <c r="G45" s="35" t="s">
-        <v>272</v>
+        <v>298</v>
       </c>
       <c r="H45" s="37">
         <v>43</v>
@@ -4369,7 +4369,7 @@
         <v>20</v>
       </c>
       <c r="J47" s="63" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K47" s="37" t="s">
         <v>69</v>

--- a/fuentes/contenidos/grado08/guion01/Escaleta_LE_08_01_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion01/Escaleta_LE_08_01_CO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AULA PLANETA\PROCESO JUNIO 2015\GRADO OCTAVO\LE_08_01_CO\PROCESO Y CONTROL ESCALETAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luz Amparo\Documents\GitHub\Lenguaje\fuentes\contenidos\grado08\guion01\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -857,9 +857,6 @@
     <t>Banco de actividades: El anuncio publicitario</t>
   </si>
   <si>
-    <t>Actividad que propone la identificación de las características del periodo prehispánico o época precolombina</t>
-  </si>
-  <si>
     <t>Actividad para recordar las clases de oraciones y su estructura</t>
   </si>
   <si>
@@ -872,9 +869,6 @@
     <t xml:space="preserve">Actividad para interpretar anuncios publicitarios </t>
   </si>
   <si>
-    <t>Actividad diseñada para reconocer y comentar los elementos de un anuncio publicitario</t>
-  </si>
-  <si>
     <t>Interactivo para conocer los grupos indígenas de Colombia precolombina</t>
   </si>
   <si>
@@ -884,9 +878,6 @@
     <t>Actividad para repasar algunas características del periodo prehispánico</t>
   </si>
   <si>
-    <t xml:space="preserve">Actividad para promover el conocimiento de un mito de la cultura precolombina </t>
-  </si>
-  <si>
     <t>Actividad para repasar las características de la literatura precolombina</t>
   </si>
   <si>
@@ -896,24 +887,12 @@
     <t>Actividad que promueve la comparación de las oraciones reflexivas y recíprocas</t>
   </si>
   <si>
-    <t>Actividad para afianzar los conocimientos sobre las oraciones reflexivas y recíprocas</t>
-  </si>
-  <si>
     <t>Actividad para practicar e identificar las palabras con diptongo</t>
   </si>
   <si>
-    <t xml:space="preserve">Actividad para ejercitar la diferenciación de palabras a partir de la combinación de vocales </t>
-  </si>
-  <si>
     <t>Actividad que afianza la clasificación de palabras en diptongo triptongo e hiato</t>
   </si>
   <si>
-    <t>Actividad que permite identificar y jerarquizar la información partir de la intencionalidad</t>
-  </si>
-  <si>
-    <t>Interactivo para analizar un anuncio publicitario producido por los estudiantes</t>
-  </si>
-  <si>
     <t>Interactivo que aplica un proceso para producir un anuncio publicitario</t>
   </si>
   <si>
@@ -993,6 +972,27 @@
   </si>
   <si>
     <t>Interactivo para enfatizar en leyendas precolombinas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actividad para conocer el periodo prehispánico de la época Precolombina </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actividad para comentar los elementos de un anuncio publicitario </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actividad para conocer y analizar un mito de la época precolombina </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actividad que profundiza en el tema de las oraciones reflexivas y recíprocas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actividad para comparar el diptongo, el hiato y el triptongo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interactivo para determinar las intenciones comunicativas de la publicidad </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interactivo para analizar un anuncio publicitario </t>
   </si>
 </sst>
 </file>
@@ -1129,7 +1129,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1310,10 +1310,14 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1603,8 +1607,8 @@
   <dimension ref="A1:U551"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G43" sqref="G43"/>
+      <pane ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1634,96 +1638,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="68" t="s">
+      <c r="D1" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="68" t="s">
+      <c r="E1" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="68" t="s">
+      <c r="F1" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="68" t="s">
+      <c r="G1" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="68" t="s">
+      <c r="H1" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="68" t="s">
+      <c r="I1" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="69" t="s">
+      <c r="J1" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="68" t="s">
+      <c r="K1" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="68" t="s">
+      <c r="L1" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="68" t="s">
+      <c r="M1" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68" t="s">
+      <c r="N1" s="69"/>
+      <c r="O1" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="69" t="s">
+      <c r="P1" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="68" t="s">
+      <c r="Q1" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="68" t="s">
+      <c r="R1" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="69" t="s">
+      <c r="S1" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="69" t="s">
+      <c r="T1" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="68" t="s">
+      <c r="U1" s="69" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68"/>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
       <c r="M2" s="16" t="s">
         <v>86</v>
       </c>
       <c r="N2" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="O2" s="68"/>
-      <c r="P2" s="69"/>
-      <c r="Q2" s="68"/>
-      <c r="R2" s="68"/>
-      <c r="S2" s="69"/>
-      <c r="T2" s="69"/>
-      <c r="U2" s="68"/>
-    </row>
-    <row r="3" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="O2" s="69"/>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="69"/>
+      <c r="R2" s="69"/>
+      <c r="S2" s="68"/>
+      <c r="T2" s="68"/>
+      <c r="U2" s="69"/>
+    </row>
+    <row r="3" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>68</v>
       </c>
@@ -1748,7 +1752,7 @@
         <v>20</v>
       </c>
       <c r="J3" s="52" t="s">
-        <v>256</v>
+        <v>295</v>
       </c>
       <c r="K3" s="6" t="s">
         <v>69</v>
@@ -1807,7 +1811,7 @@
         <v>20</v>
       </c>
       <c r="J4" s="52" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K4" s="6" t="s">
         <v>69</v>
@@ -1866,7 +1870,7 @@
         <v>20</v>
       </c>
       <c r="J5" s="52" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K5" s="6" t="s">
         <v>69</v>
@@ -1925,7 +1929,7 @@
         <v>20</v>
       </c>
       <c r="J6" s="54" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K6" s="6" t="s">
         <v>69</v>
@@ -1975,7 +1979,7 @@
       <c r="E7" s="14"/>
       <c r="F7" s="12"/>
       <c r="G7" s="53" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="H7" s="6">
         <v>5</v>
@@ -1984,7 +1988,7 @@
         <v>20</v>
       </c>
       <c r="J7" s="54" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K7" s="6" t="s">
         <v>69</v>
@@ -2042,8 +2046,8 @@
       <c r="I8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="54" t="s">
-        <v>261</v>
+      <c r="J8" s="70" t="s">
+        <v>296</v>
       </c>
       <c r="K8" s="6" t="s">
         <v>69</v>
@@ -2104,7 +2108,7 @@
         <v>19</v>
       </c>
       <c r="J9" s="54" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K9" s="6" t="s">
         <v>69</v>
@@ -2166,7 +2170,7 @@
         <v>20</v>
       </c>
       <c r="J10" s="54" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K10" s="6" t="s">
         <v>69</v>
@@ -2291,7 +2295,7 @@
         <v>20</v>
       </c>
       <c r="J12" s="54" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K12" s="6" t="s">
         <v>69</v>
@@ -2325,7 +2329,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>68</v>
       </c>
@@ -2353,8 +2357,8 @@
       <c r="I13" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="54" t="s">
-        <v>265</v>
+      <c r="J13" s="70" t="s">
+        <v>297</v>
       </c>
       <c r="K13" s="6" t="s">
         <v>69</v>
@@ -2408,7 +2412,7 @@
         <v>144</v>
       </c>
       <c r="G14" s="53" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="H14" s="6">
         <v>12</v>
@@ -2417,7 +2421,7 @@
         <v>19</v>
       </c>
       <c r="J14" s="54" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="K14" s="6" t="s">
         <v>69</v>
@@ -2505,7 +2509,7 @@
         <v>169</v>
       </c>
       <c r="T15" s="65" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="U15" s="6" t="s">
         <v>171</v>
@@ -2538,7 +2542,7 @@
         <v>20</v>
       </c>
       <c r="J16" s="32" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="K16" s="6" t="s">
         <v>69</v>
@@ -2590,7 +2594,7 @@
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="52" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="H17" s="6">
         <v>15</v>
@@ -2599,7 +2603,7 @@
         <v>19</v>
       </c>
       <c r="J17" s="55" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="K17" s="6" t="s">
         <v>69</v>
@@ -2717,7 +2721,7 @@
         <v>20</v>
       </c>
       <c r="J19" s="51" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="K19" s="6" t="s">
         <v>69</v>
@@ -2769,7 +2773,7 @@
       </c>
       <c r="F20" s="12"/>
       <c r="G20" s="52" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="H20" s="6">
         <v>18</v>
@@ -2778,7 +2782,7 @@
         <v>20</v>
       </c>
       <c r="J20" s="54" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="K20" s="6" t="s">
         <v>69</v>
@@ -2806,7 +2810,7 @@
         <v>169</v>
       </c>
       <c r="T20" s="67" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="U20" s="18" t="s">
         <v>171</v>
@@ -2867,7 +2871,7 @@
         <v>169</v>
       </c>
       <c r="T21" s="67" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="U21" s="18" t="s">
         <v>171</v>
@@ -2900,7 +2904,7 @@
         <v>20</v>
       </c>
       <c r="J22" s="51" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K22" s="6" t="s">
         <v>69</v>
@@ -2960,8 +2964,8 @@
       <c r="I23" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="J23" s="54" t="s">
-        <v>269</v>
+      <c r="J23" s="71" t="s">
+        <v>298</v>
       </c>
       <c r="K23" s="6" t="s">
         <v>69</v>
@@ -3078,7 +3082,7 @@
         <v>20</v>
       </c>
       <c r="J25" s="54" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="K25" s="6" t="s">
         <v>69</v>
@@ -3312,8 +3316,8 @@
       <c r="I29" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J29" s="54" t="s">
-        <v>271</v>
+      <c r="J29" s="71" t="s">
+        <v>299</v>
       </c>
       <c r="K29" s="6" t="s">
         <v>70</v>
@@ -3371,7 +3375,7 @@
         <v>20</v>
       </c>
       <c r="J30" s="54" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="K30" s="6" t="s">
         <v>70</v>
@@ -3605,8 +3609,8 @@
       <c r="I34" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="J34" s="32" t="s">
-        <v>273</v>
+      <c r="J34" s="71" t="s">
+        <v>300</v>
       </c>
       <c r="K34" s="6" t="s">
         <v>69</v>
@@ -3633,7 +3637,7 @@
         <v>177</v>
       </c>
       <c r="T34" s="67" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="U34" s="18" t="s">
         <v>179</v>
@@ -3666,7 +3670,7 @@
         <v>20</v>
       </c>
       <c r="J35" s="32" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="K35" s="6" t="s">
         <v>69</v>
@@ -3726,8 +3730,8 @@
       <c r="I36" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="J36" s="31" t="s">
-        <v>274</v>
+      <c r="J36" s="71" t="s">
+        <v>301</v>
       </c>
       <c r="K36" s="6" t="s">
         <v>69</v>
@@ -3787,7 +3791,7 @@
         <v>20</v>
       </c>
       <c r="J37" s="32" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="K37" s="6" t="s">
         <v>69</v>
@@ -3848,7 +3852,7 @@
         <v>19</v>
       </c>
       <c r="J38" s="32" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="K38" s="6" t="s">
         <v>69</v>
@@ -3908,7 +3912,7 @@
         <v>19</v>
       </c>
       <c r="J39" s="32" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="K39" s="6" t="s">
         <v>69</v>
@@ -3996,7 +4000,7 @@
         <v>169</v>
       </c>
       <c r="T40" s="67" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="U40" s="18" t="s">
         <v>171</v>
@@ -4029,7 +4033,7 @@
         <v>20</v>
       </c>
       <c r="J41" s="32" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="K41" s="34" t="s">
         <v>69</v>
@@ -4057,7 +4061,7 @@
         <v>169</v>
       </c>
       <c r="T41" s="65" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="U41" s="34" t="s">
         <v>171</v>
@@ -4088,7 +4092,7 @@
         <v>19</v>
       </c>
       <c r="J42" s="58" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="K42" s="60" t="s">
         <v>69</v>
@@ -4138,7 +4142,7 @@
       <c r="E43" s="45"/>
       <c r="F43" s="46"/>
       <c r="G43" s="52" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="H43" s="6">
         <v>41</v>
@@ -4147,7 +4151,7 @@
         <v>20</v>
       </c>
       <c r="J43" s="56" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="K43" s="60" t="s">
         <v>69</v>
@@ -4160,7 +4164,7 @@
       </c>
       <c r="N43" s="16"/>
       <c r="O43" s="41" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="P43" s="60" t="s">
         <v>19</v>
@@ -4175,7 +4179,7 @@
         <v>169</v>
       </c>
       <c r="T43" s="67" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="U43" s="18" t="s">
         <v>171</v>
@@ -4265,7 +4269,7 @@
         <v>20</v>
       </c>
       <c r="J45" s="59" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="K45" s="62" t="s">
         <v>69</v>
@@ -4315,7 +4319,7 @@
       <c r="E46" s="41"/>
       <c r="F46" s="38"/>
       <c r="G46" s="52" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="H46" s="6">
         <v>44</v>
@@ -4364,7 +4368,7 @@
         <v>20</v>
       </c>
       <c r="J47" s="32" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="K47" s="6" t="s">
         <v>69</v>
@@ -4421,7 +4425,7 @@
         <v>20</v>
       </c>
       <c r="J48" s="25" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="K48" s="38" t="s">
         <v>69</v>
@@ -13509,18 +13513,6 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="G1:G2"/>
@@ -13529,6 +13521,18 @@
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="K1:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
